--- a/AAII_Financials/Yearly/SKM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SKM_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
   <si>
     <t>SKM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,153 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42004</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41639</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41274</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40908</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>14174100</v>
+        <v>14372400</v>
       </c>
       <c r="E8" s="3">
-        <v>14716800</v>
+        <v>13667900</v>
       </c>
       <c r="F8" s="3">
-        <v>14357100</v>
+        <v>14191200</v>
       </c>
       <c r="G8" s="3">
-        <v>14394900</v>
+        <v>13844400</v>
       </c>
       <c r="H8" s="3">
-        <v>14457600</v>
+        <v>13880800</v>
       </c>
       <c r="I8" s="3">
-        <v>14002000</v>
+        <v>13941300</v>
       </c>
       <c r="J8" s="3">
+        <v>13501900</v>
+      </c>
+      <c r="K8" s="3">
         <v>13861600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>14378600</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>679100</v>
+        <v>609400</v>
       </c>
       <c r="E9" s="3">
-        <v>735000</v>
+        <v>654800</v>
       </c>
       <c r="F9" s="3">
-        <v>801600</v>
+        <v>708800</v>
       </c>
       <c r="G9" s="3">
-        <v>804400</v>
+        <v>773000</v>
       </c>
       <c r="H9" s="3">
-        <v>1172900</v>
+        <v>775700</v>
       </c>
       <c r="I9" s="3">
-        <v>1253800</v>
+        <v>1131000</v>
       </c>
       <c r="J9" s="3">
+        <v>1209000</v>
+      </c>
+      <c r="K9" s="3">
         <v>1089700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>863300</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>13495100</v>
+        <v>13763000</v>
       </c>
       <c r="E10" s="3">
-        <v>13981800</v>
+        <v>13013100</v>
       </c>
       <c r="F10" s="3">
-        <v>13555500</v>
+        <v>13482400</v>
       </c>
       <c r="G10" s="3">
-        <v>13590500</v>
+        <v>13071400</v>
       </c>
       <c r="H10" s="3">
-        <v>13284700</v>
+        <v>13105100</v>
       </c>
       <c r="I10" s="3">
-        <v>12748200</v>
+        <v>12810300</v>
       </c>
       <c r="J10" s="3">
+        <v>12292900</v>
+      </c>
+      <c r="K10" s="3">
         <v>12771900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>13515200</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,38 +824,42 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>325600</v>
+        <v>317000</v>
       </c>
       <c r="E12" s="3">
-        <v>332000</v>
+        <v>314000</v>
       </c>
       <c r="F12" s="3">
-        <v>289600</v>
+        <v>320200</v>
       </c>
       <c r="G12" s="3">
-        <v>265300</v>
+        <v>279300</v>
       </c>
       <c r="H12" s="3">
-        <v>328400</v>
+        <v>255800</v>
       </c>
       <c r="I12" s="3">
-        <v>296000</v>
+        <v>316700</v>
       </c>
       <c r="J12" s="3">
+        <v>285400</v>
+      </c>
+      <c r="K12" s="3">
         <v>255800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>244200</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -871,69 +887,78 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>217600</v>
+        <v>-1600</v>
       </c>
       <c r="E14" s="3">
-        <v>57600</v>
+        <v>209800</v>
       </c>
       <c r="F14" s="3">
-        <v>20600</v>
+        <v>55500</v>
       </c>
       <c r="G14" s="3">
-        <v>30100</v>
+        <v>19800</v>
       </c>
       <c r="H14" s="3">
-        <v>39900</v>
+        <v>29000</v>
       </c>
       <c r="I14" s="3">
-        <v>11600</v>
+        <v>38500</v>
       </c>
       <c r="J14" s="3">
+        <v>11200</v>
+      </c>
+      <c r="K14" s="3">
         <v>33500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>2700</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>2625900</v>
+        <v>3054900</v>
       </c>
       <c r="E15" s="3">
-        <v>2601900</v>
+        <v>2532200</v>
       </c>
       <c r="F15" s="3">
-        <v>2471200</v>
+        <v>2508900</v>
       </c>
       <c r="G15" s="3">
-        <v>2390000</v>
+        <v>2382900</v>
       </c>
       <c r="H15" s="3">
-        <v>2280400</v>
+        <v>2304700</v>
       </c>
       <c r="I15" s="3">
-        <v>2235800</v>
+        <v>2198900</v>
       </c>
       <c r="J15" s="3">
+        <v>2155900</v>
+      </c>
+      <c r="K15" s="3">
         <v>2043100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>2066800</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -943,68 +968,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>13382200</v>
+        <v>13471800</v>
       </c>
       <c r="E17" s="3">
-        <v>13483600</v>
+        <v>12904300</v>
       </c>
       <c r="F17" s="3">
-        <v>13087700</v>
+        <v>13002100</v>
       </c>
       <c r="G17" s="3">
-        <v>12990200</v>
+        <v>12620300</v>
       </c>
       <c r="H17" s="3">
-        <v>13107100</v>
+        <v>12526300</v>
       </c>
       <c r="I17" s="3">
-        <v>12676100</v>
+        <v>12639000</v>
       </c>
       <c r="J17" s="3">
+        <v>12223400</v>
+      </c>
+      <c r="K17" s="3">
         <v>12379700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>12408200</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>791900</v>
+        <v>900600</v>
       </c>
       <c r="E18" s="3">
-        <v>1233200</v>
+        <v>763600</v>
       </c>
       <c r="F18" s="3">
-        <v>1269400</v>
+        <v>1189100</v>
       </c>
       <c r="G18" s="3">
-        <v>1404600</v>
+        <v>1224100</v>
       </c>
       <c r="H18" s="3">
-        <v>1350600</v>
+        <v>1354500</v>
       </c>
       <c r="I18" s="3">
-        <v>1325900</v>
+        <v>1302300</v>
       </c>
       <c r="J18" s="3">
+        <v>1278500</v>
+      </c>
+      <c r="K18" s="3">
         <v>1481900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1970400</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1017,158 +1049,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>2806000</v>
+        <v>363400</v>
       </c>
       <c r="E20" s="3">
-        <v>1876800</v>
+        <v>2705800</v>
       </c>
       <c r="F20" s="3">
-        <v>735300</v>
+        <v>1809800</v>
       </c>
       <c r="G20" s="3">
-        <v>555100</v>
+        <v>709000</v>
       </c>
       <c r="H20" s="3">
-        <v>814700</v>
+        <v>535300</v>
       </c>
       <c r="I20" s="3">
-        <v>487600</v>
+        <v>785600</v>
       </c>
       <c r="J20" s="3">
+        <v>470200</v>
+      </c>
+      <c r="K20" s="3">
         <v>167300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>623100</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>6389600</v>
+        <v>4452100</v>
       </c>
       <c r="E21" s="3">
-        <v>5870400</v>
+        <v>6129800</v>
       </c>
       <c r="F21" s="3">
-        <v>4613000</v>
+        <v>5629400</v>
       </c>
       <c r="G21" s="3">
-        <v>4504200</v>
+        <v>4418700</v>
       </c>
       <c r="H21" s="3">
-        <v>4623400</v>
+        <v>4314500</v>
       </c>
       <c r="I21" s="3">
-        <v>4218800</v>
+        <v>4430400</v>
       </c>
       <c r="J21" s="3">
+        <v>4040900</v>
+      </c>
+      <c r="K21" s="3">
         <v>3870200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>4803100</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>258100</v>
+        <v>322300</v>
       </c>
       <c r="E22" s="3">
-        <v>251200</v>
+        <v>248900</v>
       </c>
       <c r="F22" s="3">
-        <v>244000</v>
+        <v>242300</v>
       </c>
       <c r="G22" s="3">
-        <v>250000</v>
+        <v>235300</v>
       </c>
       <c r="H22" s="3">
-        <v>272100</v>
+        <v>241100</v>
       </c>
       <c r="I22" s="3">
-        <v>278700</v>
+        <v>262400</v>
       </c>
       <c r="J22" s="3">
+        <v>268800</v>
+      </c>
+      <c r="K22" s="3">
         <v>346400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>576900</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>3339800</v>
+        <v>941800</v>
       </c>
       <c r="E23" s="3">
-        <v>2858700</v>
+        <v>3220500</v>
       </c>
       <c r="F23" s="3">
-        <v>1760800</v>
+        <v>2756600</v>
       </c>
       <c r="G23" s="3">
-        <v>1709700</v>
+        <v>1697900</v>
       </c>
       <c r="H23" s="3">
-        <v>1893200</v>
+        <v>1648600</v>
       </c>
       <c r="I23" s="3">
-        <v>1534800</v>
+        <v>1825600</v>
       </c>
       <c r="J23" s="3">
+        <v>1480000</v>
+      </c>
+      <c r="K23" s="3">
         <v>1302700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2016600</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>708900</v>
+        <v>243600</v>
       </c>
       <c r="E24" s="3">
-        <v>626300</v>
+        <v>683600</v>
       </c>
       <c r="F24" s="3">
-        <v>366300</v>
+        <v>604000</v>
       </c>
       <c r="G24" s="3">
-        <v>436400</v>
+        <v>353200</v>
       </c>
       <c r="H24" s="3">
-        <v>381800</v>
+        <v>420800</v>
       </c>
       <c r="I24" s="3">
-        <v>336700</v>
+        <v>368200</v>
       </c>
       <c r="J24" s="3">
+        <v>324600</v>
+      </c>
+      <c r="K24" s="3">
         <v>248500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>548100</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1196,69 +1244,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>2630900</v>
+        <v>698200</v>
       </c>
       <c r="E26" s="3">
-        <v>2232400</v>
+        <v>2536900</v>
       </c>
       <c r="F26" s="3">
-        <v>1394500</v>
+        <v>2152700</v>
       </c>
       <c r="G26" s="3">
-        <v>1273300</v>
+        <v>1344700</v>
       </c>
       <c r="H26" s="3">
-        <v>1511400</v>
+        <v>1227900</v>
       </c>
       <c r="I26" s="3">
-        <v>1198100</v>
+        <v>1457400</v>
       </c>
       <c r="J26" s="3">
+        <v>1155300</v>
+      </c>
+      <c r="K26" s="3">
         <v>1054200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1468600</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>2614200</v>
+        <v>708900</v>
       </c>
       <c r="E27" s="3">
-        <v>2169700</v>
+        <v>2520800</v>
       </c>
       <c r="F27" s="3">
-        <v>1393700</v>
+        <v>2092200</v>
       </c>
       <c r="G27" s="3">
-        <v>1261500</v>
+        <v>1343900</v>
       </c>
       <c r="H27" s="3">
-        <v>1498800</v>
+        <v>1216400</v>
       </c>
       <c r="I27" s="3">
-        <v>1215700</v>
+        <v>1445300</v>
       </c>
       <c r="J27" s="3">
+        <v>1172300</v>
+      </c>
+      <c r="K27" s="3">
         <v>1100800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1496300</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1286,9 +1343,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1304,21 +1364,24 @@
       <c r="G29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
+      <c r="H29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="I29" s="3">
-        <v>153900</v>
+        <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>148400</v>
+      </c>
+      <c r="K29" s="3">
         <v>-133300</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-45200</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1346,9 +1409,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1376,69 +1442,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-2806000</v>
+        <v>-363400</v>
       </c>
       <c r="E32" s="3">
-        <v>-1876800</v>
+        <v>-2705800</v>
       </c>
       <c r="F32" s="3">
-        <v>-735300</v>
+        <v>-1809800</v>
       </c>
       <c r="G32" s="3">
-        <v>-555100</v>
+        <v>-709000</v>
       </c>
       <c r="H32" s="3">
-        <v>-814700</v>
+        <v>-535300</v>
       </c>
       <c r="I32" s="3">
-        <v>-487600</v>
+        <v>-785600</v>
       </c>
       <c r="J32" s="3">
+        <v>-470200</v>
+      </c>
+      <c r="K32" s="3">
         <v>-167300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-623100</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2614200</v>
+        <v>708900</v>
       </c>
       <c r="E33" s="3">
-        <v>2169700</v>
+        <v>2520800</v>
       </c>
       <c r="F33" s="3">
-        <v>1393700</v>
+        <v>2092200</v>
       </c>
       <c r="G33" s="3">
-        <v>1261500</v>
+        <v>1343900</v>
       </c>
       <c r="H33" s="3">
-        <v>1498800</v>
+        <v>1216400</v>
       </c>
       <c r="I33" s="3">
-        <v>1369700</v>
+        <v>1445300</v>
       </c>
       <c r="J33" s="3">
+        <v>1320700</v>
+      </c>
+      <c r="K33" s="3">
         <v>967400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1451100</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1466,74 +1541,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2614200</v>
+        <v>708900</v>
       </c>
       <c r="E35" s="3">
-        <v>2169700</v>
+        <v>2520800</v>
       </c>
       <c r="F35" s="3">
-        <v>1393700</v>
+        <v>2092200</v>
       </c>
       <c r="G35" s="3">
-        <v>1261500</v>
+        <v>1343900</v>
       </c>
       <c r="H35" s="3">
-        <v>1498800</v>
+        <v>1216400</v>
       </c>
       <c r="I35" s="3">
-        <v>1369700</v>
+        <v>1445300</v>
       </c>
       <c r="J35" s="3">
+        <v>1320700</v>
+      </c>
+      <c r="K35" s="3">
         <v>967400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1451100</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42004</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41639</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41274</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40908</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1546,8 +1630,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1560,278 +1645,306 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1265600</v>
+        <v>1029400</v>
       </c>
       <c r="E41" s="3">
-        <v>1224500</v>
+        <v>1220400</v>
       </c>
       <c r="F41" s="3">
-        <v>1264400</v>
+        <v>1180800</v>
       </c>
       <c r="G41" s="3">
-        <v>645900</v>
+        <v>1219200</v>
       </c>
       <c r="H41" s="3">
-        <v>700900</v>
+        <v>622800</v>
       </c>
       <c r="I41" s="3">
-        <v>1174900</v>
+        <v>675900</v>
       </c>
       <c r="J41" s="3">
+        <v>1132900</v>
+      </c>
+      <c r="K41" s="3">
         <v>772900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1485700</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>975400</v>
+        <v>730800</v>
       </c>
       <c r="E42" s="3">
-        <v>563900</v>
+        <v>940600</v>
       </c>
       <c r="F42" s="3">
-        <v>408100</v>
+        <v>543800</v>
       </c>
       <c r="G42" s="3">
-        <v>588700</v>
+        <v>393500</v>
       </c>
       <c r="H42" s="3">
-        <v>498300</v>
+        <v>567700</v>
       </c>
       <c r="I42" s="3">
-        <v>350700</v>
+        <v>480500</v>
       </c>
       <c r="J42" s="3">
+        <v>338200</v>
+      </c>
+      <c r="K42" s="3">
         <v>482600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>967000</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2605400</v>
+        <v>2752100</v>
       </c>
       <c r="E43" s="3">
-        <v>2901100</v>
+        <v>2512400</v>
       </c>
       <c r="F43" s="3">
-        <v>2876300</v>
+        <v>2797500</v>
       </c>
       <c r="G43" s="3">
-        <v>2589900</v>
+        <v>2773500</v>
       </c>
       <c r="H43" s="3">
-        <v>2652000</v>
+        <v>2497400</v>
       </c>
       <c r="I43" s="3">
-        <v>2503500</v>
+        <v>2557300</v>
       </c>
       <c r="J43" s="3">
+        <v>2414100</v>
+      </c>
+      <c r="K43" s="3">
         <v>2202400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2549200</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>242000</v>
+        <v>131900</v>
       </c>
       <c r="E44" s="3">
-        <v>228800</v>
+        <v>233300</v>
       </c>
       <c r="F44" s="3">
-        <v>218300</v>
+        <v>220600</v>
       </c>
       <c r="G44" s="3">
-        <v>229800</v>
+        <v>210500</v>
       </c>
       <c r="H44" s="3">
-        <v>224800</v>
+        <v>221600</v>
       </c>
       <c r="I44" s="3">
-        <v>148800</v>
+        <v>216800</v>
       </c>
       <c r="J44" s="3">
+        <v>143500</v>
+      </c>
+      <c r="K44" s="3">
         <v>203400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>197600</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1597000</v>
+        <v>1918700</v>
       </c>
       <c r="E45" s="3">
-        <v>291200</v>
+        <v>1539900</v>
       </c>
       <c r="F45" s="3">
-        <v>270100</v>
+        <v>280800</v>
       </c>
       <c r="G45" s="3">
-        <v>280200</v>
+        <v>260500</v>
       </c>
       <c r="H45" s="3">
-        <v>193700</v>
+        <v>270200</v>
       </c>
       <c r="I45" s="3">
-        <v>125800</v>
+        <v>186800</v>
       </c>
       <c r="J45" s="3">
+        <v>121300</v>
+      </c>
+      <c r="K45" s="3">
         <v>786000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>306200</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>6685400</v>
+        <v>6562900</v>
       </c>
       <c r="E46" s="3">
-        <v>5209500</v>
+        <v>6446700</v>
       </c>
       <c r="F46" s="3">
-        <v>5037200</v>
+        <v>5023500</v>
       </c>
       <c r="G46" s="3">
-        <v>4334600</v>
+        <v>4857300</v>
       </c>
       <c r="H46" s="3">
-        <v>4269800</v>
+        <v>4179800</v>
       </c>
       <c r="I46" s="3">
-        <v>4303700</v>
+        <v>4117300</v>
       </c>
       <c r="J46" s="3">
+        <v>4150000</v>
+      </c>
+      <c r="K46" s="3">
         <v>4447300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5505700</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>11621100</v>
+        <v>11908800</v>
       </c>
       <c r="E47" s="3">
-        <v>9051900</v>
+        <v>11206100</v>
       </c>
       <c r="F47" s="3">
-        <v>7096300</v>
+        <v>8728700</v>
       </c>
       <c r="G47" s="3">
-        <v>6861500</v>
+        <v>6842900</v>
       </c>
       <c r="H47" s="3">
-        <v>6144000</v>
+        <v>6616400</v>
       </c>
       <c r="I47" s="3">
-        <v>5341900</v>
+        <v>5924600</v>
       </c>
       <c r="J47" s="3">
+        <v>5151100</v>
+      </c>
+      <c r="K47" s="3">
         <v>4750700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2728000</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>9003400</v>
+        <v>9990800</v>
       </c>
       <c r="E48" s="3">
-        <v>8521700</v>
+        <v>8681900</v>
       </c>
       <c r="F48" s="3">
-        <v>8714300</v>
+        <v>8217400</v>
       </c>
       <c r="G48" s="3">
-        <v>8724500</v>
+        <v>8403100</v>
       </c>
       <c r="H48" s="3">
-        <v>8889500</v>
+        <v>8412900</v>
       </c>
       <c r="I48" s="3">
-        <v>8578400</v>
+        <v>8572000</v>
       </c>
       <c r="J48" s="3">
+        <v>8272100</v>
+      </c>
+      <c r="K48" s="3">
         <v>8285600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>8373600</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>7099700</v>
+        <v>6330700</v>
       </c>
       <c r="E49" s="3">
-        <v>4621700</v>
+        <v>6846200</v>
       </c>
       <c r="F49" s="3">
-        <v>4795400</v>
+        <v>4456600</v>
       </c>
       <c r="G49" s="3">
-        <v>3539200</v>
+        <v>4624100</v>
       </c>
       <c r="H49" s="3">
-        <v>3697300</v>
+        <v>3412800</v>
       </c>
       <c r="I49" s="3">
-        <v>3766600</v>
+        <v>3565300</v>
       </c>
       <c r="J49" s="3">
+        <v>3632100</v>
+      </c>
+      <c r="K49" s="3">
         <v>3724700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4271200</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1859,9 +1972,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1889,39 +2005,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1180300</v>
+        <v>1342400</v>
       </c>
       <c r="E52" s="3">
-        <v>675300</v>
+        <v>1138200</v>
       </c>
       <c r="F52" s="3">
-        <v>646800</v>
+        <v>651200</v>
       </c>
       <c r="G52" s="3">
-        <v>548500</v>
+        <v>623700</v>
       </c>
       <c r="H52" s="3">
-        <v>470000</v>
+        <v>528900</v>
       </c>
       <c r="I52" s="3">
-        <v>333700</v>
+        <v>453200</v>
       </c>
       <c r="J52" s="3">
+        <v>321800</v>
+      </c>
+      <c r="K52" s="3">
         <v>291900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1050900</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1949,39 +2071,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>35590100</v>
+        <v>36135400</v>
       </c>
       <c r="E54" s="3">
-        <v>28080100</v>
+        <v>34319000</v>
       </c>
       <c r="F54" s="3">
-        <v>26290000</v>
+        <v>27077200</v>
       </c>
       <c r="G54" s="3">
-        <v>24008400</v>
+        <v>25351100</v>
       </c>
       <c r="H54" s="3">
-        <v>23470600</v>
+        <v>23150900</v>
       </c>
       <c r="I54" s="3">
-        <v>22324300</v>
+        <v>22632400</v>
       </c>
       <c r="J54" s="3">
+        <v>21527000</v>
+      </c>
+      <c r="K54" s="3">
         <v>21500300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>21929400</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1994,8 +2122,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2008,188 +2137,207 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>320300</v>
+        <v>355000</v>
       </c>
       <c r="E57" s="3">
-        <v>295400</v>
+        <v>308900</v>
       </c>
       <c r="F57" s="3">
-        <v>338100</v>
+        <v>284900</v>
       </c>
       <c r="G57" s="3">
-        <v>235000</v>
+        <v>326000</v>
       </c>
       <c r="H57" s="3">
-        <v>231400</v>
+        <v>226600</v>
       </c>
       <c r="I57" s="3">
-        <v>180400</v>
+        <v>223200</v>
       </c>
       <c r="J57" s="3">
+        <v>173900</v>
+      </c>
+      <c r="K57" s="3">
         <v>1734500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1532900</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>894000</v>
+        <v>1087200</v>
       </c>
       <c r="E58" s="3">
-        <v>1395200</v>
+        <v>862100</v>
       </c>
       <c r="F58" s="3">
-        <v>748500</v>
+        <v>1345400</v>
       </c>
       <c r="G58" s="3">
-        <v>809000</v>
+        <v>721800</v>
       </c>
       <c r="H58" s="3">
-        <v>807300</v>
+        <v>780100</v>
       </c>
       <c r="I58" s="3">
-        <v>1283900</v>
+        <v>778500</v>
       </c>
       <c r="J58" s="3">
+        <v>1238000</v>
+      </c>
+      <c r="K58" s="3">
         <v>1254200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2127200</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4537700</v>
+        <v>4865900</v>
       </c>
       <c r="E59" s="3">
-        <v>4281000</v>
+        <v>4375600</v>
       </c>
       <c r="F59" s="3">
-        <v>4326500</v>
+        <v>4128100</v>
       </c>
       <c r="G59" s="3">
-        <v>3371400</v>
+        <v>4172000</v>
       </c>
       <c r="H59" s="3">
-        <v>3514300</v>
+        <v>3251000</v>
       </c>
       <c r="I59" s="3">
-        <v>3633900</v>
+        <v>3388800</v>
       </c>
       <c r="J59" s="3">
+        <v>3504100</v>
+      </c>
+      <c r="K59" s="3">
         <v>2198200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2346100</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5751900</v>
+        <v>6308100</v>
       </c>
       <c r="E60" s="3">
-        <v>5971700</v>
+        <v>5546500</v>
       </c>
       <c r="F60" s="3">
-        <v>5413000</v>
+        <v>5758400</v>
       </c>
       <c r="G60" s="3">
-        <v>4415500</v>
+        <v>5219700</v>
       </c>
       <c r="H60" s="3">
-        <v>4553100</v>
+        <v>4257800</v>
       </c>
       <c r="I60" s="3">
-        <v>5098100</v>
+        <v>4390500</v>
       </c>
       <c r="J60" s="3">
+        <v>4916100</v>
+      </c>
+      <c r="K60" s="3">
         <v>5186900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6006200</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7213600</v>
+        <v>7804000</v>
       </c>
       <c r="E61" s="3">
-        <v>4878800</v>
+        <v>6955900</v>
       </c>
       <c r="F61" s="3">
-        <v>5442100</v>
+        <v>4704500</v>
       </c>
       <c r="G61" s="3">
-        <v>5511000</v>
+        <v>5247700</v>
       </c>
       <c r="H61" s="3">
-        <v>4871100</v>
+        <v>5314200</v>
       </c>
       <c r="I61" s="3">
-        <v>4212000</v>
+        <v>4697100</v>
       </c>
       <c r="J61" s="3">
+        <v>4061500</v>
+      </c>
+      <c r="K61" s="3">
         <v>4511200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3235300</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3851200</v>
+        <v>3536300</v>
       </c>
       <c r="E62" s="3">
-        <v>2085100</v>
+        <v>3713600</v>
       </c>
       <c r="F62" s="3">
-        <v>1897100</v>
+        <v>2010700</v>
       </c>
       <c r="G62" s="3">
-        <v>1167700</v>
+        <v>1829400</v>
       </c>
       <c r="H62" s="3">
-        <v>1237900</v>
+        <v>1126000</v>
       </c>
       <c r="I62" s="3">
-        <v>1114200</v>
+        <v>1193700</v>
       </c>
       <c r="J62" s="3">
+        <v>1074500</v>
+      </c>
+      <c r="K62" s="3">
         <v>1004100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1228400</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2217,9 +2365,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2247,9 +2398,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2277,39 +2431,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>16714600</v>
+        <v>17540400</v>
       </c>
       <c r="E66" s="3">
-        <v>13092700</v>
+        <v>16117600</v>
       </c>
       <c r="F66" s="3">
-        <v>12874100</v>
+        <v>12625100</v>
       </c>
       <c r="G66" s="3">
-        <v>11197500</v>
+        <v>12414300</v>
       </c>
       <c r="H66" s="3">
-        <v>11285000</v>
+        <v>10797500</v>
       </c>
       <c r="I66" s="3">
-        <v>11024300</v>
+        <v>10881900</v>
       </c>
       <c r="J66" s="3">
+        <v>10630600</v>
+      </c>
+      <c r="K66" s="3">
         <v>11542300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>11433700</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2322,8 +2482,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2351,9 +2512,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2381,9 +2545,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2411,9 +2578,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2441,39 +2611,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>18601400</v>
+        <v>18010600</v>
       </c>
       <c r="E72" s="3">
-        <v>14982200</v>
+        <v>17937100</v>
       </c>
       <c r="F72" s="3">
-        <v>13400700</v>
+        <v>14447100</v>
       </c>
       <c r="G72" s="3">
-        <v>12606400</v>
+        <v>12922100</v>
       </c>
       <c r="H72" s="3">
-        <v>11918400</v>
+        <v>12156200</v>
       </c>
       <c r="I72" s="3">
-        <v>11006100</v>
+        <v>11492800</v>
       </c>
       <c r="J72" s="3">
+        <v>10613000</v>
+      </c>
+      <c r="K72" s="3">
         <v>10163200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>10712300</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2501,9 +2677,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2531,9 +2710,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2561,39 +2743,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>18875500</v>
+        <v>18595000</v>
       </c>
       <c r="E76" s="3">
-        <v>14987400</v>
+        <v>18201400</v>
       </c>
       <c r="F76" s="3">
-        <v>13416000</v>
+        <v>14452100</v>
       </c>
       <c r="G76" s="3">
-        <v>12810900</v>
+        <v>12936800</v>
       </c>
       <c r="H76" s="3">
-        <v>12185700</v>
+        <v>12353400</v>
       </c>
       <c r="I76" s="3">
-        <v>11300000</v>
+        <v>11750500</v>
       </c>
       <c r="J76" s="3">
+        <v>10896400</v>
+      </c>
+      <c r="K76" s="3">
         <v>9958000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>10495700</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2621,74 +2809,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42004</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41639</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41274</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40908</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2614200</v>
+        <v>708900</v>
       </c>
       <c r="E81" s="3">
-        <v>2169700</v>
+        <v>2520800</v>
       </c>
       <c r="F81" s="3">
-        <v>1393700</v>
+        <v>2092200</v>
       </c>
       <c r="G81" s="3">
-        <v>1261500</v>
+        <v>1343900</v>
       </c>
       <c r="H81" s="3">
-        <v>1498800</v>
+        <v>1216400</v>
       </c>
       <c r="I81" s="3">
-        <v>1369700</v>
+        <v>1445300</v>
       </c>
       <c r="J81" s="3">
+        <v>1320700</v>
+      </c>
+      <c r="K81" s="3">
         <v>967400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1451100</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2701,38 +2898,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2727900</v>
+        <v>3188000</v>
       </c>
       <c r="E83" s="3">
-        <v>2577600</v>
+        <v>2660300</v>
       </c>
       <c r="F83" s="3">
-        <v>2514500</v>
+        <v>2630500</v>
       </c>
       <c r="G83" s="3">
-        <v>2429200</v>
+        <v>2485500</v>
       </c>
       <c r="H83" s="3">
-        <v>2377000</v>
+        <v>2424700</v>
       </c>
       <c r="I83" s="3">
-        <v>2194900</v>
-      </c>
-      <c r="J83" s="3" t="s">
+        <v>2342400</v>
+      </c>
+      <c r="J83" s="3">
+        <v>2292100</v>
+      </c>
+      <c r="K83" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2234400</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2760,9 +2961,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2790,9 +2994,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2820,9 +3027,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2850,9 +3060,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2880,39 +3093,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3238900</v>
+        <v>3228700</v>
       </c>
       <c r="E89" s="3">
-        <v>3564300</v>
+        <v>3509400</v>
       </c>
       <c r="F89" s="3">
-        <v>3173600</v>
+        <v>3123200</v>
       </c>
       <c r="G89" s="3">
-        <v>3089000</v>
+        <v>3437000</v>
       </c>
       <c r="H89" s="3">
-        <v>2989200</v>
+        <v>3060300</v>
       </c>
       <c r="I89" s="3">
-        <v>3359700</v>
+        <v>2978700</v>
       </c>
       <c r="J89" s="3">
+        <v>2882400</v>
+      </c>
+      <c r="K89" s="3">
         <v>5297400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>5675800</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2925,38 +3144,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2281300</v>
+        <v>-2734500</v>
       </c>
       <c r="E91" s="3">
-        <v>-2092000</v>
+        <v>-2261800</v>
       </c>
       <c r="F91" s="3">
-        <v>-2082200</v>
+        <v>-2199800</v>
       </c>
       <c r="G91" s="3">
-        <v>-2526700</v>
+        <v>-2017300</v>
       </c>
       <c r="H91" s="3">
-        <v>-2418500</v>
+        <v>-2007800</v>
       </c>
       <c r="I91" s="3">
-        <v>-2851400</v>
+        <v>-2436500</v>
       </c>
       <c r="J91" s="3">
+        <v>-2332100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-2559300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3280800</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2984,9 +3207,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3014,39 +3240,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2579300</v>
+        <v>-2901800</v>
       </c>
       <c r="E94" s="3">
-        <v>-2068300</v>
+        <v>-3278700</v>
       </c>
       <c r="F94" s="3">
-        <v>-2419600</v>
+        <v>-2487200</v>
       </c>
       <c r="G94" s="3">
-        <v>-3093900</v>
+        <v>-1994400</v>
       </c>
       <c r="H94" s="3">
-        <v>-2105400</v>
+        <v>-2333200</v>
       </c>
       <c r="I94" s="3">
-        <v>-4460100</v>
-      </c>
-      <c r="J94" s="3" t="s">
+        <v>-2983400</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-2030200</v>
+      </c>
+      <c r="K94" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3815200</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3059,38 +3291,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-593100</v>
+        <v>-582100</v>
       </c>
       <c r="E96" s="3">
-        <v>-593100</v>
+        <v>-571900</v>
       </c>
       <c r="F96" s="3">
-        <v>-561500</v>
+        <v>-571900</v>
       </c>
       <c r="G96" s="3">
-        <v>-560100</v>
+        <v>-571900</v>
       </c>
       <c r="H96" s="3">
-        <v>-551000</v>
+        <v>-541500</v>
       </c>
       <c r="I96" s="3">
-        <v>-550300</v>
+        <v>-540100</v>
       </c>
       <c r="J96" s="3">
+        <v>-531300</v>
+      </c>
+      <c r="K96" s="3">
         <v>-561400</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-601500</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3118,9 +3354,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3148,9 +3387,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3178,97 +3420,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-694400</v>
+        <v>-515800</v>
       </c>
       <c r="E100" s="3">
-        <v>-877700</v>
+        <v>-193000</v>
       </c>
       <c r="F100" s="3">
-        <v>-810200</v>
+        <v>-669600</v>
       </c>
       <c r="G100" s="3">
-        <v>-469900</v>
+        <v>-846300</v>
       </c>
       <c r="H100" s="3">
-        <v>-481500</v>
+        <v>-781300</v>
       </c>
       <c r="I100" s="3">
-        <v>491600</v>
-      </c>
-      <c r="J100" s="3" t="s">
+        <v>-453100</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-464300</v>
+      </c>
+      <c r="K100" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-971400</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-5100</v>
+        <v>-2100</v>
       </c>
       <c r="E101" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F101" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="G101" s="3">
         <v>200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>1200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>800</v>
       </c>
-      <c r="H101" s="3">
-        <v>-400</v>
-      </c>
-      <c r="I101" s="3">
-        <v>-5100</v>
-      </c>
-      <c r="J101" s="3" t="s">
+      <c r="J101" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K101" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>3000</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-39900</v>
+        <v>-191100</v>
       </c>
       <c r="E102" s="3">
-        <v>618500</v>
+        <v>39700</v>
       </c>
       <c r="F102" s="3">
-        <v>-55000</v>
+        <v>-38500</v>
       </c>
       <c r="G102" s="3">
-        <v>-473900</v>
+        <v>596400</v>
       </c>
       <c r="H102" s="3">
-        <v>402000</v>
+        <v>-53100</v>
       </c>
       <c r="I102" s="3">
-        <v>-613800</v>
+        <v>-457000</v>
       </c>
       <c r="J102" s="3">
+        <v>387600</v>
+      </c>
+      <c r="K102" s="3">
         <v>832800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>892300</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/SKM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SKM_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>14372400</v>
+        <v>14904700</v>
       </c>
       <c r="E8" s="3">
-        <v>13667900</v>
+        <v>14174100</v>
       </c>
       <c r="F8" s="3">
-        <v>14191200</v>
+        <v>14716800</v>
       </c>
       <c r="G8" s="3">
-        <v>13844400</v>
+        <v>14357100</v>
       </c>
       <c r="H8" s="3">
-        <v>13880800</v>
+        <v>14394900</v>
       </c>
       <c r="I8" s="3">
-        <v>13941300</v>
+        <v>14457600</v>
       </c>
       <c r="J8" s="3">
-        <v>13501900</v>
+        <v>14002000</v>
       </c>
       <c r="K8" s="3">
         <v>13861600</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>609400</v>
+        <v>632000</v>
       </c>
       <c r="E9" s="3">
-        <v>654800</v>
+        <v>679100</v>
       </c>
       <c r="F9" s="3">
-        <v>708800</v>
+        <v>735000</v>
       </c>
       <c r="G9" s="3">
-        <v>773000</v>
+        <v>801600</v>
       </c>
       <c r="H9" s="3">
-        <v>775700</v>
+        <v>804400</v>
       </c>
       <c r="I9" s="3">
-        <v>1131000</v>
+        <v>1172900</v>
       </c>
       <c r="J9" s="3">
-        <v>1209000</v>
+        <v>1253800</v>
       </c>
       <c r="K9" s="3">
         <v>1089700</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>13763000</v>
+        <v>14272700</v>
       </c>
       <c r="E10" s="3">
-        <v>13013100</v>
+        <v>13495100</v>
       </c>
       <c r="F10" s="3">
-        <v>13482400</v>
+        <v>13981800</v>
       </c>
       <c r="G10" s="3">
-        <v>13071400</v>
+        <v>13555500</v>
       </c>
       <c r="H10" s="3">
-        <v>13105100</v>
+        <v>13590500</v>
       </c>
       <c r="I10" s="3">
-        <v>12810300</v>
+        <v>13284700</v>
       </c>
       <c r="J10" s="3">
-        <v>12292900</v>
+        <v>12748200</v>
       </c>
       <c r="K10" s="3">
         <v>12771900</v>
@@ -831,25 +831,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>317000</v>
+        <v>328700</v>
       </c>
       <c r="E12" s="3">
-        <v>314000</v>
+        <v>325600</v>
       </c>
       <c r="F12" s="3">
-        <v>320200</v>
+        <v>332000</v>
       </c>
       <c r="G12" s="3">
-        <v>279300</v>
+        <v>289600</v>
       </c>
       <c r="H12" s="3">
-        <v>255800</v>
+        <v>265300</v>
       </c>
       <c r="I12" s="3">
-        <v>316700</v>
+        <v>328400</v>
       </c>
       <c r="J12" s="3">
-        <v>285400</v>
+        <v>296000</v>
       </c>
       <c r="K12" s="3">
         <v>255800</v>
@@ -900,22 +900,22 @@
         <v>-1600</v>
       </c>
       <c r="E14" s="3">
-        <v>209800</v>
+        <v>217600</v>
       </c>
       <c r="F14" s="3">
-        <v>55500</v>
+        <v>57600</v>
       </c>
       <c r="G14" s="3">
-        <v>19800</v>
+        <v>20600</v>
       </c>
       <c r="H14" s="3">
-        <v>29000</v>
+        <v>30100</v>
       </c>
       <c r="I14" s="3">
-        <v>38500</v>
+        <v>39900</v>
       </c>
       <c r="J14" s="3">
-        <v>11200</v>
+        <v>11600</v>
       </c>
       <c r="K14" s="3">
         <v>33500</v>
@@ -930,25 +930,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>3054900</v>
+        <v>3168000</v>
       </c>
       <c r="E15" s="3">
-        <v>2532200</v>
+        <v>2625900</v>
       </c>
       <c r="F15" s="3">
-        <v>2508900</v>
+        <v>2601900</v>
       </c>
       <c r="G15" s="3">
-        <v>2382900</v>
+        <v>2471200</v>
       </c>
       <c r="H15" s="3">
-        <v>2304700</v>
+        <v>2390000</v>
       </c>
       <c r="I15" s="3">
-        <v>2198900</v>
+        <v>2280400</v>
       </c>
       <c r="J15" s="3">
-        <v>2155900</v>
+        <v>2235800</v>
       </c>
       <c r="K15" s="3">
         <v>2043100</v>
@@ -975,25 +975,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>13471800</v>
+        <v>13970700</v>
       </c>
       <c r="E17" s="3">
-        <v>12904300</v>
+        <v>13382200</v>
       </c>
       <c r="F17" s="3">
-        <v>13002100</v>
+        <v>13483600</v>
       </c>
       <c r="G17" s="3">
-        <v>12620300</v>
+        <v>13087700</v>
       </c>
       <c r="H17" s="3">
-        <v>12526300</v>
+        <v>12990200</v>
       </c>
       <c r="I17" s="3">
-        <v>12639000</v>
+        <v>13107100</v>
       </c>
       <c r="J17" s="3">
-        <v>12223400</v>
+        <v>12676100</v>
       </c>
       <c r="K17" s="3">
         <v>12379700</v>
@@ -1008,25 +1008,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>900600</v>
+        <v>934000</v>
       </c>
       <c r="E18" s="3">
-        <v>763600</v>
+        <v>791900</v>
       </c>
       <c r="F18" s="3">
-        <v>1189100</v>
+        <v>1233200</v>
       </c>
       <c r="G18" s="3">
-        <v>1224100</v>
+        <v>1269400</v>
       </c>
       <c r="H18" s="3">
-        <v>1354500</v>
+        <v>1404600</v>
       </c>
       <c r="I18" s="3">
-        <v>1302300</v>
+        <v>1350600</v>
       </c>
       <c r="J18" s="3">
-        <v>1278500</v>
+        <v>1325900</v>
       </c>
       <c r="K18" s="3">
         <v>1481900</v>
@@ -1056,25 +1056,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>363400</v>
+        <v>376900</v>
       </c>
       <c r="E20" s="3">
-        <v>2705800</v>
+        <v>2806000</v>
       </c>
       <c r="F20" s="3">
-        <v>1809800</v>
+        <v>1876800</v>
       </c>
       <c r="G20" s="3">
-        <v>709000</v>
+        <v>735300</v>
       </c>
       <c r="H20" s="3">
-        <v>535300</v>
+        <v>555100</v>
       </c>
       <c r="I20" s="3">
-        <v>785600</v>
+        <v>814700</v>
       </c>
       <c r="J20" s="3">
-        <v>470200</v>
+        <v>487600</v>
       </c>
       <c r="K20" s="3">
         <v>167300</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>4452100</v>
+        <v>4617000</v>
       </c>
       <c r="E21" s="3">
-        <v>6129800</v>
+        <v>6356800</v>
       </c>
       <c r="F21" s="3">
-        <v>5629400</v>
+        <v>5837900</v>
       </c>
       <c r="G21" s="3">
-        <v>4418700</v>
+        <v>4582300</v>
       </c>
       <c r="H21" s="3">
-        <v>4314500</v>
+        <v>4474300</v>
       </c>
       <c r="I21" s="3">
-        <v>4430400</v>
+        <v>4594500</v>
       </c>
       <c r="J21" s="3">
-        <v>4040900</v>
+        <v>4190500</v>
       </c>
       <c r="K21" s="3">
         <v>3870200</v>
@@ -1122,25 +1122,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>322300</v>
+        <v>334200</v>
       </c>
       <c r="E22" s="3">
-        <v>248900</v>
+        <v>258100</v>
       </c>
       <c r="F22" s="3">
-        <v>242300</v>
+        <v>251200</v>
       </c>
       <c r="G22" s="3">
-        <v>235300</v>
+        <v>244000</v>
       </c>
       <c r="H22" s="3">
-        <v>241100</v>
+        <v>250000</v>
       </c>
       <c r="I22" s="3">
-        <v>262400</v>
+        <v>272100</v>
       </c>
       <c r="J22" s="3">
-        <v>268800</v>
+        <v>278700</v>
       </c>
       <c r="K22" s="3">
         <v>346400</v>
@@ -1155,25 +1155,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>941800</v>
+        <v>976600</v>
       </c>
       <c r="E23" s="3">
-        <v>3220500</v>
+        <v>3339800</v>
       </c>
       <c r="F23" s="3">
-        <v>2756600</v>
+        <v>2858700</v>
       </c>
       <c r="G23" s="3">
-        <v>1697900</v>
+        <v>1760800</v>
       </c>
       <c r="H23" s="3">
-        <v>1648600</v>
+        <v>1709700</v>
       </c>
       <c r="I23" s="3">
-        <v>1825600</v>
+        <v>1893200</v>
       </c>
       <c r="J23" s="3">
-        <v>1480000</v>
+        <v>1534800</v>
       </c>
       <c r="K23" s="3">
         <v>1302700</v>
@@ -1188,25 +1188,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>243600</v>
+        <v>252600</v>
       </c>
       <c r="E24" s="3">
-        <v>683600</v>
+        <v>708900</v>
       </c>
       <c r="F24" s="3">
-        <v>604000</v>
+        <v>626300</v>
       </c>
       <c r="G24" s="3">
-        <v>353200</v>
+        <v>366300</v>
       </c>
       <c r="H24" s="3">
-        <v>420800</v>
+        <v>436400</v>
       </c>
       <c r="I24" s="3">
-        <v>368200</v>
+        <v>381800</v>
       </c>
       <c r="J24" s="3">
-        <v>324600</v>
+        <v>336700</v>
       </c>
       <c r="K24" s="3">
         <v>248500</v>
@@ -1254,25 +1254,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>698200</v>
+        <v>724000</v>
       </c>
       <c r="E26" s="3">
-        <v>2536900</v>
+        <v>2630900</v>
       </c>
       <c r="F26" s="3">
-        <v>2152700</v>
+        <v>2232400</v>
       </c>
       <c r="G26" s="3">
-        <v>1344700</v>
+        <v>1394500</v>
       </c>
       <c r="H26" s="3">
-        <v>1227900</v>
+        <v>1273300</v>
       </c>
       <c r="I26" s="3">
-        <v>1457400</v>
+        <v>1511400</v>
       </c>
       <c r="J26" s="3">
-        <v>1155300</v>
+        <v>1198100</v>
       </c>
       <c r="K26" s="3">
         <v>1054200</v>
@@ -1287,25 +1287,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>708900</v>
+        <v>735100</v>
       </c>
       <c r="E27" s="3">
-        <v>2520800</v>
+        <v>2614200</v>
       </c>
       <c r="F27" s="3">
-        <v>2092200</v>
+        <v>2169700</v>
       </c>
       <c r="G27" s="3">
-        <v>1343900</v>
+        <v>1393700</v>
       </c>
       <c r="H27" s="3">
-        <v>1216400</v>
+        <v>1261500</v>
       </c>
       <c r="I27" s="3">
-        <v>1445300</v>
+        <v>1498800</v>
       </c>
       <c r="J27" s="3">
-        <v>1172300</v>
+        <v>1215700</v>
       </c>
       <c r="K27" s="3">
         <v>1100800</v>
@@ -1371,7 +1371,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
-        <v>148400</v>
+        <v>153900</v>
       </c>
       <c r="K29" s="3">
         <v>-133300</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-363400</v>
+        <v>-376900</v>
       </c>
       <c r="E32" s="3">
-        <v>-2705800</v>
+        <v>-2806000</v>
       </c>
       <c r="F32" s="3">
-        <v>-1809800</v>
+        <v>-1876800</v>
       </c>
       <c r="G32" s="3">
-        <v>-709000</v>
+        <v>-735300</v>
       </c>
       <c r="H32" s="3">
-        <v>-535300</v>
+        <v>-555100</v>
       </c>
       <c r="I32" s="3">
-        <v>-785600</v>
+        <v>-814700</v>
       </c>
       <c r="J32" s="3">
-        <v>-470200</v>
+        <v>-487600</v>
       </c>
       <c r="K32" s="3">
         <v>-167300</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>708900</v>
+        <v>735100</v>
       </c>
       <c r="E33" s="3">
-        <v>2520800</v>
+        <v>2614200</v>
       </c>
       <c r="F33" s="3">
-        <v>2092200</v>
+        <v>2169700</v>
       </c>
       <c r="G33" s="3">
-        <v>1343900</v>
+        <v>1393700</v>
       </c>
       <c r="H33" s="3">
-        <v>1216400</v>
+        <v>1261500</v>
       </c>
       <c r="I33" s="3">
-        <v>1445300</v>
+        <v>1498800</v>
       </c>
       <c r="J33" s="3">
-        <v>1320700</v>
+        <v>1369700</v>
       </c>
       <c r="K33" s="3">
         <v>967400</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>708900</v>
+        <v>735100</v>
       </c>
       <c r="E35" s="3">
-        <v>2520800</v>
+        <v>2614200</v>
       </c>
       <c r="F35" s="3">
-        <v>2092200</v>
+        <v>2169700</v>
       </c>
       <c r="G35" s="3">
-        <v>1343900</v>
+        <v>1393700</v>
       </c>
       <c r="H35" s="3">
-        <v>1216400</v>
+        <v>1261500</v>
       </c>
       <c r="I35" s="3">
-        <v>1445300</v>
+        <v>1498800</v>
       </c>
       <c r="J35" s="3">
-        <v>1320700</v>
+        <v>1369700</v>
       </c>
       <c r="K35" s="3">
         <v>967400</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1029400</v>
+        <v>1067500</v>
       </c>
       <c r="E41" s="3">
-        <v>1220400</v>
+        <v>1265600</v>
       </c>
       <c r="F41" s="3">
-        <v>1180800</v>
+        <v>1224500</v>
       </c>
       <c r="G41" s="3">
-        <v>1219200</v>
+        <v>1264400</v>
       </c>
       <c r="H41" s="3">
-        <v>622800</v>
+        <v>645900</v>
       </c>
       <c r="I41" s="3">
-        <v>675900</v>
+        <v>700900</v>
       </c>
       <c r="J41" s="3">
-        <v>1132900</v>
+        <v>1174900</v>
       </c>
       <c r="K41" s="3">
         <v>772900</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>730800</v>
+        <v>757900</v>
       </c>
       <c r="E42" s="3">
-        <v>940600</v>
+        <v>975400</v>
       </c>
       <c r="F42" s="3">
-        <v>543800</v>
+        <v>563900</v>
       </c>
       <c r="G42" s="3">
-        <v>393500</v>
+        <v>408100</v>
       </c>
       <c r="H42" s="3">
-        <v>567700</v>
+        <v>588700</v>
       </c>
       <c r="I42" s="3">
-        <v>480500</v>
+        <v>498300</v>
       </c>
       <c r="J42" s="3">
-        <v>338200</v>
+        <v>350700</v>
       </c>
       <c r="K42" s="3">
         <v>482600</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2752100</v>
+        <v>2854000</v>
       </c>
       <c r="E43" s="3">
-        <v>2512400</v>
+        <v>2605400</v>
       </c>
       <c r="F43" s="3">
-        <v>2797500</v>
+        <v>2901100</v>
       </c>
       <c r="G43" s="3">
-        <v>2773500</v>
+        <v>2876300</v>
       </c>
       <c r="H43" s="3">
-        <v>2497400</v>
+        <v>2589900</v>
       </c>
       <c r="I43" s="3">
-        <v>2557300</v>
+        <v>2652000</v>
       </c>
       <c r="J43" s="3">
-        <v>2414100</v>
+        <v>2503500</v>
       </c>
       <c r="K43" s="3">
         <v>2202400</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>131900</v>
+        <v>136800</v>
       </c>
       <c r="E44" s="3">
-        <v>233300</v>
+        <v>242000</v>
       </c>
       <c r="F44" s="3">
-        <v>220600</v>
+        <v>228800</v>
       </c>
       <c r="G44" s="3">
-        <v>210500</v>
+        <v>218300</v>
       </c>
       <c r="H44" s="3">
-        <v>221600</v>
+        <v>229800</v>
       </c>
       <c r="I44" s="3">
-        <v>216800</v>
+        <v>224800</v>
       </c>
       <c r="J44" s="3">
-        <v>143500</v>
+        <v>148800</v>
       </c>
       <c r="K44" s="3">
         <v>203400</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1918700</v>
+        <v>1989700</v>
       </c>
       <c r="E45" s="3">
-        <v>1539900</v>
+        <v>1597000</v>
       </c>
       <c r="F45" s="3">
-        <v>280800</v>
+        <v>291200</v>
       </c>
       <c r="G45" s="3">
-        <v>260500</v>
+        <v>270100</v>
       </c>
       <c r="H45" s="3">
-        <v>270200</v>
+        <v>280200</v>
       </c>
       <c r="I45" s="3">
-        <v>186800</v>
+        <v>193700</v>
       </c>
       <c r="J45" s="3">
-        <v>121300</v>
+        <v>125800</v>
       </c>
       <c r="K45" s="3">
         <v>786000</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>6562900</v>
+        <v>6805900</v>
       </c>
       <c r="E46" s="3">
-        <v>6446700</v>
+        <v>6685400</v>
       </c>
       <c r="F46" s="3">
-        <v>5023500</v>
+        <v>5209500</v>
       </c>
       <c r="G46" s="3">
-        <v>4857300</v>
+        <v>5037200</v>
       </c>
       <c r="H46" s="3">
-        <v>4179800</v>
+        <v>4334600</v>
       </c>
       <c r="I46" s="3">
-        <v>4117300</v>
+        <v>4269800</v>
       </c>
       <c r="J46" s="3">
-        <v>4150000</v>
+        <v>4303700</v>
       </c>
       <c r="K46" s="3">
         <v>4447300</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>11908800</v>
+        <v>12349800</v>
       </c>
       <c r="E47" s="3">
-        <v>11206100</v>
+        <v>11621100</v>
       </c>
       <c r="F47" s="3">
-        <v>8728700</v>
+        <v>9051900</v>
       </c>
       <c r="G47" s="3">
-        <v>6842900</v>
+        <v>7096300</v>
       </c>
       <c r="H47" s="3">
-        <v>6616400</v>
+        <v>6861500</v>
       </c>
       <c r="I47" s="3">
-        <v>5924600</v>
+        <v>6144000</v>
       </c>
       <c r="J47" s="3">
-        <v>5151100</v>
+        <v>5341900</v>
       </c>
       <c r="K47" s="3">
         <v>4750700</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>9990800</v>
+        <v>10360800</v>
       </c>
       <c r="E48" s="3">
-        <v>8681900</v>
+        <v>9003400</v>
       </c>
       <c r="F48" s="3">
-        <v>8217400</v>
+        <v>8521700</v>
       </c>
       <c r="G48" s="3">
-        <v>8403100</v>
+        <v>8714300</v>
       </c>
       <c r="H48" s="3">
-        <v>8412900</v>
+        <v>8724500</v>
       </c>
       <c r="I48" s="3">
-        <v>8572000</v>
+        <v>8889500</v>
       </c>
       <c r="J48" s="3">
-        <v>8272100</v>
+        <v>8578400</v>
       </c>
       <c r="K48" s="3">
         <v>8285600</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>6330700</v>
+        <v>6565100</v>
       </c>
       <c r="E49" s="3">
-        <v>6846200</v>
+        <v>7099700</v>
       </c>
       <c r="F49" s="3">
-        <v>4456600</v>
+        <v>4621700</v>
       </c>
       <c r="G49" s="3">
-        <v>4624100</v>
+        <v>4795400</v>
       </c>
       <c r="H49" s="3">
-        <v>3412800</v>
+        <v>3539200</v>
       </c>
       <c r="I49" s="3">
-        <v>3565300</v>
+        <v>3697300</v>
       </c>
       <c r="J49" s="3">
-        <v>3632100</v>
+        <v>3766600</v>
       </c>
       <c r="K49" s="3">
         <v>3724700</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1342400</v>
+        <v>1392100</v>
       </c>
       <c r="E52" s="3">
-        <v>1138200</v>
+        <v>1180300</v>
       </c>
       <c r="F52" s="3">
-        <v>651200</v>
+        <v>675300</v>
       </c>
       <c r="G52" s="3">
-        <v>623700</v>
+        <v>646800</v>
       </c>
       <c r="H52" s="3">
-        <v>528900</v>
+        <v>548500</v>
       </c>
       <c r="I52" s="3">
-        <v>453200</v>
+        <v>470000</v>
       </c>
       <c r="J52" s="3">
-        <v>321800</v>
+        <v>333700</v>
       </c>
       <c r="K52" s="3">
         <v>291900</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>36135400</v>
+        <v>37473800</v>
       </c>
       <c r="E54" s="3">
-        <v>34319000</v>
+        <v>35590100</v>
       </c>
       <c r="F54" s="3">
-        <v>27077200</v>
+        <v>28080100</v>
       </c>
       <c r="G54" s="3">
-        <v>25351100</v>
+        <v>26290000</v>
       </c>
       <c r="H54" s="3">
-        <v>23150900</v>
+        <v>24008400</v>
       </c>
       <c r="I54" s="3">
-        <v>22632400</v>
+        <v>23470600</v>
       </c>
       <c r="J54" s="3">
-        <v>21527000</v>
+        <v>22324300</v>
       </c>
       <c r="K54" s="3">
         <v>21500300</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>355000</v>
+        <v>368200</v>
       </c>
       <c r="E57" s="3">
-        <v>308900</v>
+        <v>320300</v>
       </c>
       <c r="F57" s="3">
-        <v>284900</v>
+        <v>295400</v>
       </c>
       <c r="G57" s="3">
-        <v>326000</v>
+        <v>338100</v>
       </c>
       <c r="H57" s="3">
-        <v>226600</v>
+        <v>235000</v>
       </c>
       <c r="I57" s="3">
-        <v>223200</v>
+        <v>231400</v>
       </c>
       <c r="J57" s="3">
-        <v>173900</v>
+        <v>180400</v>
       </c>
       <c r="K57" s="3">
         <v>1734500</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1087200</v>
+        <v>1127400</v>
       </c>
       <c r="E58" s="3">
-        <v>862100</v>
+        <v>894000</v>
       </c>
       <c r="F58" s="3">
-        <v>1345400</v>
+        <v>1395200</v>
       </c>
       <c r="G58" s="3">
-        <v>721800</v>
+        <v>748500</v>
       </c>
       <c r="H58" s="3">
-        <v>780100</v>
+        <v>809000</v>
       </c>
       <c r="I58" s="3">
-        <v>778500</v>
+        <v>807300</v>
       </c>
       <c r="J58" s="3">
-        <v>1238000</v>
+        <v>1283900</v>
       </c>
       <c r="K58" s="3">
         <v>1254200</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4865900</v>
+        <v>5046100</v>
       </c>
       <c r="E59" s="3">
-        <v>4375600</v>
+        <v>4537700</v>
       </c>
       <c r="F59" s="3">
-        <v>4128100</v>
+        <v>4281000</v>
       </c>
       <c r="G59" s="3">
-        <v>4172000</v>
+        <v>4326500</v>
       </c>
       <c r="H59" s="3">
-        <v>3251000</v>
+        <v>3371400</v>
       </c>
       <c r="I59" s="3">
-        <v>3388800</v>
+        <v>3514300</v>
       </c>
       <c r="J59" s="3">
-        <v>3504100</v>
+        <v>3633900</v>
       </c>
       <c r="K59" s="3">
         <v>2198200</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6308100</v>
+        <v>6541700</v>
       </c>
       <c r="E60" s="3">
-        <v>5546500</v>
+        <v>5751900</v>
       </c>
       <c r="F60" s="3">
-        <v>5758400</v>
+        <v>5971700</v>
       </c>
       <c r="G60" s="3">
-        <v>5219700</v>
+        <v>5413000</v>
       </c>
       <c r="H60" s="3">
-        <v>4257800</v>
+        <v>4415500</v>
       </c>
       <c r="I60" s="3">
-        <v>4390500</v>
+        <v>4553100</v>
       </c>
       <c r="J60" s="3">
-        <v>4916100</v>
+        <v>5098100</v>
       </c>
       <c r="K60" s="3">
         <v>5186900</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7804000</v>
+        <v>8093000</v>
       </c>
       <c r="E61" s="3">
-        <v>6955900</v>
+        <v>7213600</v>
       </c>
       <c r="F61" s="3">
-        <v>4704500</v>
+        <v>4878800</v>
       </c>
       <c r="G61" s="3">
-        <v>5247700</v>
+        <v>5442100</v>
       </c>
       <c r="H61" s="3">
-        <v>5314200</v>
+        <v>5511000</v>
       </c>
       <c r="I61" s="3">
-        <v>4697100</v>
+        <v>4871100</v>
       </c>
       <c r="J61" s="3">
-        <v>4061500</v>
+        <v>4212000</v>
       </c>
       <c r="K61" s="3">
         <v>4511200</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3536300</v>
+        <v>3667300</v>
       </c>
       <c r="E62" s="3">
-        <v>3713600</v>
+        <v>3851200</v>
       </c>
       <c r="F62" s="3">
-        <v>2010700</v>
+        <v>2085100</v>
       </c>
       <c r="G62" s="3">
-        <v>1829400</v>
+        <v>1897100</v>
       </c>
       <c r="H62" s="3">
-        <v>1126000</v>
+        <v>1167700</v>
       </c>
       <c r="I62" s="3">
-        <v>1193700</v>
+        <v>1237900</v>
       </c>
       <c r="J62" s="3">
-        <v>1074500</v>
+        <v>1114200</v>
       </c>
       <c r="K62" s="3">
         <v>1004100</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>17540400</v>
+        <v>18190000</v>
       </c>
       <c r="E66" s="3">
-        <v>16117600</v>
+        <v>16714600</v>
       </c>
       <c r="F66" s="3">
-        <v>12625100</v>
+        <v>13092700</v>
       </c>
       <c r="G66" s="3">
-        <v>12414300</v>
+        <v>12874100</v>
       </c>
       <c r="H66" s="3">
-        <v>10797500</v>
+        <v>11197500</v>
       </c>
       <c r="I66" s="3">
-        <v>10881900</v>
+        <v>11285000</v>
       </c>
       <c r="J66" s="3">
-        <v>10630600</v>
+        <v>11024300</v>
       </c>
       <c r="K66" s="3">
         <v>11542300</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>18010600</v>
+        <v>18677600</v>
       </c>
       <c r="E72" s="3">
-        <v>17937100</v>
+        <v>18601400</v>
       </c>
       <c r="F72" s="3">
-        <v>14447100</v>
+        <v>14982200</v>
       </c>
       <c r="G72" s="3">
-        <v>12922100</v>
+        <v>13400700</v>
       </c>
       <c r="H72" s="3">
-        <v>12156200</v>
+        <v>12606400</v>
       </c>
       <c r="I72" s="3">
-        <v>11492800</v>
+        <v>11918400</v>
       </c>
       <c r="J72" s="3">
-        <v>10613000</v>
+        <v>11006100</v>
       </c>
       <c r="K72" s="3">
         <v>10163200</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>18595000</v>
+        <v>19283700</v>
       </c>
       <c r="E76" s="3">
-        <v>18201400</v>
+        <v>18875500</v>
       </c>
       <c r="F76" s="3">
-        <v>14452100</v>
+        <v>14987400</v>
       </c>
       <c r="G76" s="3">
-        <v>12936800</v>
+        <v>13416000</v>
       </c>
       <c r="H76" s="3">
-        <v>12353400</v>
+        <v>12810900</v>
       </c>
       <c r="I76" s="3">
-        <v>11750500</v>
+        <v>12185700</v>
       </c>
       <c r="J76" s="3">
-        <v>10896400</v>
+        <v>11300000</v>
       </c>
       <c r="K76" s="3">
         <v>9958000</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>708900</v>
+        <v>735100</v>
       </c>
       <c r="E81" s="3">
-        <v>2520800</v>
+        <v>2614200</v>
       </c>
       <c r="F81" s="3">
-        <v>2092200</v>
+        <v>2169700</v>
       </c>
       <c r="G81" s="3">
-        <v>1343900</v>
+        <v>1393700</v>
       </c>
       <c r="H81" s="3">
-        <v>1216400</v>
+        <v>1261500</v>
       </c>
       <c r="I81" s="3">
-        <v>1445300</v>
+        <v>1498800</v>
       </c>
       <c r="J81" s="3">
-        <v>1320700</v>
+        <v>1369700</v>
       </c>
       <c r="K81" s="3">
         <v>967400</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3188000</v>
+        <v>3306100</v>
       </c>
       <c r="E83" s="3">
-        <v>2660300</v>
+        <v>2758800</v>
       </c>
       <c r="F83" s="3">
-        <v>2630500</v>
+        <v>2727900</v>
       </c>
       <c r="G83" s="3">
-        <v>2485500</v>
+        <v>2577600</v>
       </c>
       <c r="H83" s="3">
-        <v>2424700</v>
+        <v>2514500</v>
       </c>
       <c r="I83" s="3">
-        <v>2342400</v>
+        <v>2429200</v>
       </c>
       <c r="J83" s="3">
-        <v>2292100</v>
+        <v>2377000</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>24</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3228700</v>
+        <v>3348300</v>
       </c>
       <c r="E89" s="3">
-        <v>3509400</v>
+        <v>3639400</v>
       </c>
       <c r="F89" s="3">
-        <v>3123200</v>
+        <v>3238900</v>
       </c>
       <c r="G89" s="3">
-        <v>3437000</v>
+        <v>3564300</v>
       </c>
       <c r="H89" s="3">
-        <v>3060300</v>
+        <v>3173600</v>
       </c>
       <c r="I89" s="3">
-        <v>2978700</v>
+        <v>3089000</v>
       </c>
       <c r="J89" s="3">
-        <v>2882400</v>
+        <v>2989200</v>
       </c>
       <c r="K89" s="3">
         <v>5297400</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2734500</v>
+        <v>-2835700</v>
       </c>
       <c r="E91" s="3">
-        <v>-2261800</v>
+        <v>-2345600</v>
       </c>
       <c r="F91" s="3">
-        <v>-2199800</v>
+        <v>-2281300</v>
       </c>
       <c r="G91" s="3">
-        <v>-2017300</v>
+        <v>-2092000</v>
       </c>
       <c r="H91" s="3">
-        <v>-2007800</v>
+        <v>-2082200</v>
       </c>
       <c r="I91" s="3">
-        <v>-2436500</v>
+        <v>-2526700</v>
       </c>
       <c r="J91" s="3">
-        <v>-2332100</v>
+        <v>-2418500</v>
       </c>
       <c r="K91" s="3">
         <v>-2559300</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2901800</v>
+        <v>-3009300</v>
       </c>
       <c r="E94" s="3">
-        <v>-3278700</v>
+        <v>-3400100</v>
       </c>
       <c r="F94" s="3">
-        <v>-2487200</v>
+        <v>-2579300</v>
       </c>
       <c r="G94" s="3">
-        <v>-1994400</v>
+        <v>-2068300</v>
       </c>
       <c r="H94" s="3">
-        <v>-2333200</v>
+        <v>-2419600</v>
       </c>
       <c r="I94" s="3">
-        <v>-2983400</v>
+        <v>-3093900</v>
       </c>
       <c r="J94" s="3">
-        <v>-2030200</v>
+        <v>-2105400</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>24</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-582100</v>
+        <v>-603700</v>
       </c>
       <c r="E96" s="3">
-        <v>-571900</v>
+        <v>-593100</v>
       </c>
       <c r="F96" s="3">
-        <v>-571900</v>
+        <v>-593100</v>
       </c>
       <c r="G96" s="3">
-        <v>-571900</v>
+        <v>-593100</v>
       </c>
       <c r="H96" s="3">
-        <v>-541500</v>
+        <v>-561500</v>
       </c>
       <c r="I96" s="3">
-        <v>-540100</v>
+        <v>-560100</v>
       </c>
       <c r="J96" s="3">
-        <v>-531300</v>
+        <v>-551000</v>
       </c>
       <c r="K96" s="3">
         <v>-561400</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-515800</v>
+        <v>-534900</v>
       </c>
       <c r="E100" s="3">
-        <v>-193000</v>
+        <v>-200200</v>
       </c>
       <c r="F100" s="3">
-        <v>-669600</v>
+        <v>-694400</v>
       </c>
       <c r="G100" s="3">
-        <v>-846300</v>
+        <v>-877700</v>
       </c>
       <c r="H100" s="3">
-        <v>-781300</v>
+        <v>-810200</v>
       </c>
       <c r="I100" s="3">
-        <v>-453100</v>
+        <v>-469900</v>
       </c>
       <c r="J100" s="3">
-        <v>-464300</v>
+        <v>-481500</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>24</v>
@@ -3463,13 +3463,13 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-2100</v>
+        <v>-2200</v>
       </c>
       <c r="E101" s="3">
         <v>2000</v>
       </c>
       <c r="F101" s="3">
-        <v>-4900</v>
+        <v>-5100</v>
       </c>
       <c r="G101" s="3">
         <v>200</v>
@@ -3481,7 +3481,7 @@
         <v>800</v>
       </c>
       <c r="J101" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>24</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-191100</v>
+        <v>-198100</v>
       </c>
       <c r="E102" s="3">
-        <v>39700</v>
+        <v>41100</v>
       </c>
       <c r="F102" s="3">
-        <v>-38500</v>
+        <v>-39900</v>
       </c>
       <c r="G102" s="3">
-        <v>596400</v>
+        <v>618500</v>
       </c>
       <c r="H102" s="3">
-        <v>-53100</v>
+        <v>-55000</v>
       </c>
       <c r="I102" s="3">
-        <v>-457000</v>
+        <v>-473900</v>
       </c>
       <c r="J102" s="3">
-        <v>387600</v>
+        <v>402000</v>
       </c>
       <c r="K102" s="3">
         <v>832800</v>

--- a/AAII_Financials/Yearly/SKM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SKM_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>14904700</v>
+        <v>16146800</v>
       </c>
       <c r="E8" s="3">
-        <v>14174100</v>
+        <v>15355300</v>
       </c>
       <c r="F8" s="3">
-        <v>14716800</v>
+        <v>15943200</v>
       </c>
       <c r="G8" s="3">
-        <v>14357100</v>
+        <v>15553600</v>
       </c>
       <c r="H8" s="3">
-        <v>14394900</v>
+        <v>15594400</v>
       </c>
       <c r="I8" s="3">
-        <v>14457600</v>
+        <v>15662400</v>
       </c>
       <c r="J8" s="3">
-        <v>14002000</v>
+        <v>15168800</v>
       </c>
       <c r="K8" s="3">
         <v>13861600</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>632000</v>
+        <v>684600</v>
       </c>
       <c r="E9" s="3">
-        <v>679100</v>
+        <v>735600</v>
       </c>
       <c r="F9" s="3">
-        <v>735000</v>
+        <v>796300</v>
       </c>
       <c r="G9" s="3">
-        <v>801600</v>
+        <v>868400</v>
       </c>
       <c r="H9" s="3">
-        <v>804400</v>
+        <v>871400</v>
       </c>
       <c r="I9" s="3">
-        <v>1172900</v>
+        <v>1270700</v>
       </c>
       <c r="J9" s="3">
-        <v>1253800</v>
+        <v>1358200</v>
       </c>
       <c r="K9" s="3">
         <v>1089700</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>14272700</v>
+        <v>15462100</v>
       </c>
       <c r="E10" s="3">
-        <v>13495100</v>
+        <v>14619700</v>
       </c>
       <c r="F10" s="3">
-        <v>13981800</v>
+        <v>15146900</v>
       </c>
       <c r="G10" s="3">
-        <v>13555500</v>
+        <v>14685200</v>
       </c>
       <c r="H10" s="3">
-        <v>13590500</v>
+        <v>14723000</v>
       </c>
       <c r="I10" s="3">
-        <v>13284700</v>
+        <v>14391800</v>
       </c>
       <c r="J10" s="3">
-        <v>12748200</v>
+        <v>13810600</v>
       </c>
       <c r="K10" s="3">
         <v>12771900</v>
@@ -831,25 +831,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>328700</v>
+        <v>356100</v>
       </c>
       <c r="E12" s="3">
-        <v>325600</v>
+        <v>352800</v>
       </c>
       <c r="F12" s="3">
-        <v>332000</v>
+        <v>359700</v>
       </c>
       <c r="G12" s="3">
-        <v>289600</v>
+        <v>313800</v>
       </c>
       <c r="H12" s="3">
-        <v>265300</v>
+        <v>287400</v>
       </c>
       <c r="I12" s="3">
-        <v>328400</v>
+        <v>355800</v>
       </c>
       <c r="J12" s="3">
-        <v>296000</v>
+        <v>320700</v>
       </c>
       <c r="K12" s="3">
         <v>255800</v>
@@ -897,25 +897,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-1600</v>
+        <v>61500</v>
       </c>
       <c r="E14" s="3">
-        <v>217600</v>
+        <v>235700</v>
       </c>
       <c r="F14" s="3">
-        <v>57600</v>
+        <v>62400</v>
       </c>
       <c r="G14" s="3">
-        <v>20600</v>
+        <v>22300</v>
       </c>
       <c r="H14" s="3">
-        <v>30100</v>
+        <v>32600</v>
       </c>
       <c r="I14" s="3">
-        <v>39900</v>
+        <v>43200</v>
       </c>
       <c r="J14" s="3">
-        <v>11600</v>
+        <v>12500</v>
       </c>
       <c r="K14" s="3">
         <v>33500</v>
@@ -930,25 +930,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>3168000</v>
+        <v>3432100</v>
       </c>
       <c r="E15" s="3">
-        <v>2625900</v>
+        <v>2844800</v>
       </c>
       <c r="F15" s="3">
-        <v>2601900</v>
+        <v>2818700</v>
       </c>
       <c r="G15" s="3">
-        <v>2471200</v>
+        <v>2677100</v>
       </c>
       <c r="H15" s="3">
-        <v>2390000</v>
+        <v>2589200</v>
       </c>
       <c r="I15" s="3">
-        <v>2280400</v>
+        <v>2470400</v>
       </c>
       <c r="J15" s="3">
-        <v>2235800</v>
+        <v>2422100</v>
       </c>
       <c r="K15" s="3">
         <v>2043100</v>
@@ -975,25 +975,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>13970700</v>
+        <v>15198200</v>
       </c>
       <c r="E17" s="3">
-        <v>13382200</v>
+        <v>14497400</v>
       </c>
       <c r="F17" s="3">
-        <v>13483600</v>
+        <v>14607300</v>
       </c>
       <c r="G17" s="3">
-        <v>13087700</v>
+        <v>14178300</v>
       </c>
       <c r="H17" s="3">
-        <v>12990200</v>
+        <v>14072800</v>
       </c>
       <c r="I17" s="3">
-        <v>13107100</v>
+        <v>14199300</v>
       </c>
       <c r="J17" s="3">
-        <v>12676100</v>
+        <v>13732500</v>
       </c>
       <c r="K17" s="3">
         <v>12379700</v>
@@ -1008,25 +1008,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>934000</v>
+        <v>948600</v>
       </c>
       <c r="E18" s="3">
-        <v>791900</v>
+        <v>857900</v>
       </c>
       <c r="F18" s="3">
-        <v>1233200</v>
+        <v>1335900</v>
       </c>
       <c r="G18" s="3">
-        <v>1269400</v>
+        <v>1375200</v>
       </c>
       <c r="H18" s="3">
-        <v>1404600</v>
+        <v>1521700</v>
       </c>
       <c r="I18" s="3">
-        <v>1350600</v>
+        <v>1463100</v>
       </c>
       <c r="J18" s="3">
-        <v>1325900</v>
+        <v>1436300</v>
       </c>
       <c r="K18" s="3">
         <v>1481900</v>
@@ -1056,25 +1056,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>376900</v>
+        <v>471500</v>
       </c>
       <c r="E20" s="3">
-        <v>2806000</v>
+        <v>3039900</v>
       </c>
       <c r="F20" s="3">
-        <v>1876800</v>
+        <v>2033200</v>
       </c>
       <c r="G20" s="3">
-        <v>735300</v>
+        <v>796600</v>
       </c>
       <c r="H20" s="3">
-        <v>555100</v>
+        <v>601400</v>
       </c>
       <c r="I20" s="3">
-        <v>814700</v>
+        <v>882600</v>
       </c>
       <c r="J20" s="3">
-        <v>487600</v>
+        <v>528300</v>
       </c>
       <c r="K20" s="3">
         <v>167300</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>4617000</v>
+        <v>4962400</v>
       </c>
       <c r="E21" s="3">
-        <v>6356800</v>
+        <v>6853700</v>
       </c>
       <c r="F21" s="3">
-        <v>5837900</v>
+        <v>6291900</v>
       </c>
       <c r="G21" s="3">
-        <v>4582300</v>
+        <v>4933500</v>
       </c>
       <c r="H21" s="3">
-        <v>4474300</v>
+        <v>4817200</v>
       </c>
       <c r="I21" s="3">
-        <v>4594500</v>
+        <v>4948400</v>
       </c>
       <c r="J21" s="3">
-        <v>4190500</v>
+        <v>4511400</v>
       </c>
       <c r="K21" s="3">
         <v>3870200</v>
@@ -1122,25 +1122,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>334200</v>
+        <v>362100</v>
       </c>
       <c r="E22" s="3">
-        <v>258100</v>
+        <v>279700</v>
       </c>
       <c r="F22" s="3">
-        <v>251200</v>
+        <v>272200</v>
       </c>
       <c r="G22" s="3">
-        <v>244000</v>
+        <v>264300</v>
       </c>
       <c r="H22" s="3">
-        <v>250000</v>
+        <v>270900</v>
       </c>
       <c r="I22" s="3">
-        <v>272100</v>
+        <v>294800</v>
       </c>
       <c r="J22" s="3">
-        <v>278700</v>
+        <v>302000</v>
       </c>
       <c r="K22" s="3">
         <v>346400</v>
@@ -1155,25 +1155,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>976600</v>
+        <v>1058000</v>
       </c>
       <c r="E23" s="3">
-        <v>3339800</v>
+        <v>3618100</v>
       </c>
       <c r="F23" s="3">
-        <v>2858700</v>
+        <v>3097000</v>
       </c>
       <c r="G23" s="3">
-        <v>1760800</v>
+        <v>1907500</v>
       </c>
       <c r="H23" s="3">
-        <v>1709700</v>
+        <v>1852200</v>
       </c>
       <c r="I23" s="3">
-        <v>1893200</v>
+        <v>2051000</v>
       </c>
       <c r="J23" s="3">
-        <v>1534800</v>
+        <v>1662700</v>
       </c>
       <c r="K23" s="3">
         <v>1302700</v>
@@ -1188,25 +1188,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>252600</v>
+        <v>273600</v>
       </c>
       <c r="E24" s="3">
-        <v>708900</v>
+        <v>768000</v>
       </c>
       <c r="F24" s="3">
-        <v>626300</v>
+        <v>678500</v>
       </c>
       <c r="G24" s="3">
-        <v>366300</v>
+        <v>396800</v>
       </c>
       <c r="H24" s="3">
-        <v>436400</v>
+        <v>472700</v>
       </c>
       <c r="I24" s="3">
-        <v>381800</v>
+        <v>413600</v>
       </c>
       <c r="J24" s="3">
-        <v>336700</v>
+        <v>364700</v>
       </c>
       <c r="K24" s="3">
         <v>248500</v>
@@ -1254,25 +1254,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>724000</v>
+        <v>784400</v>
       </c>
       <c r="E26" s="3">
-        <v>2630900</v>
+        <v>2850100</v>
       </c>
       <c r="F26" s="3">
-        <v>2232400</v>
+        <v>2418400</v>
       </c>
       <c r="G26" s="3">
-        <v>1394500</v>
+        <v>1510700</v>
       </c>
       <c r="H26" s="3">
-        <v>1273300</v>
+        <v>1379500</v>
       </c>
       <c r="I26" s="3">
-        <v>1511400</v>
+        <v>1637400</v>
       </c>
       <c r="J26" s="3">
-        <v>1198100</v>
+        <v>1297900</v>
       </c>
       <c r="K26" s="3">
         <v>1054200</v>
@@ -1287,25 +1287,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>735100</v>
+        <v>796400</v>
       </c>
       <c r="E27" s="3">
-        <v>2614200</v>
+        <v>2832000</v>
       </c>
       <c r="F27" s="3">
-        <v>2169700</v>
+        <v>2350500</v>
       </c>
       <c r="G27" s="3">
-        <v>1393700</v>
+        <v>1509800</v>
       </c>
       <c r="H27" s="3">
-        <v>1261500</v>
+        <v>1366600</v>
       </c>
       <c r="I27" s="3">
-        <v>1498800</v>
+        <v>1623700</v>
       </c>
       <c r="J27" s="3">
-        <v>1215700</v>
+        <v>1317000</v>
       </c>
       <c r="K27" s="3">
         <v>1100800</v>
@@ -1371,7 +1371,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
-        <v>153900</v>
+        <v>166800</v>
       </c>
       <c r="K29" s="3">
         <v>-133300</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-376900</v>
+        <v>-471500</v>
       </c>
       <c r="E32" s="3">
-        <v>-2806000</v>
+        <v>-3039900</v>
       </c>
       <c r="F32" s="3">
-        <v>-1876800</v>
+        <v>-2033200</v>
       </c>
       <c r="G32" s="3">
-        <v>-735300</v>
+        <v>-796600</v>
       </c>
       <c r="H32" s="3">
-        <v>-555100</v>
+        <v>-601400</v>
       </c>
       <c r="I32" s="3">
-        <v>-814700</v>
+        <v>-882600</v>
       </c>
       <c r="J32" s="3">
-        <v>-487600</v>
+        <v>-528300</v>
       </c>
       <c r="K32" s="3">
         <v>-167300</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>735100</v>
+        <v>796400</v>
       </c>
       <c r="E33" s="3">
-        <v>2614200</v>
+        <v>2832000</v>
       </c>
       <c r="F33" s="3">
-        <v>2169700</v>
+        <v>2350500</v>
       </c>
       <c r="G33" s="3">
-        <v>1393700</v>
+        <v>1509800</v>
       </c>
       <c r="H33" s="3">
-        <v>1261500</v>
+        <v>1366600</v>
       </c>
       <c r="I33" s="3">
-        <v>1498800</v>
+        <v>1623700</v>
       </c>
       <c r="J33" s="3">
-        <v>1369700</v>
+        <v>1483800</v>
       </c>
       <c r="K33" s="3">
         <v>967400</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>735100</v>
+        <v>796400</v>
       </c>
       <c r="E35" s="3">
-        <v>2614200</v>
+        <v>2832000</v>
       </c>
       <c r="F35" s="3">
-        <v>2169700</v>
+        <v>2350500</v>
       </c>
       <c r="G35" s="3">
-        <v>1393700</v>
+        <v>1509800</v>
       </c>
       <c r="H35" s="3">
-        <v>1261500</v>
+        <v>1366600</v>
       </c>
       <c r="I35" s="3">
-        <v>1498800</v>
+        <v>1623700</v>
       </c>
       <c r="J35" s="3">
-        <v>1369700</v>
+        <v>1483800</v>
       </c>
       <c r="K35" s="3">
         <v>967400</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1067500</v>
+        <v>1156400</v>
       </c>
       <c r="E41" s="3">
-        <v>1265600</v>
+        <v>1371100</v>
       </c>
       <c r="F41" s="3">
-        <v>1224500</v>
+        <v>1326500</v>
       </c>
       <c r="G41" s="3">
-        <v>1264400</v>
+        <v>1369800</v>
       </c>
       <c r="H41" s="3">
-        <v>645900</v>
+        <v>699700</v>
       </c>
       <c r="I41" s="3">
-        <v>700900</v>
+        <v>759300</v>
       </c>
       <c r="J41" s="3">
-        <v>1174900</v>
+        <v>1272800</v>
       </c>
       <c r="K41" s="3">
         <v>772900</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>757900</v>
+        <v>821100</v>
       </c>
       <c r="E42" s="3">
-        <v>975400</v>
+        <v>1056700</v>
       </c>
       <c r="F42" s="3">
-        <v>563900</v>
+        <v>610900</v>
       </c>
       <c r="G42" s="3">
-        <v>408100</v>
+        <v>442100</v>
       </c>
       <c r="H42" s="3">
-        <v>588700</v>
+        <v>637800</v>
       </c>
       <c r="I42" s="3">
-        <v>498300</v>
+        <v>539800</v>
       </c>
       <c r="J42" s="3">
-        <v>350700</v>
+        <v>380000</v>
       </c>
       <c r="K42" s="3">
         <v>482600</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2854000</v>
+        <v>3091800</v>
       </c>
       <c r="E43" s="3">
-        <v>2605400</v>
+        <v>2822600</v>
       </c>
       <c r="F43" s="3">
-        <v>2901100</v>
+        <v>3142800</v>
       </c>
       <c r="G43" s="3">
-        <v>2876300</v>
+        <v>3116000</v>
       </c>
       <c r="H43" s="3">
-        <v>2589900</v>
+        <v>2805800</v>
       </c>
       <c r="I43" s="3">
-        <v>2652000</v>
+        <v>2873000</v>
       </c>
       <c r="J43" s="3">
-        <v>2503500</v>
+        <v>2712100</v>
       </c>
       <c r="K43" s="3">
         <v>2202400</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>136800</v>
+        <v>148200</v>
       </c>
       <c r="E44" s="3">
-        <v>242000</v>
+        <v>262100</v>
       </c>
       <c r="F44" s="3">
-        <v>228800</v>
+        <v>247900</v>
       </c>
       <c r="G44" s="3">
-        <v>218300</v>
+        <v>236500</v>
       </c>
       <c r="H44" s="3">
-        <v>229800</v>
+        <v>248900</v>
       </c>
       <c r="I44" s="3">
-        <v>224800</v>
+        <v>243600</v>
       </c>
       <c r="J44" s="3">
-        <v>148800</v>
+        <v>161200</v>
       </c>
       <c r="K44" s="3">
         <v>203400</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1989700</v>
+        <v>2155500</v>
       </c>
       <c r="E45" s="3">
-        <v>1597000</v>
+        <v>1730000</v>
       </c>
       <c r="F45" s="3">
-        <v>291200</v>
+        <v>315500</v>
       </c>
       <c r="G45" s="3">
-        <v>270100</v>
+        <v>292600</v>
       </c>
       <c r="H45" s="3">
-        <v>280200</v>
+        <v>303600</v>
       </c>
       <c r="I45" s="3">
-        <v>193700</v>
+        <v>209900</v>
       </c>
       <c r="J45" s="3">
-        <v>125800</v>
+        <v>136300</v>
       </c>
       <c r="K45" s="3">
         <v>786000</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>6805900</v>
+        <v>7373100</v>
       </c>
       <c r="E46" s="3">
-        <v>6685400</v>
+        <v>7242500</v>
       </c>
       <c r="F46" s="3">
-        <v>5209500</v>
+        <v>5643600</v>
       </c>
       <c r="G46" s="3">
-        <v>5037200</v>
+        <v>5456900</v>
       </c>
       <c r="H46" s="3">
-        <v>4334600</v>
+        <v>4695800</v>
       </c>
       <c r="I46" s="3">
-        <v>4269800</v>
+        <v>4625700</v>
       </c>
       <c r="J46" s="3">
-        <v>4303700</v>
+        <v>4662300</v>
       </c>
       <c r="K46" s="3">
         <v>4447300</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>12349800</v>
+        <v>13379000</v>
       </c>
       <c r="E47" s="3">
-        <v>11621100</v>
+        <v>12589600</v>
       </c>
       <c r="F47" s="3">
-        <v>9051900</v>
+        <v>9806300</v>
       </c>
       <c r="G47" s="3">
-        <v>7096300</v>
+        <v>7687700</v>
       </c>
       <c r="H47" s="3">
-        <v>6861500</v>
+        <v>7433300</v>
       </c>
       <c r="I47" s="3">
-        <v>6144000</v>
+        <v>6656000</v>
       </c>
       <c r="J47" s="3">
-        <v>5341900</v>
+        <v>5787100</v>
       </c>
       <c r="K47" s="3">
         <v>4750700</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>10360800</v>
+        <v>11224200</v>
       </c>
       <c r="E48" s="3">
-        <v>9003400</v>
+        <v>9753700</v>
       </c>
       <c r="F48" s="3">
-        <v>8521700</v>
+        <v>9231800</v>
       </c>
       <c r="G48" s="3">
-        <v>8714300</v>
+        <v>9440500</v>
       </c>
       <c r="H48" s="3">
-        <v>8724500</v>
+        <v>9451600</v>
       </c>
       <c r="I48" s="3">
-        <v>8889500</v>
+        <v>9630300</v>
       </c>
       <c r="J48" s="3">
-        <v>8578400</v>
+        <v>9293300</v>
       </c>
       <c r="K48" s="3">
         <v>8285600</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>6565100</v>
+        <v>7112200</v>
       </c>
       <c r="E49" s="3">
-        <v>7099700</v>
+        <v>7691400</v>
       </c>
       <c r="F49" s="3">
-        <v>4621700</v>
+        <v>5006800</v>
       </c>
       <c r="G49" s="3">
-        <v>4795400</v>
+        <v>5195000</v>
       </c>
       <c r="H49" s="3">
-        <v>3539200</v>
+        <v>3834200</v>
       </c>
       <c r="I49" s="3">
-        <v>3697300</v>
+        <v>4005400</v>
       </c>
       <c r="J49" s="3">
-        <v>3766600</v>
+        <v>4080500</v>
       </c>
       <c r="K49" s="3">
         <v>3724700</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1392100</v>
+        <v>1508100</v>
       </c>
       <c r="E52" s="3">
-        <v>1180300</v>
+        <v>1278700</v>
       </c>
       <c r="F52" s="3">
-        <v>675300</v>
+        <v>731500</v>
       </c>
       <c r="G52" s="3">
-        <v>646800</v>
+        <v>700700</v>
       </c>
       <c r="H52" s="3">
-        <v>548500</v>
+        <v>594300</v>
       </c>
       <c r="I52" s="3">
-        <v>470000</v>
+        <v>509100</v>
       </c>
       <c r="J52" s="3">
-        <v>333700</v>
+        <v>361500</v>
       </c>
       <c r="K52" s="3">
         <v>291900</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>37473800</v>
+        <v>40596600</v>
       </c>
       <c r="E54" s="3">
-        <v>35590100</v>
+        <v>38555900</v>
       </c>
       <c r="F54" s="3">
-        <v>28080100</v>
+        <v>30420100</v>
       </c>
       <c r="G54" s="3">
-        <v>26290000</v>
+        <v>28480900</v>
       </c>
       <c r="H54" s="3">
-        <v>24008400</v>
+        <v>26009100</v>
       </c>
       <c r="I54" s="3">
-        <v>23470600</v>
+        <v>25426500</v>
       </c>
       <c r="J54" s="3">
-        <v>22324300</v>
+        <v>24184600</v>
       </c>
       <c r="K54" s="3">
         <v>21500300</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>368200</v>
+        <v>398900</v>
       </c>
       <c r="E57" s="3">
-        <v>320300</v>
+        <v>347000</v>
       </c>
       <c r="F57" s="3">
-        <v>295400</v>
+        <v>320100</v>
       </c>
       <c r="G57" s="3">
-        <v>338100</v>
+        <v>366200</v>
       </c>
       <c r="H57" s="3">
-        <v>235000</v>
+        <v>254600</v>
       </c>
       <c r="I57" s="3">
-        <v>231400</v>
+        <v>250700</v>
       </c>
       <c r="J57" s="3">
-        <v>180400</v>
+        <v>195400</v>
       </c>
       <c r="K57" s="3">
         <v>1734500</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1127400</v>
+        <v>1221400</v>
       </c>
       <c r="E58" s="3">
-        <v>894000</v>
+        <v>968500</v>
       </c>
       <c r="F58" s="3">
-        <v>1395200</v>
+        <v>1511500</v>
       </c>
       <c r="G58" s="3">
-        <v>748500</v>
+        <v>810900</v>
       </c>
       <c r="H58" s="3">
-        <v>809000</v>
+        <v>876400</v>
       </c>
       <c r="I58" s="3">
-        <v>807300</v>
+        <v>874600</v>
       </c>
       <c r="J58" s="3">
-        <v>1283900</v>
+        <v>1390900</v>
       </c>
       <c r="K58" s="3">
         <v>1254200</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5046100</v>
+        <v>5466600</v>
       </c>
       <c r="E59" s="3">
-        <v>4537700</v>
+        <v>4915800</v>
       </c>
       <c r="F59" s="3">
-        <v>4281000</v>
+        <v>4637800</v>
       </c>
       <c r="G59" s="3">
-        <v>4326500</v>
+        <v>4687000</v>
       </c>
       <c r="H59" s="3">
-        <v>3371400</v>
+        <v>3652400</v>
       </c>
       <c r="I59" s="3">
-        <v>3514300</v>
+        <v>3807200</v>
       </c>
       <c r="J59" s="3">
-        <v>3633900</v>
+        <v>3936700</v>
       </c>
       <c r="K59" s="3">
         <v>2198200</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6541700</v>
+        <v>7086800</v>
       </c>
       <c r="E60" s="3">
-        <v>5751900</v>
+        <v>6231300</v>
       </c>
       <c r="F60" s="3">
-        <v>5971700</v>
+        <v>6469300</v>
       </c>
       <c r="G60" s="3">
-        <v>5413000</v>
+        <v>5864100</v>
       </c>
       <c r="H60" s="3">
-        <v>4415500</v>
+        <v>4783400</v>
       </c>
       <c r="I60" s="3">
-        <v>4553100</v>
+        <v>4932500</v>
       </c>
       <c r="J60" s="3">
-        <v>5098100</v>
+        <v>5523000</v>
       </c>
       <c r="K60" s="3">
         <v>5186900</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>8093000</v>
+        <v>8767400</v>
       </c>
       <c r="E61" s="3">
-        <v>7213600</v>
+        <v>7814700</v>
       </c>
       <c r="F61" s="3">
-        <v>4878800</v>
+        <v>5285300</v>
       </c>
       <c r="G61" s="3">
-        <v>5442100</v>
+        <v>5895600</v>
       </c>
       <c r="H61" s="3">
-        <v>5511000</v>
+        <v>5970200</v>
       </c>
       <c r="I61" s="3">
-        <v>4871100</v>
+        <v>5277000</v>
       </c>
       <c r="J61" s="3">
-        <v>4212000</v>
+        <v>4563000</v>
       </c>
       <c r="K61" s="3">
         <v>4511200</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3667300</v>
+        <v>3972900</v>
       </c>
       <c r="E62" s="3">
-        <v>3851200</v>
+        <v>4172100</v>
       </c>
       <c r="F62" s="3">
-        <v>2085100</v>
+        <v>2258900</v>
       </c>
       <c r="G62" s="3">
-        <v>1897100</v>
+        <v>2055200</v>
       </c>
       <c r="H62" s="3">
-        <v>1167700</v>
+        <v>1265000</v>
       </c>
       <c r="I62" s="3">
-        <v>1237900</v>
+        <v>1341100</v>
       </c>
       <c r="J62" s="3">
-        <v>1114200</v>
+        <v>1207100</v>
       </c>
       <c r="K62" s="3">
         <v>1004100</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>18190000</v>
+        <v>19705900</v>
       </c>
       <c r="E66" s="3">
-        <v>16714600</v>
+        <v>18107400</v>
       </c>
       <c r="F66" s="3">
-        <v>13092700</v>
+        <v>14183700</v>
       </c>
       <c r="G66" s="3">
-        <v>12874100</v>
+        <v>13946900</v>
       </c>
       <c r="H66" s="3">
-        <v>11197500</v>
+        <v>12130600</v>
       </c>
       <c r="I66" s="3">
-        <v>11285000</v>
+        <v>12225400</v>
       </c>
       <c r="J66" s="3">
-        <v>11024300</v>
+        <v>11943000</v>
       </c>
       <c r="K66" s="3">
         <v>11542300</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>18677600</v>
+        <v>20234100</v>
       </c>
       <c r="E72" s="3">
-        <v>18601400</v>
+        <v>20151500</v>
       </c>
       <c r="F72" s="3">
-        <v>14982200</v>
+        <v>16230700</v>
       </c>
       <c r="G72" s="3">
-        <v>13400700</v>
+        <v>14517400</v>
       </c>
       <c r="H72" s="3">
-        <v>12606400</v>
+        <v>13656900</v>
       </c>
       <c r="I72" s="3">
-        <v>11918400</v>
+        <v>12911600</v>
       </c>
       <c r="J72" s="3">
-        <v>11006100</v>
+        <v>11923300</v>
       </c>
       <c r="K72" s="3">
         <v>10163200</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>19283700</v>
+        <v>20890700</v>
       </c>
       <c r="E76" s="3">
-        <v>18875500</v>
+        <v>20448400</v>
       </c>
       <c r="F76" s="3">
-        <v>14987400</v>
+        <v>16236300</v>
       </c>
       <c r="G76" s="3">
-        <v>13416000</v>
+        <v>14534000</v>
       </c>
       <c r="H76" s="3">
-        <v>12810900</v>
+        <v>13878500</v>
       </c>
       <c r="I76" s="3">
-        <v>12185700</v>
+        <v>13201100</v>
       </c>
       <c r="J76" s="3">
-        <v>11300000</v>
+        <v>12241700</v>
       </c>
       <c r="K76" s="3">
         <v>9958000</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>735100</v>
+        <v>796400</v>
       </c>
       <c r="E81" s="3">
-        <v>2614200</v>
+        <v>2832000</v>
       </c>
       <c r="F81" s="3">
-        <v>2169700</v>
+        <v>2350500</v>
       </c>
       <c r="G81" s="3">
-        <v>1393700</v>
+        <v>1509800</v>
       </c>
       <c r="H81" s="3">
-        <v>1261500</v>
+        <v>1366600</v>
       </c>
       <c r="I81" s="3">
-        <v>1498800</v>
+        <v>1623700</v>
       </c>
       <c r="J81" s="3">
-        <v>1369700</v>
+        <v>1483800</v>
       </c>
       <c r="K81" s="3">
         <v>967400</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3306100</v>
+        <v>3581600</v>
       </c>
       <c r="E83" s="3">
-        <v>2758800</v>
+        <v>2988700</v>
       </c>
       <c r="F83" s="3">
-        <v>2727900</v>
+        <v>2955200</v>
       </c>
       <c r="G83" s="3">
-        <v>2577600</v>
+        <v>2792400</v>
       </c>
       <c r="H83" s="3">
-        <v>2514500</v>
+        <v>2724100</v>
       </c>
       <c r="I83" s="3">
-        <v>2429200</v>
+        <v>2631600</v>
       </c>
       <c r="J83" s="3">
-        <v>2377000</v>
+        <v>2575100</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>24</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3348300</v>
+        <v>3627300</v>
       </c>
       <c r="E89" s="3">
-        <v>3639400</v>
+        <v>3942600</v>
       </c>
       <c r="F89" s="3">
-        <v>3238900</v>
+        <v>3508800</v>
       </c>
       <c r="G89" s="3">
-        <v>3564300</v>
+        <v>3861300</v>
       </c>
       <c r="H89" s="3">
-        <v>3173600</v>
+        <v>3438100</v>
       </c>
       <c r="I89" s="3">
-        <v>3089000</v>
+        <v>3346400</v>
       </c>
       <c r="J89" s="3">
-        <v>2989200</v>
+        <v>3238300</v>
       </c>
       <c r="K89" s="3">
         <v>5297400</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2835700</v>
+        <v>-3072100</v>
       </c>
       <c r="E91" s="3">
-        <v>-2345600</v>
+        <v>-2541100</v>
       </c>
       <c r="F91" s="3">
-        <v>-2281300</v>
+        <v>-2471400</v>
       </c>
       <c r="G91" s="3">
-        <v>-2092000</v>
+        <v>-2266300</v>
       </c>
       <c r="H91" s="3">
-        <v>-2082200</v>
+        <v>-2255700</v>
       </c>
       <c r="I91" s="3">
-        <v>-2526700</v>
+        <v>-2737300</v>
       </c>
       <c r="J91" s="3">
-        <v>-2418500</v>
+        <v>-2620000</v>
       </c>
       <c r="K91" s="3">
         <v>-2559300</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3009300</v>
+        <v>-3260100</v>
       </c>
       <c r="E94" s="3">
-        <v>-3400100</v>
+        <v>-3683400</v>
       </c>
       <c r="F94" s="3">
-        <v>-2579300</v>
+        <v>-2794300</v>
       </c>
       <c r="G94" s="3">
-        <v>-2068300</v>
+        <v>-2240600</v>
       </c>
       <c r="H94" s="3">
-        <v>-2419600</v>
+        <v>-2621300</v>
       </c>
       <c r="I94" s="3">
-        <v>-3093900</v>
+        <v>-3351700</v>
       </c>
       <c r="J94" s="3">
-        <v>-2105400</v>
+        <v>-2280900</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>24</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-603700</v>
+        <v>-654000</v>
       </c>
       <c r="E96" s="3">
-        <v>-593100</v>
+        <v>-642500</v>
       </c>
       <c r="F96" s="3">
-        <v>-593100</v>
+        <v>-642500</v>
       </c>
       <c r="G96" s="3">
-        <v>-593100</v>
+        <v>-642500</v>
       </c>
       <c r="H96" s="3">
-        <v>-561500</v>
+        <v>-608300</v>
       </c>
       <c r="I96" s="3">
-        <v>-560100</v>
+        <v>-606800</v>
       </c>
       <c r="J96" s="3">
-        <v>-551000</v>
+        <v>-596900</v>
       </c>
       <c r="K96" s="3">
         <v>-561400</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-534900</v>
+        <v>-579500</v>
       </c>
       <c r="E100" s="3">
-        <v>-200200</v>
+        <v>-216900</v>
       </c>
       <c r="F100" s="3">
-        <v>-694400</v>
+        <v>-752200</v>
       </c>
       <c r="G100" s="3">
-        <v>-877700</v>
+        <v>-950800</v>
       </c>
       <c r="H100" s="3">
-        <v>-810200</v>
+        <v>-877800</v>
       </c>
       <c r="I100" s="3">
-        <v>-469900</v>
+        <v>-509100</v>
       </c>
       <c r="J100" s="3">
-        <v>-481500</v>
+        <v>-521600</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>24</v>
@@ -3463,22 +3463,22 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-2200</v>
+        <v>-2400</v>
       </c>
       <c r="E101" s="3">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="F101" s="3">
-        <v>-5100</v>
+        <v>-5600</v>
       </c>
       <c r="G101" s="3">
         <v>200</v>
       </c>
       <c r="H101" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="I101" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="J101" s="3">
         <v>-400</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-198100</v>
+        <v>-214600</v>
       </c>
       <c r="E102" s="3">
-        <v>41100</v>
+        <v>44600</v>
       </c>
       <c r="F102" s="3">
-        <v>-39900</v>
+        <v>-43200</v>
       </c>
       <c r="G102" s="3">
-        <v>618500</v>
+        <v>670100</v>
       </c>
       <c r="H102" s="3">
-        <v>-55000</v>
+        <v>-59600</v>
       </c>
       <c r="I102" s="3">
-        <v>-473900</v>
+        <v>-513400</v>
       </c>
       <c r="J102" s="3">
-        <v>402000</v>
+        <v>435400</v>
       </c>
       <c r="K102" s="3">
         <v>832800</v>

--- a/AAII_Financials/Yearly/SKM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SKM_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
   <si>
     <t>SKM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,153 +665,165 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42004</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41639</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41274</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40908</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>16146800</v>
+        <v>16389700</v>
       </c>
       <c r="E8" s="3">
-        <v>15355300</v>
+        <v>15611800</v>
       </c>
       <c r="F8" s="3">
-        <v>15943200</v>
+        <v>14849100</v>
       </c>
       <c r="G8" s="3">
-        <v>15553600</v>
+        <v>15417600</v>
       </c>
       <c r="H8" s="3">
-        <v>15594400</v>
+        <v>15040800</v>
       </c>
       <c r="I8" s="3">
-        <v>15662400</v>
+        <v>15080300</v>
       </c>
       <c r="J8" s="3">
+        <v>15146100</v>
+      </c>
+      <c r="K8" s="3">
         <v>15168800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>13861600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>14378600</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>684600</v>
+        <v>678200</v>
       </c>
       <c r="E9" s="3">
-        <v>735600</v>
+        <v>662100</v>
       </c>
       <c r="F9" s="3">
-        <v>796300</v>
+        <v>711400</v>
       </c>
       <c r="G9" s="3">
-        <v>868400</v>
+        <v>770000</v>
       </c>
       <c r="H9" s="3">
-        <v>871400</v>
+        <v>839800</v>
       </c>
       <c r="I9" s="3">
-        <v>1270700</v>
+        <v>842700</v>
       </c>
       <c r="J9" s="3">
+        <v>1228800</v>
+      </c>
+      <c r="K9" s="3">
         <v>1358200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1089700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>863300</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>15462100</v>
+        <v>15711500</v>
       </c>
       <c r="E10" s="3">
-        <v>14619700</v>
+        <v>14949800</v>
       </c>
       <c r="F10" s="3">
-        <v>15146900</v>
+        <v>14137700</v>
       </c>
       <c r="G10" s="3">
-        <v>14685200</v>
+        <v>14647600</v>
       </c>
       <c r="H10" s="3">
-        <v>14723000</v>
+        <v>14201000</v>
       </c>
       <c r="I10" s="3">
-        <v>14391800</v>
+        <v>14237600</v>
       </c>
       <c r="J10" s="3">
+        <v>13917300</v>
+      </c>
+      <c r="K10" s="3">
         <v>13810600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>12771900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>13515200</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,41 +837,45 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>356100</v>
+        <v>366500</v>
       </c>
       <c r="E12" s="3">
-        <v>352800</v>
+        <v>344400</v>
       </c>
       <c r="F12" s="3">
-        <v>359700</v>
+        <v>341200</v>
       </c>
       <c r="G12" s="3">
-        <v>313800</v>
+        <v>347800</v>
       </c>
       <c r="H12" s="3">
-        <v>287400</v>
+        <v>303400</v>
       </c>
       <c r="I12" s="3">
-        <v>355800</v>
+        <v>277900</v>
       </c>
       <c r="J12" s="3">
+        <v>344000</v>
+      </c>
+      <c r="K12" s="3">
         <v>320700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>255800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>244200</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -890,75 +906,84 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>61500</v>
+        <v>183800</v>
       </c>
       <c r="E14" s="3">
-        <v>235700</v>
+        <v>59500</v>
       </c>
       <c r="F14" s="3">
-        <v>62400</v>
+        <v>227900</v>
       </c>
       <c r="G14" s="3">
-        <v>22300</v>
+        <v>60300</v>
       </c>
       <c r="H14" s="3">
-        <v>32600</v>
+        <v>21600</v>
       </c>
       <c r="I14" s="3">
-        <v>43200</v>
+        <v>31500</v>
       </c>
       <c r="J14" s="3">
+        <v>41800</v>
+      </c>
+      <c r="K14" s="3">
         <v>12500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>33500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>2700</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>3432100</v>
+        <v>3512200</v>
       </c>
       <c r="E15" s="3">
-        <v>2844800</v>
+        <v>3393900</v>
       </c>
       <c r="F15" s="3">
-        <v>2818700</v>
+        <v>2751000</v>
       </c>
       <c r="G15" s="3">
-        <v>2677100</v>
+        <v>2725800</v>
       </c>
       <c r="H15" s="3">
-        <v>2589200</v>
+        <v>2588900</v>
       </c>
       <c r="I15" s="3">
-        <v>2470400</v>
+        <v>2503900</v>
       </c>
       <c r="J15" s="3">
+        <v>2389000</v>
+      </c>
+      <c r="K15" s="3">
         <v>2422100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>2043100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>2066800</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -969,74 +994,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>15198200</v>
+        <v>15386100</v>
       </c>
       <c r="E17" s="3">
-        <v>14497400</v>
+        <v>14696100</v>
       </c>
       <c r="F17" s="3">
-        <v>14607300</v>
+        <v>14019500</v>
       </c>
       <c r="G17" s="3">
-        <v>14178300</v>
+        <v>14125700</v>
       </c>
       <c r="H17" s="3">
-        <v>14072800</v>
+        <v>13710900</v>
       </c>
       <c r="I17" s="3">
-        <v>14199300</v>
+        <v>13608800</v>
       </c>
       <c r="J17" s="3">
+        <v>13731200</v>
+      </c>
+      <c r="K17" s="3">
         <v>13732500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>12379700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>12408200</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>948600</v>
+        <v>1003600</v>
       </c>
       <c r="E18" s="3">
-        <v>857900</v>
+        <v>915700</v>
       </c>
       <c r="F18" s="3">
-        <v>1335900</v>
+        <v>829600</v>
       </c>
       <c r="G18" s="3">
-        <v>1375200</v>
+        <v>1291900</v>
       </c>
       <c r="H18" s="3">
-        <v>1521700</v>
+        <v>1329900</v>
       </c>
       <c r="I18" s="3">
-        <v>1463100</v>
+        <v>1471500</v>
       </c>
       <c r="J18" s="3">
+        <v>1414900</v>
+      </c>
+      <c r="K18" s="3">
         <v>1436300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1481900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1970400</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1050,173 +1082,189 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>471500</v>
+        <v>999400</v>
       </c>
       <c r="E20" s="3">
-        <v>3039900</v>
+        <v>463300</v>
       </c>
       <c r="F20" s="3">
-        <v>2033200</v>
+        <v>2939700</v>
       </c>
       <c r="G20" s="3">
-        <v>796600</v>
+        <v>1966200</v>
       </c>
       <c r="H20" s="3">
-        <v>601400</v>
+        <v>770300</v>
       </c>
       <c r="I20" s="3">
-        <v>882600</v>
+        <v>581600</v>
       </c>
       <c r="J20" s="3">
+        <v>853500</v>
+      </c>
+      <c r="K20" s="3">
         <v>528300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>167300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>623100</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>4962400</v>
+        <v>5672700</v>
       </c>
       <c r="E21" s="3">
-        <v>6853700</v>
+        <v>4842600</v>
       </c>
       <c r="F21" s="3">
-        <v>6291900</v>
+        <v>6659500</v>
       </c>
       <c r="G21" s="3">
-        <v>4933500</v>
+        <v>6115900</v>
       </c>
       <c r="H21" s="3">
-        <v>4817200</v>
+        <v>4800500</v>
       </c>
       <c r="I21" s="3">
-        <v>4948400</v>
+        <v>4687300</v>
       </c>
       <c r="J21" s="3">
+        <v>4813300</v>
+      </c>
+      <c r="K21" s="3">
         <v>4511400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3870200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>4803100</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>362100</v>
+        <v>351300</v>
       </c>
       <c r="E22" s="3">
-        <v>279700</v>
+        <v>357400</v>
       </c>
       <c r="F22" s="3">
-        <v>272200</v>
+        <v>270400</v>
       </c>
       <c r="G22" s="3">
-        <v>264300</v>
+        <v>263200</v>
       </c>
       <c r="H22" s="3">
-        <v>270900</v>
+        <v>255600</v>
       </c>
       <c r="I22" s="3">
-        <v>294800</v>
+        <v>261900</v>
       </c>
       <c r="J22" s="3">
+        <v>285000</v>
+      </c>
+      <c r="K22" s="3">
         <v>302000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>346400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>576900</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>1058000</v>
+        <v>1651800</v>
       </c>
       <c r="E23" s="3">
-        <v>3618100</v>
+        <v>1021700</v>
       </c>
       <c r="F23" s="3">
-        <v>3097000</v>
+        <v>3498900</v>
       </c>
       <c r="G23" s="3">
-        <v>1907500</v>
+        <v>2994900</v>
       </c>
       <c r="H23" s="3">
-        <v>1852200</v>
+        <v>1844600</v>
       </c>
       <c r="I23" s="3">
-        <v>2051000</v>
+        <v>1791100</v>
       </c>
       <c r="J23" s="3">
+        <v>1983400</v>
+      </c>
+      <c r="K23" s="3">
         <v>1662700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1302700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2016600</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>273600</v>
+        <v>331300</v>
       </c>
       <c r="E24" s="3">
-        <v>768000</v>
+        <v>264200</v>
       </c>
       <c r="F24" s="3">
-        <v>678500</v>
+        <v>742700</v>
       </c>
       <c r="G24" s="3">
-        <v>396800</v>
+        <v>656200</v>
       </c>
       <c r="H24" s="3">
-        <v>472700</v>
+        <v>383700</v>
       </c>
       <c r="I24" s="3">
-        <v>413600</v>
+        <v>457100</v>
       </c>
       <c r="J24" s="3">
+        <v>400000</v>
+      </c>
+      <c r="K24" s="3">
         <v>364700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>248500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>548100</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1247,75 +1295,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>784400</v>
+        <v>1320500</v>
       </c>
       <c r="E26" s="3">
-        <v>2850100</v>
+        <v>757400</v>
       </c>
       <c r="F26" s="3">
-        <v>2418400</v>
+        <v>2756100</v>
       </c>
       <c r="G26" s="3">
-        <v>1510700</v>
+        <v>2338700</v>
       </c>
       <c r="H26" s="3">
-        <v>1379500</v>
+        <v>1460900</v>
       </c>
       <c r="I26" s="3">
-        <v>1637400</v>
+        <v>1334000</v>
       </c>
       <c r="J26" s="3">
+        <v>1583400</v>
+      </c>
+      <c r="K26" s="3">
         <v>1297900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1054200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1468600</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>796400</v>
+        <v>1310800</v>
       </c>
       <c r="E27" s="3">
-        <v>2832000</v>
+        <v>769100</v>
       </c>
       <c r="F27" s="3">
-        <v>2350500</v>
+        <v>2738600</v>
       </c>
       <c r="G27" s="3">
-        <v>1509800</v>
+        <v>2273000</v>
       </c>
       <c r="H27" s="3">
-        <v>1366600</v>
+        <v>1460000</v>
       </c>
       <c r="I27" s="3">
-        <v>1623700</v>
+        <v>1321600</v>
       </c>
       <c r="J27" s="3">
+        <v>1570200</v>
+      </c>
+      <c r="K27" s="3">
         <v>1317000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1100800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1496300</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1346,9 +1403,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1367,21 +1427,24 @@
       <c r="H29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
+      <c r="I29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>166800</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-133300</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-45200</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1412,9 +1475,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1445,75 +1511,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-471500</v>
+        <v>-999400</v>
       </c>
       <c r="E32" s="3">
-        <v>-3039900</v>
+        <v>-463300</v>
       </c>
       <c r="F32" s="3">
-        <v>-2033200</v>
+        <v>-2939700</v>
       </c>
       <c r="G32" s="3">
-        <v>-796600</v>
+        <v>-1966200</v>
       </c>
       <c r="H32" s="3">
-        <v>-601400</v>
+        <v>-770300</v>
       </c>
       <c r="I32" s="3">
-        <v>-882600</v>
+        <v>-581600</v>
       </c>
       <c r="J32" s="3">
+        <v>-853500</v>
+      </c>
+      <c r="K32" s="3">
         <v>-528300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-167300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-623100</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>796400</v>
+        <v>1310800</v>
       </c>
       <c r="E33" s="3">
-        <v>2832000</v>
+        <v>769100</v>
       </c>
       <c r="F33" s="3">
-        <v>2350500</v>
+        <v>2738600</v>
       </c>
       <c r="G33" s="3">
-        <v>1509800</v>
+        <v>2273000</v>
       </c>
       <c r="H33" s="3">
-        <v>1366600</v>
+        <v>1460000</v>
       </c>
       <c r="I33" s="3">
-        <v>1623700</v>
+        <v>1321600</v>
       </c>
       <c r="J33" s="3">
+        <v>1570200</v>
+      </c>
+      <c r="K33" s="3">
         <v>1483800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>967400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1451100</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1544,80 +1619,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>796400</v>
+        <v>1310800</v>
       </c>
       <c r="E35" s="3">
-        <v>2832000</v>
+        <v>769100</v>
       </c>
       <c r="F35" s="3">
-        <v>2350500</v>
+        <v>2738600</v>
       </c>
       <c r="G35" s="3">
-        <v>1509800</v>
+        <v>2273000</v>
       </c>
       <c r="H35" s="3">
-        <v>1366600</v>
+        <v>1460000</v>
       </c>
       <c r="I35" s="3">
-        <v>1623700</v>
+        <v>1321600</v>
       </c>
       <c r="J35" s="3">
+        <v>1570200</v>
+      </c>
+      <c r="K35" s="3">
         <v>1483800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>967400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1451100</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42004</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41639</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41274</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40908</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1631,8 +1715,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1646,305 +1731,333 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1156400</v>
+        <v>1205300</v>
       </c>
       <c r="E41" s="3">
-        <v>1371100</v>
+        <v>1118300</v>
       </c>
       <c r="F41" s="3">
-        <v>1326500</v>
+        <v>1325900</v>
       </c>
       <c r="G41" s="3">
-        <v>1369800</v>
+        <v>1282800</v>
       </c>
       <c r="H41" s="3">
-        <v>699700</v>
+        <v>1324600</v>
       </c>
       <c r="I41" s="3">
-        <v>759300</v>
+        <v>676700</v>
       </c>
       <c r="J41" s="3">
+        <v>734300</v>
+      </c>
+      <c r="K41" s="3">
         <v>1272800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>772900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1485700</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>821100</v>
+        <v>1301800</v>
       </c>
       <c r="E42" s="3">
-        <v>1056700</v>
+        <v>794000</v>
       </c>
       <c r="F42" s="3">
-        <v>610900</v>
+        <v>1021900</v>
       </c>
       <c r="G42" s="3">
-        <v>442100</v>
+        <v>590800</v>
       </c>
       <c r="H42" s="3">
-        <v>637800</v>
+        <v>427600</v>
       </c>
       <c r="I42" s="3">
-        <v>539800</v>
+        <v>616800</v>
       </c>
       <c r="J42" s="3">
+        <v>522000</v>
+      </c>
+      <c r="K42" s="3">
         <v>380000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>482600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>967000</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3091800</v>
+        <v>2966700</v>
       </c>
       <c r="E43" s="3">
-        <v>2822600</v>
+        <v>2988200</v>
       </c>
       <c r="F43" s="3">
-        <v>3142800</v>
+        <v>2729500</v>
       </c>
       <c r="G43" s="3">
-        <v>3116000</v>
+        <v>3039200</v>
       </c>
       <c r="H43" s="3">
-        <v>2805800</v>
+        <v>3013200</v>
       </c>
       <c r="I43" s="3">
-        <v>2873000</v>
+        <v>2713300</v>
       </c>
       <c r="J43" s="3">
+        <v>2778300</v>
+      </c>
+      <c r="K43" s="3">
         <v>2712100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2202400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2549200</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>148200</v>
+        <v>150900</v>
       </c>
       <c r="E44" s="3">
-        <v>262100</v>
+        <v>143300</v>
       </c>
       <c r="F44" s="3">
-        <v>247900</v>
+        <v>253500</v>
       </c>
       <c r="G44" s="3">
-        <v>236500</v>
+        <v>239700</v>
       </c>
       <c r="H44" s="3">
-        <v>248900</v>
+        <v>228700</v>
       </c>
       <c r="I44" s="3">
-        <v>243600</v>
+        <v>240700</v>
       </c>
       <c r="J44" s="3">
+        <v>235500</v>
+      </c>
+      <c r="K44" s="3">
         <v>161200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>203400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>197600</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2155500</v>
+        <v>2097400</v>
       </c>
       <c r="E45" s="3">
-        <v>1730000</v>
+        <v>2074000</v>
       </c>
       <c r="F45" s="3">
-        <v>315500</v>
+        <v>1673000</v>
       </c>
       <c r="G45" s="3">
-        <v>292600</v>
+        <v>305100</v>
       </c>
       <c r="H45" s="3">
-        <v>303600</v>
+        <v>283000</v>
       </c>
       <c r="I45" s="3">
-        <v>209900</v>
+        <v>293600</v>
       </c>
       <c r="J45" s="3">
+        <v>203000</v>
+      </c>
+      <c r="K45" s="3">
         <v>136300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>786000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>306200</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>7373100</v>
+        <v>7722100</v>
       </c>
       <c r="E46" s="3">
-        <v>7242500</v>
+        <v>7117900</v>
       </c>
       <c r="F46" s="3">
-        <v>5643600</v>
+        <v>7003800</v>
       </c>
       <c r="G46" s="3">
-        <v>5456900</v>
+        <v>5457600</v>
       </c>
       <c r="H46" s="3">
-        <v>4695800</v>
+        <v>5277000</v>
       </c>
       <c r="I46" s="3">
-        <v>4625700</v>
+        <v>4541000</v>
       </c>
       <c r="J46" s="3">
+        <v>4473200</v>
+      </c>
+      <c r="K46" s="3">
         <v>4662300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4447300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5505700</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>13379000</v>
+        <v>14475200</v>
       </c>
       <c r="E47" s="3">
-        <v>12589600</v>
+        <v>12944100</v>
       </c>
       <c r="F47" s="3">
-        <v>9806300</v>
+        <v>12174500</v>
       </c>
       <c r="G47" s="3">
-        <v>7687700</v>
+        <v>9483000</v>
       </c>
       <c r="H47" s="3">
-        <v>7433300</v>
+        <v>7434200</v>
       </c>
       <c r="I47" s="3">
-        <v>6656000</v>
+        <v>7188200</v>
       </c>
       <c r="J47" s="3">
+        <v>6436600</v>
+      </c>
+      <c r="K47" s="3">
         <v>5787100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>4750700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2728000</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>11224200</v>
+        <v>11771800</v>
       </c>
       <c r="E48" s="3">
-        <v>9753700</v>
+        <v>11381400</v>
       </c>
       <c r="F48" s="3">
-        <v>9231800</v>
+        <v>9432200</v>
       </c>
       <c r="G48" s="3">
-        <v>9440500</v>
+        <v>8927500</v>
       </c>
       <c r="H48" s="3">
-        <v>9451600</v>
+        <v>9129300</v>
       </c>
       <c r="I48" s="3">
-        <v>9630300</v>
+        <v>9140000</v>
       </c>
       <c r="J48" s="3">
+        <v>9312800</v>
+      </c>
+      <c r="K48" s="3">
         <v>9293300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>8285600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>8373600</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>7112200</v>
+        <v>6858500</v>
       </c>
       <c r="E49" s="3">
-        <v>7691400</v>
+        <v>6877700</v>
       </c>
       <c r="F49" s="3">
-        <v>5006800</v>
+        <v>7437800</v>
       </c>
       <c r="G49" s="3">
-        <v>5195000</v>
+        <v>4841700</v>
       </c>
       <c r="H49" s="3">
-        <v>3834200</v>
+        <v>5023700</v>
       </c>
       <c r="I49" s="3">
-        <v>4005400</v>
+        <v>3707800</v>
       </c>
       <c r="J49" s="3">
+        <v>3873400</v>
+      </c>
+      <c r="K49" s="3">
         <v>4080500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3724700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4271200</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1975,9 +2088,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2008,42 +2124,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1508100</v>
+        <v>1330500</v>
       </c>
       <c r="E52" s="3">
-        <v>1278700</v>
+        <v>1456900</v>
       </c>
       <c r="F52" s="3">
-        <v>731500</v>
+        <v>1236500</v>
       </c>
       <c r="G52" s="3">
-        <v>700700</v>
+        <v>707400</v>
       </c>
       <c r="H52" s="3">
-        <v>594300</v>
+        <v>677600</v>
       </c>
       <c r="I52" s="3">
-        <v>509100</v>
+        <v>574700</v>
       </c>
       <c r="J52" s="3">
+        <v>492300</v>
+      </c>
+      <c r="K52" s="3">
         <v>361500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>291900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1050900</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2074,42 +2196,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>40596600</v>
+        <v>42158100</v>
       </c>
       <c r="E54" s="3">
-        <v>38555900</v>
+        <v>39778100</v>
       </c>
       <c r="F54" s="3">
-        <v>30420100</v>
+        <v>37284800</v>
       </c>
       <c r="G54" s="3">
-        <v>28480900</v>
+        <v>29417200</v>
       </c>
       <c r="H54" s="3">
-        <v>26009100</v>
+        <v>27541900</v>
       </c>
       <c r="I54" s="3">
-        <v>25426500</v>
+        <v>25151600</v>
       </c>
       <c r="J54" s="3">
+        <v>24588300</v>
+      </c>
+      <c r="K54" s="3">
         <v>24184600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>21500300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>21929400</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2123,8 +2251,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2138,206 +2267,225 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>398900</v>
+        <v>328200</v>
       </c>
       <c r="E57" s="3">
-        <v>347000</v>
+        <v>385700</v>
       </c>
       <c r="F57" s="3">
-        <v>320100</v>
+        <v>335500</v>
       </c>
       <c r="G57" s="3">
-        <v>366200</v>
+        <v>309500</v>
       </c>
       <c r="H57" s="3">
-        <v>254600</v>
+        <v>354200</v>
       </c>
       <c r="I57" s="3">
-        <v>250700</v>
+        <v>246200</v>
       </c>
       <c r="J57" s="3">
+        <v>242400</v>
+      </c>
+      <c r="K57" s="3">
         <v>195400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1734500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1532900</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1221400</v>
+        <v>1240100</v>
       </c>
       <c r="E58" s="3">
-        <v>968500</v>
+        <v>1240500</v>
       </c>
       <c r="F58" s="3">
-        <v>1511500</v>
+        <v>936600</v>
       </c>
       <c r="G58" s="3">
-        <v>810900</v>
+        <v>1461600</v>
       </c>
       <c r="H58" s="3">
-        <v>876400</v>
+        <v>784200</v>
       </c>
       <c r="I58" s="3">
-        <v>874600</v>
+        <v>847500</v>
       </c>
       <c r="J58" s="3">
+        <v>845800</v>
+      </c>
+      <c r="K58" s="3">
         <v>1390900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1254200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2127200</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5466600</v>
+        <v>5628400</v>
       </c>
       <c r="E59" s="3">
-        <v>4915800</v>
+        <v>5283300</v>
       </c>
       <c r="F59" s="3">
-        <v>4637800</v>
+        <v>4753700</v>
       </c>
       <c r="G59" s="3">
-        <v>4687000</v>
+        <v>4484900</v>
       </c>
       <c r="H59" s="3">
-        <v>3652400</v>
+        <v>4532500</v>
       </c>
       <c r="I59" s="3">
-        <v>3807200</v>
+        <v>3532000</v>
       </c>
       <c r="J59" s="3">
+        <v>3681700</v>
+      </c>
+      <c r="K59" s="3">
         <v>3936700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2198200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2346100</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>7086800</v>
+        <v>7196600</v>
       </c>
       <c r="E60" s="3">
-        <v>6231300</v>
+        <v>6909500</v>
       </c>
       <c r="F60" s="3">
-        <v>6469300</v>
+        <v>6025900</v>
       </c>
       <c r="G60" s="3">
-        <v>5864100</v>
+        <v>6256000</v>
       </c>
       <c r="H60" s="3">
-        <v>4783400</v>
+        <v>5670800</v>
       </c>
       <c r="I60" s="3">
-        <v>4932500</v>
+        <v>4625700</v>
       </c>
       <c r="J60" s="3">
+        <v>4769900</v>
+      </c>
+      <c r="K60" s="3">
         <v>5523000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5186900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6006200</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>8767400</v>
+        <v>9456700</v>
       </c>
       <c r="E61" s="3">
-        <v>7814700</v>
+        <v>8927900</v>
       </c>
       <c r="F61" s="3">
-        <v>5285300</v>
+        <v>7557100</v>
       </c>
       <c r="G61" s="3">
-        <v>5895600</v>
+        <v>5111100</v>
       </c>
       <c r="H61" s="3">
-        <v>5970200</v>
+        <v>5701200</v>
       </c>
       <c r="I61" s="3">
-        <v>5277000</v>
+        <v>5773400</v>
       </c>
       <c r="J61" s="3">
+        <v>5103000</v>
+      </c>
+      <c r="K61" s="3">
         <v>4563000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4511200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3235300</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3972900</v>
+        <v>4036100</v>
       </c>
       <c r="E62" s="3">
-        <v>4172100</v>
+        <v>3861800</v>
       </c>
       <c r="F62" s="3">
-        <v>2258900</v>
+        <v>4034600</v>
       </c>
       <c r="G62" s="3">
-        <v>2055200</v>
+        <v>2184400</v>
       </c>
       <c r="H62" s="3">
-        <v>1265000</v>
+        <v>1987500</v>
       </c>
       <c r="I62" s="3">
-        <v>1341100</v>
+        <v>1223300</v>
       </c>
       <c r="J62" s="3">
+        <v>1296900</v>
+      </c>
+      <c r="K62" s="3">
         <v>1207100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1004100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1228400</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2368,9 +2516,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2401,9 +2552,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2434,42 +2588,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>19705900</v>
+        <v>21263500</v>
       </c>
       <c r="E66" s="3">
-        <v>18107400</v>
+        <v>19581900</v>
       </c>
       <c r="F66" s="3">
-        <v>14183700</v>
+        <v>17510500</v>
       </c>
       <c r="G66" s="3">
-        <v>13946900</v>
+        <v>13716100</v>
       </c>
       <c r="H66" s="3">
-        <v>12130600</v>
+        <v>13487100</v>
       </c>
       <c r="I66" s="3">
-        <v>12225400</v>
+        <v>11730700</v>
       </c>
       <c r="J66" s="3">
+        <v>11822400</v>
+      </c>
+      <c r="K66" s="3">
         <v>11943000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>11542300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>11433700</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2483,8 +2643,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2515,9 +2676,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2548,9 +2712,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2581,9 +2748,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2614,42 +2784,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>20234100</v>
+        <v>20224100</v>
       </c>
       <c r="E72" s="3">
-        <v>20151500</v>
+        <v>19561200</v>
       </c>
       <c r="F72" s="3">
-        <v>16230700</v>
+        <v>19487200</v>
       </c>
       <c r="G72" s="3">
-        <v>14517400</v>
+        <v>15695600</v>
       </c>
       <c r="H72" s="3">
-        <v>13656900</v>
+        <v>14038800</v>
       </c>
       <c r="I72" s="3">
-        <v>12911600</v>
+        <v>13206700</v>
       </c>
       <c r="J72" s="3">
+        <v>12486000</v>
+      </c>
+      <c r="K72" s="3">
         <v>11923300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>10163200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>10712300</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2680,9 +2856,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2713,9 +2892,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2746,42 +2928,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>20890700</v>
+        <v>20894600</v>
       </c>
       <c r="E76" s="3">
-        <v>20448400</v>
+        <v>20196200</v>
       </c>
       <c r="F76" s="3">
-        <v>16236300</v>
+        <v>19774300</v>
       </c>
       <c r="G76" s="3">
-        <v>14534000</v>
+        <v>15701100</v>
       </c>
       <c r="H76" s="3">
-        <v>13878500</v>
+        <v>14054800</v>
       </c>
       <c r="I76" s="3">
-        <v>13201100</v>
+        <v>13420900</v>
       </c>
       <c r="J76" s="3">
+        <v>12765900</v>
+      </c>
+      <c r="K76" s="3">
         <v>12241700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>9958000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>10495700</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2812,80 +3000,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42004</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41639</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41274</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40908</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>796400</v>
+        <v>1310800</v>
       </c>
       <c r="E81" s="3">
-        <v>2832000</v>
+        <v>769100</v>
       </c>
       <c r="F81" s="3">
-        <v>2350500</v>
+        <v>2738600</v>
       </c>
       <c r="G81" s="3">
-        <v>1509800</v>
+        <v>2273000</v>
       </c>
       <c r="H81" s="3">
-        <v>1366600</v>
+        <v>1460000</v>
       </c>
       <c r="I81" s="3">
-        <v>1623700</v>
+        <v>1321600</v>
       </c>
       <c r="J81" s="3">
+        <v>1570200</v>
+      </c>
+      <c r="K81" s="3">
         <v>1483800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>967400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1451100</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2899,41 +3096,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3581600</v>
+        <v>3669600</v>
       </c>
       <c r="E83" s="3">
-        <v>2988700</v>
+        <v>3463500</v>
       </c>
       <c r="F83" s="3">
-        <v>2955200</v>
+        <v>2890200</v>
       </c>
       <c r="G83" s="3">
-        <v>2792400</v>
+        <v>2857800</v>
       </c>
       <c r="H83" s="3">
-        <v>2724100</v>
+        <v>2700300</v>
       </c>
       <c r="I83" s="3">
-        <v>2631600</v>
+        <v>2634300</v>
       </c>
       <c r="J83" s="3">
+        <v>2544800</v>
+      </c>
+      <c r="K83" s="3">
         <v>2575100</v>
       </c>
-      <c r="K83" s="3" t="s">
+      <c r="L83" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2234400</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2964,9 +3165,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2997,9 +3201,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3030,9 +3237,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3063,9 +3273,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3096,42 +3309,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3627300</v>
+        <v>5123300</v>
       </c>
       <c r="E89" s="3">
-        <v>3942600</v>
+        <v>3507800</v>
       </c>
       <c r="F89" s="3">
-        <v>3508800</v>
+        <v>3812700</v>
       </c>
       <c r="G89" s="3">
-        <v>3861300</v>
+        <v>3393100</v>
       </c>
       <c r="H89" s="3">
-        <v>3438100</v>
+        <v>3734000</v>
       </c>
       <c r="I89" s="3">
-        <v>3346400</v>
+        <v>3324800</v>
       </c>
       <c r="J89" s="3">
+        <v>3236100</v>
+      </c>
+      <c r="K89" s="3">
         <v>3238300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>5297400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>5675800</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3145,41 +3364,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-3072100</v>
+        <v>-3130900</v>
       </c>
       <c r="E91" s="3">
-        <v>-2541100</v>
+        <v>-2970800</v>
       </c>
       <c r="F91" s="3">
-        <v>-2471400</v>
+        <v>-2457300</v>
       </c>
       <c r="G91" s="3">
-        <v>-2266300</v>
+        <v>-2390000</v>
       </c>
       <c r="H91" s="3">
-        <v>-2255700</v>
+        <v>-2191600</v>
       </c>
       <c r="I91" s="3">
-        <v>-2737300</v>
+        <v>-2181300</v>
       </c>
       <c r="J91" s="3">
+        <v>-2647100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-2620000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2559300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3280800</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3210,9 +3433,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3243,42 +3469,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3260100</v>
+        <v>-3740400</v>
       </c>
       <c r="E94" s="3">
-        <v>-3683400</v>
+        <v>-3152600</v>
       </c>
       <c r="F94" s="3">
-        <v>-2794300</v>
+        <v>-3562000</v>
       </c>
       <c r="G94" s="3">
-        <v>-2240600</v>
+        <v>-2702100</v>
       </c>
       <c r="H94" s="3">
-        <v>-2621300</v>
+        <v>-2166700</v>
       </c>
       <c r="I94" s="3">
-        <v>-3351700</v>
+        <v>-2534800</v>
       </c>
       <c r="J94" s="3">
+        <v>-3241200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-2280900</v>
       </c>
-      <c r="K94" s="3" t="s">
+      <c r="L94" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3815200</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3292,41 +3524,45 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-654000</v>
+        <v>-653100</v>
       </c>
       <c r="E96" s="3">
-        <v>-642500</v>
+        <v>-632500</v>
       </c>
       <c r="F96" s="3">
-        <v>-642500</v>
+        <v>-621400</v>
       </c>
       <c r="G96" s="3">
-        <v>-642500</v>
+        <v>-621400</v>
       </c>
       <c r="H96" s="3">
-        <v>-608300</v>
+        <v>-621400</v>
       </c>
       <c r="I96" s="3">
-        <v>-606800</v>
+        <v>-588300</v>
       </c>
       <c r="J96" s="3">
+        <v>-586800</v>
+      </c>
+      <c r="K96" s="3">
         <v>-596900</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-561400</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-601500</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3357,9 +3593,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3390,9 +3629,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3423,106 +3665,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-579500</v>
+        <v>-1282700</v>
       </c>
       <c r="E100" s="3">
-        <v>-216900</v>
+        <v>-560400</v>
       </c>
       <c r="F100" s="3">
-        <v>-752200</v>
+        <v>-209700</v>
       </c>
       <c r="G100" s="3">
-        <v>-950800</v>
+        <v>-727400</v>
       </c>
       <c r="H100" s="3">
-        <v>-877800</v>
+        <v>-919400</v>
       </c>
       <c r="I100" s="3">
-        <v>-509100</v>
+        <v>-848800</v>
       </c>
       <c r="J100" s="3">
+        <v>-492300</v>
+      </c>
+      <c r="K100" s="3">
         <v>-521600</v>
       </c>
-      <c r="K100" s="3" t="s">
+      <c r="L100" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-971400</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-2400</v>
+        <v>-13300</v>
       </c>
       <c r="E101" s="3">
-        <v>2200</v>
+        <v>-2300</v>
       </c>
       <c r="F101" s="3">
-        <v>-5600</v>
+        <v>2100</v>
       </c>
       <c r="G101" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="H101" s="3">
         <v>200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>1300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-400</v>
       </c>
-      <c r="K101" s="3" t="s">
+      <c r="L101" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>3000</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-214600</v>
+        <v>87000</v>
       </c>
       <c r="E102" s="3">
-        <v>44600</v>
+        <v>-207600</v>
       </c>
       <c r="F102" s="3">
-        <v>-43200</v>
+        <v>43100</v>
       </c>
       <c r="G102" s="3">
-        <v>670100</v>
+        <v>-41800</v>
       </c>
       <c r="H102" s="3">
-        <v>-59600</v>
+        <v>648000</v>
       </c>
       <c r="I102" s="3">
-        <v>-513400</v>
+        <v>-57600</v>
       </c>
       <c r="J102" s="3">
+        <v>-496500</v>
+      </c>
+      <c r="K102" s="3">
         <v>435400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>832800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>892300</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/SKM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SKM_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>16389700</v>
+        <v>16575900</v>
       </c>
       <c r="E8" s="3">
-        <v>15611800</v>
+        <v>15789200</v>
       </c>
       <c r="F8" s="3">
-        <v>14849100</v>
+        <v>15017800</v>
       </c>
       <c r="G8" s="3">
-        <v>15417600</v>
+        <v>15592800</v>
       </c>
       <c r="H8" s="3">
-        <v>15040800</v>
+        <v>15211700</v>
       </c>
       <c r="I8" s="3">
-        <v>15080300</v>
+        <v>15251700</v>
       </c>
       <c r="J8" s="3">
-        <v>15146100</v>
+        <v>15318200</v>
       </c>
       <c r="K8" s="3">
         <v>15168800</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>678200</v>
+        <v>685900</v>
       </c>
       <c r="E9" s="3">
-        <v>662100</v>
+        <v>669600</v>
       </c>
       <c r="F9" s="3">
-        <v>711400</v>
+        <v>719500</v>
       </c>
       <c r="G9" s="3">
-        <v>770000</v>
+        <v>778800</v>
       </c>
       <c r="H9" s="3">
-        <v>839800</v>
+        <v>849300</v>
       </c>
       <c r="I9" s="3">
-        <v>842700</v>
+        <v>852300</v>
       </c>
       <c r="J9" s="3">
-        <v>1228800</v>
+        <v>1242700</v>
       </c>
       <c r="K9" s="3">
         <v>1358200</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>15711500</v>
+        <v>15890000</v>
       </c>
       <c r="E10" s="3">
-        <v>14949800</v>
+        <v>15119700</v>
       </c>
       <c r="F10" s="3">
-        <v>14137700</v>
+        <v>14298300</v>
       </c>
       <c r="G10" s="3">
-        <v>14647600</v>
+        <v>14814000</v>
       </c>
       <c r="H10" s="3">
-        <v>14201000</v>
+        <v>14362400</v>
       </c>
       <c r="I10" s="3">
-        <v>14237600</v>
+        <v>14399400</v>
       </c>
       <c r="J10" s="3">
-        <v>13917300</v>
+        <v>14075500</v>
       </c>
       <c r="K10" s="3">
         <v>13810600</v>
@@ -844,25 +844,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>366500</v>
+        <v>370600</v>
       </c>
       <c r="E12" s="3">
-        <v>344400</v>
+        <v>348300</v>
       </c>
       <c r="F12" s="3">
-        <v>341200</v>
+        <v>345000</v>
       </c>
       <c r="G12" s="3">
-        <v>347800</v>
+        <v>351800</v>
       </c>
       <c r="H12" s="3">
-        <v>303400</v>
+        <v>306900</v>
       </c>
       <c r="I12" s="3">
-        <v>277900</v>
+        <v>281100</v>
       </c>
       <c r="J12" s="3">
-        <v>344000</v>
+        <v>347900</v>
       </c>
       <c r="K12" s="3">
         <v>320700</v>
@@ -916,25 +916,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>183800</v>
+        <v>185900</v>
       </c>
       <c r="E14" s="3">
-        <v>59500</v>
+        <v>60200</v>
       </c>
       <c r="F14" s="3">
-        <v>227900</v>
+        <v>230500</v>
       </c>
       <c r="G14" s="3">
-        <v>60300</v>
+        <v>61000</v>
       </c>
       <c r="H14" s="3">
-        <v>21600</v>
+        <v>21800</v>
       </c>
       <c r="I14" s="3">
-        <v>31500</v>
+        <v>31900</v>
       </c>
       <c r="J14" s="3">
-        <v>41800</v>
+        <v>42300</v>
       </c>
       <c r="K14" s="3">
         <v>12500</v>
@@ -952,25 +952,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>3512200</v>
+        <v>3552100</v>
       </c>
       <c r="E15" s="3">
-        <v>3393900</v>
+        <v>3432400</v>
       </c>
       <c r="F15" s="3">
-        <v>2751000</v>
+        <v>2782200</v>
       </c>
       <c r="G15" s="3">
-        <v>2725800</v>
+        <v>2756700</v>
       </c>
       <c r="H15" s="3">
-        <v>2588900</v>
+        <v>2618300</v>
       </c>
       <c r="I15" s="3">
-        <v>2503900</v>
+        <v>2532300</v>
       </c>
       <c r="J15" s="3">
-        <v>2389000</v>
+        <v>2416100</v>
       </c>
       <c r="K15" s="3">
         <v>2422100</v>
@@ -1001,25 +1001,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>15386100</v>
+        <v>15560900</v>
       </c>
       <c r="E17" s="3">
-        <v>14696100</v>
+        <v>14863100</v>
       </c>
       <c r="F17" s="3">
-        <v>14019500</v>
+        <v>14178800</v>
       </c>
       <c r="G17" s="3">
-        <v>14125700</v>
+        <v>14286200</v>
       </c>
       <c r="H17" s="3">
-        <v>13710900</v>
+        <v>13866700</v>
       </c>
       <c r="I17" s="3">
-        <v>13608800</v>
+        <v>13763500</v>
       </c>
       <c r="J17" s="3">
-        <v>13731200</v>
+        <v>13887200</v>
       </c>
       <c r="K17" s="3">
         <v>13732500</v>
@@ -1037,25 +1037,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>1003600</v>
+        <v>1015000</v>
       </c>
       <c r="E18" s="3">
-        <v>915700</v>
+        <v>926100</v>
       </c>
       <c r="F18" s="3">
-        <v>829600</v>
+        <v>839100</v>
       </c>
       <c r="G18" s="3">
-        <v>1291900</v>
+        <v>1306600</v>
       </c>
       <c r="H18" s="3">
-        <v>1329900</v>
+        <v>1345000</v>
       </c>
       <c r="I18" s="3">
-        <v>1471500</v>
+        <v>1488200</v>
       </c>
       <c r="J18" s="3">
-        <v>1414900</v>
+        <v>1431000</v>
       </c>
       <c r="K18" s="3">
         <v>1436300</v>
@@ -1089,25 +1089,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>999400</v>
+        <v>1010800</v>
       </c>
       <c r="E20" s="3">
-        <v>463300</v>
+        <v>468600</v>
       </c>
       <c r="F20" s="3">
-        <v>2939700</v>
+        <v>2973100</v>
       </c>
       <c r="G20" s="3">
-        <v>1966200</v>
+        <v>1988500</v>
       </c>
       <c r="H20" s="3">
-        <v>770300</v>
+        <v>779100</v>
       </c>
       <c r="I20" s="3">
-        <v>581600</v>
+        <v>588200</v>
       </c>
       <c r="J20" s="3">
-        <v>853500</v>
+        <v>863200</v>
       </c>
       <c r="K20" s="3">
         <v>528300</v>
@@ -1125,25 +1125,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>5672700</v>
+        <v>5737100</v>
       </c>
       <c r="E21" s="3">
-        <v>4842600</v>
+        <v>4897600</v>
       </c>
       <c r="F21" s="3">
-        <v>6659500</v>
+        <v>6735200</v>
       </c>
       <c r="G21" s="3">
-        <v>6115900</v>
+        <v>6185400</v>
       </c>
       <c r="H21" s="3">
-        <v>4800500</v>
+        <v>4855100</v>
       </c>
       <c r="I21" s="3">
-        <v>4687300</v>
+        <v>4740600</v>
       </c>
       <c r="J21" s="3">
-        <v>4813300</v>
+        <v>4868000</v>
       </c>
       <c r="K21" s="3">
         <v>4511400</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>351300</v>
+        <v>355300</v>
       </c>
       <c r="E22" s="3">
-        <v>357400</v>
+        <v>361400</v>
       </c>
       <c r="F22" s="3">
-        <v>270400</v>
+        <v>273500</v>
       </c>
       <c r="G22" s="3">
-        <v>263200</v>
+        <v>266200</v>
       </c>
       <c r="H22" s="3">
-        <v>255600</v>
+        <v>258500</v>
       </c>
       <c r="I22" s="3">
-        <v>261900</v>
+        <v>264900</v>
       </c>
       <c r="J22" s="3">
-        <v>285000</v>
+        <v>288300</v>
       </c>
       <c r="K22" s="3">
         <v>302000</v>
@@ -1197,25 +1197,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>1651800</v>
+        <v>1670600</v>
       </c>
       <c r="E23" s="3">
-        <v>1021700</v>
+        <v>1033300</v>
       </c>
       <c r="F23" s="3">
-        <v>3498900</v>
+        <v>3538600</v>
       </c>
       <c r="G23" s="3">
-        <v>2994900</v>
+        <v>3028900</v>
       </c>
       <c r="H23" s="3">
-        <v>1844600</v>
+        <v>1865600</v>
       </c>
       <c r="I23" s="3">
-        <v>1791100</v>
+        <v>1811500</v>
       </c>
       <c r="J23" s="3">
-        <v>1983400</v>
+        <v>2005900</v>
       </c>
       <c r="K23" s="3">
         <v>1662700</v>
@@ -1233,25 +1233,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>331300</v>
+        <v>335100</v>
       </c>
       <c r="E24" s="3">
-        <v>264200</v>
+        <v>267200</v>
       </c>
       <c r="F24" s="3">
-        <v>742700</v>
+        <v>751100</v>
       </c>
       <c r="G24" s="3">
-        <v>656200</v>
+        <v>663600</v>
       </c>
       <c r="H24" s="3">
-        <v>383700</v>
+        <v>388100</v>
       </c>
       <c r="I24" s="3">
-        <v>457100</v>
+        <v>462300</v>
       </c>
       <c r="J24" s="3">
-        <v>400000</v>
+        <v>404500</v>
       </c>
       <c r="K24" s="3">
         <v>364700</v>
@@ -1305,25 +1305,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>1320500</v>
+        <v>1335500</v>
       </c>
       <c r="E26" s="3">
-        <v>757400</v>
+        <v>766100</v>
       </c>
       <c r="F26" s="3">
-        <v>2756100</v>
+        <v>2787500</v>
       </c>
       <c r="G26" s="3">
-        <v>2338700</v>
+        <v>2365300</v>
       </c>
       <c r="H26" s="3">
-        <v>1460900</v>
+        <v>1477500</v>
       </c>
       <c r="I26" s="3">
-        <v>1334000</v>
+        <v>1349100</v>
       </c>
       <c r="J26" s="3">
-        <v>1583400</v>
+        <v>1601400</v>
       </c>
       <c r="K26" s="3">
         <v>1297900</v>
@@ -1341,25 +1341,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>1310800</v>
+        <v>1325700</v>
       </c>
       <c r="E27" s="3">
-        <v>769100</v>
+        <v>777800</v>
       </c>
       <c r="F27" s="3">
-        <v>2738600</v>
+        <v>2769800</v>
       </c>
       <c r="G27" s="3">
-        <v>2273000</v>
+        <v>2298900</v>
       </c>
       <c r="H27" s="3">
-        <v>1460000</v>
+        <v>1476600</v>
       </c>
       <c r="I27" s="3">
-        <v>1321600</v>
+        <v>1336600</v>
       </c>
       <c r="J27" s="3">
-        <v>1570200</v>
+        <v>1588100</v>
       </c>
       <c r="K27" s="3">
         <v>1317000</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-999400</v>
+        <v>-1010800</v>
       </c>
       <c r="E32" s="3">
-        <v>-463300</v>
+        <v>-468600</v>
       </c>
       <c r="F32" s="3">
-        <v>-2939700</v>
+        <v>-2973100</v>
       </c>
       <c r="G32" s="3">
-        <v>-1966200</v>
+        <v>-1988500</v>
       </c>
       <c r="H32" s="3">
-        <v>-770300</v>
+        <v>-779100</v>
       </c>
       <c r="I32" s="3">
-        <v>-581600</v>
+        <v>-588200</v>
       </c>
       <c r="J32" s="3">
-        <v>-853500</v>
+        <v>-863200</v>
       </c>
       <c r="K32" s="3">
         <v>-528300</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1310800</v>
+        <v>1325700</v>
       </c>
       <c r="E33" s="3">
-        <v>769100</v>
+        <v>777800</v>
       </c>
       <c r="F33" s="3">
-        <v>2738600</v>
+        <v>2769800</v>
       </c>
       <c r="G33" s="3">
-        <v>2273000</v>
+        <v>2298900</v>
       </c>
       <c r="H33" s="3">
-        <v>1460000</v>
+        <v>1476600</v>
       </c>
       <c r="I33" s="3">
-        <v>1321600</v>
+        <v>1336600</v>
       </c>
       <c r="J33" s="3">
-        <v>1570200</v>
+        <v>1588100</v>
       </c>
       <c r="K33" s="3">
         <v>1483800</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1310800</v>
+        <v>1325700</v>
       </c>
       <c r="E35" s="3">
-        <v>769100</v>
+        <v>777800</v>
       </c>
       <c r="F35" s="3">
-        <v>2738600</v>
+        <v>2769800</v>
       </c>
       <c r="G35" s="3">
-        <v>2273000</v>
+        <v>2298900</v>
       </c>
       <c r="H35" s="3">
-        <v>1460000</v>
+        <v>1476600</v>
       </c>
       <c r="I35" s="3">
-        <v>1321600</v>
+        <v>1336600</v>
       </c>
       <c r="J35" s="3">
-        <v>1570200</v>
+        <v>1588100</v>
       </c>
       <c r="K35" s="3">
         <v>1483800</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1205300</v>
+        <v>1219000</v>
       </c>
       <c r="E41" s="3">
-        <v>1118300</v>
+        <v>1131000</v>
       </c>
       <c r="F41" s="3">
-        <v>1325900</v>
+        <v>1341000</v>
       </c>
       <c r="G41" s="3">
-        <v>1282800</v>
+        <v>1297400</v>
       </c>
       <c r="H41" s="3">
-        <v>1324600</v>
+        <v>1339700</v>
       </c>
       <c r="I41" s="3">
-        <v>676700</v>
+        <v>684300</v>
       </c>
       <c r="J41" s="3">
-        <v>734300</v>
+        <v>742600</v>
       </c>
       <c r="K41" s="3">
         <v>1272800</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1301800</v>
+        <v>1316600</v>
       </c>
       <c r="E42" s="3">
-        <v>794000</v>
+        <v>803000</v>
       </c>
       <c r="F42" s="3">
-        <v>1021900</v>
+        <v>1033500</v>
       </c>
       <c r="G42" s="3">
-        <v>590800</v>
+        <v>597500</v>
       </c>
       <c r="H42" s="3">
-        <v>427600</v>
+        <v>432400</v>
       </c>
       <c r="I42" s="3">
-        <v>616800</v>
+        <v>623800</v>
       </c>
       <c r="J42" s="3">
-        <v>522000</v>
+        <v>528000</v>
       </c>
       <c r="K42" s="3">
         <v>380000</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2966700</v>
+        <v>3000400</v>
       </c>
       <c r="E43" s="3">
-        <v>2988200</v>
+        <v>3022100</v>
       </c>
       <c r="F43" s="3">
-        <v>2729500</v>
+        <v>2760500</v>
       </c>
       <c r="G43" s="3">
-        <v>3039200</v>
+        <v>3073700</v>
       </c>
       <c r="H43" s="3">
-        <v>3013200</v>
+        <v>3047500</v>
       </c>
       <c r="I43" s="3">
-        <v>2713300</v>
+        <v>2744100</v>
       </c>
       <c r="J43" s="3">
-        <v>2778300</v>
+        <v>2809900</v>
       </c>
       <c r="K43" s="3">
         <v>2712100</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>150900</v>
+        <v>152600</v>
       </c>
       <c r="E44" s="3">
-        <v>143300</v>
+        <v>145000</v>
       </c>
       <c r="F44" s="3">
-        <v>253500</v>
+        <v>256400</v>
       </c>
       <c r="G44" s="3">
-        <v>239700</v>
+        <v>242400</v>
       </c>
       <c r="H44" s="3">
-        <v>228700</v>
+        <v>231300</v>
       </c>
       <c r="I44" s="3">
-        <v>240700</v>
+        <v>243500</v>
       </c>
       <c r="J44" s="3">
-        <v>235500</v>
+        <v>238200</v>
       </c>
       <c r="K44" s="3">
         <v>161200</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2097400</v>
+        <v>2121300</v>
       </c>
       <c r="E45" s="3">
-        <v>2074000</v>
+        <v>2097600</v>
       </c>
       <c r="F45" s="3">
-        <v>1673000</v>
+        <v>1692000</v>
       </c>
       <c r="G45" s="3">
-        <v>305100</v>
+        <v>308600</v>
       </c>
       <c r="H45" s="3">
-        <v>283000</v>
+        <v>286200</v>
       </c>
       <c r="I45" s="3">
-        <v>293600</v>
+        <v>296900</v>
       </c>
       <c r="J45" s="3">
-        <v>203000</v>
+        <v>205300</v>
       </c>
       <c r="K45" s="3">
         <v>136300</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>7722100</v>
+        <v>7809800</v>
       </c>
       <c r="E46" s="3">
-        <v>7117900</v>
+        <v>7198800</v>
       </c>
       <c r="F46" s="3">
-        <v>7003800</v>
+        <v>7083400</v>
       </c>
       <c r="G46" s="3">
-        <v>5457600</v>
+        <v>5519600</v>
       </c>
       <c r="H46" s="3">
-        <v>5277000</v>
+        <v>5337000</v>
       </c>
       <c r="I46" s="3">
-        <v>4541000</v>
+        <v>4592600</v>
       </c>
       <c r="J46" s="3">
-        <v>4473200</v>
+        <v>4524000</v>
       </c>
       <c r="K46" s="3">
         <v>4662300</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>14475200</v>
+        <v>14639700</v>
       </c>
       <c r="E47" s="3">
-        <v>12944100</v>
+        <v>13091200</v>
       </c>
       <c r="F47" s="3">
-        <v>12174500</v>
+        <v>12312900</v>
       </c>
       <c r="G47" s="3">
-        <v>9483000</v>
+        <v>9590700</v>
       </c>
       <c r="H47" s="3">
-        <v>7434200</v>
+        <v>7518700</v>
       </c>
       <c r="I47" s="3">
-        <v>7188200</v>
+        <v>7269900</v>
       </c>
       <c r="J47" s="3">
-        <v>6436600</v>
+        <v>6509700</v>
       </c>
       <c r="K47" s="3">
         <v>5787100</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>11771800</v>
+        <v>11905600</v>
       </c>
       <c r="E48" s="3">
-        <v>11381400</v>
+        <v>11510800</v>
       </c>
       <c r="F48" s="3">
-        <v>9432200</v>
+        <v>9539300</v>
       </c>
       <c r="G48" s="3">
-        <v>8927500</v>
+        <v>9028900</v>
       </c>
       <c r="H48" s="3">
-        <v>9129300</v>
+        <v>9233000</v>
       </c>
       <c r="I48" s="3">
-        <v>9140000</v>
+        <v>9243800</v>
       </c>
       <c r="J48" s="3">
-        <v>9312800</v>
+        <v>9418600</v>
       </c>
       <c r="K48" s="3">
         <v>9293300</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>6858500</v>
+        <v>6936400</v>
       </c>
       <c r="E49" s="3">
-        <v>6877700</v>
+        <v>6955900</v>
       </c>
       <c r="F49" s="3">
-        <v>7437800</v>
+        <v>7522300</v>
       </c>
       <c r="G49" s="3">
-        <v>4841700</v>
+        <v>4896800</v>
       </c>
       <c r="H49" s="3">
-        <v>5023700</v>
+        <v>5080800</v>
       </c>
       <c r="I49" s="3">
-        <v>3707800</v>
+        <v>3749900</v>
       </c>
       <c r="J49" s="3">
-        <v>3873400</v>
+        <v>3917400</v>
       </c>
       <c r="K49" s="3">
         <v>4080500</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1330500</v>
+        <v>1345600</v>
       </c>
       <c r="E52" s="3">
-        <v>1456900</v>
+        <v>1473500</v>
       </c>
       <c r="F52" s="3">
-        <v>1236500</v>
+        <v>1250600</v>
       </c>
       <c r="G52" s="3">
-        <v>707400</v>
+        <v>715500</v>
       </c>
       <c r="H52" s="3">
-        <v>677600</v>
+        <v>685300</v>
       </c>
       <c r="I52" s="3">
-        <v>574700</v>
+        <v>581200</v>
       </c>
       <c r="J52" s="3">
-        <v>492300</v>
+        <v>497900</v>
       </c>
       <c r="K52" s="3">
         <v>361500</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>42158100</v>
+        <v>42637200</v>
       </c>
       <c r="E54" s="3">
-        <v>39778100</v>
+        <v>40230100</v>
       </c>
       <c r="F54" s="3">
-        <v>37284800</v>
+        <v>37708500</v>
       </c>
       <c r="G54" s="3">
-        <v>29417200</v>
+        <v>29751500</v>
       </c>
       <c r="H54" s="3">
-        <v>27541900</v>
+        <v>27854900</v>
       </c>
       <c r="I54" s="3">
-        <v>25151600</v>
+        <v>25437400</v>
       </c>
       <c r="J54" s="3">
-        <v>24588300</v>
+        <v>24867700</v>
       </c>
       <c r="K54" s="3">
         <v>24184600</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>328200</v>
+        <v>331900</v>
       </c>
       <c r="E57" s="3">
-        <v>385700</v>
+        <v>390100</v>
       </c>
       <c r="F57" s="3">
-        <v>335500</v>
+        <v>339400</v>
       </c>
       <c r="G57" s="3">
-        <v>309500</v>
+        <v>313000</v>
       </c>
       <c r="H57" s="3">
-        <v>354200</v>
+        <v>358200</v>
       </c>
       <c r="I57" s="3">
-        <v>246200</v>
+        <v>249000</v>
       </c>
       <c r="J57" s="3">
-        <v>242400</v>
+        <v>245200</v>
       </c>
       <c r="K57" s="3">
         <v>195400</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1240100</v>
+        <v>1254200</v>
       </c>
       <c r="E58" s="3">
-        <v>1240500</v>
+        <v>1254600</v>
       </c>
       <c r="F58" s="3">
-        <v>936600</v>
+        <v>947200</v>
       </c>
       <c r="G58" s="3">
-        <v>1461600</v>
+        <v>1478200</v>
       </c>
       <c r="H58" s="3">
-        <v>784200</v>
+        <v>793100</v>
       </c>
       <c r="I58" s="3">
-        <v>847500</v>
+        <v>857200</v>
       </c>
       <c r="J58" s="3">
-        <v>845800</v>
+        <v>855400</v>
       </c>
       <c r="K58" s="3">
         <v>1390900</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5628400</v>
+        <v>5692300</v>
       </c>
       <c r="E59" s="3">
-        <v>5283300</v>
+        <v>5343300</v>
       </c>
       <c r="F59" s="3">
-        <v>4753700</v>
+        <v>4807800</v>
       </c>
       <c r="G59" s="3">
-        <v>4484900</v>
+        <v>4535900</v>
       </c>
       <c r="H59" s="3">
-        <v>4532500</v>
+        <v>4584000</v>
       </c>
       <c r="I59" s="3">
-        <v>3532000</v>
+        <v>3572100</v>
       </c>
       <c r="J59" s="3">
-        <v>3681700</v>
+        <v>3723500</v>
       </c>
       <c r="K59" s="3">
         <v>3936700</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>7196600</v>
+        <v>7278400</v>
       </c>
       <c r="E60" s="3">
-        <v>6909500</v>
+        <v>6988000</v>
       </c>
       <c r="F60" s="3">
-        <v>6025900</v>
+        <v>6094300</v>
       </c>
       <c r="G60" s="3">
-        <v>6256000</v>
+        <v>6327100</v>
       </c>
       <c r="H60" s="3">
-        <v>5670800</v>
+        <v>5735200</v>
       </c>
       <c r="I60" s="3">
-        <v>4625700</v>
+        <v>4678300</v>
       </c>
       <c r="J60" s="3">
-        <v>4769900</v>
+        <v>4824100</v>
       </c>
       <c r="K60" s="3">
         <v>5523000</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9456700</v>
+        <v>9564200</v>
       </c>
       <c r="E61" s="3">
-        <v>8927900</v>
+        <v>9029300</v>
       </c>
       <c r="F61" s="3">
-        <v>7557100</v>
+        <v>7642900</v>
       </c>
       <c r="G61" s="3">
-        <v>5111100</v>
+        <v>5169200</v>
       </c>
       <c r="H61" s="3">
-        <v>5701200</v>
+        <v>5766000</v>
       </c>
       <c r="I61" s="3">
-        <v>5773400</v>
+        <v>5839000</v>
       </c>
       <c r="J61" s="3">
-        <v>5103000</v>
+        <v>5161000</v>
       </c>
       <c r="K61" s="3">
         <v>4563000</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4036100</v>
+        <v>4082000</v>
       </c>
       <c r="E62" s="3">
-        <v>3861800</v>
+        <v>3905700</v>
       </c>
       <c r="F62" s="3">
-        <v>4034600</v>
+        <v>4080400</v>
       </c>
       <c r="G62" s="3">
-        <v>2184400</v>
+        <v>2209200</v>
       </c>
       <c r="H62" s="3">
-        <v>1987500</v>
+        <v>2010100</v>
       </c>
       <c r="I62" s="3">
-        <v>1223300</v>
+        <v>1237200</v>
       </c>
       <c r="J62" s="3">
-        <v>1296900</v>
+        <v>1311600</v>
       </c>
       <c r="K62" s="3">
         <v>1207100</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>21263500</v>
+        <v>21505100</v>
       </c>
       <c r="E66" s="3">
-        <v>19581900</v>
+        <v>19804400</v>
       </c>
       <c r="F66" s="3">
-        <v>17510500</v>
+        <v>17709500</v>
       </c>
       <c r="G66" s="3">
-        <v>13716100</v>
+        <v>13872000</v>
       </c>
       <c r="H66" s="3">
-        <v>13487100</v>
+        <v>13640400</v>
       </c>
       <c r="I66" s="3">
-        <v>11730700</v>
+        <v>11864000</v>
       </c>
       <c r="J66" s="3">
-        <v>11822400</v>
+        <v>11956700</v>
       </c>
       <c r="K66" s="3">
         <v>11943000</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>20224100</v>
+        <v>20453900</v>
       </c>
       <c r="E72" s="3">
-        <v>19561200</v>
+        <v>19783500</v>
       </c>
       <c r="F72" s="3">
-        <v>19487200</v>
+        <v>19708600</v>
       </c>
       <c r="G72" s="3">
-        <v>15695600</v>
+        <v>15874000</v>
       </c>
       <c r="H72" s="3">
-        <v>14038800</v>
+        <v>14198300</v>
       </c>
       <c r="I72" s="3">
-        <v>13206700</v>
+        <v>13356800</v>
       </c>
       <c r="J72" s="3">
-        <v>12486000</v>
+        <v>12627800</v>
       </c>
       <c r="K72" s="3">
         <v>11923300</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>20894600</v>
+        <v>21132100</v>
       </c>
       <c r="E76" s="3">
-        <v>20196200</v>
+        <v>20425700</v>
       </c>
       <c r="F76" s="3">
-        <v>19774300</v>
+        <v>19999000</v>
       </c>
       <c r="G76" s="3">
-        <v>15701100</v>
+        <v>15879500</v>
       </c>
       <c r="H76" s="3">
-        <v>14054800</v>
+        <v>14214500</v>
       </c>
       <c r="I76" s="3">
-        <v>13420900</v>
+        <v>13573500</v>
       </c>
       <c r="J76" s="3">
-        <v>12765900</v>
+        <v>12911000</v>
       </c>
       <c r="K76" s="3">
         <v>12241700</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1310800</v>
+        <v>1325700</v>
       </c>
       <c r="E81" s="3">
-        <v>769100</v>
+        <v>777800</v>
       </c>
       <c r="F81" s="3">
-        <v>2738600</v>
+        <v>2769800</v>
       </c>
       <c r="G81" s="3">
-        <v>2273000</v>
+        <v>2298900</v>
       </c>
       <c r="H81" s="3">
-        <v>1460000</v>
+        <v>1476600</v>
       </c>
       <c r="I81" s="3">
-        <v>1321600</v>
+        <v>1336600</v>
       </c>
       <c r="J81" s="3">
-        <v>1570200</v>
+        <v>1588100</v>
       </c>
       <c r="K81" s="3">
         <v>1483800</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3669600</v>
+        <v>3711300</v>
       </c>
       <c r="E83" s="3">
-        <v>3463500</v>
+        <v>3502900</v>
       </c>
       <c r="F83" s="3">
-        <v>2890200</v>
+        <v>2923100</v>
       </c>
       <c r="G83" s="3">
-        <v>2857800</v>
+        <v>2890300</v>
       </c>
       <c r="H83" s="3">
-        <v>2700300</v>
+        <v>2731000</v>
       </c>
       <c r="I83" s="3">
-        <v>2634300</v>
+        <v>2664200</v>
       </c>
       <c r="J83" s="3">
-        <v>2544800</v>
+        <v>2573800</v>
       </c>
       <c r="K83" s="3">
         <v>2575100</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>5123300</v>
+        <v>5181500</v>
       </c>
       <c r="E89" s="3">
-        <v>3507800</v>
+        <v>3547600</v>
       </c>
       <c r="F89" s="3">
-        <v>3812700</v>
+        <v>3856000</v>
       </c>
       <c r="G89" s="3">
-        <v>3393100</v>
+        <v>3431700</v>
       </c>
       <c r="H89" s="3">
-        <v>3734000</v>
+        <v>3776400</v>
       </c>
       <c r="I89" s="3">
-        <v>3324800</v>
+        <v>3362500</v>
       </c>
       <c r="J89" s="3">
-        <v>3236100</v>
+        <v>3272900</v>
       </c>
       <c r="K89" s="3">
         <v>3238300</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-3130900</v>
+        <v>-3166400</v>
       </c>
       <c r="E91" s="3">
-        <v>-2970800</v>
+        <v>-3004500</v>
       </c>
       <c r="F91" s="3">
-        <v>-2457300</v>
+        <v>-2485200</v>
       </c>
       <c r="G91" s="3">
-        <v>-2390000</v>
+        <v>-2417100</v>
       </c>
       <c r="H91" s="3">
-        <v>-2191600</v>
+        <v>-2216500</v>
       </c>
       <c r="I91" s="3">
-        <v>-2181300</v>
+        <v>-2206100</v>
       </c>
       <c r="J91" s="3">
-        <v>-2647100</v>
+        <v>-2677100</v>
       </c>
       <c r="K91" s="3">
         <v>-2620000</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3740400</v>
+        <v>-3782900</v>
       </c>
       <c r="E94" s="3">
-        <v>-3152600</v>
+        <v>-3188400</v>
       </c>
       <c r="F94" s="3">
-        <v>-3562000</v>
+        <v>-3602500</v>
       </c>
       <c r="G94" s="3">
-        <v>-2702100</v>
+        <v>-2732800</v>
       </c>
       <c r="H94" s="3">
-        <v>-2166700</v>
+        <v>-2191400</v>
       </c>
       <c r="I94" s="3">
-        <v>-2534800</v>
+        <v>-2563600</v>
       </c>
       <c r="J94" s="3">
-        <v>-3241200</v>
+        <v>-3278000</v>
       </c>
       <c r="K94" s="3">
         <v>-2280900</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-653100</v>
+        <v>-660500</v>
       </c>
       <c r="E96" s="3">
-        <v>-632500</v>
+        <v>-639600</v>
       </c>
       <c r="F96" s="3">
-        <v>-621400</v>
+        <v>-628400</v>
       </c>
       <c r="G96" s="3">
-        <v>-621400</v>
+        <v>-628400</v>
       </c>
       <c r="H96" s="3">
-        <v>-621400</v>
+        <v>-628400</v>
       </c>
       <c r="I96" s="3">
-        <v>-588300</v>
+        <v>-595000</v>
       </c>
       <c r="J96" s="3">
-        <v>-586800</v>
+        <v>-593500</v>
       </c>
       <c r="K96" s="3">
         <v>-596900</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1282700</v>
+        <v>-1297200</v>
       </c>
       <c r="E100" s="3">
-        <v>-560400</v>
+        <v>-566800</v>
       </c>
       <c r="F100" s="3">
-        <v>-209700</v>
+        <v>-212100</v>
       </c>
       <c r="G100" s="3">
-        <v>-727400</v>
+        <v>-735700</v>
       </c>
       <c r="H100" s="3">
-        <v>-919400</v>
+        <v>-929900</v>
       </c>
       <c r="I100" s="3">
-        <v>-848800</v>
+        <v>-858500</v>
       </c>
       <c r="J100" s="3">
-        <v>-492300</v>
+        <v>-497900</v>
       </c>
       <c r="K100" s="3">
         <v>-521600</v>
@@ -3711,13 +3711,13 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-13300</v>
+        <v>-13400</v>
       </c>
       <c r="E101" s="3">
         <v>-2300</v>
       </c>
       <c r="F101" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="G101" s="3">
         <v>-5400</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>87000</v>
+        <v>88000</v>
       </c>
       <c r="E102" s="3">
-        <v>-207600</v>
+        <v>-209900</v>
       </c>
       <c r="F102" s="3">
-        <v>43100</v>
+        <v>43600</v>
       </c>
       <c r="G102" s="3">
-        <v>-41800</v>
+        <v>-42300</v>
       </c>
       <c r="H102" s="3">
-        <v>648000</v>
+        <v>655300</v>
       </c>
       <c r="I102" s="3">
-        <v>-57600</v>
+        <v>-58300</v>
       </c>
       <c r="J102" s="3">
-        <v>-496500</v>
+        <v>-502100</v>
       </c>
       <c r="K102" s="3">
         <v>435400</v>

--- a/AAII_Financials/Yearly/SKM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SKM_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>16575900</v>
+        <v>15831000</v>
       </c>
       <c r="E8" s="3">
-        <v>15789200</v>
+        <v>15079600</v>
       </c>
       <c r="F8" s="3">
-        <v>15017800</v>
+        <v>14342900</v>
       </c>
       <c r="G8" s="3">
-        <v>15592800</v>
+        <v>14892000</v>
       </c>
       <c r="H8" s="3">
-        <v>15211700</v>
+        <v>14528000</v>
       </c>
       <c r="I8" s="3">
-        <v>15251700</v>
+        <v>14566200</v>
       </c>
       <c r="J8" s="3">
-        <v>15318200</v>
+        <v>14629800</v>
       </c>
       <c r="K8" s="3">
         <v>15168800</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>685900</v>
+        <v>655100</v>
       </c>
       <c r="E9" s="3">
-        <v>669600</v>
+        <v>639500</v>
       </c>
       <c r="F9" s="3">
-        <v>719500</v>
+        <v>687100</v>
       </c>
       <c r="G9" s="3">
-        <v>778800</v>
+        <v>743800</v>
       </c>
       <c r="H9" s="3">
-        <v>849300</v>
+        <v>811100</v>
       </c>
       <c r="I9" s="3">
-        <v>852300</v>
+        <v>814000</v>
       </c>
       <c r="J9" s="3">
-        <v>1242700</v>
+        <v>1186900</v>
       </c>
       <c r="K9" s="3">
         <v>1358200</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>15890000</v>
+        <v>15175800</v>
       </c>
       <c r="E10" s="3">
-        <v>15119700</v>
+        <v>14440100</v>
       </c>
       <c r="F10" s="3">
-        <v>14298300</v>
+        <v>13655700</v>
       </c>
       <c r="G10" s="3">
-        <v>14814000</v>
+        <v>14148200</v>
       </c>
       <c r="H10" s="3">
-        <v>14362400</v>
+        <v>13716900</v>
       </c>
       <c r="I10" s="3">
-        <v>14399400</v>
+        <v>13752300</v>
       </c>
       <c r="J10" s="3">
-        <v>14075500</v>
+        <v>13442900</v>
       </c>
       <c r="K10" s="3">
         <v>13810600</v>
@@ -844,25 +844,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>370600</v>
+        <v>354000</v>
       </c>
       <c r="E12" s="3">
-        <v>348300</v>
+        <v>332600</v>
       </c>
       <c r="F12" s="3">
-        <v>345000</v>
+        <v>329500</v>
       </c>
       <c r="G12" s="3">
-        <v>351800</v>
+        <v>336000</v>
       </c>
       <c r="H12" s="3">
-        <v>306900</v>
+        <v>293100</v>
       </c>
       <c r="I12" s="3">
-        <v>281100</v>
+        <v>268400</v>
       </c>
       <c r="J12" s="3">
-        <v>347900</v>
+        <v>332300</v>
       </c>
       <c r="K12" s="3">
         <v>320700</v>
@@ -916,25 +916,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>185900</v>
+        <v>177500</v>
       </c>
       <c r="E14" s="3">
-        <v>60200</v>
+        <v>57500</v>
       </c>
       <c r="F14" s="3">
-        <v>230500</v>
+        <v>220100</v>
       </c>
       <c r="G14" s="3">
-        <v>61000</v>
+        <v>58300</v>
       </c>
       <c r="H14" s="3">
-        <v>21800</v>
+        <v>20800</v>
       </c>
       <c r="I14" s="3">
-        <v>31900</v>
+        <v>30500</v>
       </c>
       <c r="J14" s="3">
-        <v>42300</v>
+        <v>40400</v>
       </c>
       <c r="K14" s="3">
         <v>12500</v>
@@ -952,25 +952,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>3552100</v>
+        <v>3392400</v>
       </c>
       <c r="E15" s="3">
-        <v>3432400</v>
+        <v>3278200</v>
       </c>
       <c r="F15" s="3">
-        <v>2782200</v>
+        <v>2657200</v>
       </c>
       <c r="G15" s="3">
-        <v>2756700</v>
+        <v>2632800</v>
       </c>
       <c r="H15" s="3">
-        <v>2618300</v>
+        <v>2500600</v>
       </c>
       <c r="I15" s="3">
-        <v>2532300</v>
+        <v>2418500</v>
       </c>
       <c r="J15" s="3">
-        <v>2416100</v>
+        <v>2307500</v>
       </c>
       <c r="K15" s="3">
         <v>2422100</v>
@@ -1001,25 +1001,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>15560900</v>
+        <v>14861500</v>
       </c>
       <c r="E17" s="3">
-        <v>14863100</v>
+        <v>14195100</v>
       </c>
       <c r="F17" s="3">
-        <v>14178800</v>
+        <v>13541500</v>
       </c>
       <c r="G17" s="3">
-        <v>14286200</v>
+        <v>13644200</v>
       </c>
       <c r="H17" s="3">
-        <v>13866700</v>
+        <v>13243500</v>
       </c>
       <c r="I17" s="3">
-        <v>13763500</v>
+        <v>13144900</v>
       </c>
       <c r="J17" s="3">
-        <v>13887200</v>
+        <v>13263100</v>
       </c>
       <c r="K17" s="3">
         <v>13732500</v>
@@ -1037,25 +1037,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>1015000</v>
+        <v>969400</v>
       </c>
       <c r="E18" s="3">
-        <v>926100</v>
+        <v>884500</v>
       </c>
       <c r="F18" s="3">
-        <v>839100</v>
+        <v>801300</v>
       </c>
       <c r="G18" s="3">
-        <v>1306600</v>
+        <v>1247800</v>
       </c>
       <c r="H18" s="3">
-        <v>1345000</v>
+        <v>1284600</v>
       </c>
       <c r="I18" s="3">
-        <v>1488200</v>
+        <v>1421300</v>
       </c>
       <c r="J18" s="3">
-        <v>1431000</v>
+        <v>1366700</v>
       </c>
       <c r="K18" s="3">
         <v>1436300</v>
@@ -1089,25 +1089,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>1010800</v>
+        <v>965400</v>
       </c>
       <c r="E20" s="3">
-        <v>468600</v>
+        <v>447500</v>
       </c>
       <c r="F20" s="3">
-        <v>2973100</v>
+        <v>2839400</v>
       </c>
       <c r="G20" s="3">
-        <v>1988500</v>
+        <v>1899100</v>
       </c>
       <c r="H20" s="3">
-        <v>779100</v>
+        <v>744100</v>
       </c>
       <c r="I20" s="3">
-        <v>588200</v>
+        <v>561700</v>
       </c>
       <c r="J20" s="3">
-        <v>863200</v>
+        <v>824400</v>
       </c>
       <c r="K20" s="3">
         <v>528300</v>
@@ -1125,25 +1125,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>5737100</v>
+        <v>5479300</v>
       </c>
       <c r="E21" s="3">
-        <v>4897600</v>
+        <v>4677500</v>
       </c>
       <c r="F21" s="3">
-        <v>6735200</v>
+        <v>6432500</v>
       </c>
       <c r="G21" s="3">
-        <v>6185400</v>
+        <v>5907400</v>
       </c>
       <c r="H21" s="3">
-        <v>4855100</v>
+        <v>4636900</v>
       </c>
       <c r="I21" s="3">
-        <v>4740600</v>
+        <v>4527500</v>
       </c>
       <c r="J21" s="3">
-        <v>4868000</v>
+        <v>4649200</v>
       </c>
       <c r="K21" s="3">
         <v>4511400</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>355300</v>
+        <v>339300</v>
       </c>
       <c r="E22" s="3">
-        <v>361400</v>
+        <v>345200</v>
       </c>
       <c r="F22" s="3">
-        <v>273500</v>
+        <v>261200</v>
       </c>
       <c r="G22" s="3">
-        <v>266200</v>
+        <v>254200</v>
       </c>
       <c r="H22" s="3">
-        <v>258500</v>
+        <v>246900</v>
       </c>
       <c r="I22" s="3">
-        <v>264900</v>
+        <v>253000</v>
       </c>
       <c r="J22" s="3">
-        <v>288300</v>
+        <v>275300</v>
       </c>
       <c r="K22" s="3">
         <v>302000</v>
@@ -1197,25 +1197,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>1670600</v>
+        <v>1595500</v>
       </c>
       <c r="E23" s="3">
-        <v>1033300</v>
+        <v>986900</v>
       </c>
       <c r="F23" s="3">
-        <v>3538600</v>
+        <v>3379600</v>
       </c>
       <c r="G23" s="3">
-        <v>3028900</v>
+        <v>2892800</v>
       </c>
       <c r="H23" s="3">
-        <v>1865600</v>
+        <v>1781700</v>
       </c>
       <c r="I23" s="3">
-        <v>1811500</v>
+        <v>1730100</v>
       </c>
       <c r="J23" s="3">
-        <v>2005900</v>
+        <v>1915800</v>
       </c>
       <c r="K23" s="3">
         <v>1662700</v>
@@ -1233,25 +1233,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>335100</v>
+        <v>320000</v>
       </c>
       <c r="E24" s="3">
-        <v>267200</v>
+        <v>255200</v>
       </c>
       <c r="F24" s="3">
-        <v>751100</v>
+        <v>717400</v>
       </c>
       <c r="G24" s="3">
-        <v>663600</v>
+        <v>633800</v>
       </c>
       <c r="H24" s="3">
-        <v>388100</v>
+        <v>370600</v>
       </c>
       <c r="I24" s="3">
-        <v>462300</v>
+        <v>441600</v>
       </c>
       <c r="J24" s="3">
-        <v>404500</v>
+        <v>386300</v>
       </c>
       <c r="K24" s="3">
         <v>364700</v>
@@ -1305,25 +1305,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>1335500</v>
+        <v>1275500</v>
       </c>
       <c r="E26" s="3">
-        <v>766100</v>
+        <v>731600</v>
       </c>
       <c r="F26" s="3">
-        <v>2787500</v>
+        <v>2662200</v>
       </c>
       <c r="G26" s="3">
-        <v>2365300</v>
+        <v>2259000</v>
       </c>
       <c r="H26" s="3">
-        <v>1477500</v>
+        <v>1411100</v>
       </c>
       <c r="I26" s="3">
-        <v>1349100</v>
+        <v>1288500</v>
       </c>
       <c r="J26" s="3">
-        <v>1601400</v>
+        <v>1529400</v>
       </c>
       <c r="K26" s="3">
         <v>1297900</v>
@@ -1341,25 +1341,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>1325700</v>
+        <v>1266100</v>
       </c>
       <c r="E27" s="3">
-        <v>777800</v>
+        <v>742800</v>
       </c>
       <c r="F27" s="3">
-        <v>2769800</v>
+        <v>2645300</v>
       </c>
       <c r="G27" s="3">
-        <v>2298900</v>
+        <v>2195500</v>
       </c>
       <c r="H27" s="3">
-        <v>1476600</v>
+        <v>1410300</v>
       </c>
       <c r="I27" s="3">
-        <v>1336600</v>
+        <v>1276500</v>
       </c>
       <c r="J27" s="3">
-        <v>1588100</v>
+        <v>1516700</v>
       </c>
       <c r="K27" s="3">
         <v>1317000</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1010800</v>
+        <v>-965400</v>
       </c>
       <c r="E32" s="3">
-        <v>-468600</v>
+        <v>-447500</v>
       </c>
       <c r="F32" s="3">
-        <v>-2973100</v>
+        <v>-2839400</v>
       </c>
       <c r="G32" s="3">
-        <v>-1988500</v>
+        <v>-1899100</v>
       </c>
       <c r="H32" s="3">
-        <v>-779100</v>
+        <v>-744100</v>
       </c>
       <c r="I32" s="3">
-        <v>-588200</v>
+        <v>-561700</v>
       </c>
       <c r="J32" s="3">
-        <v>-863200</v>
+        <v>-824400</v>
       </c>
       <c r="K32" s="3">
         <v>-528300</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1325700</v>
+        <v>1266100</v>
       </c>
       <c r="E33" s="3">
-        <v>777800</v>
+        <v>742800</v>
       </c>
       <c r="F33" s="3">
-        <v>2769800</v>
+        <v>2645300</v>
       </c>
       <c r="G33" s="3">
-        <v>2298900</v>
+        <v>2195500</v>
       </c>
       <c r="H33" s="3">
-        <v>1476600</v>
+        <v>1410300</v>
       </c>
       <c r="I33" s="3">
-        <v>1336600</v>
+        <v>1276500</v>
       </c>
       <c r="J33" s="3">
-        <v>1588100</v>
+        <v>1516700</v>
       </c>
       <c r="K33" s="3">
         <v>1483800</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1325700</v>
+        <v>1266100</v>
       </c>
       <c r="E35" s="3">
-        <v>777800</v>
+        <v>742800</v>
       </c>
       <c r="F35" s="3">
-        <v>2769800</v>
+        <v>2645300</v>
       </c>
       <c r="G35" s="3">
-        <v>2298900</v>
+        <v>2195500</v>
       </c>
       <c r="H35" s="3">
-        <v>1476600</v>
+        <v>1410300</v>
       </c>
       <c r="I35" s="3">
-        <v>1336600</v>
+        <v>1276500</v>
       </c>
       <c r="J35" s="3">
-        <v>1588100</v>
+        <v>1516700</v>
       </c>
       <c r="K35" s="3">
         <v>1483800</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1219000</v>
+        <v>1164200</v>
       </c>
       <c r="E41" s="3">
-        <v>1131000</v>
+        <v>1080200</v>
       </c>
       <c r="F41" s="3">
-        <v>1341000</v>
+        <v>1280700</v>
       </c>
       <c r="G41" s="3">
-        <v>1297400</v>
+        <v>1239100</v>
       </c>
       <c r="H41" s="3">
-        <v>1339700</v>
+        <v>1279500</v>
       </c>
       <c r="I41" s="3">
-        <v>684300</v>
+        <v>653600</v>
       </c>
       <c r="J41" s="3">
-        <v>742600</v>
+        <v>709300</v>
       </c>
       <c r="K41" s="3">
         <v>1272800</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1316600</v>
+        <v>1257400</v>
       </c>
       <c r="E42" s="3">
-        <v>803000</v>
+        <v>766900</v>
       </c>
       <c r="F42" s="3">
-        <v>1033500</v>
+        <v>987100</v>
       </c>
       <c r="G42" s="3">
-        <v>597500</v>
+        <v>570600</v>
       </c>
       <c r="H42" s="3">
-        <v>432400</v>
+        <v>413000</v>
       </c>
       <c r="I42" s="3">
-        <v>623800</v>
+        <v>595800</v>
       </c>
       <c r="J42" s="3">
-        <v>528000</v>
+        <v>504200</v>
       </c>
       <c r="K42" s="3">
         <v>380000</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3000400</v>
+        <v>2865600</v>
       </c>
       <c r="E43" s="3">
-        <v>3022100</v>
+        <v>2886300</v>
       </c>
       <c r="F43" s="3">
-        <v>2760500</v>
+        <v>2636500</v>
       </c>
       <c r="G43" s="3">
-        <v>3073700</v>
+        <v>2935600</v>
       </c>
       <c r="H43" s="3">
-        <v>3047500</v>
+        <v>2910500</v>
       </c>
       <c r="I43" s="3">
-        <v>2744100</v>
+        <v>2620800</v>
       </c>
       <c r="J43" s="3">
-        <v>2809900</v>
+        <v>2683600</v>
       </c>
       <c r="K43" s="3">
         <v>2712100</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>152600</v>
+        <v>145700</v>
       </c>
       <c r="E44" s="3">
-        <v>145000</v>
+        <v>138400</v>
       </c>
       <c r="F44" s="3">
-        <v>256400</v>
+        <v>244800</v>
       </c>
       <c r="G44" s="3">
-        <v>242400</v>
+        <v>231500</v>
       </c>
       <c r="H44" s="3">
-        <v>231300</v>
+        <v>220900</v>
       </c>
       <c r="I44" s="3">
-        <v>243500</v>
+        <v>232500</v>
       </c>
       <c r="J44" s="3">
-        <v>238200</v>
+        <v>227500</v>
       </c>
       <c r="K44" s="3">
         <v>161200</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2121300</v>
+        <v>2025900</v>
       </c>
       <c r="E45" s="3">
-        <v>2097600</v>
+        <v>2003300</v>
       </c>
       <c r="F45" s="3">
-        <v>1692000</v>
+        <v>1616000</v>
       </c>
       <c r="G45" s="3">
-        <v>308600</v>
+        <v>294700</v>
       </c>
       <c r="H45" s="3">
-        <v>286200</v>
+        <v>273300</v>
       </c>
       <c r="I45" s="3">
-        <v>296900</v>
+        <v>283600</v>
       </c>
       <c r="J45" s="3">
-        <v>205300</v>
+        <v>196000</v>
       </c>
       <c r="K45" s="3">
         <v>136300</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>7809800</v>
+        <v>7458800</v>
       </c>
       <c r="E46" s="3">
-        <v>7198800</v>
+        <v>6875200</v>
       </c>
       <c r="F46" s="3">
-        <v>7083400</v>
+        <v>6765000</v>
       </c>
       <c r="G46" s="3">
-        <v>5519600</v>
+        <v>5271500</v>
       </c>
       <c r="H46" s="3">
-        <v>5337000</v>
+        <v>5097100</v>
       </c>
       <c r="I46" s="3">
-        <v>4592600</v>
+        <v>4386200</v>
       </c>
       <c r="J46" s="3">
-        <v>4524000</v>
+        <v>4320700</v>
       </c>
       <c r="K46" s="3">
         <v>4662300</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>14639700</v>
+        <v>13981800</v>
       </c>
       <c r="E47" s="3">
-        <v>13091200</v>
+        <v>12502800</v>
       </c>
       <c r="F47" s="3">
-        <v>12312900</v>
+        <v>11759500</v>
       </c>
       <c r="G47" s="3">
-        <v>9590700</v>
+        <v>9159700</v>
       </c>
       <c r="H47" s="3">
-        <v>7518700</v>
+        <v>7180800</v>
       </c>
       <c r="I47" s="3">
-        <v>7269900</v>
+        <v>6943200</v>
       </c>
       <c r="J47" s="3">
-        <v>6509700</v>
+        <v>6217200</v>
       </c>
       <c r="K47" s="3">
         <v>5787100</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>11905600</v>
+        <v>11370500</v>
       </c>
       <c r="E48" s="3">
-        <v>11510800</v>
+        <v>10993400</v>
       </c>
       <c r="F48" s="3">
-        <v>9539300</v>
+        <v>9110600</v>
       </c>
       <c r="G48" s="3">
-        <v>9028900</v>
+        <v>8623100</v>
       </c>
       <c r="H48" s="3">
-        <v>9233000</v>
+        <v>8818100</v>
       </c>
       <c r="I48" s="3">
-        <v>9243800</v>
+        <v>8828400</v>
       </c>
       <c r="J48" s="3">
-        <v>9418600</v>
+        <v>8995300</v>
       </c>
       <c r="K48" s="3">
         <v>9293300</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>6936400</v>
+        <v>6624700</v>
       </c>
       <c r="E49" s="3">
-        <v>6955900</v>
+        <v>6643300</v>
       </c>
       <c r="F49" s="3">
-        <v>7522300</v>
+        <v>7184300</v>
       </c>
       <c r="G49" s="3">
-        <v>4896800</v>
+        <v>4676700</v>
       </c>
       <c r="H49" s="3">
-        <v>5080800</v>
+        <v>4852500</v>
       </c>
       <c r="I49" s="3">
-        <v>3749900</v>
+        <v>3581400</v>
       </c>
       <c r="J49" s="3">
-        <v>3917400</v>
+        <v>3741400</v>
       </c>
       <c r="K49" s="3">
         <v>4080500</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1345600</v>
+        <v>1285200</v>
       </c>
       <c r="E52" s="3">
-        <v>1473500</v>
+        <v>1407300</v>
       </c>
       <c r="F52" s="3">
-        <v>1250600</v>
+        <v>1194400</v>
       </c>
       <c r="G52" s="3">
-        <v>715500</v>
+        <v>683300</v>
       </c>
       <c r="H52" s="3">
-        <v>685300</v>
+        <v>654500</v>
       </c>
       <c r="I52" s="3">
-        <v>581200</v>
+        <v>555100</v>
       </c>
       <c r="J52" s="3">
-        <v>497900</v>
+        <v>475600</v>
       </c>
       <c r="K52" s="3">
         <v>361500</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>42637200</v>
+        <v>40720900</v>
       </c>
       <c r="E54" s="3">
-        <v>40230100</v>
+        <v>38422000</v>
       </c>
       <c r="F54" s="3">
-        <v>37708500</v>
+        <v>36013700</v>
       </c>
       <c r="G54" s="3">
-        <v>29751500</v>
+        <v>28414400</v>
       </c>
       <c r="H54" s="3">
-        <v>27854900</v>
+        <v>26603000</v>
       </c>
       <c r="I54" s="3">
-        <v>25437400</v>
+        <v>24294200</v>
       </c>
       <c r="J54" s="3">
-        <v>24867700</v>
+        <v>23750000</v>
       </c>
       <c r="K54" s="3">
         <v>24184600</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>331900</v>
+        <v>317000</v>
       </c>
       <c r="E57" s="3">
-        <v>390100</v>
+        <v>372600</v>
       </c>
       <c r="F57" s="3">
-        <v>339400</v>
+        <v>324100</v>
       </c>
       <c r="G57" s="3">
-        <v>313000</v>
+        <v>299000</v>
       </c>
       <c r="H57" s="3">
-        <v>358200</v>
+        <v>342100</v>
       </c>
       <c r="I57" s="3">
-        <v>249000</v>
+        <v>237800</v>
       </c>
       <c r="J57" s="3">
-        <v>245200</v>
+        <v>234200</v>
       </c>
       <c r="K57" s="3">
         <v>195400</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1254200</v>
+        <v>1197800</v>
       </c>
       <c r="E58" s="3">
-        <v>1254600</v>
+        <v>1198200</v>
       </c>
       <c r="F58" s="3">
-        <v>947200</v>
+        <v>904600</v>
       </c>
       <c r="G58" s="3">
-        <v>1478200</v>
+        <v>1411800</v>
       </c>
       <c r="H58" s="3">
-        <v>793100</v>
+        <v>757400</v>
       </c>
       <c r="I58" s="3">
-        <v>857200</v>
+        <v>818600</v>
       </c>
       <c r="J58" s="3">
-        <v>855400</v>
+        <v>817000</v>
       </c>
       <c r="K58" s="3">
         <v>1390900</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5692300</v>
+        <v>5436500</v>
       </c>
       <c r="E59" s="3">
-        <v>5343300</v>
+        <v>5103100</v>
       </c>
       <c r="F59" s="3">
-        <v>4807800</v>
+        <v>4591700</v>
       </c>
       <c r="G59" s="3">
-        <v>4535900</v>
+        <v>4332000</v>
       </c>
       <c r="H59" s="3">
-        <v>4584000</v>
+        <v>4378000</v>
       </c>
       <c r="I59" s="3">
-        <v>3572100</v>
+        <v>3411600</v>
       </c>
       <c r="J59" s="3">
-        <v>3723500</v>
+        <v>3556100</v>
       </c>
       <c r="K59" s="3">
         <v>3936700</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>7278400</v>
+        <v>6951300</v>
       </c>
       <c r="E60" s="3">
-        <v>6988000</v>
+        <v>6673900</v>
       </c>
       <c r="F60" s="3">
-        <v>6094300</v>
+        <v>5820400</v>
       </c>
       <c r="G60" s="3">
-        <v>6327100</v>
+        <v>6042800</v>
       </c>
       <c r="H60" s="3">
-        <v>5735200</v>
+        <v>5477500</v>
       </c>
       <c r="I60" s="3">
-        <v>4678300</v>
+        <v>4468000</v>
       </c>
       <c r="J60" s="3">
-        <v>4824100</v>
+        <v>4607300</v>
       </c>
       <c r="K60" s="3">
         <v>5523000</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9564200</v>
+        <v>9134300</v>
       </c>
       <c r="E61" s="3">
-        <v>9029300</v>
+        <v>8623500</v>
       </c>
       <c r="F61" s="3">
-        <v>7642900</v>
+        <v>7299400</v>
       </c>
       <c r="G61" s="3">
-        <v>5169200</v>
+        <v>4936800</v>
       </c>
       <c r="H61" s="3">
-        <v>5766000</v>
+        <v>5506800</v>
       </c>
       <c r="I61" s="3">
-        <v>5839000</v>
+        <v>5576600</v>
       </c>
       <c r="J61" s="3">
-        <v>5161000</v>
+        <v>4929100</v>
       </c>
       <c r="K61" s="3">
         <v>4563000</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4082000</v>
+        <v>3898500</v>
       </c>
       <c r="E62" s="3">
-        <v>3905700</v>
+        <v>3730200</v>
       </c>
       <c r="F62" s="3">
-        <v>4080400</v>
+        <v>3897000</v>
       </c>
       <c r="G62" s="3">
-        <v>2209200</v>
+        <v>2110000</v>
       </c>
       <c r="H62" s="3">
-        <v>2010100</v>
+        <v>1919700</v>
       </c>
       <c r="I62" s="3">
-        <v>1237200</v>
+        <v>1181600</v>
       </c>
       <c r="J62" s="3">
-        <v>1311600</v>
+        <v>1252700</v>
       </c>
       <c r="K62" s="3">
         <v>1207100</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>21505100</v>
+        <v>20538600</v>
       </c>
       <c r="E66" s="3">
-        <v>19804400</v>
+        <v>18914300</v>
       </c>
       <c r="F66" s="3">
-        <v>17709500</v>
+        <v>16913500</v>
       </c>
       <c r="G66" s="3">
-        <v>13872000</v>
+        <v>13248600</v>
       </c>
       <c r="H66" s="3">
-        <v>13640400</v>
+        <v>13027300</v>
       </c>
       <c r="I66" s="3">
-        <v>11864000</v>
+        <v>11330800</v>
       </c>
       <c r="J66" s="3">
-        <v>11956700</v>
+        <v>11419300</v>
       </c>
       <c r="K66" s="3">
         <v>11943000</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>20453900</v>
+        <v>19534600</v>
       </c>
       <c r="E72" s="3">
-        <v>19783500</v>
+        <v>18894400</v>
       </c>
       <c r="F72" s="3">
-        <v>19708600</v>
+        <v>18822900</v>
       </c>
       <c r="G72" s="3">
-        <v>15874000</v>
+        <v>15160600</v>
       </c>
       <c r="H72" s="3">
-        <v>14198300</v>
+        <v>13560200</v>
       </c>
       <c r="I72" s="3">
-        <v>13356800</v>
+        <v>12756500</v>
       </c>
       <c r="J72" s="3">
-        <v>12627800</v>
+        <v>12060300</v>
       </c>
       <c r="K72" s="3">
         <v>11923300</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>21132100</v>
+        <v>20182300</v>
       </c>
       <c r="E76" s="3">
-        <v>20425700</v>
+        <v>19507700</v>
       </c>
       <c r="F76" s="3">
-        <v>19999000</v>
+        <v>19100200</v>
       </c>
       <c r="G76" s="3">
-        <v>15879500</v>
+        <v>15165800</v>
       </c>
       <c r="H76" s="3">
-        <v>14214500</v>
+        <v>13575700</v>
       </c>
       <c r="I76" s="3">
-        <v>13573500</v>
+        <v>12963400</v>
       </c>
       <c r="J76" s="3">
-        <v>12911000</v>
+        <v>12330700</v>
       </c>
       <c r="K76" s="3">
         <v>12241700</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1325700</v>
+        <v>1266100</v>
       </c>
       <c r="E81" s="3">
-        <v>777800</v>
+        <v>742800</v>
       </c>
       <c r="F81" s="3">
-        <v>2769800</v>
+        <v>2645300</v>
       </c>
       <c r="G81" s="3">
-        <v>2298900</v>
+        <v>2195500</v>
       </c>
       <c r="H81" s="3">
-        <v>1476600</v>
+        <v>1410300</v>
       </c>
       <c r="I81" s="3">
-        <v>1336600</v>
+        <v>1276500</v>
       </c>
       <c r="J81" s="3">
-        <v>1588100</v>
+        <v>1516700</v>
       </c>
       <c r="K81" s="3">
         <v>1483800</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3711300</v>
+        <v>3544500</v>
       </c>
       <c r="E83" s="3">
-        <v>3502900</v>
+        <v>3345500</v>
       </c>
       <c r="F83" s="3">
-        <v>2923100</v>
+        <v>2791700</v>
       </c>
       <c r="G83" s="3">
-        <v>2890300</v>
+        <v>2760400</v>
       </c>
       <c r="H83" s="3">
-        <v>2731000</v>
+        <v>2608300</v>
       </c>
       <c r="I83" s="3">
-        <v>2664200</v>
+        <v>2544500</v>
       </c>
       <c r="J83" s="3">
-        <v>2573800</v>
+        <v>2458100</v>
       </c>
       <c r="K83" s="3">
         <v>2575100</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>5181500</v>
+        <v>4948600</v>
       </c>
       <c r="E89" s="3">
-        <v>3547600</v>
+        <v>3388200</v>
       </c>
       <c r="F89" s="3">
-        <v>3856000</v>
+        <v>3682700</v>
       </c>
       <c r="G89" s="3">
-        <v>3431700</v>
+        <v>3277400</v>
       </c>
       <c r="H89" s="3">
-        <v>3776400</v>
+        <v>3606700</v>
       </c>
       <c r="I89" s="3">
-        <v>3362500</v>
+        <v>3211400</v>
       </c>
       <c r="J89" s="3">
-        <v>3272900</v>
+        <v>3125800</v>
       </c>
       <c r="K89" s="3">
         <v>3238300</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-3166400</v>
+        <v>-3024100</v>
       </c>
       <c r="E91" s="3">
-        <v>-3004500</v>
+        <v>-2869500</v>
       </c>
       <c r="F91" s="3">
-        <v>-2485200</v>
+        <v>-2373500</v>
       </c>
       <c r="G91" s="3">
-        <v>-2417100</v>
+        <v>-2308500</v>
       </c>
       <c r="H91" s="3">
-        <v>-2216500</v>
+        <v>-2116900</v>
       </c>
       <c r="I91" s="3">
-        <v>-2206100</v>
+        <v>-2107000</v>
       </c>
       <c r="J91" s="3">
-        <v>-2677100</v>
+        <v>-2556800</v>
       </c>
       <c r="K91" s="3">
         <v>-2620000</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3782900</v>
+        <v>-3612800</v>
       </c>
       <c r="E94" s="3">
-        <v>-3188400</v>
+        <v>-3045100</v>
       </c>
       <c r="F94" s="3">
-        <v>-3602500</v>
+        <v>-3440600</v>
       </c>
       <c r="G94" s="3">
-        <v>-2732800</v>
+        <v>-2610000</v>
       </c>
       <c r="H94" s="3">
-        <v>-2191400</v>
+        <v>-2092900</v>
       </c>
       <c r="I94" s="3">
-        <v>-2563600</v>
+        <v>-2448400</v>
       </c>
       <c r="J94" s="3">
-        <v>-3278000</v>
+        <v>-3130700</v>
       </c>
       <c r="K94" s="3">
         <v>-2280900</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-660500</v>
+        <v>-630800</v>
       </c>
       <c r="E96" s="3">
-        <v>-639600</v>
+        <v>-610900</v>
       </c>
       <c r="F96" s="3">
-        <v>-628400</v>
+        <v>-600200</v>
       </c>
       <c r="G96" s="3">
-        <v>-628400</v>
+        <v>-600200</v>
       </c>
       <c r="H96" s="3">
-        <v>-628400</v>
+        <v>-600200</v>
       </c>
       <c r="I96" s="3">
-        <v>-595000</v>
+        <v>-568200</v>
       </c>
       <c r="J96" s="3">
-        <v>-593500</v>
+        <v>-566800</v>
       </c>
       <c r="K96" s="3">
         <v>-596900</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1297200</v>
+        <v>-1238900</v>
       </c>
       <c r="E100" s="3">
-        <v>-566800</v>
+        <v>-541300</v>
       </c>
       <c r="F100" s="3">
-        <v>-212100</v>
+        <v>-202600</v>
       </c>
       <c r="G100" s="3">
-        <v>-735700</v>
+        <v>-702600</v>
       </c>
       <c r="H100" s="3">
-        <v>-929900</v>
+        <v>-888100</v>
       </c>
       <c r="I100" s="3">
-        <v>-858500</v>
+        <v>-819900</v>
       </c>
       <c r="J100" s="3">
-        <v>-497900</v>
+        <v>-475500</v>
       </c>
       <c r="K100" s="3">
         <v>-521600</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-13400</v>
+        <v>-12800</v>
       </c>
       <c r="E101" s="3">
-        <v>-2300</v>
+        <v>-2200</v>
       </c>
       <c r="F101" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="G101" s="3">
-        <v>-5400</v>
+        <v>-5200</v>
       </c>
       <c r="H101" s="3">
         <v>200</v>
       </c>
       <c r="I101" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="J101" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="K101" s="3">
         <v>-400</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>88000</v>
+        <v>84000</v>
       </c>
       <c r="E102" s="3">
-        <v>-209900</v>
+        <v>-200500</v>
       </c>
       <c r="F102" s="3">
-        <v>43600</v>
+        <v>41600</v>
       </c>
       <c r="G102" s="3">
-        <v>-42300</v>
+        <v>-40400</v>
       </c>
       <c r="H102" s="3">
-        <v>655300</v>
+        <v>625900</v>
       </c>
       <c r="I102" s="3">
-        <v>-58300</v>
+        <v>-55700</v>
       </c>
       <c r="J102" s="3">
-        <v>-502100</v>
+        <v>-479600</v>
       </c>
       <c r="K102" s="3">
         <v>435400</v>

--- a/AAII_Financials/Yearly/SKM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SKM_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>15831000</v>
+        <v>15644700</v>
       </c>
       <c r="E8" s="3">
-        <v>15079600</v>
+        <v>14902200</v>
       </c>
       <c r="F8" s="3">
-        <v>14342900</v>
+        <v>14174100</v>
       </c>
       <c r="G8" s="3">
-        <v>14892000</v>
+        <v>14716800</v>
       </c>
       <c r="H8" s="3">
-        <v>14528000</v>
+        <v>14357100</v>
       </c>
       <c r="I8" s="3">
-        <v>14566200</v>
+        <v>14394900</v>
       </c>
       <c r="J8" s="3">
-        <v>14629800</v>
+        <v>14457600</v>
       </c>
       <c r="K8" s="3">
         <v>15168800</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>655100</v>
+        <v>647400</v>
       </c>
       <c r="E9" s="3">
-        <v>639500</v>
+        <v>632000</v>
       </c>
       <c r="F9" s="3">
-        <v>687100</v>
+        <v>679100</v>
       </c>
       <c r="G9" s="3">
-        <v>743800</v>
+        <v>735000</v>
       </c>
       <c r="H9" s="3">
-        <v>811100</v>
+        <v>801600</v>
       </c>
       <c r="I9" s="3">
-        <v>814000</v>
+        <v>804400</v>
       </c>
       <c r="J9" s="3">
-        <v>1186900</v>
+        <v>1172900</v>
       </c>
       <c r="K9" s="3">
         <v>1358200</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>15175800</v>
+        <v>14997300</v>
       </c>
       <c r="E10" s="3">
-        <v>14440100</v>
+        <v>14270200</v>
       </c>
       <c r="F10" s="3">
-        <v>13655700</v>
+        <v>13495100</v>
       </c>
       <c r="G10" s="3">
-        <v>14148200</v>
+        <v>13981800</v>
       </c>
       <c r="H10" s="3">
-        <v>13716900</v>
+        <v>13555500</v>
       </c>
       <c r="I10" s="3">
-        <v>13752300</v>
+        <v>13590500</v>
       </c>
       <c r="J10" s="3">
-        <v>13442900</v>
+        <v>13284700</v>
       </c>
       <c r="K10" s="3">
         <v>13810600</v>
@@ -844,25 +844,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>354000</v>
+        <v>349800</v>
       </c>
       <c r="E12" s="3">
-        <v>332600</v>
+        <v>328700</v>
       </c>
       <c r="F12" s="3">
-        <v>329500</v>
+        <v>325600</v>
       </c>
       <c r="G12" s="3">
-        <v>336000</v>
+        <v>332000</v>
       </c>
       <c r="H12" s="3">
-        <v>293100</v>
+        <v>289600</v>
       </c>
       <c r="I12" s="3">
-        <v>268400</v>
+        <v>265300</v>
       </c>
       <c r="J12" s="3">
-        <v>332300</v>
+        <v>328400</v>
       </c>
       <c r="K12" s="3">
         <v>320700</v>
@@ -916,25 +916,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>177500</v>
+        <v>175400</v>
       </c>
       <c r="E14" s="3">
-        <v>57500</v>
+        <v>56800</v>
       </c>
       <c r="F14" s="3">
-        <v>220100</v>
+        <v>217600</v>
       </c>
       <c r="G14" s="3">
-        <v>58300</v>
+        <v>57600</v>
       </c>
       <c r="H14" s="3">
-        <v>20800</v>
+        <v>20600</v>
       </c>
       <c r="I14" s="3">
-        <v>30500</v>
+        <v>30100</v>
       </c>
       <c r="J14" s="3">
-        <v>40400</v>
+        <v>39900</v>
       </c>
       <c r="K14" s="3">
         <v>12500</v>
@@ -952,25 +952,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>3392400</v>
+        <v>3352500</v>
       </c>
       <c r="E15" s="3">
-        <v>3278200</v>
+        <v>3239600</v>
       </c>
       <c r="F15" s="3">
-        <v>2657200</v>
+        <v>2625900</v>
       </c>
       <c r="G15" s="3">
-        <v>2632800</v>
+        <v>2601900</v>
       </c>
       <c r="H15" s="3">
-        <v>2500600</v>
+        <v>2471200</v>
       </c>
       <c r="I15" s="3">
-        <v>2418500</v>
+        <v>2390000</v>
       </c>
       <c r="J15" s="3">
-        <v>2307500</v>
+        <v>2280400</v>
       </c>
       <c r="K15" s="3">
         <v>2422100</v>
@@ -1001,25 +1001,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>14861500</v>
+        <v>14686700</v>
       </c>
       <c r="E17" s="3">
-        <v>14195100</v>
+        <v>14028100</v>
       </c>
       <c r="F17" s="3">
-        <v>13541500</v>
+        <v>13382200</v>
       </c>
       <c r="G17" s="3">
-        <v>13644200</v>
+        <v>13483600</v>
       </c>
       <c r="H17" s="3">
-        <v>13243500</v>
+        <v>13087700</v>
       </c>
       <c r="I17" s="3">
-        <v>13144900</v>
+        <v>12990200</v>
       </c>
       <c r="J17" s="3">
-        <v>13263100</v>
+        <v>13107100</v>
       </c>
       <c r="K17" s="3">
         <v>13732500</v>
@@ -1037,25 +1037,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>969400</v>
+        <v>958000</v>
       </c>
       <c r="E18" s="3">
-        <v>884500</v>
+        <v>874100</v>
       </c>
       <c r="F18" s="3">
-        <v>801300</v>
+        <v>791900</v>
       </c>
       <c r="G18" s="3">
-        <v>1247800</v>
+        <v>1233200</v>
       </c>
       <c r="H18" s="3">
-        <v>1284600</v>
+        <v>1269400</v>
       </c>
       <c r="I18" s="3">
-        <v>1421300</v>
+        <v>1404600</v>
       </c>
       <c r="J18" s="3">
-        <v>1366700</v>
+        <v>1350600</v>
       </c>
       <c r="K18" s="3">
         <v>1436300</v>
@@ -1089,25 +1089,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>965400</v>
+        <v>954000</v>
       </c>
       <c r="E20" s="3">
-        <v>447500</v>
+        <v>442300</v>
       </c>
       <c r="F20" s="3">
-        <v>2839400</v>
+        <v>2806000</v>
       </c>
       <c r="G20" s="3">
-        <v>1899100</v>
+        <v>1876800</v>
       </c>
       <c r="H20" s="3">
-        <v>744100</v>
+        <v>735300</v>
       </c>
       <c r="I20" s="3">
-        <v>561700</v>
+        <v>555100</v>
       </c>
       <c r="J20" s="3">
-        <v>824400</v>
+        <v>814700</v>
       </c>
       <c r="K20" s="3">
         <v>528300</v>
@@ -1125,25 +1125,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>5479300</v>
+        <v>5414800</v>
       </c>
       <c r="E21" s="3">
-        <v>4677500</v>
+        <v>4622500</v>
       </c>
       <c r="F21" s="3">
-        <v>6432500</v>
+        <v>6356800</v>
       </c>
       <c r="G21" s="3">
-        <v>5907400</v>
+        <v>5837900</v>
       </c>
       <c r="H21" s="3">
-        <v>4636900</v>
+        <v>4582300</v>
       </c>
       <c r="I21" s="3">
-        <v>4527500</v>
+        <v>4474300</v>
       </c>
       <c r="J21" s="3">
-        <v>4649200</v>
+        <v>4594500</v>
       </c>
       <c r="K21" s="3">
         <v>4511400</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>339300</v>
+        <v>335300</v>
       </c>
       <c r="E22" s="3">
-        <v>345200</v>
+        <v>341100</v>
       </c>
       <c r="F22" s="3">
-        <v>261200</v>
+        <v>258100</v>
       </c>
       <c r="G22" s="3">
-        <v>254200</v>
+        <v>251200</v>
       </c>
       <c r="H22" s="3">
-        <v>246900</v>
+        <v>244000</v>
       </c>
       <c r="I22" s="3">
-        <v>253000</v>
+        <v>250000</v>
       </c>
       <c r="J22" s="3">
-        <v>275300</v>
+        <v>272100</v>
       </c>
       <c r="K22" s="3">
         <v>302000</v>
@@ -1197,25 +1197,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>1595500</v>
+        <v>1576700</v>
       </c>
       <c r="E23" s="3">
-        <v>986900</v>
+        <v>975200</v>
       </c>
       <c r="F23" s="3">
-        <v>3379600</v>
+        <v>3339800</v>
       </c>
       <c r="G23" s="3">
-        <v>2892800</v>
+        <v>2858700</v>
       </c>
       <c r="H23" s="3">
-        <v>1781700</v>
+        <v>1760800</v>
       </c>
       <c r="I23" s="3">
-        <v>1730100</v>
+        <v>1709700</v>
       </c>
       <c r="J23" s="3">
-        <v>1915800</v>
+        <v>1893200</v>
       </c>
       <c r="K23" s="3">
         <v>1662700</v>
@@ -1233,25 +1233,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>320000</v>
+        <v>316300</v>
       </c>
       <c r="E24" s="3">
-        <v>255200</v>
+        <v>252200</v>
       </c>
       <c r="F24" s="3">
-        <v>717400</v>
+        <v>708900</v>
       </c>
       <c r="G24" s="3">
-        <v>633800</v>
+        <v>626300</v>
       </c>
       <c r="H24" s="3">
-        <v>370600</v>
+        <v>366300</v>
       </c>
       <c r="I24" s="3">
-        <v>441600</v>
+        <v>436400</v>
       </c>
       <c r="J24" s="3">
-        <v>386300</v>
+        <v>381800</v>
       </c>
       <c r="K24" s="3">
         <v>364700</v>
@@ -1305,25 +1305,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>1275500</v>
+        <v>1260500</v>
       </c>
       <c r="E26" s="3">
-        <v>731600</v>
+        <v>723000</v>
       </c>
       <c r="F26" s="3">
-        <v>2662200</v>
+        <v>2630900</v>
       </c>
       <c r="G26" s="3">
-        <v>2259000</v>
+        <v>2232400</v>
       </c>
       <c r="H26" s="3">
-        <v>1411100</v>
+        <v>1394500</v>
       </c>
       <c r="I26" s="3">
-        <v>1288500</v>
+        <v>1273300</v>
       </c>
       <c r="J26" s="3">
-        <v>1529400</v>
+        <v>1511400</v>
       </c>
       <c r="K26" s="3">
         <v>1297900</v>
@@ -1341,25 +1341,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>1266100</v>
+        <v>1251300</v>
       </c>
       <c r="E27" s="3">
-        <v>742800</v>
+        <v>734100</v>
       </c>
       <c r="F27" s="3">
-        <v>2645300</v>
+        <v>2614200</v>
       </c>
       <c r="G27" s="3">
-        <v>2195500</v>
+        <v>2169700</v>
       </c>
       <c r="H27" s="3">
-        <v>1410300</v>
+        <v>1393700</v>
       </c>
       <c r="I27" s="3">
-        <v>1276500</v>
+        <v>1261500</v>
       </c>
       <c r="J27" s="3">
-        <v>1516700</v>
+        <v>1498800</v>
       </c>
       <c r="K27" s="3">
         <v>1317000</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-965400</v>
+        <v>-954000</v>
       </c>
       <c r="E32" s="3">
-        <v>-447500</v>
+        <v>-442300</v>
       </c>
       <c r="F32" s="3">
-        <v>-2839400</v>
+        <v>-2806000</v>
       </c>
       <c r="G32" s="3">
-        <v>-1899100</v>
+        <v>-1876800</v>
       </c>
       <c r="H32" s="3">
-        <v>-744100</v>
+        <v>-735300</v>
       </c>
       <c r="I32" s="3">
-        <v>-561700</v>
+        <v>-555100</v>
       </c>
       <c r="J32" s="3">
-        <v>-824400</v>
+        <v>-814700</v>
       </c>
       <c r="K32" s="3">
         <v>-528300</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1266100</v>
+        <v>1251300</v>
       </c>
       <c r="E33" s="3">
-        <v>742800</v>
+        <v>734100</v>
       </c>
       <c r="F33" s="3">
-        <v>2645300</v>
+        <v>2614200</v>
       </c>
       <c r="G33" s="3">
-        <v>2195500</v>
+        <v>2169700</v>
       </c>
       <c r="H33" s="3">
-        <v>1410300</v>
+        <v>1393700</v>
       </c>
       <c r="I33" s="3">
-        <v>1276500</v>
+        <v>1261500</v>
       </c>
       <c r="J33" s="3">
-        <v>1516700</v>
+        <v>1498800</v>
       </c>
       <c r="K33" s="3">
         <v>1483800</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1266100</v>
+        <v>1251300</v>
       </c>
       <c r="E35" s="3">
-        <v>742800</v>
+        <v>734100</v>
       </c>
       <c r="F35" s="3">
-        <v>2645300</v>
+        <v>2614200</v>
       </c>
       <c r="G35" s="3">
-        <v>2195500</v>
+        <v>2169700</v>
       </c>
       <c r="H35" s="3">
-        <v>1410300</v>
+        <v>1393700</v>
       </c>
       <c r="I35" s="3">
-        <v>1276500</v>
+        <v>1261500</v>
       </c>
       <c r="J35" s="3">
-        <v>1516700</v>
+        <v>1498800</v>
       </c>
       <c r="K35" s="3">
         <v>1483800</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1164200</v>
+        <v>1150500</v>
       </c>
       <c r="E41" s="3">
-        <v>1080200</v>
+        <v>1067500</v>
       </c>
       <c r="F41" s="3">
-        <v>1280700</v>
+        <v>1265600</v>
       </c>
       <c r="G41" s="3">
-        <v>1239100</v>
+        <v>1224500</v>
       </c>
       <c r="H41" s="3">
-        <v>1279500</v>
+        <v>1264400</v>
       </c>
       <c r="I41" s="3">
-        <v>653600</v>
+        <v>645900</v>
       </c>
       <c r="J41" s="3">
-        <v>709300</v>
+        <v>700900</v>
       </c>
       <c r="K41" s="3">
         <v>1272800</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1257400</v>
+        <v>1242600</v>
       </c>
       <c r="E42" s="3">
-        <v>766900</v>
+        <v>757900</v>
       </c>
       <c r="F42" s="3">
-        <v>987100</v>
+        <v>975400</v>
       </c>
       <c r="G42" s="3">
-        <v>570600</v>
+        <v>563900</v>
       </c>
       <c r="H42" s="3">
-        <v>413000</v>
+        <v>408100</v>
       </c>
       <c r="I42" s="3">
-        <v>595800</v>
+        <v>588700</v>
       </c>
       <c r="J42" s="3">
-        <v>504200</v>
+        <v>498300</v>
       </c>
       <c r="K42" s="3">
         <v>380000</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2865600</v>
+        <v>2831800</v>
       </c>
       <c r="E43" s="3">
-        <v>2886300</v>
+        <v>2852400</v>
       </c>
       <c r="F43" s="3">
-        <v>2636500</v>
+        <v>2605400</v>
       </c>
       <c r="G43" s="3">
-        <v>2935600</v>
+        <v>2901100</v>
       </c>
       <c r="H43" s="3">
-        <v>2910500</v>
+        <v>2876300</v>
       </c>
       <c r="I43" s="3">
-        <v>2620800</v>
+        <v>2589900</v>
       </c>
       <c r="J43" s="3">
-        <v>2683600</v>
+        <v>2652000</v>
       </c>
       <c r="K43" s="3">
         <v>2712100</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>145700</v>
+        <v>144000</v>
       </c>
       <c r="E44" s="3">
-        <v>138400</v>
+        <v>136800</v>
       </c>
       <c r="F44" s="3">
-        <v>244800</v>
+        <v>242000</v>
       </c>
       <c r="G44" s="3">
-        <v>231500</v>
+        <v>228800</v>
       </c>
       <c r="H44" s="3">
-        <v>220900</v>
+        <v>218300</v>
       </c>
       <c r="I44" s="3">
-        <v>232500</v>
+        <v>229800</v>
       </c>
       <c r="J44" s="3">
-        <v>227500</v>
+        <v>224800</v>
       </c>
       <c r="K44" s="3">
         <v>161200</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2025900</v>
+        <v>2002100</v>
       </c>
       <c r="E45" s="3">
-        <v>2003300</v>
+        <v>1979800</v>
       </c>
       <c r="F45" s="3">
-        <v>1616000</v>
+        <v>1597000</v>
       </c>
       <c r="G45" s="3">
-        <v>294700</v>
+        <v>291200</v>
       </c>
       <c r="H45" s="3">
-        <v>273300</v>
+        <v>270100</v>
       </c>
       <c r="I45" s="3">
-        <v>283600</v>
+        <v>280200</v>
       </c>
       <c r="J45" s="3">
-        <v>196000</v>
+        <v>193700</v>
       </c>
       <c r="K45" s="3">
         <v>136300</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>7458800</v>
+        <v>7371100</v>
       </c>
       <c r="E46" s="3">
-        <v>6875200</v>
+        <v>6794300</v>
       </c>
       <c r="F46" s="3">
-        <v>6765000</v>
+        <v>6685400</v>
       </c>
       <c r="G46" s="3">
-        <v>5271500</v>
+        <v>5209500</v>
       </c>
       <c r="H46" s="3">
-        <v>5097100</v>
+        <v>5037200</v>
       </c>
       <c r="I46" s="3">
-        <v>4386200</v>
+        <v>4334600</v>
       </c>
       <c r="J46" s="3">
-        <v>4320700</v>
+        <v>4269800</v>
       </c>
       <c r="K46" s="3">
         <v>4662300</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>13981800</v>
+        <v>13817300</v>
       </c>
       <c r="E47" s="3">
-        <v>12502800</v>
+        <v>12355700</v>
       </c>
       <c r="F47" s="3">
-        <v>11759500</v>
+        <v>11621100</v>
       </c>
       <c r="G47" s="3">
-        <v>9159700</v>
+        <v>9051900</v>
       </c>
       <c r="H47" s="3">
-        <v>7180800</v>
+        <v>7096300</v>
       </c>
       <c r="I47" s="3">
-        <v>6943200</v>
+        <v>6861500</v>
       </c>
       <c r="J47" s="3">
-        <v>6217200</v>
+        <v>6144000</v>
       </c>
       <c r="K47" s="3">
         <v>5787100</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>11370500</v>
+        <v>11236700</v>
       </c>
       <c r="E48" s="3">
-        <v>10993400</v>
+        <v>10864100</v>
       </c>
       <c r="F48" s="3">
-        <v>9110600</v>
+        <v>9003400</v>
       </c>
       <c r="G48" s="3">
-        <v>8623100</v>
+        <v>8521700</v>
       </c>
       <c r="H48" s="3">
-        <v>8818100</v>
+        <v>8714300</v>
       </c>
       <c r="I48" s="3">
-        <v>8828400</v>
+        <v>8724500</v>
       </c>
       <c r="J48" s="3">
-        <v>8995300</v>
+        <v>8889500</v>
       </c>
       <c r="K48" s="3">
         <v>9293300</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>6624700</v>
+        <v>6546700</v>
       </c>
       <c r="E49" s="3">
-        <v>6643300</v>
+        <v>6565100</v>
       </c>
       <c r="F49" s="3">
-        <v>7184300</v>
+        <v>7099700</v>
       </c>
       <c r="G49" s="3">
-        <v>4676700</v>
+        <v>4621700</v>
       </c>
       <c r="H49" s="3">
-        <v>4852500</v>
+        <v>4795400</v>
       </c>
       <c r="I49" s="3">
-        <v>3581400</v>
+        <v>3539200</v>
       </c>
       <c r="J49" s="3">
-        <v>3741400</v>
+        <v>3697300</v>
       </c>
       <c r="K49" s="3">
         <v>4080500</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1285200</v>
+        <v>1270000</v>
       </c>
       <c r="E52" s="3">
-        <v>1407300</v>
+        <v>1390700</v>
       </c>
       <c r="F52" s="3">
-        <v>1194400</v>
+        <v>1180300</v>
       </c>
       <c r="G52" s="3">
-        <v>683300</v>
+        <v>675300</v>
       </c>
       <c r="H52" s="3">
-        <v>654500</v>
+        <v>646800</v>
       </c>
       <c r="I52" s="3">
-        <v>555100</v>
+        <v>548500</v>
       </c>
       <c r="J52" s="3">
-        <v>475600</v>
+        <v>470000</v>
       </c>
       <c r="K52" s="3">
         <v>361500</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>40720900</v>
+        <v>40241800</v>
       </c>
       <c r="E54" s="3">
-        <v>38422000</v>
+        <v>37970000</v>
       </c>
       <c r="F54" s="3">
-        <v>36013700</v>
+        <v>35590100</v>
       </c>
       <c r="G54" s="3">
-        <v>28414400</v>
+        <v>28080100</v>
       </c>
       <c r="H54" s="3">
-        <v>26603000</v>
+        <v>26290000</v>
       </c>
       <c r="I54" s="3">
-        <v>24294200</v>
+        <v>24008400</v>
       </c>
       <c r="J54" s="3">
-        <v>23750000</v>
+        <v>23470600</v>
       </c>
       <c r="K54" s="3">
         <v>24184600</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>317000</v>
+        <v>313200</v>
       </c>
       <c r="E57" s="3">
-        <v>372600</v>
+        <v>368200</v>
       </c>
       <c r="F57" s="3">
-        <v>324100</v>
+        <v>320300</v>
       </c>
       <c r="G57" s="3">
-        <v>299000</v>
+        <v>295400</v>
       </c>
       <c r="H57" s="3">
-        <v>342100</v>
+        <v>338100</v>
       </c>
       <c r="I57" s="3">
-        <v>237800</v>
+        <v>235000</v>
       </c>
       <c r="J57" s="3">
-        <v>234200</v>
+        <v>231400</v>
       </c>
       <c r="K57" s="3">
         <v>195400</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1197800</v>
+        <v>1183700</v>
       </c>
       <c r="E58" s="3">
-        <v>1198200</v>
+        <v>1184100</v>
       </c>
       <c r="F58" s="3">
-        <v>904600</v>
+        <v>894000</v>
       </c>
       <c r="G58" s="3">
-        <v>1411800</v>
+        <v>1395200</v>
       </c>
       <c r="H58" s="3">
-        <v>757400</v>
+        <v>748500</v>
       </c>
       <c r="I58" s="3">
-        <v>818600</v>
+        <v>809000</v>
       </c>
       <c r="J58" s="3">
-        <v>817000</v>
+        <v>807300</v>
       </c>
       <c r="K58" s="3">
         <v>1390900</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5436500</v>
+        <v>5372500</v>
       </c>
       <c r="E59" s="3">
-        <v>5103100</v>
+        <v>5043100</v>
       </c>
       <c r="F59" s="3">
-        <v>4591700</v>
+        <v>4537700</v>
       </c>
       <c r="G59" s="3">
-        <v>4332000</v>
+        <v>4281000</v>
       </c>
       <c r="H59" s="3">
-        <v>4378000</v>
+        <v>4326500</v>
       </c>
       <c r="I59" s="3">
-        <v>3411600</v>
+        <v>3371400</v>
       </c>
       <c r="J59" s="3">
-        <v>3556100</v>
+        <v>3514300</v>
       </c>
       <c r="K59" s="3">
         <v>3936700</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6951300</v>
+        <v>6869500</v>
       </c>
       <c r="E60" s="3">
-        <v>6673900</v>
+        <v>6595400</v>
       </c>
       <c r="F60" s="3">
-        <v>5820400</v>
+        <v>5751900</v>
       </c>
       <c r="G60" s="3">
-        <v>6042800</v>
+        <v>5971700</v>
       </c>
       <c r="H60" s="3">
-        <v>5477500</v>
+        <v>5413000</v>
       </c>
       <c r="I60" s="3">
-        <v>4468000</v>
+        <v>4415500</v>
       </c>
       <c r="J60" s="3">
-        <v>4607300</v>
+        <v>4553100</v>
       </c>
       <c r="K60" s="3">
         <v>5523000</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9134300</v>
+        <v>9026900</v>
       </c>
       <c r="E61" s="3">
-        <v>8623500</v>
+        <v>8522100</v>
       </c>
       <c r="F61" s="3">
-        <v>7299400</v>
+        <v>7213600</v>
       </c>
       <c r="G61" s="3">
-        <v>4936800</v>
+        <v>4878800</v>
       </c>
       <c r="H61" s="3">
-        <v>5506800</v>
+        <v>5442100</v>
       </c>
       <c r="I61" s="3">
-        <v>5576600</v>
+        <v>5511000</v>
       </c>
       <c r="J61" s="3">
-        <v>4929100</v>
+        <v>4871100</v>
       </c>
       <c r="K61" s="3">
         <v>4563000</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3898500</v>
+        <v>3852600</v>
       </c>
       <c r="E62" s="3">
-        <v>3730200</v>
+        <v>3686300</v>
       </c>
       <c r="F62" s="3">
-        <v>3897000</v>
+        <v>3851200</v>
       </c>
       <c r="G62" s="3">
-        <v>2110000</v>
+        <v>2085100</v>
       </c>
       <c r="H62" s="3">
-        <v>1919700</v>
+        <v>1897100</v>
       </c>
       <c r="I62" s="3">
-        <v>1181600</v>
+        <v>1167700</v>
       </c>
       <c r="J62" s="3">
-        <v>1252700</v>
+        <v>1237900</v>
       </c>
       <c r="K62" s="3">
         <v>1207100</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>20538600</v>
+        <v>20297000</v>
       </c>
       <c r="E66" s="3">
-        <v>18914300</v>
+        <v>18691800</v>
       </c>
       <c r="F66" s="3">
-        <v>16913500</v>
+        <v>16714600</v>
       </c>
       <c r="G66" s="3">
-        <v>13248600</v>
+        <v>13092700</v>
       </c>
       <c r="H66" s="3">
-        <v>13027300</v>
+        <v>12874100</v>
       </c>
       <c r="I66" s="3">
-        <v>11330800</v>
+        <v>11197500</v>
       </c>
       <c r="J66" s="3">
-        <v>11419300</v>
+        <v>11285000</v>
       </c>
       <c r="K66" s="3">
         <v>11943000</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>19534600</v>
+        <v>19304800</v>
       </c>
       <c r="E72" s="3">
-        <v>18894400</v>
+        <v>18672100</v>
       </c>
       <c r="F72" s="3">
-        <v>18822900</v>
+        <v>18601400</v>
       </c>
       <c r="G72" s="3">
-        <v>15160600</v>
+        <v>14982200</v>
       </c>
       <c r="H72" s="3">
-        <v>13560200</v>
+        <v>13400700</v>
       </c>
       <c r="I72" s="3">
-        <v>12756500</v>
+        <v>12606400</v>
       </c>
       <c r="J72" s="3">
-        <v>12060300</v>
+        <v>11918400</v>
       </c>
       <c r="K72" s="3">
         <v>11923300</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>20182300</v>
+        <v>19944900</v>
       </c>
       <c r="E76" s="3">
-        <v>19507700</v>
+        <v>19278200</v>
       </c>
       <c r="F76" s="3">
-        <v>19100200</v>
+        <v>18875500</v>
       </c>
       <c r="G76" s="3">
-        <v>15165800</v>
+        <v>14987400</v>
       </c>
       <c r="H76" s="3">
-        <v>13575700</v>
+        <v>13416000</v>
       </c>
       <c r="I76" s="3">
-        <v>12963400</v>
+        <v>12810900</v>
       </c>
       <c r="J76" s="3">
-        <v>12330700</v>
+        <v>12185700</v>
       </c>
       <c r="K76" s="3">
         <v>12241700</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1266100</v>
+        <v>1251300</v>
       </c>
       <c r="E81" s="3">
-        <v>742800</v>
+        <v>734100</v>
       </c>
       <c r="F81" s="3">
-        <v>2645300</v>
+        <v>2614200</v>
       </c>
       <c r="G81" s="3">
-        <v>2195500</v>
+        <v>2169700</v>
       </c>
       <c r="H81" s="3">
-        <v>1410300</v>
+        <v>1393700</v>
       </c>
       <c r="I81" s="3">
-        <v>1276500</v>
+        <v>1261500</v>
       </c>
       <c r="J81" s="3">
-        <v>1516700</v>
+        <v>1498800</v>
       </c>
       <c r="K81" s="3">
         <v>1483800</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3544500</v>
+        <v>3502800</v>
       </c>
       <c r="E83" s="3">
-        <v>3345500</v>
+        <v>3306100</v>
       </c>
       <c r="F83" s="3">
-        <v>2791700</v>
+        <v>2758800</v>
       </c>
       <c r="G83" s="3">
-        <v>2760400</v>
+        <v>2727900</v>
       </c>
       <c r="H83" s="3">
-        <v>2608300</v>
+        <v>2577600</v>
       </c>
       <c r="I83" s="3">
-        <v>2544500</v>
+        <v>2514500</v>
       </c>
       <c r="J83" s="3">
-        <v>2458100</v>
+        <v>2429200</v>
       </c>
       <c r="K83" s="3">
         <v>2575100</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4948600</v>
+        <v>4890400</v>
       </c>
       <c r="E89" s="3">
-        <v>3388200</v>
+        <v>3348300</v>
       </c>
       <c r="F89" s="3">
-        <v>3682700</v>
+        <v>3639400</v>
       </c>
       <c r="G89" s="3">
-        <v>3277400</v>
+        <v>3238900</v>
       </c>
       <c r="H89" s="3">
-        <v>3606700</v>
+        <v>3564300</v>
       </c>
       <c r="I89" s="3">
-        <v>3211400</v>
+        <v>3173600</v>
       </c>
       <c r="J89" s="3">
-        <v>3125800</v>
+        <v>3089000</v>
       </c>
       <c r="K89" s="3">
         <v>3238300</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-3024100</v>
+        <v>-2988600</v>
       </c>
       <c r="E91" s="3">
-        <v>-2869500</v>
+        <v>-2835700</v>
       </c>
       <c r="F91" s="3">
-        <v>-2373500</v>
+        <v>-2345600</v>
       </c>
       <c r="G91" s="3">
-        <v>-2308500</v>
+        <v>-2281300</v>
       </c>
       <c r="H91" s="3">
-        <v>-2116900</v>
+        <v>-2092000</v>
       </c>
       <c r="I91" s="3">
-        <v>-2107000</v>
+        <v>-2082200</v>
       </c>
       <c r="J91" s="3">
-        <v>-2556800</v>
+        <v>-2526700</v>
       </c>
       <c r="K91" s="3">
         <v>-2620000</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3612800</v>
+        <v>-3570300</v>
       </c>
       <c r="E94" s="3">
-        <v>-3045100</v>
+        <v>-3009300</v>
       </c>
       <c r="F94" s="3">
-        <v>-3440600</v>
+        <v>-3400100</v>
       </c>
       <c r="G94" s="3">
-        <v>-2610000</v>
+        <v>-2579300</v>
       </c>
       <c r="H94" s="3">
-        <v>-2092900</v>
+        <v>-2068300</v>
       </c>
       <c r="I94" s="3">
-        <v>-2448400</v>
+        <v>-2419600</v>
       </c>
       <c r="J94" s="3">
-        <v>-3130700</v>
+        <v>-3093900</v>
       </c>
       <c r="K94" s="3">
         <v>-2280900</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-630800</v>
+        <v>-623400</v>
       </c>
       <c r="E96" s="3">
-        <v>-610900</v>
+        <v>-603700</v>
       </c>
       <c r="F96" s="3">
-        <v>-600200</v>
+        <v>-593100</v>
       </c>
       <c r="G96" s="3">
-        <v>-600200</v>
+        <v>-593100</v>
       </c>
       <c r="H96" s="3">
-        <v>-600200</v>
+        <v>-593100</v>
       </c>
       <c r="I96" s="3">
-        <v>-568200</v>
+        <v>-561500</v>
       </c>
       <c r="J96" s="3">
-        <v>-566800</v>
+        <v>-560100</v>
       </c>
       <c r="K96" s="3">
         <v>-596900</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1238900</v>
+        <v>-1224400</v>
       </c>
       <c r="E100" s="3">
-        <v>-541300</v>
+        <v>-534900</v>
       </c>
       <c r="F100" s="3">
-        <v>-202600</v>
+        <v>-200200</v>
       </c>
       <c r="G100" s="3">
-        <v>-702600</v>
+        <v>-694400</v>
       </c>
       <c r="H100" s="3">
-        <v>-888100</v>
+        <v>-877700</v>
       </c>
       <c r="I100" s="3">
-        <v>-819900</v>
+        <v>-810200</v>
       </c>
       <c r="J100" s="3">
-        <v>-475500</v>
+        <v>-469900</v>
       </c>
       <c r="K100" s="3">
         <v>-521600</v>
@@ -3711,16 +3711,16 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-12800</v>
+        <v>-12700</v>
       </c>
       <c r="E101" s="3">
         <v>-2200</v>
       </c>
       <c r="F101" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="G101" s="3">
-        <v>-5200</v>
+        <v>-5100</v>
       </c>
       <c r="H101" s="3">
         <v>200</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>84000</v>
+        <v>83000</v>
       </c>
       <c r="E102" s="3">
-        <v>-200500</v>
+        <v>-198100</v>
       </c>
       <c r="F102" s="3">
-        <v>41600</v>
+        <v>41100</v>
       </c>
       <c r="G102" s="3">
-        <v>-40400</v>
+        <v>-39900</v>
       </c>
       <c r="H102" s="3">
-        <v>625900</v>
+        <v>618500</v>
       </c>
       <c r="I102" s="3">
-        <v>-55700</v>
+        <v>-55000</v>
       </c>
       <c r="J102" s="3">
-        <v>-479600</v>
+        <v>-473900</v>
       </c>
       <c r="K102" s="3">
         <v>435400</v>

--- a/AAII_Financials/Yearly/SKM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SKM_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
   <si>
     <t>SKM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,165 +665,177 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41639</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41274</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40908</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>15644700</v>
+        <v>13566400</v>
       </c>
       <c r="E8" s="3">
-        <v>14902200</v>
+        <v>13031100</v>
       </c>
       <c r="F8" s="3">
-        <v>14174100</v>
+        <v>14370000</v>
       </c>
       <c r="G8" s="3">
-        <v>14716800</v>
+        <v>13667900</v>
       </c>
       <c r="H8" s="3">
-        <v>14357100</v>
+        <v>14191200</v>
       </c>
       <c r="I8" s="3">
-        <v>14394900</v>
+        <v>13844400</v>
       </c>
       <c r="J8" s="3">
+        <v>13880800</v>
+      </c>
+      <c r="K8" s="3">
         <v>14457600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>15168800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>13861600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>14378600</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>647400</v>
+        <v>607200</v>
       </c>
       <c r="E9" s="3">
-        <v>632000</v>
+        <v>624300</v>
       </c>
       <c r="F9" s="3">
-        <v>679100</v>
+        <v>609400</v>
       </c>
       <c r="G9" s="3">
-        <v>735000</v>
+        <v>654800</v>
       </c>
       <c r="H9" s="3">
-        <v>801600</v>
+        <v>708800</v>
       </c>
       <c r="I9" s="3">
-        <v>804400</v>
+        <v>773000</v>
       </c>
       <c r="J9" s="3">
+        <v>775700</v>
+      </c>
+      <c r="K9" s="3">
         <v>1172900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1358200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1089700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>863300</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>14997300</v>
+        <v>12959200</v>
       </c>
       <c r="E10" s="3">
-        <v>14270200</v>
+        <v>12406800</v>
       </c>
       <c r="F10" s="3">
-        <v>13495100</v>
+        <v>13760600</v>
       </c>
       <c r="G10" s="3">
-        <v>13981800</v>
+        <v>13013100</v>
       </c>
       <c r="H10" s="3">
-        <v>13555500</v>
+        <v>13482400</v>
       </c>
       <c r="I10" s="3">
-        <v>13590500</v>
+        <v>13071400</v>
       </c>
       <c r="J10" s="3">
+        <v>13105100</v>
+      </c>
+      <c r="K10" s="3">
         <v>13284700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>13810600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>12771900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>13515200</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,44 +850,48 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>349800</v>
+        <v>281600</v>
       </c>
       <c r="E12" s="3">
-        <v>328700</v>
+        <v>286100</v>
       </c>
       <c r="F12" s="3">
-        <v>325600</v>
+        <v>317000</v>
       </c>
       <c r="G12" s="3">
-        <v>332000</v>
+        <v>314000</v>
       </c>
       <c r="H12" s="3">
-        <v>289600</v>
+        <v>320200</v>
       </c>
       <c r="I12" s="3">
-        <v>265300</v>
+        <v>279300</v>
       </c>
       <c r="J12" s="3">
+        <v>255800</v>
+      </c>
+      <c r="K12" s="3">
         <v>328400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>320700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>255800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>244200</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -909,81 +925,90 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>175400</v>
+        <v>2500</v>
       </c>
       <c r="E14" s="3">
-        <v>56800</v>
+        <v>162600</v>
       </c>
       <c r="F14" s="3">
-        <v>217600</v>
+        <v>54800</v>
       </c>
       <c r="G14" s="3">
-        <v>57600</v>
+        <v>209800</v>
       </c>
       <c r="H14" s="3">
-        <v>20600</v>
+        <v>55500</v>
       </c>
       <c r="I14" s="3">
-        <v>30100</v>
+        <v>19800</v>
       </c>
       <c r="J14" s="3">
+        <v>29000</v>
+      </c>
+      <c r="K14" s="3">
         <v>39900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>12500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>33500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>2700</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>3352500</v>
+        <v>2974800</v>
       </c>
       <c r="E15" s="3">
-        <v>3239600</v>
+        <v>2968400</v>
       </c>
       <c r="F15" s="3">
-        <v>2625900</v>
+        <v>3123900</v>
       </c>
       <c r="G15" s="3">
-        <v>2601900</v>
+        <v>2532200</v>
       </c>
       <c r="H15" s="3">
-        <v>2471200</v>
+        <v>2508900</v>
       </c>
       <c r="I15" s="3">
-        <v>2390000</v>
+        <v>2382900</v>
       </c>
       <c r="J15" s="3">
+        <v>2304700</v>
+      </c>
+      <c r="K15" s="3">
         <v>2280400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>2422100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>2043100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>2066800</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -995,80 +1020,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>14686700</v>
+        <v>12445300</v>
       </c>
       <c r="E17" s="3">
-        <v>14028100</v>
+        <v>12182300</v>
       </c>
       <c r="F17" s="3">
-        <v>13382200</v>
+        <v>13527100</v>
       </c>
       <c r="G17" s="3">
-        <v>13483600</v>
+        <v>12904300</v>
       </c>
       <c r="H17" s="3">
-        <v>13087700</v>
+        <v>13002100</v>
       </c>
       <c r="I17" s="3">
-        <v>12990200</v>
+        <v>12620300</v>
       </c>
       <c r="J17" s="3">
+        <v>12526300</v>
+      </c>
+      <c r="K17" s="3">
         <v>13107100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>13732500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>12379700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>12408200</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>958000</v>
+        <v>1121100</v>
       </c>
       <c r="E18" s="3">
-        <v>874100</v>
+        <v>848800</v>
       </c>
       <c r="F18" s="3">
-        <v>791900</v>
+        <v>842900</v>
       </c>
       <c r="G18" s="3">
-        <v>1233200</v>
+        <v>763600</v>
       </c>
       <c r="H18" s="3">
-        <v>1269400</v>
+        <v>1189100</v>
       </c>
       <c r="I18" s="3">
-        <v>1404600</v>
+        <v>1224100</v>
       </c>
       <c r="J18" s="3">
+        <v>1354500</v>
+      </c>
+      <c r="K18" s="3">
         <v>1350600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1436300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1481900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1970400</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1083,188 +1115,204 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>954000</v>
+        <v>497300</v>
       </c>
       <c r="E20" s="3">
-        <v>442300</v>
+        <v>118500</v>
       </c>
       <c r="F20" s="3">
-        <v>2806000</v>
+        <v>426500</v>
       </c>
       <c r="G20" s="3">
-        <v>1876800</v>
+        <v>2705800</v>
       </c>
       <c r="H20" s="3">
-        <v>735300</v>
+        <v>1809800</v>
       </c>
       <c r="I20" s="3">
-        <v>555100</v>
+        <v>709000</v>
       </c>
       <c r="J20" s="3">
+        <v>535300</v>
+      </c>
+      <c r="K20" s="3">
         <v>814700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>528300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>167300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>623100</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>5414800</v>
+        <v>4992100</v>
       </c>
       <c r="E21" s="3">
-        <v>4622500</v>
+        <v>4386700</v>
       </c>
       <c r="F21" s="3">
-        <v>6356800</v>
+        <v>4496700</v>
       </c>
       <c r="G21" s="3">
-        <v>5837900</v>
+        <v>6162600</v>
       </c>
       <c r="H21" s="3">
-        <v>4582300</v>
+        <v>5661900</v>
       </c>
       <c r="I21" s="3">
-        <v>4474300</v>
+        <v>4449400</v>
       </c>
       <c r="J21" s="3">
+        <v>4344400</v>
+      </c>
+      <c r="K21" s="3">
         <v>4594500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>4511400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3870200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>4803100</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>335300</v>
+        <v>226600</v>
       </c>
       <c r="E22" s="3">
-        <v>341100</v>
+        <v>234100</v>
       </c>
       <c r="F22" s="3">
-        <v>258100</v>
+        <v>328900</v>
       </c>
       <c r="G22" s="3">
-        <v>251200</v>
+        <v>248900</v>
       </c>
       <c r="H22" s="3">
-        <v>244000</v>
+        <v>242300</v>
       </c>
       <c r="I22" s="3">
-        <v>250000</v>
+        <v>235300</v>
       </c>
       <c r="J22" s="3">
+        <v>241100</v>
+      </c>
+      <c r="K22" s="3">
         <v>272100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>302000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>346400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>576900</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>1576700</v>
+        <v>1391700</v>
       </c>
       <c r="E23" s="3">
-        <v>975200</v>
+        <v>733200</v>
       </c>
       <c r="F23" s="3">
-        <v>3339800</v>
+        <v>940400</v>
       </c>
       <c r="G23" s="3">
-        <v>2858700</v>
+        <v>3220500</v>
       </c>
       <c r="H23" s="3">
-        <v>1760800</v>
+        <v>2756600</v>
       </c>
       <c r="I23" s="3">
-        <v>1709700</v>
+        <v>1697900</v>
       </c>
       <c r="J23" s="3">
+        <v>1648600</v>
+      </c>
+      <c r="K23" s="3">
         <v>1893200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1662700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1302700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2016600</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>316300</v>
+        <v>361900</v>
       </c>
       <c r="E24" s="3">
-        <v>252200</v>
+        <v>179200</v>
       </c>
       <c r="F24" s="3">
-        <v>708900</v>
+        <v>243200</v>
       </c>
       <c r="G24" s="3">
-        <v>626300</v>
+        <v>683600</v>
       </c>
       <c r="H24" s="3">
-        <v>366300</v>
+        <v>604000</v>
       </c>
       <c r="I24" s="3">
-        <v>436400</v>
+        <v>353200</v>
       </c>
       <c r="J24" s="3">
+        <v>420800</v>
+      </c>
+      <c r="K24" s="3">
         <v>381800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>364700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>248500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>548100</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1298,81 +1346,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>1260500</v>
+        <v>1029800</v>
       </c>
       <c r="E26" s="3">
-        <v>723000</v>
+        <v>554000</v>
       </c>
       <c r="F26" s="3">
-        <v>2630900</v>
+        <v>697200</v>
       </c>
       <c r="G26" s="3">
-        <v>2232400</v>
+        <v>2536900</v>
       </c>
       <c r="H26" s="3">
-        <v>1394500</v>
+        <v>2152700</v>
       </c>
       <c r="I26" s="3">
-        <v>1273300</v>
+        <v>1344700</v>
       </c>
       <c r="J26" s="3">
+        <v>1227900</v>
+      </c>
+      <c r="K26" s="3">
         <v>1511400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1297900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1054200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1468600</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>1251300</v>
+        <v>974200</v>
       </c>
       <c r="E27" s="3">
-        <v>734100</v>
+        <v>513400</v>
       </c>
       <c r="F27" s="3">
-        <v>2614200</v>
+        <v>707900</v>
       </c>
       <c r="G27" s="3">
-        <v>2169700</v>
+        <v>2520800</v>
       </c>
       <c r="H27" s="3">
-        <v>1393700</v>
+        <v>2092200</v>
       </c>
       <c r="I27" s="3">
-        <v>1261500</v>
+        <v>1343900</v>
       </c>
       <c r="J27" s="3">
+        <v>1216400</v>
+      </c>
+      <c r="K27" s="3">
         <v>1498800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1317000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1100800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1496300</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1406,17 +1463,20 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>24</v>
+      <c r="D29" s="3">
+        <v>963900</v>
+      </c>
+      <c r="E29" s="3">
+        <v>693200</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>24</v>
@@ -1430,21 +1490,24 @@
       <c r="I29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
+      <c r="J29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>166800</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-133300</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-45200</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1478,9 +1541,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1514,81 +1580,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-954000</v>
+        <v>-497300</v>
       </c>
       <c r="E32" s="3">
-        <v>-442300</v>
+        <v>-118500</v>
       </c>
       <c r="F32" s="3">
-        <v>-2806000</v>
+        <v>-426500</v>
       </c>
       <c r="G32" s="3">
-        <v>-1876800</v>
+        <v>-2705800</v>
       </c>
       <c r="H32" s="3">
-        <v>-735300</v>
+        <v>-1809800</v>
       </c>
       <c r="I32" s="3">
-        <v>-555100</v>
+        <v>-709000</v>
       </c>
       <c r="J32" s="3">
+        <v>-535300</v>
+      </c>
+      <c r="K32" s="3">
         <v>-814700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-528300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-167300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-623100</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1251300</v>
+        <v>1938100</v>
       </c>
       <c r="E33" s="3">
-        <v>734100</v>
+        <v>1206600</v>
       </c>
       <c r="F33" s="3">
-        <v>2614200</v>
+        <v>707900</v>
       </c>
       <c r="G33" s="3">
-        <v>2169700</v>
+        <v>2520800</v>
       </c>
       <c r="H33" s="3">
-        <v>1393700</v>
+        <v>2092200</v>
       </c>
       <c r="I33" s="3">
-        <v>1261500</v>
+        <v>1343900</v>
       </c>
       <c r="J33" s="3">
+        <v>1216400</v>
+      </c>
+      <c r="K33" s="3">
         <v>1498800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1483800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>967400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1451100</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1622,86 +1697,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1251300</v>
+        <v>1938100</v>
       </c>
       <c r="E35" s="3">
-        <v>734100</v>
+        <v>1206600</v>
       </c>
       <c r="F35" s="3">
-        <v>2614200</v>
+        <v>707900</v>
       </c>
       <c r="G35" s="3">
-        <v>2169700</v>
+        <v>2520800</v>
       </c>
       <c r="H35" s="3">
-        <v>1393700</v>
+        <v>2092200</v>
       </c>
       <c r="I35" s="3">
-        <v>1261500</v>
+        <v>1343900</v>
       </c>
       <c r="J35" s="3">
+        <v>1216400</v>
+      </c>
+      <c r="K35" s="3">
         <v>1498800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1483800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>967400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1451100</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41639</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41274</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40908</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1716,8 +1800,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1732,332 +1817,360 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1150500</v>
+        <v>706900</v>
       </c>
       <c r="E41" s="3">
-        <v>1067500</v>
+        <v>1109400</v>
       </c>
       <c r="F41" s="3">
-        <v>1265600</v>
+        <v>1029400</v>
       </c>
       <c r="G41" s="3">
-        <v>1224500</v>
+        <v>1220400</v>
       </c>
       <c r="H41" s="3">
-        <v>1264400</v>
+        <v>1180800</v>
       </c>
       <c r="I41" s="3">
-        <v>645900</v>
+        <v>1219200</v>
       </c>
       <c r="J41" s="3">
+        <v>622800</v>
+      </c>
+      <c r="K41" s="3">
         <v>700900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1272800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>772900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1485700</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1242600</v>
+        <v>351700</v>
       </c>
       <c r="E42" s="3">
-        <v>757900</v>
+        <v>1198200</v>
       </c>
       <c r="F42" s="3">
-        <v>975400</v>
+        <v>730800</v>
       </c>
       <c r="G42" s="3">
-        <v>563900</v>
+        <v>940600</v>
       </c>
       <c r="H42" s="3">
-        <v>408100</v>
+        <v>543800</v>
       </c>
       <c r="I42" s="3">
-        <v>588700</v>
+        <v>393500</v>
       </c>
       <c r="J42" s="3">
+        <v>567700</v>
+      </c>
+      <c r="K42" s="3">
         <v>498300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>380000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>482600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>967000</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2831800</v>
+        <v>2114300</v>
       </c>
       <c r="E43" s="3">
-        <v>2852400</v>
+        <v>2730700</v>
       </c>
       <c r="F43" s="3">
-        <v>2605400</v>
+        <v>2750500</v>
       </c>
       <c r="G43" s="3">
-        <v>2901100</v>
+        <v>2512400</v>
       </c>
       <c r="H43" s="3">
-        <v>2876300</v>
+        <v>2797500</v>
       </c>
       <c r="I43" s="3">
-        <v>2589900</v>
+        <v>2773500</v>
       </c>
       <c r="J43" s="3">
+        <v>2497400</v>
+      </c>
+      <c r="K43" s="3">
         <v>2652000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2712100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2202400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2549200</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>144000</v>
+        <v>165800</v>
       </c>
       <c r="E44" s="3">
-        <v>136800</v>
+        <v>138900</v>
       </c>
       <c r="F44" s="3">
-        <v>242000</v>
+        <v>131900</v>
       </c>
       <c r="G44" s="3">
-        <v>228800</v>
+        <v>233300</v>
       </c>
       <c r="H44" s="3">
-        <v>218300</v>
+        <v>220600</v>
       </c>
       <c r="I44" s="3">
-        <v>229800</v>
+        <v>210500</v>
       </c>
       <c r="J44" s="3">
+        <v>221600</v>
+      </c>
+      <c r="K44" s="3">
         <v>224800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>161200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>203400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>197600</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2002100</v>
+        <v>1807000</v>
       </c>
       <c r="E45" s="3">
-        <v>1979800</v>
+        <v>1930600</v>
       </c>
       <c r="F45" s="3">
-        <v>1597000</v>
+        <v>1909100</v>
       </c>
       <c r="G45" s="3">
-        <v>291200</v>
+        <v>1539900</v>
       </c>
       <c r="H45" s="3">
-        <v>270100</v>
+        <v>280800</v>
       </c>
       <c r="I45" s="3">
-        <v>280200</v>
+        <v>260500</v>
       </c>
       <c r="J45" s="3">
+        <v>270200</v>
+      </c>
+      <c r="K45" s="3">
         <v>193700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>136300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>786000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>306200</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>7371100</v>
+        <v>5145700</v>
       </c>
       <c r="E46" s="3">
-        <v>6794300</v>
+        <v>7107800</v>
       </c>
       <c r="F46" s="3">
-        <v>6685400</v>
+        <v>6551700</v>
       </c>
       <c r="G46" s="3">
-        <v>5209500</v>
+        <v>6446700</v>
       </c>
       <c r="H46" s="3">
-        <v>5037200</v>
+        <v>5023500</v>
       </c>
       <c r="I46" s="3">
-        <v>4334600</v>
+        <v>4857300</v>
       </c>
       <c r="J46" s="3">
+        <v>4179800</v>
+      </c>
+      <c r="K46" s="3">
         <v>4269800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4662300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4447300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5505700</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>13817300</v>
+        <v>3450100</v>
       </c>
       <c r="E47" s="3">
-        <v>12355700</v>
+        <v>13323800</v>
       </c>
       <c r="F47" s="3">
-        <v>11621100</v>
+        <v>11914400</v>
       </c>
       <c r="G47" s="3">
-        <v>9051900</v>
+        <v>11206100</v>
       </c>
       <c r="H47" s="3">
-        <v>7096300</v>
+        <v>8728700</v>
       </c>
       <c r="I47" s="3">
-        <v>6861500</v>
+        <v>6842900</v>
       </c>
       <c r="J47" s="3">
+        <v>6616400</v>
+      </c>
+      <c r="K47" s="3">
         <v>6144000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>5787100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>4750700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2728000</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>11236700</v>
+        <v>10444400</v>
       </c>
       <c r="E48" s="3">
-        <v>10864100</v>
+        <v>10835400</v>
       </c>
       <c r="F48" s="3">
-        <v>9003400</v>
+        <v>10476100</v>
       </c>
       <c r="G48" s="3">
-        <v>8521700</v>
+        <v>8681900</v>
       </c>
       <c r="H48" s="3">
-        <v>8714300</v>
+        <v>8217400</v>
       </c>
       <c r="I48" s="3">
-        <v>8724500</v>
+        <v>8403100</v>
       </c>
       <c r="J48" s="3">
+        <v>8412900</v>
+      </c>
+      <c r="K48" s="3">
         <v>8889500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>9293300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>8285600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>8373600</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>6546700</v>
+        <v>4813200</v>
       </c>
       <c r="E49" s="3">
-        <v>6565100</v>
+        <v>6312900</v>
       </c>
       <c r="F49" s="3">
-        <v>7099700</v>
+        <v>6330700</v>
       </c>
       <c r="G49" s="3">
-        <v>4621700</v>
+        <v>6846200</v>
       </c>
       <c r="H49" s="3">
-        <v>4795400</v>
+        <v>4456600</v>
       </c>
       <c r="I49" s="3">
-        <v>3539200</v>
+        <v>4624100</v>
       </c>
       <c r="J49" s="3">
+        <v>3412800</v>
+      </c>
+      <c r="K49" s="3">
         <v>3697300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4080500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3724700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4271200</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2091,9 +2204,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2127,45 +2243,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1270000</v>
+        <v>1184800</v>
       </c>
       <c r="E52" s="3">
-        <v>1390700</v>
+        <v>1224700</v>
       </c>
       <c r="F52" s="3">
-        <v>1180300</v>
+        <v>1341000</v>
       </c>
       <c r="G52" s="3">
-        <v>675300</v>
+        <v>1138200</v>
       </c>
       <c r="H52" s="3">
-        <v>646800</v>
+        <v>651200</v>
       </c>
       <c r="I52" s="3">
-        <v>548500</v>
+        <v>623700</v>
       </c>
       <c r="J52" s="3">
+        <v>528900</v>
+      </c>
+      <c r="K52" s="3">
         <v>470000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>361500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>291900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1050900</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2199,45 +2321,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>40241800</v>
+        <v>25038100</v>
       </c>
       <c r="E54" s="3">
-        <v>37970000</v>
+        <v>38804600</v>
       </c>
       <c r="F54" s="3">
-        <v>35590100</v>
+        <v>36613900</v>
       </c>
       <c r="G54" s="3">
-        <v>28080100</v>
+        <v>34319000</v>
       </c>
       <c r="H54" s="3">
-        <v>26290000</v>
+        <v>27077200</v>
       </c>
       <c r="I54" s="3">
-        <v>24008400</v>
+        <v>25351100</v>
       </c>
       <c r="J54" s="3">
+        <v>23150900</v>
+      </c>
+      <c r="K54" s="3">
         <v>23470600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>24184600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>21500300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>21929400</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2252,8 +2380,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2268,224 +2397,243 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>313200</v>
+        <v>154400</v>
       </c>
       <c r="E57" s="3">
-        <v>368200</v>
+        <v>302100</v>
       </c>
       <c r="F57" s="3">
-        <v>320300</v>
+        <v>355000</v>
       </c>
       <c r="G57" s="3">
-        <v>295400</v>
+        <v>308900</v>
       </c>
       <c r="H57" s="3">
-        <v>338100</v>
+        <v>284900</v>
       </c>
       <c r="I57" s="3">
-        <v>235000</v>
+        <v>326000</v>
       </c>
       <c r="J57" s="3">
+        <v>226600</v>
+      </c>
+      <c r="K57" s="3">
         <v>231400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>195400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1734500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1532900</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1183700</v>
+        <v>1452200</v>
       </c>
       <c r="E58" s="3">
-        <v>1184100</v>
+        <v>1141400</v>
       </c>
       <c r="F58" s="3">
-        <v>894000</v>
+        <v>1141800</v>
       </c>
       <c r="G58" s="3">
-        <v>1395200</v>
+        <v>862100</v>
       </c>
       <c r="H58" s="3">
-        <v>748500</v>
+        <v>1345400</v>
       </c>
       <c r="I58" s="3">
-        <v>809000</v>
+        <v>721800</v>
       </c>
       <c r="J58" s="3">
+        <v>780100</v>
+      </c>
+      <c r="K58" s="3">
         <v>807300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1390900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1254200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2127200</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5372500</v>
+        <v>4031400</v>
       </c>
       <c r="E59" s="3">
-        <v>5043100</v>
+        <v>5180700</v>
       </c>
       <c r="F59" s="3">
-        <v>4537700</v>
+        <v>4863000</v>
       </c>
       <c r="G59" s="3">
-        <v>4281000</v>
+        <v>4375600</v>
       </c>
       <c r="H59" s="3">
-        <v>4326500</v>
+        <v>4128100</v>
       </c>
       <c r="I59" s="3">
-        <v>3371400</v>
+        <v>4172000</v>
       </c>
       <c r="J59" s="3">
+        <v>3251000</v>
+      </c>
+      <c r="K59" s="3">
         <v>3514300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3936700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2198200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2346100</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6869500</v>
+        <v>5638000</v>
       </c>
       <c r="E60" s="3">
-        <v>6595400</v>
+        <v>6624200</v>
       </c>
       <c r="F60" s="3">
-        <v>5751900</v>
+        <v>6359900</v>
       </c>
       <c r="G60" s="3">
-        <v>5971700</v>
+        <v>5546500</v>
       </c>
       <c r="H60" s="3">
-        <v>5413000</v>
+        <v>5758400</v>
       </c>
       <c r="I60" s="3">
-        <v>4415500</v>
+        <v>5219700</v>
       </c>
       <c r="J60" s="3">
+        <v>4257800</v>
+      </c>
+      <c r="K60" s="3">
         <v>4553100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5523000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5186900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6006200</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9026900</v>
+        <v>6946000</v>
       </c>
       <c r="E61" s="3">
-        <v>8522100</v>
+        <v>8704500</v>
       </c>
       <c r="F61" s="3">
-        <v>7213600</v>
+        <v>8217700</v>
       </c>
       <c r="G61" s="3">
-        <v>4878800</v>
+        <v>6955900</v>
       </c>
       <c r="H61" s="3">
-        <v>5442100</v>
+        <v>4704500</v>
       </c>
       <c r="I61" s="3">
-        <v>5511000</v>
+        <v>5247700</v>
       </c>
       <c r="J61" s="3">
+        <v>5314200</v>
+      </c>
+      <c r="K61" s="3">
         <v>4871100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4563000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4511200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3235300</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3852600</v>
+        <v>2462800</v>
       </c>
       <c r="E62" s="3">
-        <v>3686300</v>
+        <v>3715000</v>
       </c>
       <c r="F62" s="3">
-        <v>3851200</v>
+        <v>3554600</v>
       </c>
       <c r="G62" s="3">
-        <v>2085100</v>
+        <v>3713600</v>
       </c>
       <c r="H62" s="3">
-        <v>1897100</v>
+        <v>2010700</v>
       </c>
       <c r="I62" s="3">
-        <v>1167700</v>
+        <v>1829400</v>
       </c>
       <c r="J62" s="3">
+        <v>1126000</v>
+      </c>
+      <c r="K62" s="3">
         <v>1237900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1207100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1004100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1228400</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2519,9 +2667,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2555,9 +2706,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2591,45 +2745,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>20297000</v>
+        <v>15658900</v>
       </c>
       <c r="E66" s="3">
-        <v>18691800</v>
+        <v>19572100</v>
       </c>
       <c r="F66" s="3">
-        <v>16714600</v>
+        <v>18024200</v>
       </c>
       <c r="G66" s="3">
-        <v>13092700</v>
+        <v>16117600</v>
       </c>
       <c r="H66" s="3">
-        <v>12874100</v>
+        <v>12625100</v>
       </c>
       <c r="I66" s="3">
-        <v>11197500</v>
+        <v>12414300</v>
       </c>
       <c r="J66" s="3">
+        <v>10797500</v>
+      </c>
+      <c r="K66" s="3">
         <v>11285000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>11943000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>11542300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>11433700</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2644,8 +2804,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2679,9 +2840,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2715,9 +2879,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2751,9 +2918,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2787,45 +2957,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>19304800</v>
+        <v>18174200</v>
       </c>
       <c r="E72" s="3">
-        <v>18672100</v>
+        <v>18615300</v>
       </c>
       <c r="F72" s="3">
-        <v>18601400</v>
+        <v>18005200</v>
       </c>
       <c r="G72" s="3">
-        <v>14982200</v>
+        <v>17937100</v>
       </c>
       <c r="H72" s="3">
-        <v>13400700</v>
+        <v>14447100</v>
       </c>
       <c r="I72" s="3">
-        <v>12606400</v>
+        <v>12922100</v>
       </c>
       <c r="J72" s="3">
+        <v>12156200</v>
+      </c>
+      <c r="K72" s="3">
         <v>11918400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>11923300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>10163200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>10712300</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2859,9 +3035,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2895,9 +3074,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2931,45 +3113,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>19944900</v>
+        <v>9379300</v>
       </c>
       <c r="E76" s="3">
-        <v>19278200</v>
+        <v>19232600</v>
       </c>
       <c r="F76" s="3">
-        <v>18875500</v>
+        <v>18589700</v>
       </c>
       <c r="G76" s="3">
-        <v>14987400</v>
+        <v>18201400</v>
       </c>
       <c r="H76" s="3">
-        <v>13416000</v>
+        <v>14452100</v>
       </c>
       <c r="I76" s="3">
-        <v>12810900</v>
+        <v>12936800</v>
       </c>
       <c r="J76" s="3">
+        <v>12353400</v>
+      </c>
+      <c r="K76" s="3">
         <v>12185700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>12241700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>9958000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>10495700</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3003,86 +3191,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41639</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41274</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40908</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1251300</v>
+        <v>1938100</v>
       </c>
       <c r="E81" s="3">
-        <v>734100</v>
+        <v>1206600</v>
       </c>
       <c r="F81" s="3">
-        <v>2614200</v>
+        <v>707900</v>
       </c>
       <c r="G81" s="3">
-        <v>2169700</v>
+        <v>2520800</v>
       </c>
       <c r="H81" s="3">
-        <v>1393700</v>
+        <v>2092200</v>
       </c>
       <c r="I81" s="3">
-        <v>1261500</v>
+        <v>1343900</v>
       </c>
       <c r="J81" s="3">
+        <v>1216400</v>
+      </c>
+      <c r="K81" s="3">
         <v>1498800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1483800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>967400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1451100</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3097,44 +3294,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3502800</v>
+        <v>3332700</v>
       </c>
       <c r="E83" s="3">
-        <v>3306100</v>
+        <v>3377700</v>
       </c>
       <c r="F83" s="3">
-        <v>2758800</v>
+        <v>3188000</v>
       </c>
       <c r="G83" s="3">
-        <v>2727900</v>
+        <v>2660300</v>
       </c>
       <c r="H83" s="3">
-        <v>2577600</v>
+        <v>2630500</v>
       </c>
       <c r="I83" s="3">
-        <v>2514500</v>
+        <v>2485500</v>
       </c>
       <c r="J83" s="3">
+        <v>2424700</v>
+      </c>
+      <c r="K83" s="3">
         <v>2429200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2575100</v>
       </c>
-      <c r="L83" s="3" t="s">
+      <c r="M83" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>2234400</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3168,9 +3369,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3204,9 +3408,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3240,9 +3447,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3276,9 +3486,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3312,45 +3525,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4890400</v>
+        <v>4075300</v>
       </c>
       <c r="E89" s="3">
-        <v>3348300</v>
+        <v>4715700</v>
       </c>
       <c r="F89" s="3">
-        <v>3639400</v>
+        <v>3228700</v>
       </c>
       <c r="G89" s="3">
-        <v>3238900</v>
+        <v>3509400</v>
       </c>
       <c r="H89" s="3">
-        <v>3564300</v>
+        <v>3123200</v>
       </c>
       <c r="I89" s="3">
-        <v>3173600</v>
+        <v>3437000</v>
       </c>
       <c r="J89" s="3">
+        <v>3060300</v>
+      </c>
+      <c r="K89" s="3">
         <v>3089000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3238300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>5297400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>5675800</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3365,44 +3584,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2988600</v>
+        <v>-2361800</v>
       </c>
       <c r="E91" s="3">
-        <v>-2835700</v>
+        <v>-2881800</v>
       </c>
       <c r="F91" s="3">
-        <v>-2345600</v>
+        <v>-2734500</v>
       </c>
       <c r="G91" s="3">
-        <v>-2281300</v>
+        <v>-2261800</v>
       </c>
       <c r="H91" s="3">
-        <v>-2092000</v>
+        <v>-2199800</v>
       </c>
       <c r="I91" s="3">
-        <v>-2082200</v>
+        <v>-2017300</v>
       </c>
       <c r="J91" s="3">
+        <v>-2007800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-2526700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2620000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2559300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3280800</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3436,9 +3659,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3472,45 +3698,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3570300</v>
+        <v>-2823800</v>
       </c>
       <c r="E94" s="3">
-        <v>-3009300</v>
+        <v>-3442800</v>
       </c>
       <c r="F94" s="3">
-        <v>-3400100</v>
+        <v>-2901800</v>
       </c>
       <c r="G94" s="3">
-        <v>-2579300</v>
+        <v>-3278700</v>
       </c>
       <c r="H94" s="3">
-        <v>-2068300</v>
+        <v>-2487200</v>
       </c>
       <c r="I94" s="3">
-        <v>-2419600</v>
+        <v>-1994400</v>
       </c>
       <c r="J94" s="3">
+        <v>-2333200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-3093900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2280900</v>
       </c>
-      <c r="L94" s="3" t="s">
+      <c r="M94" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3815200</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3525,44 +3757,48 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-623400</v>
+        <v>-833100</v>
       </c>
       <c r="E96" s="3">
-        <v>-603700</v>
+        <v>-601100</v>
       </c>
       <c r="F96" s="3">
-        <v>-593100</v>
+        <v>-582100</v>
       </c>
       <c r="G96" s="3">
-        <v>-593100</v>
+        <v>-571900</v>
       </c>
       <c r="H96" s="3">
-        <v>-593100</v>
+        <v>-571900</v>
       </c>
       <c r="I96" s="3">
-        <v>-561500</v>
+        <v>-571900</v>
       </c>
       <c r="J96" s="3">
+        <v>-541500</v>
+      </c>
+      <c r="K96" s="3">
         <v>-560100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-596900</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-561400</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-601500</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3596,9 +3832,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3632,9 +3871,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3668,115 +3910,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1224400</v>
+        <v>-1663400</v>
       </c>
       <c r="E100" s="3">
-        <v>-534900</v>
+        <v>-1180600</v>
       </c>
       <c r="F100" s="3">
-        <v>-200200</v>
+        <v>-515800</v>
       </c>
       <c r="G100" s="3">
-        <v>-694400</v>
+        <v>-193000</v>
       </c>
       <c r="H100" s="3">
-        <v>-877700</v>
+        <v>-669600</v>
       </c>
       <c r="I100" s="3">
-        <v>-810200</v>
+        <v>-846300</v>
       </c>
       <c r="J100" s="3">
+        <v>-781300</v>
+      </c>
+      <c r="K100" s="3">
         <v>-469900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-521600</v>
       </c>
-      <c r="L100" s="3" t="s">
+      <c r="M100" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-971400</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-12700</v>
+        <v>9400</v>
       </c>
       <c r="E101" s="3">
-        <v>-2200</v>
+        <v>-12200</v>
       </c>
       <c r="F101" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="G101" s="3">
         <v>2000</v>
       </c>
-      <c r="G101" s="3">
-        <v>-5100</v>
-      </c>
       <c r="H101" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="I101" s="3">
         <v>200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>1200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-400</v>
       </c>
-      <c r="L101" s="3" t="s">
+      <c r="M101" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>3000</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>83000</v>
+        <v>-402500</v>
       </c>
       <c r="E102" s="3">
-        <v>-198100</v>
+        <v>80100</v>
       </c>
       <c r="F102" s="3">
-        <v>41100</v>
+        <v>-191100</v>
       </c>
       <c r="G102" s="3">
-        <v>-39900</v>
+        <v>39700</v>
       </c>
       <c r="H102" s="3">
-        <v>618500</v>
+        <v>-38500</v>
       </c>
       <c r="I102" s="3">
-        <v>-55000</v>
+        <v>596400</v>
       </c>
       <c r="J102" s="3">
+        <v>-53100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-473900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>435400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>832800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>892300</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/SKM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SKM_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>13566400</v>
+        <v>12896400</v>
       </c>
       <c r="E8" s="3">
-        <v>13031100</v>
+        <v>12387600</v>
       </c>
       <c r="F8" s="3">
-        <v>14370000</v>
+        <v>13660400</v>
       </c>
       <c r="G8" s="3">
-        <v>13667900</v>
+        <v>12992900</v>
       </c>
       <c r="H8" s="3">
-        <v>14191200</v>
+        <v>13490400</v>
       </c>
       <c r="I8" s="3">
-        <v>13844400</v>
+        <v>13160700</v>
       </c>
       <c r="J8" s="3">
-        <v>13880800</v>
+        <v>13195300</v>
       </c>
       <c r="K8" s="3">
         <v>14457600</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>607200</v>
+        <v>577200</v>
       </c>
       <c r="E9" s="3">
-        <v>624300</v>
+        <v>593400</v>
       </c>
       <c r="F9" s="3">
-        <v>609400</v>
+        <v>579300</v>
       </c>
       <c r="G9" s="3">
-        <v>654800</v>
+        <v>622500</v>
       </c>
       <c r="H9" s="3">
-        <v>708800</v>
+        <v>673800</v>
       </c>
       <c r="I9" s="3">
-        <v>773000</v>
+        <v>734800</v>
       </c>
       <c r="J9" s="3">
-        <v>775700</v>
+        <v>737400</v>
       </c>
       <c r="K9" s="3">
         <v>1172900</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>12959200</v>
+        <v>12319200</v>
       </c>
       <c r="E10" s="3">
-        <v>12406800</v>
+        <v>11794100</v>
       </c>
       <c r="F10" s="3">
-        <v>13760600</v>
+        <v>13081100</v>
       </c>
       <c r="G10" s="3">
-        <v>13013100</v>
+        <v>12370500</v>
       </c>
       <c r="H10" s="3">
-        <v>13482400</v>
+        <v>12816600</v>
       </c>
       <c r="I10" s="3">
-        <v>13071400</v>
+        <v>12425900</v>
       </c>
       <c r="J10" s="3">
-        <v>13105100</v>
+        <v>12457900</v>
       </c>
       <c r="K10" s="3">
         <v>13284700</v>
@@ -857,25 +857,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>281600</v>
+        <v>267700</v>
       </c>
       <c r="E12" s="3">
-        <v>286100</v>
+        <v>272000</v>
       </c>
       <c r="F12" s="3">
-        <v>317000</v>
+        <v>301300</v>
       </c>
       <c r="G12" s="3">
-        <v>314000</v>
+        <v>298500</v>
       </c>
       <c r="H12" s="3">
-        <v>320200</v>
+        <v>304400</v>
       </c>
       <c r="I12" s="3">
-        <v>279300</v>
+        <v>265500</v>
       </c>
       <c r="J12" s="3">
-        <v>255800</v>
+        <v>243200</v>
       </c>
       <c r="K12" s="3">
         <v>328400</v>
@@ -935,25 +935,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="E14" s="3">
-        <v>162600</v>
+        <v>154500</v>
       </c>
       <c r="F14" s="3">
-        <v>54800</v>
+        <v>52100</v>
       </c>
       <c r="G14" s="3">
-        <v>209800</v>
+        <v>199400</v>
       </c>
       <c r="H14" s="3">
-        <v>55500</v>
+        <v>52800</v>
       </c>
       <c r="I14" s="3">
-        <v>19800</v>
+        <v>18900</v>
       </c>
       <c r="J14" s="3">
-        <v>29000</v>
+        <v>27600</v>
       </c>
       <c r="K14" s="3">
         <v>39900</v>
@@ -974,25 +974,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>2974800</v>
+        <v>2827900</v>
       </c>
       <c r="E15" s="3">
-        <v>2968400</v>
+        <v>2821800</v>
       </c>
       <c r="F15" s="3">
-        <v>3123900</v>
+        <v>2969600</v>
       </c>
       <c r="G15" s="3">
-        <v>2532200</v>
+        <v>2407100</v>
       </c>
       <c r="H15" s="3">
-        <v>2508900</v>
+        <v>2385000</v>
       </c>
       <c r="I15" s="3">
-        <v>2382900</v>
+        <v>2265300</v>
       </c>
       <c r="J15" s="3">
-        <v>2304700</v>
+        <v>2190900</v>
       </c>
       <c r="K15" s="3">
         <v>2280400</v>
@@ -1027,25 +1027,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>12445300</v>
+        <v>11830700</v>
       </c>
       <c r="E17" s="3">
-        <v>12182300</v>
+        <v>11580700</v>
       </c>
       <c r="F17" s="3">
-        <v>13527100</v>
+        <v>12859100</v>
       </c>
       <c r="G17" s="3">
-        <v>12904300</v>
+        <v>12267000</v>
       </c>
       <c r="H17" s="3">
-        <v>13002100</v>
+        <v>12360000</v>
       </c>
       <c r="I17" s="3">
-        <v>12620300</v>
+        <v>11997000</v>
       </c>
       <c r="J17" s="3">
-        <v>12526300</v>
+        <v>11907700</v>
       </c>
       <c r="K17" s="3">
         <v>13107100</v>
@@ -1066,25 +1066,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>1121100</v>
+        <v>1065700</v>
       </c>
       <c r="E18" s="3">
-        <v>848800</v>
+        <v>806900</v>
       </c>
       <c r="F18" s="3">
-        <v>842900</v>
+        <v>801200</v>
       </c>
       <c r="G18" s="3">
-        <v>763600</v>
+        <v>725900</v>
       </c>
       <c r="H18" s="3">
-        <v>1189100</v>
+        <v>1130400</v>
       </c>
       <c r="I18" s="3">
-        <v>1224100</v>
+        <v>1163700</v>
       </c>
       <c r="J18" s="3">
-        <v>1354500</v>
+        <v>1287600</v>
       </c>
       <c r="K18" s="3">
         <v>1350600</v>
@@ -1122,25 +1122,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>497300</v>
+        <v>472700</v>
       </c>
       <c r="E20" s="3">
-        <v>118500</v>
+        <v>112700</v>
       </c>
       <c r="F20" s="3">
-        <v>426500</v>
+        <v>405400</v>
       </c>
       <c r="G20" s="3">
-        <v>2705800</v>
+        <v>2572200</v>
       </c>
       <c r="H20" s="3">
-        <v>1809800</v>
+        <v>1720400</v>
       </c>
       <c r="I20" s="3">
-        <v>709000</v>
+        <v>674000</v>
       </c>
       <c r="J20" s="3">
-        <v>535300</v>
+        <v>508900</v>
       </c>
       <c r="K20" s="3">
         <v>814700</v>
@@ -1161,25 +1161,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>4992100</v>
+        <v>4747600</v>
       </c>
       <c r="E21" s="3">
-        <v>4386700</v>
+        <v>4172100</v>
       </c>
       <c r="F21" s="3">
-        <v>4496700</v>
+        <v>4276600</v>
       </c>
       <c r="G21" s="3">
-        <v>6162600</v>
+        <v>5859900</v>
       </c>
       <c r="H21" s="3">
-        <v>5661900</v>
+        <v>5383900</v>
       </c>
       <c r="I21" s="3">
-        <v>4449400</v>
+        <v>4231200</v>
       </c>
       <c r="J21" s="3">
-        <v>4344400</v>
+        <v>4131300</v>
       </c>
       <c r="K21" s="3">
         <v>4594500</v>
@@ -1200,25 +1200,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>226600</v>
+        <v>215400</v>
       </c>
       <c r="E22" s="3">
-        <v>234100</v>
+        <v>222500</v>
       </c>
       <c r="F22" s="3">
-        <v>328900</v>
+        <v>312700</v>
       </c>
       <c r="G22" s="3">
-        <v>248900</v>
+        <v>236600</v>
       </c>
       <c r="H22" s="3">
-        <v>242300</v>
+        <v>230300</v>
       </c>
       <c r="I22" s="3">
-        <v>235300</v>
+        <v>223600</v>
       </c>
       <c r="J22" s="3">
-        <v>241100</v>
+        <v>229200</v>
       </c>
       <c r="K22" s="3">
         <v>272100</v>
@@ -1239,25 +1239,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>1391700</v>
+        <v>1323000</v>
       </c>
       <c r="E23" s="3">
-        <v>733200</v>
+        <v>697000</v>
       </c>
       <c r="F23" s="3">
-        <v>940400</v>
+        <v>894000</v>
       </c>
       <c r="G23" s="3">
-        <v>3220500</v>
+        <v>3061500</v>
       </c>
       <c r="H23" s="3">
-        <v>2756600</v>
+        <v>2620500</v>
       </c>
       <c r="I23" s="3">
-        <v>1697900</v>
+        <v>1614000</v>
       </c>
       <c r="J23" s="3">
-        <v>1648600</v>
+        <v>1567200</v>
       </c>
       <c r="K23" s="3">
         <v>1893200</v>
@@ -1278,25 +1278,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>361900</v>
+        <v>344000</v>
       </c>
       <c r="E24" s="3">
-        <v>179200</v>
+        <v>170400</v>
       </c>
       <c r="F24" s="3">
-        <v>243200</v>
+        <v>231200</v>
       </c>
       <c r="G24" s="3">
-        <v>683600</v>
+        <v>649900</v>
       </c>
       <c r="H24" s="3">
-        <v>604000</v>
+        <v>574200</v>
       </c>
       <c r="I24" s="3">
-        <v>353200</v>
+        <v>335700</v>
       </c>
       <c r="J24" s="3">
-        <v>420800</v>
+        <v>400000</v>
       </c>
       <c r="K24" s="3">
         <v>381800</v>
@@ -1356,25 +1356,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>1029800</v>
+        <v>979000</v>
       </c>
       <c r="E26" s="3">
-        <v>554000</v>
+        <v>526600</v>
       </c>
       <c r="F26" s="3">
-        <v>697200</v>
+        <v>662800</v>
       </c>
       <c r="G26" s="3">
-        <v>2536900</v>
+        <v>2411600</v>
       </c>
       <c r="H26" s="3">
-        <v>2152700</v>
+        <v>2046300</v>
       </c>
       <c r="I26" s="3">
-        <v>1344700</v>
+        <v>1278300</v>
       </c>
       <c r="J26" s="3">
-        <v>1227900</v>
+        <v>1167200</v>
       </c>
       <c r="K26" s="3">
         <v>1511400</v>
@@ -1395,25 +1395,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>974200</v>
+        <v>926100</v>
       </c>
       <c r="E27" s="3">
-        <v>513400</v>
+        <v>488000</v>
       </c>
       <c r="F27" s="3">
-        <v>707900</v>
+        <v>672900</v>
       </c>
       <c r="G27" s="3">
-        <v>2520800</v>
+        <v>2396300</v>
       </c>
       <c r="H27" s="3">
-        <v>2092200</v>
+        <v>1988900</v>
       </c>
       <c r="I27" s="3">
-        <v>1343900</v>
+        <v>1277500</v>
       </c>
       <c r="J27" s="3">
-        <v>1216400</v>
+        <v>1156400</v>
       </c>
       <c r="K27" s="3">
         <v>1498800</v>
@@ -1473,10 +1473,10 @@
         <v>23</v>
       </c>
       <c r="D29" s="3">
-        <v>963900</v>
+        <v>916300</v>
       </c>
       <c r="E29" s="3">
-        <v>693200</v>
+        <v>658900</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>24</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-497300</v>
+        <v>-472700</v>
       </c>
       <c r="E32" s="3">
-        <v>-118500</v>
+        <v>-112700</v>
       </c>
       <c r="F32" s="3">
-        <v>-426500</v>
+        <v>-405400</v>
       </c>
       <c r="G32" s="3">
-        <v>-2705800</v>
+        <v>-2572200</v>
       </c>
       <c r="H32" s="3">
-        <v>-1809800</v>
+        <v>-1720400</v>
       </c>
       <c r="I32" s="3">
-        <v>-709000</v>
+        <v>-674000</v>
       </c>
       <c r="J32" s="3">
-        <v>-535300</v>
+        <v>-508900</v>
       </c>
       <c r="K32" s="3">
         <v>-814700</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1938100</v>
+        <v>1842400</v>
       </c>
       <c r="E33" s="3">
-        <v>1206600</v>
+        <v>1147000</v>
       </c>
       <c r="F33" s="3">
-        <v>707900</v>
+        <v>672900</v>
       </c>
       <c r="G33" s="3">
-        <v>2520800</v>
+        <v>2396300</v>
       </c>
       <c r="H33" s="3">
-        <v>2092200</v>
+        <v>1988900</v>
       </c>
       <c r="I33" s="3">
-        <v>1343900</v>
+        <v>1277500</v>
       </c>
       <c r="J33" s="3">
-        <v>1216400</v>
+        <v>1156400</v>
       </c>
       <c r="K33" s="3">
         <v>1498800</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1938100</v>
+        <v>1842400</v>
       </c>
       <c r="E35" s="3">
-        <v>1206600</v>
+        <v>1147000</v>
       </c>
       <c r="F35" s="3">
-        <v>707900</v>
+        <v>672900</v>
       </c>
       <c r="G35" s="3">
-        <v>2520800</v>
+        <v>2396300</v>
       </c>
       <c r="H35" s="3">
-        <v>2092200</v>
+        <v>1988900</v>
       </c>
       <c r="I35" s="3">
-        <v>1343900</v>
+        <v>1277500</v>
       </c>
       <c r="J35" s="3">
-        <v>1216400</v>
+        <v>1156400</v>
       </c>
       <c r="K35" s="3">
         <v>1498800</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>706900</v>
+        <v>672000</v>
       </c>
       <c r="E41" s="3">
-        <v>1109400</v>
+        <v>1054600</v>
       </c>
       <c r="F41" s="3">
-        <v>1029400</v>
+        <v>978500</v>
       </c>
       <c r="G41" s="3">
-        <v>1220400</v>
+        <v>1160200</v>
       </c>
       <c r="H41" s="3">
-        <v>1180800</v>
+        <v>1122500</v>
       </c>
       <c r="I41" s="3">
-        <v>1219200</v>
+        <v>1159000</v>
       </c>
       <c r="J41" s="3">
-        <v>622800</v>
+        <v>592100</v>
       </c>
       <c r="K41" s="3">
         <v>700900</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>351700</v>
+        <v>334300</v>
       </c>
       <c r="E42" s="3">
-        <v>1198200</v>
+        <v>1139100</v>
       </c>
       <c r="F42" s="3">
-        <v>730800</v>
+        <v>694800</v>
       </c>
       <c r="G42" s="3">
-        <v>940600</v>
+        <v>894200</v>
       </c>
       <c r="H42" s="3">
-        <v>543800</v>
+        <v>516900</v>
       </c>
       <c r="I42" s="3">
-        <v>393500</v>
+        <v>374100</v>
       </c>
       <c r="J42" s="3">
-        <v>567700</v>
+        <v>539700</v>
       </c>
       <c r="K42" s="3">
         <v>498300</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2114300</v>
+        <v>2009900</v>
       </c>
       <c r="E43" s="3">
-        <v>2730700</v>
+        <v>2595900</v>
       </c>
       <c r="F43" s="3">
-        <v>2750500</v>
+        <v>2614700</v>
       </c>
       <c r="G43" s="3">
-        <v>2512400</v>
+        <v>2388300</v>
       </c>
       <c r="H43" s="3">
-        <v>2797500</v>
+        <v>2659300</v>
       </c>
       <c r="I43" s="3">
-        <v>2773500</v>
+        <v>2636600</v>
       </c>
       <c r="J43" s="3">
-        <v>2497400</v>
+        <v>2374100</v>
       </c>
       <c r="K43" s="3">
         <v>2652000</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>165800</v>
+        <v>157600</v>
       </c>
       <c r="E44" s="3">
-        <v>138900</v>
+        <v>132000</v>
       </c>
       <c r="F44" s="3">
-        <v>131900</v>
+        <v>125400</v>
       </c>
       <c r="G44" s="3">
-        <v>233300</v>
+        <v>221800</v>
       </c>
       <c r="H44" s="3">
-        <v>220600</v>
+        <v>209800</v>
       </c>
       <c r="I44" s="3">
-        <v>210500</v>
+        <v>200100</v>
       </c>
       <c r="J44" s="3">
-        <v>221600</v>
+        <v>210600</v>
       </c>
       <c r="K44" s="3">
         <v>224800</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1807000</v>
+        <v>1717800</v>
       </c>
       <c r="E45" s="3">
-        <v>1930600</v>
+        <v>1835300</v>
       </c>
       <c r="F45" s="3">
-        <v>1909100</v>
+        <v>1814800</v>
       </c>
       <c r="G45" s="3">
-        <v>1539900</v>
+        <v>1463900</v>
       </c>
       <c r="H45" s="3">
-        <v>280800</v>
+        <v>267000</v>
       </c>
       <c r="I45" s="3">
-        <v>260500</v>
+        <v>247600</v>
       </c>
       <c r="J45" s="3">
-        <v>270200</v>
+        <v>256900</v>
       </c>
       <c r="K45" s="3">
         <v>193700</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5145700</v>
+        <v>4891600</v>
       </c>
       <c r="E46" s="3">
-        <v>7107800</v>
+        <v>6756800</v>
       </c>
       <c r="F46" s="3">
-        <v>6551700</v>
+        <v>6228200</v>
       </c>
       <c r="G46" s="3">
-        <v>6446700</v>
+        <v>6128300</v>
       </c>
       <c r="H46" s="3">
-        <v>5023500</v>
+        <v>4775400</v>
       </c>
       <c r="I46" s="3">
-        <v>4857300</v>
+        <v>4617400</v>
       </c>
       <c r="J46" s="3">
-        <v>4179800</v>
+        <v>3973400</v>
       </c>
       <c r="K46" s="3">
         <v>4269800</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3450100</v>
+        <v>3279700</v>
       </c>
       <c r="E47" s="3">
-        <v>13323800</v>
+        <v>12665800</v>
       </c>
       <c r="F47" s="3">
-        <v>11914400</v>
+        <v>11326100</v>
       </c>
       <c r="G47" s="3">
-        <v>11206100</v>
+        <v>10652700</v>
       </c>
       <c r="H47" s="3">
-        <v>8728700</v>
+        <v>8297600</v>
       </c>
       <c r="I47" s="3">
-        <v>6842900</v>
+        <v>6505000</v>
       </c>
       <c r="J47" s="3">
-        <v>6616400</v>
+        <v>6289700</v>
       </c>
       <c r="K47" s="3">
         <v>6144000</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>10444400</v>
+        <v>9928600</v>
       </c>
       <c r="E48" s="3">
-        <v>10835400</v>
+        <v>10300300</v>
       </c>
       <c r="F48" s="3">
-        <v>10476100</v>
+        <v>9958800</v>
       </c>
       <c r="G48" s="3">
-        <v>8681900</v>
+        <v>8253100</v>
       </c>
       <c r="H48" s="3">
-        <v>8217400</v>
+        <v>7811600</v>
       </c>
       <c r="I48" s="3">
-        <v>8403100</v>
+        <v>7988100</v>
       </c>
       <c r="J48" s="3">
-        <v>8412900</v>
+        <v>7997500</v>
       </c>
       <c r="K48" s="3">
         <v>8889500</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4813200</v>
+        <v>4575500</v>
       </c>
       <c r="E49" s="3">
-        <v>6312900</v>
+        <v>6001200</v>
       </c>
       <c r="F49" s="3">
-        <v>6330700</v>
+        <v>6018000</v>
       </c>
       <c r="G49" s="3">
-        <v>6846200</v>
+        <v>6508100</v>
       </c>
       <c r="H49" s="3">
-        <v>4456600</v>
+        <v>4236500</v>
       </c>
       <c r="I49" s="3">
-        <v>4624100</v>
+        <v>4395800</v>
       </c>
       <c r="J49" s="3">
-        <v>3412800</v>
+        <v>3244300</v>
       </c>
       <c r="K49" s="3">
         <v>3697300</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1184800</v>
+        <v>1126300</v>
       </c>
       <c r="E52" s="3">
-        <v>1224700</v>
+        <v>1164200</v>
       </c>
       <c r="F52" s="3">
-        <v>1341000</v>
+        <v>1274800</v>
       </c>
       <c r="G52" s="3">
-        <v>1138200</v>
+        <v>1082000</v>
       </c>
       <c r="H52" s="3">
-        <v>651200</v>
+        <v>619000</v>
       </c>
       <c r="I52" s="3">
-        <v>623700</v>
+        <v>592900</v>
       </c>
       <c r="J52" s="3">
-        <v>528900</v>
+        <v>502800</v>
       </c>
       <c r="K52" s="3">
         <v>470000</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>25038100</v>
+        <v>23801700</v>
       </c>
       <c r="E54" s="3">
-        <v>38804600</v>
+        <v>36888400</v>
       </c>
       <c r="F54" s="3">
-        <v>36613900</v>
+        <v>34805800</v>
       </c>
       <c r="G54" s="3">
-        <v>34319000</v>
+        <v>32624200</v>
       </c>
       <c r="H54" s="3">
-        <v>27077200</v>
+        <v>25740100</v>
       </c>
       <c r="I54" s="3">
-        <v>25351100</v>
+        <v>24099200</v>
       </c>
       <c r="J54" s="3">
-        <v>23150900</v>
+        <v>22007700</v>
       </c>
       <c r="K54" s="3">
         <v>23470600</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>154400</v>
+        <v>146700</v>
       </c>
       <c r="E57" s="3">
-        <v>302100</v>
+        <v>287100</v>
       </c>
       <c r="F57" s="3">
-        <v>355000</v>
+        <v>337500</v>
       </c>
       <c r="G57" s="3">
-        <v>308900</v>
+        <v>293600</v>
       </c>
       <c r="H57" s="3">
-        <v>284900</v>
+        <v>270800</v>
       </c>
       <c r="I57" s="3">
-        <v>326000</v>
+        <v>309900</v>
       </c>
       <c r="J57" s="3">
-        <v>226600</v>
+        <v>215400</v>
       </c>
       <c r="K57" s="3">
         <v>231400</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1452200</v>
+        <v>1380500</v>
       </c>
       <c r="E58" s="3">
-        <v>1141400</v>
+        <v>1085100</v>
       </c>
       <c r="F58" s="3">
-        <v>1141800</v>
+        <v>1085400</v>
       </c>
       <c r="G58" s="3">
-        <v>862100</v>
+        <v>819500</v>
       </c>
       <c r="H58" s="3">
-        <v>1345400</v>
+        <v>1278900</v>
       </c>
       <c r="I58" s="3">
-        <v>721800</v>
+        <v>686100</v>
       </c>
       <c r="J58" s="3">
-        <v>780100</v>
+        <v>741600</v>
       </c>
       <c r="K58" s="3">
         <v>807300</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4031400</v>
+        <v>3832300</v>
       </c>
       <c r="E59" s="3">
-        <v>5180700</v>
+        <v>4924800</v>
       </c>
       <c r="F59" s="3">
-        <v>4863000</v>
+        <v>4622900</v>
       </c>
       <c r="G59" s="3">
-        <v>4375600</v>
+        <v>4159500</v>
       </c>
       <c r="H59" s="3">
-        <v>4128100</v>
+        <v>3924300</v>
       </c>
       <c r="I59" s="3">
-        <v>4172000</v>
+        <v>3965900</v>
       </c>
       <c r="J59" s="3">
-        <v>3251000</v>
+        <v>3090500</v>
       </c>
       <c r="K59" s="3">
         <v>3514300</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5638000</v>
+        <v>5359500</v>
       </c>
       <c r="E60" s="3">
-        <v>6624200</v>
+        <v>6297000</v>
       </c>
       <c r="F60" s="3">
-        <v>6359900</v>
+        <v>6045800</v>
       </c>
       <c r="G60" s="3">
-        <v>5546500</v>
+        <v>5272600</v>
       </c>
       <c r="H60" s="3">
-        <v>5758400</v>
+        <v>5474000</v>
       </c>
       <c r="I60" s="3">
-        <v>5219700</v>
+        <v>4962000</v>
       </c>
       <c r="J60" s="3">
-        <v>4257800</v>
+        <v>4047500</v>
       </c>
       <c r="K60" s="3">
         <v>4553100</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6946000</v>
+        <v>6603000</v>
       </c>
       <c r="E61" s="3">
-        <v>8704500</v>
+        <v>8274600</v>
       </c>
       <c r="F61" s="3">
-        <v>8217700</v>
+        <v>7811900</v>
       </c>
       <c r="G61" s="3">
-        <v>6955900</v>
+        <v>6612400</v>
       </c>
       <c r="H61" s="3">
-        <v>4704500</v>
+        <v>4472200</v>
       </c>
       <c r="I61" s="3">
-        <v>5247700</v>
+        <v>4988600</v>
       </c>
       <c r="J61" s="3">
-        <v>5314200</v>
+        <v>5051700</v>
       </c>
       <c r="K61" s="3">
         <v>4871100</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2462800</v>
+        <v>2341100</v>
       </c>
       <c r="E62" s="3">
-        <v>3715000</v>
+        <v>3531600</v>
       </c>
       <c r="F62" s="3">
-        <v>3554600</v>
+        <v>3379100</v>
       </c>
       <c r="G62" s="3">
-        <v>3713600</v>
+        <v>3530200</v>
       </c>
       <c r="H62" s="3">
-        <v>2010700</v>
+        <v>1911400</v>
       </c>
       <c r="I62" s="3">
-        <v>1829400</v>
+        <v>1739000</v>
       </c>
       <c r="J62" s="3">
-        <v>1126000</v>
+        <v>1070400</v>
       </c>
       <c r="K62" s="3">
         <v>1237900</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>15658900</v>
+        <v>14885600</v>
       </c>
       <c r="E66" s="3">
-        <v>19572100</v>
+        <v>18605600</v>
       </c>
       <c r="F66" s="3">
-        <v>18024200</v>
+        <v>17134100</v>
       </c>
       <c r="G66" s="3">
-        <v>16117600</v>
+        <v>15321700</v>
       </c>
       <c r="H66" s="3">
-        <v>12625100</v>
+        <v>12001600</v>
       </c>
       <c r="I66" s="3">
-        <v>12414300</v>
+        <v>11801200</v>
       </c>
       <c r="J66" s="3">
-        <v>10797500</v>
+        <v>10264300</v>
       </c>
       <c r="K66" s="3">
         <v>11285000</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>18174200</v>
+        <v>17276800</v>
       </c>
       <c r="E72" s="3">
-        <v>18615300</v>
+        <v>17696100</v>
       </c>
       <c r="F72" s="3">
-        <v>18005200</v>
+        <v>17116100</v>
       </c>
       <c r="G72" s="3">
-        <v>17937100</v>
+        <v>17051300</v>
       </c>
       <c r="H72" s="3">
-        <v>14447100</v>
+        <v>13733700</v>
       </c>
       <c r="I72" s="3">
-        <v>12922100</v>
+        <v>12283900</v>
       </c>
       <c r="J72" s="3">
-        <v>12156200</v>
+        <v>11555900</v>
       </c>
       <c r="K72" s="3">
         <v>11918400</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9379300</v>
+        <v>8916100</v>
       </c>
       <c r="E76" s="3">
-        <v>19232600</v>
+        <v>18282800</v>
       </c>
       <c r="F76" s="3">
-        <v>18589700</v>
+        <v>17671700</v>
       </c>
       <c r="G76" s="3">
-        <v>18201400</v>
+        <v>17302500</v>
       </c>
       <c r="H76" s="3">
-        <v>14452100</v>
+        <v>13738400</v>
       </c>
       <c r="I76" s="3">
-        <v>12936800</v>
+        <v>12298000</v>
       </c>
       <c r="J76" s="3">
-        <v>12353400</v>
+        <v>11743300</v>
       </c>
       <c r="K76" s="3">
         <v>12185700</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1938100</v>
+        <v>1842400</v>
       </c>
       <c r="E81" s="3">
-        <v>1206600</v>
+        <v>1147000</v>
       </c>
       <c r="F81" s="3">
-        <v>707900</v>
+        <v>672900</v>
       </c>
       <c r="G81" s="3">
-        <v>2520800</v>
+        <v>2396300</v>
       </c>
       <c r="H81" s="3">
-        <v>2092200</v>
+        <v>1988900</v>
       </c>
       <c r="I81" s="3">
-        <v>1343900</v>
+        <v>1277500</v>
       </c>
       <c r="J81" s="3">
-        <v>1216400</v>
+        <v>1156400</v>
       </c>
       <c r="K81" s="3">
         <v>1498800</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3332700</v>
+        <v>3168100</v>
       </c>
       <c r="E83" s="3">
-        <v>3377700</v>
+        <v>3210900</v>
       </c>
       <c r="F83" s="3">
-        <v>3188000</v>
+        <v>3030600</v>
       </c>
       <c r="G83" s="3">
-        <v>2660300</v>
+        <v>2528900</v>
       </c>
       <c r="H83" s="3">
-        <v>2630500</v>
+        <v>2500600</v>
       </c>
       <c r="I83" s="3">
-        <v>2485500</v>
+        <v>2362800</v>
       </c>
       <c r="J83" s="3">
-        <v>2424700</v>
+        <v>2305000</v>
       </c>
       <c r="K83" s="3">
         <v>2429200</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4075300</v>
+        <v>3874100</v>
       </c>
       <c r="E89" s="3">
-        <v>4715700</v>
+        <v>4482800</v>
       </c>
       <c r="F89" s="3">
-        <v>3228700</v>
+        <v>3069300</v>
       </c>
       <c r="G89" s="3">
-        <v>3509400</v>
+        <v>3336100</v>
       </c>
       <c r="H89" s="3">
-        <v>3123200</v>
+        <v>2969000</v>
       </c>
       <c r="I89" s="3">
-        <v>3437000</v>
+        <v>3267200</v>
       </c>
       <c r="J89" s="3">
-        <v>3060300</v>
+        <v>2909200</v>
       </c>
       <c r="K89" s="3">
         <v>3089000</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2361800</v>
+        <v>-2245200</v>
       </c>
       <c r="E91" s="3">
-        <v>-2881800</v>
+        <v>-2739500</v>
       </c>
       <c r="F91" s="3">
-        <v>-2734500</v>
+        <v>-2599400</v>
       </c>
       <c r="G91" s="3">
-        <v>-2261800</v>
+        <v>-2150100</v>
       </c>
       <c r="H91" s="3">
-        <v>-2199800</v>
+        <v>-2091200</v>
       </c>
       <c r="I91" s="3">
-        <v>-2017300</v>
+        <v>-1917700</v>
       </c>
       <c r="J91" s="3">
-        <v>-2007800</v>
+        <v>-1908700</v>
       </c>
       <c r="K91" s="3">
         <v>-2526700</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2823800</v>
+        <v>-2684400</v>
       </c>
       <c r="E94" s="3">
-        <v>-3442800</v>
+        <v>-3272800</v>
       </c>
       <c r="F94" s="3">
-        <v>-2901800</v>
+        <v>-2758500</v>
       </c>
       <c r="G94" s="3">
-        <v>-3278700</v>
+        <v>-3116700</v>
       </c>
       <c r="H94" s="3">
-        <v>-2487200</v>
+        <v>-2364400</v>
       </c>
       <c r="I94" s="3">
-        <v>-1994400</v>
+        <v>-1895900</v>
       </c>
       <c r="J94" s="3">
-        <v>-2333200</v>
+        <v>-2218000</v>
       </c>
       <c r="K94" s="3">
         <v>-3093900</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-833100</v>
+        <v>-792000</v>
       </c>
       <c r="E96" s="3">
-        <v>-601100</v>
+        <v>-571400</v>
       </c>
       <c r="F96" s="3">
-        <v>-582100</v>
+        <v>-553400</v>
       </c>
       <c r="G96" s="3">
-        <v>-571900</v>
+        <v>-543700</v>
       </c>
       <c r="H96" s="3">
-        <v>-571900</v>
+        <v>-543700</v>
       </c>
       <c r="I96" s="3">
-        <v>-571900</v>
+        <v>-543700</v>
       </c>
       <c r="J96" s="3">
-        <v>-541500</v>
+        <v>-514700</v>
       </c>
       <c r="K96" s="3">
         <v>-560100</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1663400</v>
+        <v>-1581300</v>
       </c>
       <c r="E100" s="3">
-        <v>-1180600</v>
+        <v>-1122300</v>
       </c>
       <c r="F100" s="3">
-        <v>-515800</v>
+        <v>-490400</v>
       </c>
       <c r="G100" s="3">
-        <v>-193000</v>
+        <v>-183500</v>
       </c>
       <c r="H100" s="3">
-        <v>-669600</v>
+        <v>-636500</v>
       </c>
       <c r="I100" s="3">
-        <v>-846300</v>
+        <v>-804500</v>
       </c>
       <c r="J100" s="3">
-        <v>-781300</v>
+        <v>-742700</v>
       </c>
       <c r="K100" s="3">
         <v>-469900</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>9400</v>
+        <v>8900</v>
       </c>
       <c r="E101" s="3">
-        <v>-12200</v>
+        <v>-11600</v>
       </c>
       <c r="F101" s="3">
-        <v>-2100</v>
+        <v>-2000</v>
       </c>
       <c r="G101" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="H101" s="3">
-        <v>-4900</v>
+        <v>-4700</v>
       </c>
       <c r="I101" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J101" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="K101" s="3">
         <v>800</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-402500</v>
+        <v>-382600</v>
       </c>
       <c r="E102" s="3">
-        <v>80100</v>
+        <v>76100</v>
       </c>
       <c r="F102" s="3">
-        <v>-191100</v>
+        <v>-181600</v>
       </c>
       <c r="G102" s="3">
-        <v>39700</v>
+        <v>37700</v>
       </c>
       <c r="H102" s="3">
-        <v>-38500</v>
+        <v>-36600</v>
       </c>
       <c r="I102" s="3">
-        <v>596400</v>
+        <v>567000</v>
       </c>
       <c r="J102" s="3">
-        <v>-53100</v>
+        <v>-50400</v>
       </c>
       <c r="K102" s="3">
         <v>-473900</v>

--- a/AAII_Financials/Yearly/SKM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SKM_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>12896400</v>
+        <v>12561400</v>
       </c>
       <c r="E8" s="3">
-        <v>12387600</v>
+        <v>12065800</v>
       </c>
       <c r="F8" s="3">
-        <v>13660400</v>
+        <v>13305500</v>
       </c>
       <c r="G8" s="3">
-        <v>12992900</v>
+        <v>12655500</v>
       </c>
       <c r="H8" s="3">
-        <v>13490400</v>
+        <v>13140000</v>
       </c>
       <c r="I8" s="3">
-        <v>13160700</v>
+        <v>12818900</v>
       </c>
       <c r="J8" s="3">
-        <v>13195300</v>
+        <v>12852600</v>
       </c>
       <c r="K8" s="3">
         <v>14457600</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>577200</v>
+        <v>562200</v>
       </c>
       <c r="E9" s="3">
-        <v>593400</v>
+        <v>578000</v>
       </c>
       <c r="F9" s="3">
-        <v>579300</v>
+        <v>564300</v>
       </c>
       <c r="G9" s="3">
-        <v>622500</v>
+        <v>606300</v>
       </c>
       <c r="H9" s="3">
-        <v>673800</v>
+        <v>656300</v>
       </c>
       <c r="I9" s="3">
-        <v>734800</v>
+        <v>715700</v>
       </c>
       <c r="J9" s="3">
-        <v>737400</v>
+        <v>718200</v>
       </c>
       <c r="K9" s="3">
         <v>1172900</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>12319200</v>
+        <v>11999200</v>
       </c>
       <c r="E10" s="3">
-        <v>11794100</v>
+        <v>11487800</v>
       </c>
       <c r="F10" s="3">
-        <v>13081100</v>
+        <v>12741300</v>
       </c>
       <c r="G10" s="3">
-        <v>12370500</v>
+        <v>12049200</v>
       </c>
       <c r="H10" s="3">
-        <v>12816600</v>
+        <v>12483700</v>
       </c>
       <c r="I10" s="3">
-        <v>12425900</v>
+        <v>12103200</v>
       </c>
       <c r="J10" s="3">
-        <v>12457900</v>
+        <v>12134300</v>
       </c>
       <c r="K10" s="3">
         <v>13284700</v>
@@ -857,25 +857,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>267700</v>
+        <v>260800</v>
       </c>
       <c r="E12" s="3">
-        <v>272000</v>
+        <v>264900</v>
       </c>
       <c r="F12" s="3">
-        <v>301300</v>
+        <v>293500</v>
       </c>
       <c r="G12" s="3">
-        <v>298500</v>
+        <v>290800</v>
       </c>
       <c r="H12" s="3">
-        <v>304400</v>
+        <v>296500</v>
       </c>
       <c r="I12" s="3">
-        <v>265500</v>
+        <v>258600</v>
       </c>
       <c r="J12" s="3">
-        <v>243200</v>
+        <v>236800</v>
       </c>
       <c r="K12" s="3">
         <v>328400</v>
@@ -938,22 +938,22 @@
         <v>2400</v>
       </c>
       <c r="E14" s="3">
-        <v>154500</v>
+        <v>150500</v>
       </c>
       <c r="F14" s="3">
-        <v>52100</v>
+        <v>50700</v>
       </c>
       <c r="G14" s="3">
-        <v>199400</v>
+        <v>194200</v>
       </c>
       <c r="H14" s="3">
-        <v>52800</v>
+        <v>51400</v>
       </c>
       <c r="I14" s="3">
-        <v>18900</v>
+        <v>18400</v>
       </c>
       <c r="J14" s="3">
-        <v>27600</v>
+        <v>26900</v>
       </c>
       <c r="K14" s="3">
         <v>39900</v>
@@ -974,25 +974,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>2827900</v>
+        <v>2754400</v>
       </c>
       <c r="E15" s="3">
-        <v>2821800</v>
+        <v>2748500</v>
       </c>
       <c r="F15" s="3">
-        <v>2969600</v>
+        <v>2892500</v>
       </c>
       <c r="G15" s="3">
-        <v>2407100</v>
+        <v>2344600</v>
       </c>
       <c r="H15" s="3">
-        <v>2385000</v>
+        <v>2323100</v>
       </c>
       <c r="I15" s="3">
-        <v>2265300</v>
+        <v>2206400</v>
       </c>
       <c r="J15" s="3">
-        <v>2190900</v>
+        <v>2134000</v>
       </c>
       <c r="K15" s="3">
         <v>2280400</v>
@@ -1027,25 +1027,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>11830700</v>
+        <v>11523400</v>
       </c>
       <c r="E17" s="3">
-        <v>11580700</v>
+        <v>11279900</v>
       </c>
       <c r="F17" s="3">
-        <v>12859100</v>
+        <v>12525100</v>
       </c>
       <c r="G17" s="3">
-        <v>12267000</v>
+        <v>11948400</v>
       </c>
       <c r="H17" s="3">
-        <v>12360000</v>
+        <v>12039000</v>
       </c>
       <c r="I17" s="3">
-        <v>11997000</v>
+        <v>11685400</v>
       </c>
       <c r="J17" s="3">
-        <v>11907700</v>
+        <v>11598400</v>
       </c>
       <c r="K17" s="3">
         <v>13107100</v>
@@ -1066,25 +1066,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>1065700</v>
+        <v>1038000</v>
       </c>
       <c r="E18" s="3">
-        <v>806900</v>
+        <v>785900</v>
       </c>
       <c r="F18" s="3">
-        <v>801200</v>
+        <v>780400</v>
       </c>
       <c r="G18" s="3">
-        <v>725900</v>
+        <v>707100</v>
       </c>
       <c r="H18" s="3">
-        <v>1130400</v>
+        <v>1101000</v>
       </c>
       <c r="I18" s="3">
-        <v>1163700</v>
+        <v>1133400</v>
       </c>
       <c r="J18" s="3">
-        <v>1287600</v>
+        <v>1254100</v>
       </c>
       <c r="K18" s="3">
         <v>1350600</v>
@@ -1122,25 +1122,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>472700</v>
+        <v>460400</v>
       </c>
       <c r="E20" s="3">
-        <v>112700</v>
+        <v>109700</v>
       </c>
       <c r="F20" s="3">
-        <v>405400</v>
+        <v>394900</v>
       </c>
       <c r="G20" s="3">
-        <v>2572200</v>
+        <v>2505400</v>
       </c>
       <c r="H20" s="3">
-        <v>1720400</v>
+        <v>1675700</v>
       </c>
       <c r="I20" s="3">
-        <v>674000</v>
+        <v>656500</v>
       </c>
       <c r="J20" s="3">
-        <v>508900</v>
+        <v>495600</v>
       </c>
       <c r="K20" s="3">
         <v>814700</v>
@@ -1161,25 +1161,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>4747600</v>
+        <v>4584200</v>
       </c>
       <c r="E21" s="3">
-        <v>4172100</v>
+        <v>4023100</v>
       </c>
       <c r="F21" s="3">
-        <v>4276600</v>
+        <v>4127200</v>
       </c>
       <c r="G21" s="3">
-        <v>5859900</v>
+        <v>5675700</v>
       </c>
       <c r="H21" s="3">
-        <v>5383900</v>
+        <v>5212400</v>
       </c>
       <c r="I21" s="3">
-        <v>4231200</v>
+        <v>4091400</v>
       </c>
       <c r="J21" s="3">
-        <v>4131300</v>
+        <v>3994900</v>
       </c>
       <c r="K21" s="3">
         <v>4594500</v>
@@ -1200,25 +1200,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>215400</v>
+        <v>209800</v>
       </c>
       <c r="E22" s="3">
-        <v>222500</v>
+        <v>216700</v>
       </c>
       <c r="F22" s="3">
-        <v>312700</v>
+        <v>304600</v>
       </c>
       <c r="G22" s="3">
-        <v>236600</v>
+        <v>230500</v>
       </c>
       <c r="H22" s="3">
-        <v>230300</v>
+        <v>224300</v>
       </c>
       <c r="I22" s="3">
-        <v>223600</v>
+        <v>217800</v>
       </c>
       <c r="J22" s="3">
-        <v>229200</v>
+        <v>223200</v>
       </c>
       <c r="K22" s="3">
         <v>272100</v>
@@ -1239,25 +1239,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>1323000</v>
+        <v>1288600</v>
       </c>
       <c r="E23" s="3">
-        <v>697000</v>
+        <v>678900</v>
       </c>
       <c r="F23" s="3">
-        <v>894000</v>
+        <v>870800</v>
       </c>
       <c r="G23" s="3">
-        <v>3061500</v>
+        <v>2982000</v>
       </c>
       <c r="H23" s="3">
-        <v>2620500</v>
+        <v>2552400</v>
       </c>
       <c r="I23" s="3">
-        <v>1614000</v>
+        <v>1572100</v>
       </c>
       <c r="J23" s="3">
-        <v>1567200</v>
+        <v>1526500</v>
       </c>
       <c r="K23" s="3">
         <v>1893200</v>
@@ -1278,25 +1278,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>344000</v>
+        <v>335100</v>
       </c>
       <c r="E24" s="3">
-        <v>170400</v>
+        <v>165900</v>
       </c>
       <c r="F24" s="3">
-        <v>231200</v>
+        <v>225200</v>
       </c>
       <c r="G24" s="3">
-        <v>649900</v>
+        <v>633000</v>
       </c>
       <c r="H24" s="3">
-        <v>574200</v>
+        <v>559200</v>
       </c>
       <c r="I24" s="3">
-        <v>335700</v>
+        <v>327000</v>
       </c>
       <c r="J24" s="3">
-        <v>400000</v>
+        <v>389600</v>
       </c>
       <c r="K24" s="3">
         <v>381800</v>
@@ -1356,25 +1356,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>979000</v>
+        <v>953500</v>
       </c>
       <c r="E26" s="3">
-        <v>526600</v>
+        <v>513000</v>
       </c>
       <c r="F26" s="3">
-        <v>662800</v>
+        <v>645500</v>
       </c>
       <c r="G26" s="3">
-        <v>2411600</v>
+        <v>2349000</v>
       </c>
       <c r="H26" s="3">
-        <v>2046300</v>
+        <v>1993200</v>
       </c>
       <c r="I26" s="3">
-        <v>1278300</v>
+        <v>1245100</v>
       </c>
       <c r="J26" s="3">
-        <v>1167200</v>
+        <v>1136900</v>
       </c>
       <c r="K26" s="3">
         <v>1511400</v>
@@ -1395,25 +1395,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>926100</v>
+        <v>902100</v>
       </c>
       <c r="E27" s="3">
-        <v>488000</v>
+        <v>475400</v>
       </c>
       <c r="F27" s="3">
-        <v>672900</v>
+        <v>655400</v>
       </c>
       <c r="G27" s="3">
-        <v>2396300</v>
+        <v>2334100</v>
       </c>
       <c r="H27" s="3">
-        <v>1988900</v>
+        <v>1937200</v>
       </c>
       <c r="I27" s="3">
-        <v>1277500</v>
+        <v>1244300</v>
       </c>
       <c r="J27" s="3">
-        <v>1156400</v>
+        <v>1126300</v>
       </c>
       <c r="K27" s="3">
         <v>1498800</v>
@@ -1473,10 +1473,10 @@
         <v>23</v>
       </c>
       <c r="D29" s="3">
-        <v>916300</v>
+        <v>892500</v>
       </c>
       <c r="E29" s="3">
-        <v>658900</v>
+        <v>641800</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>24</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-472700</v>
+        <v>-460400</v>
       </c>
       <c r="E32" s="3">
-        <v>-112700</v>
+        <v>-109700</v>
       </c>
       <c r="F32" s="3">
-        <v>-405400</v>
+        <v>-394900</v>
       </c>
       <c r="G32" s="3">
-        <v>-2572200</v>
+        <v>-2505400</v>
       </c>
       <c r="H32" s="3">
-        <v>-1720400</v>
+        <v>-1675700</v>
       </c>
       <c r="I32" s="3">
-        <v>-674000</v>
+        <v>-656500</v>
       </c>
       <c r="J32" s="3">
-        <v>-508900</v>
+        <v>-495600</v>
       </c>
       <c r="K32" s="3">
         <v>-814700</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1842400</v>
+        <v>1794600</v>
       </c>
       <c r="E33" s="3">
-        <v>1147000</v>
+        <v>1117200</v>
       </c>
       <c r="F33" s="3">
-        <v>672900</v>
+        <v>655400</v>
       </c>
       <c r="G33" s="3">
-        <v>2396300</v>
+        <v>2334100</v>
       </c>
       <c r="H33" s="3">
-        <v>1988900</v>
+        <v>1937200</v>
       </c>
       <c r="I33" s="3">
-        <v>1277500</v>
+        <v>1244300</v>
       </c>
       <c r="J33" s="3">
-        <v>1156400</v>
+        <v>1126300</v>
       </c>
       <c r="K33" s="3">
         <v>1498800</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1842400</v>
+        <v>1794600</v>
       </c>
       <c r="E35" s="3">
-        <v>1147000</v>
+        <v>1117200</v>
       </c>
       <c r="F35" s="3">
-        <v>672900</v>
+        <v>655400</v>
       </c>
       <c r="G35" s="3">
-        <v>2396300</v>
+        <v>2334100</v>
       </c>
       <c r="H35" s="3">
-        <v>1988900</v>
+        <v>1937200</v>
       </c>
       <c r="I35" s="3">
-        <v>1277500</v>
+        <v>1244300</v>
       </c>
       <c r="J35" s="3">
-        <v>1156400</v>
+        <v>1126300</v>
       </c>
       <c r="K35" s="3">
         <v>1498800</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>672000</v>
+        <v>654500</v>
       </c>
       <c r="E41" s="3">
-        <v>1054600</v>
+        <v>1027200</v>
       </c>
       <c r="F41" s="3">
-        <v>978500</v>
+        <v>953100</v>
       </c>
       <c r="G41" s="3">
-        <v>1160200</v>
+        <v>1130000</v>
       </c>
       <c r="H41" s="3">
-        <v>1122500</v>
+        <v>1093300</v>
       </c>
       <c r="I41" s="3">
-        <v>1159000</v>
+        <v>1128900</v>
       </c>
       <c r="J41" s="3">
-        <v>592100</v>
+        <v>576700</v>
       </c>
       <c r="K41" s="3">
         <v>700900</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>334300</v>
+        <v>325600</v>
       </c>
       <c r="E42" s="3">
-        <v>1139100</v>
+        <v>1109500</v>
       </c>
       <c r="F42" s="3">
-        <v>694800</v>
+        <v>676700</v>
       </c>
       <c r="G42" s="3">
-        <v>894200</v>
+        <v>870900</v>
       </c>
       <c r="H42" s="3">
-        <v>516900</v>
+        <v>503500</v>
       </c>
       <c r="I42" s="3">
-        <v>374100</v>
+        <v>364400</v>
       </c>
       <c r="J42" s="3">
-        <v>539700</v>
+        <v>525700</v>
       </c>
       <c r="K42" s="3">
         <v>498300</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2009900</v>
+        <v>1957700</v>
       </c>
       <c r="E43" s="3">
-        <v>2595900</v>
+        <v>2528400</v>
       </c>
       <c r="F43" s="3">
-        <v>2614700</v>
+        <v>2546800</v>
       </c>
       <c r="G43" s="3">
-        <v>2388300</v>
+        <v>2326300</v>
       </c>
       <c r="H43" s="3">
-        <v>2659300</v>
+        <v>2590200</v>
       </c>
       <c r="I43" s="3">
-        <v>2636600</v>
+        <v>2568100</v>
       </c>
       <c r="J43" s="3">
-        <v>2374100</v>
+        <v>2312400</v>
       </c>
       <c r="K43" s="3">
         <v>2652000</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>157600</v>
+        <v>153500</v>
       </c>
       <c r="E44" s="3">
-        <v>132000</v>
+        <v>128600</v>
       </c>
       <c r="F44" s="3">
-        <v>125400</v>
+        <v>122200</v>
       </c>
       <c r="G44" s="3">
-        <v>221800</v>
+        <v>216000</v>
       </c>
       <c r="H44" s="3">
-        <v>209800</v>
+        <v>204300</v>
       </c>
       <c r="I44" s="3">
-        <v>200100</v>
+        <v>194900</v>
       </c>
       <c r="J44" s="3">
-        <v>210600</v>
+        <v>205200</v>
       </c>
       <c r="K44" s="3">
         <v>224800</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1717800</v>
+        <v>1673200</v>
       </c>
       <c r="E45" s="3">
-        <v>1835300</v>
+        <v>1787600</v>
       </c>
       <c r="F45" s="3">
-        <v>1814800</v>
+        <v>1767600</v>
       </c>
       <c r="G45" s="3">
-        <v>1463900</v>
+        <v>1425800</v>
       </c>
       <c r="H45" s="3">
-        <v>267000</v>
+        <v>260000</v>
       </c>
       <c r="I45" s="3">
-        <v>247600</v>
+        <v>241200</v>
       </c>
       <c r="J45" s="3">
-        <v>256900</v>
+        <v>250200</v>
       </c>
       <c r="K45" s="3">
         <v>193700</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4891600</v>
+        <v>4764500</v>
       </c>
       <c r="E46" s="3">
-        <v>6756800</v>
+        <v>6581300</v>
       </c>
       <c r="F46" s="3">
-        <v>6228200</v>
+        <v>6066400</v>
       </c>
       <c r="G46" s="3">
-        <v>6128300</v>
+        <v>5969100</v>
       </c>
       <c r="H46" s="3">
-        <v>4775400</v>
+        <v>4651300</v>
       </c>
       <c r="I46" s="3">
-        <v>4617400</v>
+        <v>4497500</v>
       </c>
       <c r="J46" s="3">
-        <v>3973400</v>
+        <v>3870200</v>
       </c>
       <c r="K46" s="3">
         <v>4269800</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3279700</v>
+        <v>3194500</v>
       </c>
       <c r="E47" s="3">
-        <v>12665800</v>
+        <v>12336800</v>
       </c>
       <c r="F47" s="3">
-        <v>11326100</v>
+        <v>11031900</v>
       </c>
       <c r="G47" s="3">
-        <v>10652700</v>
+        <v>10376000</v>
       </c>
       <c r="H47" s="3">
-        <v>8297600</v>
+        <v>8082100</v>
       </c>
       <c r="I47" s="3">
-        <v>6505000</v>
+        <v>6336000</v>
       </c>
       <c r="J47" s="3">
-        <v>6289700</v>
+        <v>6126300</v>
       </c>
       <c r="K47" s="3">
         <v>6144000</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>9928600</v>
+        <v>9670700</v>
       </c>
       <c r="E48" s="3">
-        <v>10300300</v>
+        <v>10032800</v>
       </c>
       <c r="F48" s="3">
-        <v>9958800</v>
+        <v>9700100</v>
       </c>
       <c r="G48" s="3">
-        <v>8253100</v>
+        <v>8038800</v>
       </c>
       <c r="H48" s="3">
-        <v>7811600</v>
+        <v>7608700</v>
       </c>
       <c r="I48" s="3">
-        <v>7988100</v>
+        <v>7780700</v>
       </c>
       <c r="J48" s="3">
-        <v>7997500</v>
+        <v>7789700</v>
       </c>
       <c r="K48" s="3">
         <v>8889500</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4575500</v>
+        <v>4456700</v>
       </c>
       <c r="E49" s="3">
-        <v>6001200</v>
+        <v>5845300</v>
       </c>
       <c r="F49" s="3">
-        <v>6018000</v>
+        <v>5861700</v>
       </c>
       <c r="G49" s="3">
-        <v>6508100</v>
+        <v>6339100</v>
       </c>
       <c r="H49" s="3">
-        <v>4236500</v>
+        <v>4126500</v>
       </c>
       <c r="I49" s="3">
-        <v>4395800</v>
+        <v>4281600</v>
       </c>
       <c r="J49" s="3">
-        <v>3244300</v>
+        <v>3160000</v>
       </c>
       <c r="K49" s="3">
         <v>3697300</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1126300</v>
+        <v>1097000</v>
       </c>
       <c r="E52" s="3">
-        <v>1164200</v>
+        <v>1134000</v>
       </c>
       <c r="F52" s="3">
-        <v>1274800</v>
+        <v>1241700</v>
       </c>
       <c r="G52" s="3">
-        <v>1082000</v>
+        <v>1053900</v>
       </c>
       <c r="H52" s="3">
-        <v>619000</v>
+        <v>602900</v>
       </c>
       <c r="I52" s="3">
-        <v>592900</v>
+        <v>577500</v>
       </c>
       <c r="J52" s="3">
-        <v>502800</v>
+        <v>489800</v>
       </c>
       <c r="K52" s="3">
         <v>470000</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>23801700</v>
+        <v>23183500</v>
       </c>
       <c r="E54" s="3">
-        <v>36888400</v>
+        <v>35930200</v>
       </c>
       <c r="F54" s="3">
-        <v>34805800</v>
+        <v>33901800</v>
       </c>
       <c r="G54" s="3">
-        <v>32624200</v>
+        <v>31776800</v>
       </c>
       <c r="H54" s="3">
-        <v>25740100</v>
+        <v>25071500</v>
       </c>
       <c r="I54" s="3">
-        <v>24099200</v>
+        <v>23473200</v>
       </c>
       <c r="J54" s="3">
-        <v>22007700</v>
+        <v>21436000</v>
       </c>
       <c r="K54" s="3">
         <v>23470600</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>146700</v>
+        <v>142900</v>
       </c>
       <c r="E57" s="3">
-        <v>287100</v>
+        <v>279700</v>
       </c>
       <c r="F57" s="3">
-        <v>337500</v>
+        <v>328700</v>
       </c>
       <c r="G57" s="3">
-        <v>293600</v>
+        <v>286000</v>
       </c>
       <c r="H57" s="3">
-        <v>270800</v>
+        <v>263800</v>
       </c>
       <c r="I57" s="3">
-        <v>309900</v>
+        <v>301800</v>
       </c>
       <c r="J57" s="3">
-        <v>215400</v>
+        <v>209800</v>
       </c>
       <c r="K57" s="3">
         <v>231400</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1380500</v>
+        <v>1344700</v>
       </c>
       <c r="E58" s="3">
-        <v>1085100</v>
+        <v>1056900</v>
       </c>
       <c r="F58" s="3">
-        <v>1085400</v>
+        <v>1057300</v>
       </c>
       <c r="G58" s="3">
-        <v>819500</v>
+        <v>798200</v>
       </c>
       <c r="H58" s="3">
-        <v>1278900</v>
+        <v>1245700</v>
       </c>
       <c r="I58" s="3">
-        <v>686100</v>
+        <v>668300</v>
       </c>
       <c r="J58" s="3">
-        <v>741600</v>
+        <v>722300</v>
       </c>
       <c r="K58" s="3">
         <v>807300</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3832300</v>
+        <v>3732700</v>
       </c>
       <c r="E59" s="3">
-        <v>4924800</v>
+        <v>4796900</v>
       </c>
       <c r="F59" s="3">
-        <v>4622900</v>
+        <v>4502800</v>
       </c>
       <c r="G59" s="3">
-        <v>4159500</v>
+        <v>4051500</v>
       </c>
       <c r="H59" s="3">
-        <v>3924300</v>
+        <v>3822300</v>
       </c>
       <c r="I59" s="3">
-        <v>3965900</v>
+        <v>3862900</v>
       </c>
       <c r="J59" s="3">
-        <v>3090500</v>
+        <v>3010200</v>
       </c>
       <c r="K59" s="3">
         <v>3514300</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5359500</v>
+        <v>5220300</v>
       </c>
       <c r="E60" s="3">
-        <v>6297000</v>
+        <v>6133500</v>
       </c>
       <c r="F60" s="3">
-        <v>6045800</v>
+        <v>5888800</v>
       </c>
       <c r="G60" s="3">
-        <v>5272600</v>
+        <v>5135700</v>
       </c>
       <c r="H60" s="3">
-        <v>5474000</v>
+        <v>5331800</v>
       </c>
       <c r="I60" s="3">
-        <v>4962000</v>
+        <v>4833100</v>
       </c>
       <c r="J60" s="3">
-        <v>4047500</v>
+        <v>3942400</v>
       </c>
       <c r="K60" s="3">
         <v>4553100</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6603000</v>
+        <v>6431400</v>
       </c>
       <c r="E61" s="3">
-        <v>8274600</v>
+        <v>8059700</v>
       </c>
       <c r="F61" s="3">
-        <v>7811900</v>
+        <v>7609000</v>
       </c>
       <c r="G61" s="3">
-        <v>6612400</v>
+        <v>6440700</v>
       </c>
       <c r="H61" s="3">
-        <v>4472200</v>
+        <v>4356000</v>
       </c>
       <c r="I61" s="3">
-        <v>4988600</v>
+        <v>4859000</v>
       </c>
       <c r="J61" s="3">
-        <v>5051700</v>
+        <v>4920500</v>
       </c>
       <c r="K61" s="3">
         <v>4871100</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2341100</v>
+        <v>2280300</v>
       </c>
       <c r="E62" s="3">
-        <v>3531600</v>
+        <v>3439900</v>
       </c>
       <c r="F62" s="3">
-        <v>3379100</v>
+        <v>3291300</v>
       </c>
       <c r="G62" s="3">
-        <v>3530200</v>
+        <v>3438500</v>
       </c>
       <c r="H62" s="3">
-        <v>1911400</v>
+        <v>1861700</v>
       </c>
       <c r="I62" s="3">
-        <v>1739000</v>
+        <v>1693900</v>
       </c>
       <c r="J62" s="3">
-        <v>1070400</v>
+        <v>1042600</v>
       </c>
       <c r="K62" s="3">
         <v>1237900</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>14885600</v>
+        <v>14498900</v>
       </c>
       <c r="E66" s="3">
-        <v>18605600</v>
+        <v>18122300</v>
       </c>
       <c r="F66" s="3">
-        <v>17134100</v>
+        <v>16689100</v>
       </c>
       <c r="G66" s="3">
-        <v>15321700</v>
+        <v>14923700</v>
       </c>
       <c r="H66" s="3">
-        <v>12001600</v>
+        <v>11689900</v>
       </c>
       <c r="I66" s="3">
-        <v>11801200</v>
+        <v>11494700</v>
       </c>
       <c r="J66" s="3">
-        <v>10264300</v>
+        <v>9997700</v>
       </c>
       <c r="K66" s="3">
         <v>11285000</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>17276800</v>
+        <v>16828000</v>
       </c>
       <c r="E72" s="3">
-        <v>17696100</v>
+        <v>17236400</v>
       </c>
       <c r="F72" s="3">
-        <v>17116100</v>
+        <v>16671500</v>
       </c>
       <c r="G72" s="3">
-        <v>17051300</v>
+        <v>16608400</v>
       </c>
       <c r="H72" s="3">
-        <v>13733700</v>
+        <v>13377000</v>
       </c>
       <c r="I72" s="3">
-        <v>12283900</v>
+        <v>11964900</v>
       </c>
       <c r="J72" s="3">
-        <v>11555900</v>
+        <v>11255700</v>
       </c>
       <c r="K72" s="3">
         <v>11918400</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8916100</v>
+        <v>8684500</v>
       </c>
       <c r="E76" s="3">
-        <v>18282800</v>
+        <v>17807900</v>
       </c>
       <c r="F76" s="3">
-        <v>17671700</v>
+        <v>17212700</v>
       </c>
       <c r="G76" s="3">
-        <v>17302500</v>
+        <v>16853100</v>
       </c>
       <c r="H76" s="3">
-        <v>13738400</v>
+        <v>13381600</v>
       </c>
       <c r="I76" s="3">
-        <v>12298000</v>
+        <v>11978500</v>
       </c>
       <c r="J76" s="3">
-        <v>11743300</v>
+        <v>11438300</v>
       </c>
       <c r="K76" s="3">
         <v>12185700</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1842400</v>
+        <v>1794600</v>
       </c>
       <c r="E81" s="3">
-        <v>1147000</v>
+        <v>1117200</v>
       </c>
       <c r="F81" s="3">
-        <v>672900</v>
+        <v>655400</v>
       </c>
       <c r="G81" s="3">
-        <v>2396300</v>
+        <v>2334100</v>
       </c>
       <c r="H81" s="3">
-        <v>1988900</v>
+        <v>1937200</v>
       </c>
       <c r="I81" s="3">
-        <v>1277500</v>
+        <v>1244300</v>
       </c>
       <c r="J81" s="3">
-        <v>1156400</v>
+        <v>1126300</v>
       </c>
       <c r="K81" s="3">
         <v>1498800</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3168100</v>
+        <v>3085800</v>
       </c>
       <c r="E83" s="3">
-        <v>3210900</v>
+        <v>3127500</v>
       </c>
       <c r="F83" s="3">
-        <v>3030600</v>
+        <v>2951900</v>
       </c>
       <c r="G83" s="3">
-        <v>2528900</v>
+        <v>2463300</v>
       </c>
       <c r="H83" s="3">
-        <v>2500600</v>
+        <v>2435600</v>
       </c>
       <c r="I83" s="3">
-        <v>2362800</v>
+        <v>2301400</v>
       </c>
       <c r="J83" s="3">
-        <v>2305000</v>
+        <v>2245100</v>
       </c>
       <c r="K83" s="3">
         <v>2429200</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3874100</v>
+        <v>3773500</v>
       </c>
       <c r="E89" s="3">
-        <v>4482800</v>
+        <v>4366400</v>
       </c>
       <c r="F89" s="3">
-        <v>3069300</v>
+        <v>2989600</v>
       </c>
       <c r="G89" s="3">
-        <v>3336100</v>
+        <v>3249400</v>
       </c>
       <c r="H89" s="3">
-        <v>2969000</v>
+        <v>2891900</v>
       </c>
       <c r="I89" s="3">
-        <v>3267200</v>
+        <v>3182400</v>
       </c>
       <c r="J89" s="3">
-        <v>2909200</v>
+        <v>2833600</v>
       </c>
       <c r="K89" s="3">
         <v>3089000</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2245200</v>
+        <v>-2186900</v>
       </c>
       <c r="E91" s="3">
-        <v>-2739500</v>
+        <v>-2668400</v>
       </c>
       <c r="F91" s="3">
-        <v>-2599400</v>
+        <v>-2531900</v>
       </c>
       <c r="G91" s="3">
-        <v>-2150100</v>
+        <v>-2094300</v>
       </c>
       <c r="H91" s="3">
-        <v>-2091200</v>
+        <v>-2036900</v>
       </c>
       <c r="I91" s="3">
-        <v>-1917700</v>
+        <v>-1867800</v>
       </c>
       <c r="J91" s="3">
-        <v>-1908700</v>
+        <v>-1859100</v>
       </c>
       <c r="K91" s="3">
         <v>-2526700</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2684400</v>
+        <v>-2614600</v>
       </c>
       <c r="E94" s="3">
-        <v>-3272800</v>
+        <v>-3187800</v>
       </c>
       <c r="F94" s="3">
-        <v>-2758500</v>
+        <v>-2686900</v>
       </c>
       <c r="G94" s="3">
-        <v>-3116700</v>
+        <v>-3035800</v>
       </c>
       <c r="H94" s="3">
-        <v>-2364400</v>
+        <v>-2303000</v>
       </c>
       <c r="I94" s="3">
-        <v>-1895900</v>
+        <v>-1846700</v>
       </c>
       <c r="J94" s="3">
-        <v>-2218000</v>
+        <v>-2160400</v>
       </c>
       <c r="K94" s="3">
         <v>-3093900</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-792000</v>
+        <v>-771400</v>
       </c>
       <c r="E96" s="3">
-        <v>-571400</v>
+        <v>-556600</v>
       </c>
       <c r="F96" s="3">
-        <v>-553400</v>
+        <v>-539000</v>
       </c>
       <c r="G96" s="3">
-        <v>-543700</v>
+        <v>-529600</v>
       </c>
       <c r="H96" s="3">
-        <v>-543700</v>
+        <v>-529600</v>
       </c>
       <c r="I96" s="3">
-        <v>-543700</v>
+        <v>-529600</v>
       </c>
       <c r="J96" s="3">
-        <v>-514700</v>
+        <v>-501400</v>
       </c>
       <c r="K96" s="3">
         <v>-560100</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1581300</v>
+        <v>-1540200</v>
       </c>
       <c r="E100" s="3">
-        <v>-1122300</v>
+        <v>-1093200</v>
       </c>
       <c r="F100" s="3">
-        <v>-490400</v>
+        <v>-477600</v>
       </c>
       <c r="G100" s="3">
-        <v>-183500</v>
+        <v>-178700</v>
       </c>
       <c r="H100" s="3">
-        <v>-636500</v>
+        <v>-620000</v>
       </c>
       <c r="I100" s="3">
-        <v>-804500</v>
+        <v>-783600</v>
       </c>
       <c r="J100" s="3">
-        <v>-742700</v>
+        <v>-723400</v>
       </c>
       <c r="K100" s="3">
         <v>-469900</v>
@@ -3959,19 +3959,19 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>8900</v>
+        <v>8700</v>
       </c>
       <c r="E101" s="3">
-        <v>-11600</v>
+        <v>-11300</v>
       </c>
       <c r="F101" s="3">
         <v>-2000</v>
       </c>
       <c r="G101" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="H101" s="3">
-        <v>-4700</v>
+        <v>-4600</v>
       </c>
       <c r="I101" s="3">
         <v>100</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-382600</v>
+        <v>-372700</v>
       </c>
       <c r="E102" s="3">
-        <v>76100</v>
+        <v>74100</v>
       </c>
       <c r="F102" s="3">
-        <v>-181600</v>
+        <v>-176900</v>
       </c>
       <c r="G102" s="3">
-        <v>37700</v>
+        <v>36700</v>
       </c>
       <c r="H102" s="3">
-        <v>-36600</v>
+        <v>-35600</v>
       </c>
       <c r="I102" s="3">
-        <v>567000</v>
+        <v>552200</v>
       </c>
       <c r="J102" s="3">
-        <v>-50400</v>
+        <v>-49100</v>
       </c>
       <c r="K102" s="3">
         <v>-473900</v>

--- a/AAII_Financials/Yearly/SKM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SKM_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>12561400</v>
+        <v>12394000</v>
       </c>
       <c r="E8" s="3">
-        <v>12065800</v>
+        <v>11904900</v>
       </c>
       <c r="F8" s="3">
-        <v>13305500</v>
+        <v>13128100</v>
       </c>
       <c r="G8" s="3">
-        <v>12655500</v>
+        <v>12486700</v>
       </c>
       <c r="H8" s="3">
-        <v>13140000</v>
+        <v>12964800</v>
       </c>
       <c r="I8" s="3">
-        <v>12818900</v>
+        <v>12647900</v>
       </c>
       <c r="J8" s="3">
-        <v>12852600</v>
+        <v>12681200</v>
       </c>
       <c r="K8" s="3">
         <v>14457600</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>562200</v>
+        <v>554700</v>
       </c>
       <c r="E9" s="3">
-        <v>578000</v>
+        <v>570300</v>
       </c>
       <c r="F9" s="3">
-        <v>564300</v>
+        <v>556700</v>
       </c>
       <c r="G9" s="3">
-        <v>606300</v>
+        <v>598200</v>
       </c>
       <c r="H9" s="3">
-        <v>656300</v>
+        <v>647500</v>
       </c>
       <c r="I9" s="3">
-        <v>715700</v>
+        <v>706200</v>
       </c>
       <c r="J9" s="3">
-        <v>718200</v>
+        <v>708600</v>
       </c>
       <c r="K9" s="3">
         <v>1172900</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>11999200</v>
+        <v>11839200</v>
       </c>
       <c r="E10" s="3">
-        <v>11487800</v>
+        <v>11334600</v>
       </c>
       <c r="F10" s="3">
-        <v>12741300</v>
+        <v>12571400</v>
       </c>
       <c r="G10" s="3">
-        <v>12049200</v>
+        <v>11888500</v>
       </c>
       <c r="H10" s="3">
-        <v>12483700</v>
+        <v>12317300</v>
       </c>
       <c r="I10" s="3">
-        <v>12103200</v>
+        <v>11941800</v>
       </c>
       <c r="J10" s="3">
-        <v>12134300</v>
+        <v>11972600</v>
       </c>
       <c r="K10" s="3">
         <v>13284700</v>
@@ -857,25 +857,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>260800</v>
+        <v>257300</v>
       </c>
       <c r="E12" s="3">
-        <v>264900</v>
+        <v>261400</v>
       </c>
       <c r="F12" s="3">
-        <v>293500</v>
+        <v>289600</v>
       </c>
       <c r="G12" s="3">
-        <v>290800</v>
+        <v>286900</v>
       </c>
       <c r="H12" s="3">
-        <v>296500</v>
+        <v>292500</v>
       </c>
       <c r="I12" s="3">
-        <v>258600</v>
+        <v>255100</v>
       </c>
       <c r="J12" s="3">
-        <v>236800</v>
+        <v>233700</v>
       </c>
       <c r="K12" s="3">
         <v>328400</v>
@@ -935,25 +935,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="E14" s="3">
-        <v>150500</v>
+        <v>148500</v>
       </c>
       <c r="F14" s="3">
+        <v>50000</v>
+      </c>
+      <c r="G14" s="3">
+        <v>191700</v>
+      </c>
+      <c r="H14" s="3">
         <v>50700</v>
       </c>
-      <c r="G14" s="3">
-        <v>194200</v>
-      </c>
-      <c r="H14" s="3">
-        <v>51400</v>
-      </c>
       <c r="I14" s="3">
-        <v>18400</v>
+        <v>18100</v>
       </c>
       <c r="J14" s="3">
-        <v>26900</v>
+        <v>26500</v>
       </c>
       <c r="K14" s="3">
         <v>39900</v>
@@ -974,25 +974,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>2754400</v>
+        <v>2717700</v>
       </c>
       <c r="E15" s="3">
-        <v>2748500</v>
+        <v>2711900</v>
       </c>
       <c r="F15" s="3">
-        <v>2892500</v>
+        <v>2853900</v>
       </c>
       <c r="G15" s="3">
-        <v>2344600</v>
+        <v>2313300</v>
       </c>
       <c r="H15" s="3">
-        <v>2323100</v>
+        <v>2292100</v>
       </c>
       <c r="I15" s="3">
-        <v>2206400</v>
+        <v>2177000</v>
       </c>
       <c r="J15" s="3">
-        <v>2134000</v>
+        <v>2105500</v>
       </c>
       <c r="K15" s="3">
         <v>2280400</v>
@@ -1027,25 +1027,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>11523400</v>
+        <v>11369800</v>
       </c>
       <c r="E17" s="3">
-        <v>11279900</v>
+        <v>11129500</v>
       </c>
       <c r="F17" s="3">
-        <v>12525100</v>
+        <v>12358100</v>
       </c>
       <c r="G17" s="3">
-        <v>11948400</v>
+        <v>11789100</v>
       </c>
       <c r="H17" s="3">
-        <v>12039000</v>
+        <v>11878400</v>
       </c>
       <c r="I17" s="3">
-        <v>11685400</v>
+        <v>11529600</v>
       </c>
       <c r="J17" s="3">
-        <v>11598400</v>
+        <v>11443800</v>
       </c>
       <c r="K17" s="3">
         <v>13107100</v>
@@ -1066,25 +1066,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>1038000</v>
+        <v>1024200</v>
       </c>
       <c r="E18" s="3">
-        <v>785900</v>
+        <v>775400</v>
       </c>
       <c r="F18" s="3">
-        <v>780400</v>
+        <v>770000</v>
       </c>
       <c r="G18" s="3">
-        <v>707100</v>
+        <v>697600</v>
       </c>
       <c r="H18" s="3">
-        <v>1101000</v>
+        <v>1086400</v>
       </c>
       <c r="I18" s="3">
-        <v>1133400</v>
+        <v>1118300</v>
       </c>
       <c r="J18" s="3">
-        <v>1254100</v>
+        <v>1237400</v>
       </c>
       <c r="K18" s="3">
         <v>1350600</v>
@@ -1122,25 +1122,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>460400</v>
+        <v>454300</v>
       </c>
       <c r="E20" s="3">
-        <v>109700</v>
+        <v>108300</v>
       </c>
       <c r="F20" s="3">
-        <v>394900</v>
+        <v>389600</v>
       </c>
       <c r="G20" s="3">
-        <v>2505400</v>
+        <v>2472000</v>
       </c>
       <c r="H20" s="3">
-        <v>1675700</v>
+        <v>1653400</v>
       </c>
       <c r="I20" s="3">
-        <v>656500</v>
+        <v>647800</v>
       </c>
       <c r="J20" s="3">
-        <v>495600</v>
+        <v>489000</v>
       </c>
       <c r="K20" s="3">
         <v>814700</v>
@@ -1161,25 +1161,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>4584200</v>
+        <v>4482000</v>
       </c>
       <c r="E21" s="3">
-        <v>4023100</v>
+        <v>3927800</v>
       </c>
       <c r="F21" s="3">
-        <v>4127200</v>
+        <v>4032800</v>
       </c>
       <c r="G21" s="3">
-        <v>5675700</v>
+        <v>5567200</v>
       </c>
       <c r="H21" s="3">
-        <v>5212400</v>
+        <v>5110400</v>
       </c>
       <c r="I21" s="3">
-        <v>4091400</v>
+        <v>4006100</v>
       </c>
       <c r="J21" s="3">
-        <v>3994900</v>
+        <v>3911700</v>
       </c>
       <c r="K21" s="3">
         <v>4594500</v>
@@ -1200,25 +1200,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>209800</v>
+        <v>207000</v>
       </c>
       <c r="E22" s="3">
-        <v>216700</v>
+        <v>213800</v>
       </c>
       <c r="F22" s="3">
-        <v>304600</v>
+        <v>300500</v>
       </c>
       <c r="G22" s="3">
-        <v>230500</v>
+        <v>227400</v>
       </c>
       <c r="H22" s="3">
-        <v>224300</v>
+        <v>221300</v>
       </c>
       <c r="I22" s="3">
-        <v>217800</v>
+        <v>214900</v>
       </c>
       <c r="J22" s="3">
-        <v>223200</v>
+        <v>220300</v>
       </c>
       <c r="K22" s="3">
         <v>272100</v>
@@ -1239,25 +1239,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>1288600</v>
+        <v>1271500</v>
       </c>
       <c r="E23" s="3">
-        <v>678900</v>
+        <v>669900</v>
       </c>
       <c r="F23" s="3">
-        <v>870800</v>
+        <v>859100</v>
       </c>
       <c r="G23" s="3">
-        <v>2982000</v>
+        <v>2942200</v>
       </c>
       <c r="H23" s="3">
-        <v>2552400</v>
+        <v>2518400</v>
       </c>
       <c r="I23" s="3">
-        <v>1572100</v>
+        <v>1551100</v>
       </c>
       <c r="J23" s="3">
-        <v>1526500</v>
+        <v>1506200</v>
       </c>
       <c r="K23" s="3">
         <v>1893200</v>
@@ -1278,25 +1278,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>335100</v>
+        <v>330600</v>
       </c>
       <c r="E24" s="3">
-        <v>165900</v>
+        <v>163700</v>
       </c>
       <c r="F24" s="3">
-        <v>225200</v>
+        <v>222200</v>
       </c>
       <c r="G24" s="3">
-        <v>633000</v>
+        <v>624500</v>
       </c>
       <c r="H24" s="3">
-        <v>559200</v>
+        <v>551800</v>
       </c>
       <c r="I24" s="3">
-        <v>327000</v>
+        <v>322700</v>
       </c>
       <c r="J24" s="3">
-        <v>389600</v>
+        <v>384400</v>
       </c>
       <c r="K24" s="3">
         <v>381800</v>
@@ -1356,25 +1356,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>953500</v>
+        <v>940800</v>
       </c>
       <c r="E26" s="3">
-        <v>513000</v>
+        <v>506100</v>
       </c>
       <c r="F26" s="3">
-        <v>645500</v>
+        <v>636900</v>
       </c>
       <c r="G26" s="3">
-        <v>2349000</v>
+        <v>2317700</v>
       </c>
       <c r="H26" s="3">
-        <v>1993200</v>
+        <v>1966600</v>
       </c>
       <c r="I26" s="3">
-        <v>1245100</v>
+        <v>1228500</v>
       </c>
       <c r="J26" s="3">
-        <v>1136900</v>
+        <v>1121800</v>
       </c>
       <c r="K26" s="3">
         <v>1511400</v>
@@ -1395,25 +1395,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>902100</v>
+        <v>890000</v>
       </c>
       <c r="E27" s="3">
-        <v>475400</v>
+        <v>469000</v>
       </c>
       <c r="F27" s="3">
-        <v>655400</v>
+        <v>646700</v>
       </c>
       <c r="G27" s="3">
-        <v>2334100</v>
+        <v>2302900</v>
       </c>
       <c r="H27" s="3">
-        <v>1937200</v>
+        <v>1911400</v>
       </c>
       <c r="I27" s="3">
-        <v>1244300</v>
+        <v>1227800</v>
       </c>
       <c r="J27" s="3">
-        <v>1126300</v>
+        <v>1111300</v>
       </c>
       <c r="K27" s="3">
         <v>1498800</v>
@@ -1473,10 +1473,10 @@
         <v>23</v>
       </c>
       <c r="D29" s="3">
-        <v>892500</v>
+        <v>880600</v>
       </c>
       <c r="E29" s="3">
-        <v>641800</v>
+        <v>633300</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>24</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-460400</v>
+        <v>-454300</v>
       </c>
       <c r="E32" s="3">
-        <v>-109700</v>
+        <v>-108300</v>
       </c>
       <c r="F32" s="3">
-        <v>-394900</v>
+        <v>-389600</v>
       </c>
       <c r="G32" s="3">
-        <v>-2505400</v>
+        <v>-2472000</v>
       </c>
       <c r="H32" s="3">
-        <v>-1675700</v>
+        <v>-1653400</v>
       </c>
       <c r="I32" s="3">
-        <v>-656500</v>
+        <v>-647800</v>
       </c>
       <c r="J32" s="3">
-        <v>-495600</v>
+        <v>-489000</v>
       </c>
       <c r="K32" s="3">
         <v>-814700</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1794600</v>
+        <v>1770600</v>
       </c>
       <c r="E33" s="3">
-        <v>1117200</v>
+        <v>1102300</v>
       </c>
       <c r="F33" s="3">
-        <v>655400</v>
+        <v>646700</v>
       </c>
       <c r="G33" s="3">
-        <v>2334100</v>
+        <v>2302900</v>
       </c>
       <c r="H33" s="3">
-        <v>1937200</v>
+        <v>1911400</v>
       </c>
       <c r="I33" s="3">
-        <v>1244300</v>
+        <v>1227800</v>
       </c>
       <c r="J33" s="3">
-        <v>1126300</v>
+        <v>1111300</v>
       </c>
       <c r="K33" s="3">
         <v>1498800</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1794600</v>
+        <v>1770600</v>
       </c>
       <c r="E35" s="3">
-        <v>1117200</v>
+        <v>1102300</v>
       </c>
       <c r="F35" s="3">
-        <v>655400</v>
+        <v>646700</v>
       </c>
       <c r="G35" s="3">
-        <v>2334100</v>
+        <v>2302900</v>
       </c>
       <c r="H35" s="3">
-        <v>1937200</v>
+        <v>1911400</v>
       </c>
       <c r="I35" s="3">
-        <v>1244300</v>
+        <v>1227800</v>
       </c>
       <c r="J35" s="3">
-        <v>1126300</v>
+        <v>1111300</v>
       </c>
       <c r="K35" s="3">
         <v>1498800</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>654500</v>
+        <v>645800</v>
       </c>
       <c r="E41" s="3">
-        <v>1027200</v>
+        <v>1013500</v>
       </c>
       <c r="F41" s="3">
-        <v>953100</v>
+        <v>940400</v>
       </c>
       <c r="G41" s="3">
-        <v>1130000</v>
+        <v>1115000</v>
       </c>
       <c r="H41" s="3">
-        <v>1093300</v>
+        <v>1078700</v>
       </c>
       <c r="I41" s="3">
-        <v>1128900</v>
+        <v>1113900</v>
       </c>
       <c r="J41" s="3">
-        <v>576700</v>
+        <v>569000</v>
       </c>
       <c r="K41" s="3">
         <v>700900</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>325600</v>
+        <v>321300</v>
       </c>
       <c r="E42" s="3">
-        <v>1109500</v>
+        <v>1094700</v>
       </c>
       <c r="F42" s="3">
-        <v>676700</v>
+        <v>667700</v>
       </c>
       <c r="G42" s="3">
-        <v>870900</v>
+        <v>859300</v>
       </c>
       <c r="H42" s="3">
-        <v>503500</v>
+        <v>496800</v>
       </c>
       <c r="I42" s="3">
-        <v>364400</v>
+        <v>359500</v>
       </c>
       <c r="J42" s="3">
-        <v>525700</v>
+        <v>518700</v>
       </c>
       <c r="K42" s="3">
         <v>498300</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1957700</v>
+        <v>1931600</v>
       </c>
       <c r="E43" s="3">
-        <v>2528400</v>
+        <v>2494700</v>
       </c>
       <c r="F43" s="3">
-        <v>2546800</v>
+        <v>2512800</v>
       </c>
       <c r="G43" s="3">
-        <v>2326300</v>
+        <v>2295300</v>
       </c>
       <c r="H43" s="3">
-        <v>2590200</v>
+        <v>2555700</v>
       </c>
       <c r="I43" s="3">
-        <v>2568100</v>
+        <v>2533900</v>
       </c>
       <c r="J43" s="3">
-        <v>2312400</v>
+        <v>2281600</v>
       </c>
       <c r="K43" s="3">
         <v>2652000</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>153500</v>
+        <v>151400</v>
       </c>
       <c r="E44" s="3">
-        <v>128600</v>
+        <v>126900</v>
       </c>
       <c r="F44" s="3">
-        <v>122200</v>
+        <v>120500</v>
       </c>
       <c r="G44" s="3">
-        <v>216000</v>
+        <v>213200</v>
       </c>
       <c r="H44" s="3">
-        <v>204300</v>
+        <v>201600</v>
       </c>
       <c r="I44" s="3">
-        <v>194900</v>
+        <v>192300</v>
       </c>
       <c r="J44" s="3">
-        <v>205200</v>
+        <v>202400</v>
       </c>
       <c r="K44" s="3">
         <v>224800</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1673200</v>
+        <v>1650900</v>
       </c>
       <c r="E45" s="3">
-        <v>1787600</v>
+        <v>1763800</v>
       </c>
       <c r="F45" s="3">
-        <v>1767600</v>
+        <v>1744100</v>
       </c>
       <c r="G45" s="3">
-        <v>1425800</v>
+        <v>1406800</v>
       </c>
       <c r="H45" s="3">
-        <v>260000</v>
+        <v>256600</v>
       </c>
       <c r="I45" s="3">
-        <v>241200</v>
+        <v>238000</v>
       </c>
       <c r="J45" s="3">
-        <v>250200</v>
+        <v>246900</v>
       </c>
       <c r="K45" s="3">
         <v>193700</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4764500</v>
+        <v>4701000</v>
       </c>
       <c r="E46" s="3">
-        <v>6581300</v>
+        <v>6493600</v>
       </c>
       <c r="F46" s="3">
-        <v>6066400</v>
+        <v>5985500</v>
       </c>
       <c r="G46" s="3">
-        <v>5969100</v>
+        <v>5889500</v>
       </c>
       <c r="H46" s="3">
-        <v>4651300</v>
+        <v>4589300</v>
       </c>
       <c r="I46" s="3">
-        <v>4497500</v>
+        <v>4437500</v>
       </c>
       <c r="J46" s="3">
-        <v>3870200</v>
+        <v>3818600</v>
       </c>
       <c r="K46" s="3">
         <v>4269800</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3194500</v>
+        <v>3151900</v>
       </c>
       <c r="E47" s="3">
-        <v>12336800</v>
+        <v>12172400</v>
       </c>
       <c r="F47" s="3">
-        <v>11031900</v>
+        <v>10884800</v>
       </c>
       <c r="G47" s="3">
-        <v>10376000</v>
+        <v>10237700</v>
       </c>
       <c r="H47" s="3">
-        <v>8082100</v>
+        <v>7974300</v>
       </c>
       <c r="I47" s="3">
-        <v>6336000</v>
+        <v>6251500</v>
       </c>
       <c r="J47" s="3">
-        <v>6126300</v>
+        <v>6044600</v>
       </c>
       <c r="K47" s="3">
         <v>6144000</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>9670700</v>
+        <v>9541800</v>
       </c>
       <c r="E48" s="3">
-        <v>10032800</v>
+        <v>9899000</v>
       </c>
       <c r="F48" s="3">
-        <v>9700100</v>
+        <v>9570800</v>
       </c>
       <c r="G48" s="3">
-        <v>8038800</v>
+        <v>7931600</v>
       </c>
       <c r="H48" s="3">
-        <v>7608700</v>
+        <v>7507200</v>
       </c>
       <c r="I48" s="3">
-        <v>7780700</v>
+        <v>7676900</v>
       </c>
       <c r="J48" s="3">
-        <v>7789700</v>
+        <v>7685900</v>
       </c>
       <c r="K48" s="3">
         <v>8889500</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4456700</v>
+        <v>4397300</v>
       </c>
       <c r="E49" s="3">
-        <v>5845300</v>
+        <v>5767400</v>
       </c>
       <c r="F49" s="3">
-        <v>5861700</v>
+        <v>5783600</v>
       </c>
       <c r="G49" s="3">
-        <v>6339100</v>
+        <v>6254500</v>
       </c>
       <c r="H49" s="3">
-        <v>4126500</v>
+        <v>4071500</v>
       </c>
       <c r="I49" s="3">
-        <v>4281600</v>
+        <v>4224500</v>
       </c>
       <c r="J49" s="3">
-        <v>3160000</v>
+        <v>3117900</v>
       </c>
       <c r="K49" s="3">
         <v>3697300</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1097000</v>
+        <v>1082400</v>
       </c>
       <c r="E52" s="3">
-        <v>1134000</v>
+        <v>1118800</v>
       </c>
       <c r="F52" s="3">
-        <v>1241700</v>
+        <v>1225100</v>
       </c>
       <c r="G52" s="3">
-        <v>1053900</v>
+        <v>1039800</v>
       </c>
       <c r="H52" s="3">
-        <v>602900</v>
+        <v>594900</v>
       </c>
       <c r="I52" s="3">
-        <v>577500</v>
+        <v>569800</v>
       </c>
       <c r="J52" s="3">
-        <v>489800</v>
+        <v>483200</v>
       </c>
       <c r="K52" s="3">
         <v>470000</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>23183500</v>
+        <v>22874300</v>
       </c>
       <c r="E54" s="3">
-        <v>35930200</v>
+        <v>35451100</v>
       </c>
       <c r="F54" s="3">
-        <v>33901800</v>
+        <v>33449800</v>
       </c>
       <c r="G54" s="3">
-        <v>31776800</v>
+        <v>31353100</v>
       </c>
       <c r="H54" s="3">
-        <v>25071500</v>
+        <v>24737200</v>
       </c>
       <c r="I54" s="3">
-        <v>23473200</v>
+        <v>23160300</v>
       </c>
       <c r="J54" s="3">
-        <v>21436000</v>
+        <v>21150200</v>
       </c>
       <c r="K54" s="3">
         <v>23470600</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>142900</v>
+        <v>141000</v>
       </c>
       <c r="E57" s="3">
-        <v>279700</v>
+        <v>276000</v>
       </c>
       <c r="F57" s="3">
-        <v>328700</v>
+        <v>324300</v>
       </c>
       <c r="G57" s="3">
-        <v>286000</v>
+        <v>282200</v>
       </c>
       <c r="H57" s="3">
-        <v>263800</v>
+        <v>260300</v>
       </c>
       <c r="I57" s="3">
-        <v>301800</v>
+        <v>297800</v>
       </c>
       <c r="J57" s="3">
-        <v>209800</v>
+        <v>207000</v>
       </c>
       <c r="K57" s="3">
         <v>231400</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1344700</v>
+        <v>1326700</v>
       </c>
       <c r="E58" s="3">
-        <v>1056900</v>
+        <v>1042800</v>
       </c>
       <c r="F58" s="3">
-        <v>1057300</v>
+        <v>1043200</v>
       </c>
       <c r="G58" s="3">
-        <v>798200</v>
+        <v>787600</v>
       </c>
       <c r="H58" s="3">
-        <v>1245700</v>
+        <v>1229100</v>
       </c>
       <c r="I58" s="3">
-        <v>668300</v>
+        <v>659400</v>
       </c>
       <c r="J58" s="3">
-        <v>722300</v>
+        <v>712700</v>
       </c>
       <c r="K58" s="3">
         <v>807300</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3732700</v>
+        <v>3683000</v>
       </c>
       <c r="E59" s="3">
-        <v>4796900</v>
+        <v>4733000</v>
       </c>
       <c r="F59" s="3">
-        <v>4502800</v>
+        <v>4442700</v>
       </c>
       <c r="G59" s="3">
-        <v>4051500</v>
+        <v>3997500</v>
       </c>
       <c r="H59" s="3">
-        <v>3822300</v>
+        <v>3771400</v>
       </c>
       <c r="I59" s="3">
-        <v>3862900</v>
+        <v>3811400</v>
       </c>
       <c r="J59" s="3">
-        <v>3010200</v>
+        <v>2970100</v>
       </c>
       <c r="K59" s="3">
         <v>3514300</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5220300</v>
+        <v>5150700</v>
       </c>
       <c r="E60" s="3">
-        <v>6133500</v>
+        <v>6051700</v>
       </c>
       <c r="F60" s="3">
-        <v>5888800</v>
+        <v>5810200</v>
       </c>
       <c r="G60" s="3">
-        <v>5135700</v>
+        <v>5067200</v>
       </c>
       <c r="H60" s="3">
-        <v>5331800</v>
+        <v>5260800</v>
       </c>
       <c r="I60" s="3">
-        <v>4833100</v>
+        <v>4768600</v>
       </c>
       <c r="J60" s="3">
-        <v>3942400</v>
+        <v>3889800</v>
       </c>
       <c r="K60" s="3">
         <v>4553100</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6431400</v>
+        <v>6345700</v>
       </c>
       <c r="E61" s="3">
-        <v>8059700</v>
+        <v>7952200</v>
       </c>
       <c r="F61" s="3">
-        <v>7609000</v>
+        <v>7507500</v>
       </c>
       <c r="G61" s="3">
-        <v>6440700</v>
+        <v>6354800</v>
       </c>
       <c r="H61" s="3">
-        <v>4356000</v>
+        <v>4298000</v>
       </c>
       <c r="I61" s="3">
-        <v>4859000</v>
+        <v>4794200</v>
       </c>
       <c r="J61" s="3">
-        <v>4920500</v>
+        <v>4854900</v>
       </c>
       <c r="K61" s="3">
         <v>4871100</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2280300</v>
+        <v>2249900</v>
       </c>
       <c r="E62" s="3">
-        <v>3439900</v>
+        <v>3394000</v>
       </c>
       <c r="F62" s="3">
-        <v>3291300</v>
+        <v>3247500</v>
       </c>
       <c r="G62" s="3">
-        <v>3438500</v>
+        <v>3392700</v>
       </c>
       <c r="H62" s="3">
-        <v>1861700</v>
+        <v>1836900</v>
       </c>
       <c r="I62" s="3">
-        <v>1693900</v>
+        <v>1671300</v>
       </c>
       <c r="J62" s="3">
-        <v>1042600</v>
+        <v>1028700</v>
       </c>
       <c r="K62" s="3">
         <v>1237900</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>14498900</v>
+        <v>14305600</v>
       </c>
       <c r="E66" s="3">
-        <v>18122300</v>
+        <v>17880700</v>
       </c>
       <c r="F66" s="3">
-        <v>16689100</v>
+        <v>16466600</v>
       </c>
       <c r="G66" s="3">
-        <v>14923700</v>
+        <v>14724700</v>
       </c>
       <c r="H66" s="3">
-        <v>11689900</v>
+        <v>11534000</v>
       </c>
       <c r="I66" s="3">
-        <v>11494700</v>
+        <v>11341400</v>
       </c>
       <c r="J66" s="3">
-        <v>9997700</v>
+        <v>9864400</v>
       </c>
       <c r="K66" s="3">
         <v>11285000</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>16828000</v>
+        <v>16603600</v>
       </c>
       <c r="E72" s="3">
-        <v>17236400</v>
+        <v>17006600</v>
       </c>
       <c r="F72" s="3">
-        <v>16671500</v>
+        <v>16449200</v>
       </c>
       <c r="G72" s="3">
-        <v>16608400</v>
+        <v>16387000</v>
       </c>
       <c r="H72" s="3">
-        <v>13377000</v>
+        <v>13198600</v>
       </c>
       <c r="I72" s="3">
-        <v>11964900</v>
+        <v>11805300</v>
       </c>
       <c r="J72" s="3">
-        <v>11255700</v>
+        <v>11105600</v>
       </c>
       <c r="K72" s="3">
         <v>11918400</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8684500</v>
+        <v>8568700</v>
       </c>
       <c r="E76" s="3">
-        <v>17807900</v>
+        <v>17570500</v>
       </c>
       <c r="F76" s="3">
-        <v>17212700</v>
+        <v>16983200</v>
       </c>
       <c r="G76" s="3">
-        <v>16853100</v>
+        <v>16628400</v>
       </c>
       <c r="H76" s="3">
-        <v>13381600</v>
+        <v>13203200</v>
       </c>
       <c r="I76" s="3">
-        <v>11978500</v>
+        <v>11818800</v>
       </c>
       <c r="J76" s="3">
-        <v>11438300</v>
+        <v>11285800</v>
       </c>
       <c r="K76" s="3">
         <v>12185700</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1794600</v>
+        <v>1770600</v>
       </c>
       <c r="E81" s="3">
-        <v>1117200</v>
+        <v>1102300</v>
       </c>
       <c r="F81" s="3">
-        <v>655400</v>
+        <v>646700</v>
       </c>
       <c r="G81" s="3">
-        <v>2334100</v>
+        <v>2302900</v>
       </c>
       <c r="H81" s="3">
-        <v>1937200</v>
+        <v>1911400</v>
       </c>
       <c r="I81" s="3">
-        <v>1244300</v>
+        <v>1227800</v>
       </c>
       <c r="J81" s="3">
-        <v>1126300</v>
+        <v>1111300</v>
       </c>
       <c r="K81" s="3">
         <v>1498800</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>3044700</v>
+      </c>
+      <c r="E83" s="3">
         <v>3085800</v>
       </c>
-      <c r="E83" s="3">
-        <v>3127500</v>
-      </c>
       <c r="F83" s="3">
-        <v>2951900</v>
+        <v>2912500</v>
       </c>
       <c r="G83" s="3">
-        <v>2463300</v>
+        <v>2430400</v>
       </c>
       <c r="H83" s="3">
-        <v>2435600</v>
+        <v>2403200</v>
       </c>
       <c r="I83" s="3">
-        <v>2301400</v>
+        <v>2270700</v>
       </c>
       <c r="J83" s="3">
-        <v>2245100</v>
+        <v>2215200</v>
       </c>
       <c r="K83" s="3">
         <v>2429200</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3773500</v>
+        <v>3723100</v>
       </c>
       <c r="E89" s="3">
-        <v>4366400</v>
+        <v>4308200</v>
       </c>
       <c r="F89" s="3">
-        <v>2989600</v>
+        <v>2949700</v>
       </c>
       <c r="G89" s="3">
-        <v>3249400</v>
+        <v>3206100</v>
       </c>
       <c r="H89" s="3">
-        <v>2891900</v>
+        <v>2853300</v>
       </c>
       <c r="I89" s="3">
-        <v>3182400</v>
+        <v>3139900</v>
       </c>
       <c r="J89" s="3">
-        <v>2833600</v>
+        <v>2795800</v>
       </c>
       <c r="K89" s="3">
         <v>3089000</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2186900</v>
+        <v>-2157700</v>
       </c>
       <c r="E91" s="3">
-        <v>-2668400</v>
+        <v>-2632800</v>
       </c>
       <c r="F91" s="3">
-        <v>-2531900</v>
+        <v>-2498200</v>
       </c>
       <c r="G91" s="3">
-        <v>-2094300</v>
+        <v>-2066400</v>
       </c>
       <c r="H91" s="3">
-        <v>-2036900</v>
+        <v>-2009700</v>
       </c>
       <c r="I91" s="3">
-        <v>-1867800</v>
+        <v>-1842900</v>
       </c>
       <c r="J91" s="3">
-        <v>-1859100</v>
+        <v>-1834300</v>
       </c>
       <c r="K91" s="3">
         <v>-2526700</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2614600</v>
+        <v>-2579800</v>
       </c>
       <c r="E94" s="3">
-        <v>-3187800</v>
+        <v>-3145300</v>
       </c>
       <c r="F94" s="3">
-        <v>-2686900</v>
+        <v>-2651100</v>
       </c>
       <c r="G94" s="3">
-        <v>-3035800</v>
+        <v>-2995300</v>
       </c>
       <c r="H94" s="3">
-        <v>-2303000</v>
+        <v>-2272200</v>
       </c>
       <c r="I94" s="3">
-        <v>-1846700</v>
+        <v>-1822000</v>
       </c>
       <c r="J94" s="3">
-        <v>-2160400</v>
+        <v>-2131600</v>
       </c>
       <c r="K94" s="3">
         <v>-3093900</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-771400</v>
+        <v>-761100</v>
       </c>
       <c r="E96" s="3">
-        <v>-556600</v>
+        <v>-549200</v>
       </c>
       <c r="F96" s="3">
-        <v>-539000</v>
+        <v>-531800</v>
       </c>
       <c r="G96" s="3">
-        <v>-529600</v>
+        <v>-522500</v>
       </c>
       <c r="H96" s="3">
-        <v>-529600</v>
+        <v>-522500</v>
       </c>
       <c r="I96" s="3">
-        <v>-529600</v>
+        <v>-522500</v>
       </c>
       <c r="J96" s="3">
-        <v>-501400</v>
+        <v>-494700</v>
       </c>
       <c r="K96" s="3">
         <v>-560100</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1540200</v>
+        <v>-1519700</v>
       </c>
       <c r="E100" s="3">
-        <v>-1093200</v>
+        <v>-1078600</v>
       </c>
       <c r="F100" s="3">
-        <v>-477600</v>
+        <v>-471300</v>
       </c>
       <c r="G100" s="3">
-        <v>-178700</v>
+        <v>-176400</v>
       </c>
       <c r="H100" s="3">
-        <v>-620000</v>
+        <v>-611700</v>
       </c>
       <c r="I100" s="3">
-        <v>-783600</v>
+        <v>-773200</v>
       </c>
       <c r="J100" s="3">
-        <v>-723400</v>
+        <v>-713800</v>
       </c>
       <c r="K100" s="3">
         <v>-469900</v>
@@ -3959,19 +3959,19 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>8700</v>
+        <v>8600</v>
       </c>
       <c r="E101" s="3">
-        <v>-11300</v>
+        <v>-11100</v>
       </c>
       <c r="F101" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="G101" s="3">
         <v>1800</v>
       </c>
       <c r="H101" s="3">
-        <v>-4600</v>
+        <v>-4500</v>
       </c>
       <c r="I101" s="3">
         <v>100</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-372700</v>
+        <v>-367700</v>
       </c>
       <c r="E102" s="3">
-        <v>74100</v>
+        <v>73100</v>
       </c>
       <c r="F102" s="3">
-        <v>-176900</v>
+        <v>-174500</v>
       </c>
       <c r="G102" s="3">
-        <v>36700</v>
+        <v>36200</v>
       </c>
       <c r="H102" s="3">
-        <v>-35600</v>
+        <v>-35200</v>
       </c>
       <c r="I102" s="3">
-        <v>552200</v>
+        <v>544900</v>
       </c>
       <c r="J102" s="3">
-        <v>-49100</v>
+        <v>-48500</v>
       </c>
       <c r="K102" s="3">
         <v>-473900</v>

--- a/AAII_Financials/Yearly/SKM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SKM_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
   <si>
     <t>SKM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,177 +665,189 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42004</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41639</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41274</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40908</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>12394000</v>
+        <v>12978700</v>
       </c>
       <c r="E8" s="3">
-        <v>11904900</v>
+        <v>12561400</v>
       </c>
       <c r="F8" s="3">
-        <v>13128100</v>
+        <v>12065800</v>
       </c>
       <c r="G8" s="3">
-        <v>12486700</v>
+        <v>13305500</v>
       </c>
       <c r="H8" s="3">
-        <v>12964800</v>
+        <v>12655500</v>
       </c>
       <c r="I8" s="3">
-        <v>12647900</v>
+        <v>13140000</v>
       </c>
       <c r="J8" s="3">
+        <v>12818900</v>
+      </c>
+      <c r="K8" s="3">
         <v>12681200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>14457600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>15168800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>13861600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>14378600</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>554700</v>
+        <v>536500</v>
       </c>
       <c r="E9" s="3">
-        <v>570300</v>
+        <v>562200</v>
       </c>
       <c r="F9" s="3">
-        <v>556700</v>
+        <v>578000</v>
       </c>
       <c r="G9" s="3">
-        <v>598200</v>
+        <v>564300</v>
       </c>
       <c r="H9" s="3">
-        <v>647500</v>
+        <v>606300</v>
       </c>
       <c r="I9" s="3">
-        <v>706200</v>
+        <v>656300</v>
       </c>
       <c r="J9" s="3">
+        <v>715700</v>
+      </c>
+      <c r="K9" s="3">
         <v>708600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1172900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1358200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1089700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>863300</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>11839200</v>
+        <v>12442300</v>
       </c>
       <c r="E10" s="3">
-        <v>11334600</v>
+        <v>11999200</v>
       </c>
       <c r="F10" s="3">
-        <v>12571400</v>
+        <v>11487800</v>
       </c>
       <c r="G10" s="3">
-        <v>11888500</v>
+        <v>12741300</v>
       </c>
       <c r="H10" s="3">
-        <v>12317300</v>
+        <v>12049200</v>
       </c>
       <c r="I10" s="3">
-        <v>11941800</v>
+        <v>12483700</v>
       </c>
       <c r="J10" s="3">
+        <v>12103200</v>
+      </c>
+      <c r="K10" s="3">
         <v>11972600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>13284700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>13810600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>12771900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>13515200</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -851,47 +863,51 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>257300</v>
+        <v>255600</v>
       </c>
       <c r="E12" s="3">
-        <v>261400</v>
+        <v>260800</v>
       </c>
       <c r="F12" s="3">
-        <v>289600</v>
+        <v>264900</v>
       </c>
       <c r="G12" s="3">
-        <v>286900</v>
+        <v>293500</v>
       </c>
       <c r="H12" s="3">
-        <v>292500</v>
+        <v>290800</v>
       </c>
       <c r="I12" s="3">
-        <v>255100</v>
+        <v>296500</v>
       </c>
       <c r="J12" s="3">
+        <v>258600</v>
+      </c>
+      <c r="K12" s="3">
         <v>233700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>328400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>320700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>255800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>244200</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -928,87 +944,96 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>2300</v>
+        <v>12800</v>
       </c>
       <c r="E14" s="3">
-        <v>148500</v>
+        <v>2400</v>
       </c>
       <c r="F14" s="3">
-        <v>50000</v>
+        <v>150500</v>
       </c>
       <c r="G14" s="3">
-        <v>191700</v>
+        <v>50700</v>
       </c>
       <c r="H14" s="3">
-        <v>50700</v>
+        <v>194200</v>
       </c>
       <c r="I14" s="3">
-        <v>18100</v>
+        <v>51400</v>
       </c>
       <c r="J14" s="3">
+        <v>18400</v>
+      </c>
+      <c r="K14" s="3">
         <v>26500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>39900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>12500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>33500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>2700</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>2717700</v>
+        <v>2716000</v>
       </c>
       <c r="E15" s="3">
-        <v>2711900</v>
+        <v>2754400</v>
       </c>
       <c r="F15" s="3">
-        <v>2853900</v>
+        <v>2748500</v>
       </c>
       <c r="G15" s="3">
-        <v>2313300</v>
+        <v>2892500</v>
       </c>
       <c r="H15" s="3">
-        <v>2292100</v>
+        <v>2344600</v>
       </c>
       <c r="I15" s="3">
-        <v>2177000</v>
+        <v>2323100</v>
       </c>
       <c r="J15" s="3">
+        <v>2206400</v>
+      </c>
+      <c r="K15" s="3">
         <v>2105500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>2280400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>2422100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>2043100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>2066800</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1021,86 +1046,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>11369800</v>
+        <v>11782400</v>
       </c>
       <c r="E17" s="3">
-        <v>11129500</v>
+        <v>11523400</v>
       </c>
       <c r="F17" s="3">
-        <v>12358100</v>
+        <v>11279900</v>
       </c>
       <c r="G17" s="3">
-        <v>11789100</v>
+        <v>12525100</v>
       </c>
       <c r="H17" s="3">
-        <v>11878400</v>
+        <v>11948400</v>
       </c>
       <c r="I17" s="3">
-        <v>11529600</v>
+        <v>12039000</v>
       </c>
       <c r="J17" s="3">
+        <v>11685400</v>
+      </c>
+      <c r="K17" s="3">
         <v>11443800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>13107100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>13732500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>12379700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>12408200</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>1024200</v>
+        <v>1196300</v>
       </c>
       <c r="E18" s="3">
-        <v>775400</v>
+        <v>1038000</v>
       </c>
       <c r="F18" s="3">
-        <v>770000</v>
+        <v>785900</v>
       </c>
       <c r="G18" s="3">
-        <v>697600</v>
+        <v>780400</v>
       </c>
       <c r="H18" s="3">
-        <v>1086400</v>
+        <v>707100</v>
       </c>
       <c r="I18" s="3">
-        <v>1118300</v>
+        <v>1101000</v>
       </c>
       <c r="J18" s="3">
+        <v>1133400</v>
+      </c>
+      <c r="K18" s="3">
         <v>1237400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1350600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1436300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1481900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1970400</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1116,203 +1148,219 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>454300</v>
+        <v>-22900</v>
       </c>
       <c r="E20" s="3">
-        <v>108300</v>
+        <v>460400</v>
       </c>
       <c r="F20" s="3">
-        <v>389600</v>
+        <v>109700</v>
       </c>
       <c r="G20" s="3">
-        <v>2472000</v>
+        <v>394900</v>
       </c>
       <c r="H20" s="3">
-        <v>1653400</v>
+        <v>2505400</v>
       </c>
       <c r="I20" s="3">
-        <v>647800</v>
+        <v>1675700</v>
       </c>
       <c r="J20" s="3">
+        <v>656500</v>
+      </c>
+      <c r="K20" s="3">
         <v>489000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>814700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>528300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>167300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>623100</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>4482000</v>
+        <v>4342500</v>
       </c>
       <c r="E21" s="3">
-        <v>3927800</v>
+        <v>4489700</v>
       </c>
       <c r="F21" s="3">
-        <v>4032800</v>
+        <v>3391700</v>
       </c>
       <c r="G21" s="3">
-        <v>5567200</v>
+        <v>3643400</v>
       </c>
       <c r="H21" s="3">
-        <v>5110400</v>
+        <v>5544600</v>
       </c>
       <c r="I21" s="3">
-        <v>4006100</v>
-      </c>
-      <c r="J21" s="3">
+        <v>5051800</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K21" s="3">
         <v>3911700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>4594500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>4511400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3870200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>4803100</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>207000</v>
+        <v>246200</v>
       </c>
       <c r="E22" s="3">
-        <v>213800</v>
+        <v>209800</v>
       </c>
       <c r="F22" s="3">
-        <v>300500</v>
+        <v>216700</v>
       </c>
       <c r="G22" s="3">
-        <v>227400</v>
+        <v>304600</v>
       </c>
       <c r="H22" s="3">
-        <v>221300</v>
+        <v>230500</v>
       </c>
       <c r="I22" s="3">
-        <v>214900</v>
+        <v>224300</v>
       </c>
       <c r="J22" s="3">
+        <v>217800</v>
+      </c>
+      <c r="K22" s="3">
         <v>220300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>272100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>302000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>346400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>576900</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>1271500</v>
+        <v>927100</v>
       </c>
       <c r="E23" s="3">
-        <v>669900</v>
+        <v>1288600</v>
       </c>
       <c r="F23" s="3">
-        <v>859100</v>
+        <v>678900</v>
       </c>
       <c r="G23" s="3">
-        <v>2942200</v>
+        <v>870800</v>
       </c>
       <c r="H23" s="3">
-        <v>2518400</v>
+        <v>2982000</v>
       </c>
       <c r="I23" s="3">
-        <v>1551100</v>
+        <v>2552400</v>
       </c>
       <c r="J23" s="3">
+        <v>1572100</v>
+      </c>
+      <c r="K23" s="3">
         <v>1506200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1893200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1662700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1302700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2016600</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>330600</v>
+        <v>216200</v>
       </c>
       <c r="E24" s="3">
-        <v>163700</v>
+        <v>335100</v>
       </c>
       <c r="F24" s="3">
-        <v>222200</v>
+        <v>165900</v>
       </c>
       <c r="G24" s="3">
-        <v>624500</v>
+        <v>225200</v>
       </c>
       <c r="H24" s="3">
-        <v>551800</v>
+        <v>633000</v>
       </c>
       <c r="I24" s="3">
-        <v>322700</v>
+        <v>559200</v>
       </c>
       <c r="J24" s="3">
+        <v>327000</v>
+      </c>
+      <c r="K24" s="3">
         <v>384400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>381800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>364700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>248500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>548100</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1349,87 +1397,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>940800</v>
+        <v>710900</v>
       </c>
       <c r="E26" s="3">
-        <v>506100</v>
+        <v>953500</v>
       </c>
       <c r="F26" s="3">
-        <v>636900</v>
+        <v>513000</v>
       </c>
       <c r="G26" s="3">
-        <v>2317700</v>
+        <v>645500</v>
       </c>
       <c r="H26" s="3">
-        <v>1966600</v>
+        <v>2349000</v>
       </c>
       <c r="I26" s="3">
-        <v>1228500</v>
+        <v>1993200</v>
       </c>
       <c r="J26" s="3">
+        <v>1245100</v>
+      </c>
+      <c r="K26" s="3">
         <v>1121800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1511400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1297900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1054200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1468600</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>890000</v>
+        <v>673200</v>
       </c>
       <c r="E27" s="3">
-        <v>469000</v>
+        <v>902100</v>
       </c>
       <c r="F27" s="3">
-        <v>646700</v>
+        <v>475400</v>
       </c>
       <c r="G27" s="3">
-        <v>2302900</v>
+        <v>655400</v>
       </c>
       <c r="H27" s="3">
-        <v>1911400</v>
+        <v>2334100</v>
       </c>
       <c r="I27" s="3">
-        <v>1227800</v>
+        <v>1937200</v>
       </c>
       <c r="J27" s="3">
+        <v>1244300</v>
+      </c>
+      <c r="K27" s="3">
         <v>1111300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1498800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1317000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1100800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1496300</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1466,20 +1523,23 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="3">
-        <v>880600</v>
+      <c r="D29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="E29" s="3">
-        <v>633300</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>24</v>
+        <v>892500</v>
+      </c>
+      <c r="F29" s="3">
+        <v>641800</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>24</v>
@@ -1493,21 +1553,24 @@
       <c r="J29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
+      <c r="K29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>166800</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-133300</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-45200</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1544,9 +1607,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1583,87 +1649,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-454300</v>
+        <v>22900</v>
       </c>
       <c r="E32" s="3">
-        <v>-108300</v>
+        <v>-460400</v>
       </c>
       <c r="F32" s="3">
-        <v>-389600</v>
+        <v>-109700</v>
       </c>
       <c r="G32" s="3">
-        <v>-2472000</v>
+        <v>-394900</v>
       </c>
       <c r="H32" s="3">
-        <v>-1653400</v>
+        <v>-2505400</v>
       </c>
       <c r="I32" s="3">
-        <v>-647800</v>
+        <v>-1675700</v>
       </c>
       <c r="J32" s="3">
+        <v>-656500</v>
+      </c>
+      <c r="K32" s="3">
         <v>-489000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-814700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-528300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-167300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-623100</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1770600</v>
+        <v>673200</v>
       </c>
       <c r="E33" s="3">
-        <v>1102300</v>
+        <v>1794600</v>
       </c>
       <c r="F33" s="3">
-        <v>646700</v>
+        <v>1117200</v>
       </c>
       <c r="G33" s="3">
-        <v>2302900</v>
+        <v>655400</v>
       </c>
       <c r="H33" s="3">
-        <v>1911400</v>
+        <v>2334100</v>
       </c>
       <c r="I33" s="3">
-        <v>1227800</v>
+        <v>1937200</v>
       </c>
       <c r="J33" s="3">
+        <v>1244300</v>
+      </c>
+      <c r="K33" s="3">
         <v>1111300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1498800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1483800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>967400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1451100</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1700,92 +1775,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1770600</v>
+        <v>673200</v>
       </c>
       <c r="E35" s="3">
-        <v>1102300</v>
+        <v>1794600</v>
       </c>
       <c r="F35" s="3">
-        <v>646700</v>
+        <v>1117200</v>
       </c>
       <c r="G35" s="3">
-        <v>2302900</v>
+        <v>655400</v>
       </c>
       <c r="H35" s="3">
-        <v>1911400</v>
+        <v>2334100</v>
       </c>
       <c r="I35" s="3">
-        <v>1227800</v>
+        <v>1937200</v>
       </c>
       <c r="J35" s="3">
+        <v>1244300</v>
+      </c>
+      <c r="K35" s="3">
         <v>1111300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1498800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1483800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>967400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1451100</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42004</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41639</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41274</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40908</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1801,8 +1885,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1818,359 +1903,387 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>645800</v>
+        <v>1411700</v>
       </c>
       <c r="E41" s="3">
-        <v>1013500</v>
+        <v>654500</v>
       </c>
       <c r="F41" s="3">
-        <v>940400</v>
+        <v>1027200</v>
       </c>
       <c r="G41" s="3">
-        <v>1115000</v>
+        <v>953100</v>
       </c>
       <c r="H41" s="3">
-        <v>1078700</v>
+        <v>1130000</v>
       </c>
       <c r="I41" s="3">
-        <v>1113900</v>
+        <v>1093300</v>
       </c>
       <c r="J41" s="3">
+        <v>1128900</v>
+      </c>
+      <c r="K41" s="3">
         <v>569000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>700900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1272800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>772900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1485700</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>321300</v>
+        <v>118300</v>
       </c>
       <c r="E42" s="3">
-        <v>1094700</v>
+        <v>325600</v>
       </c>
       <c r="F42" s="3">
-        <v>667700</v>
+        <v>1109500</v>
       </c>
       <c r="G42" s="3">
-        <v>859300</v>
+        <v>676700</v>
       </c>
       <c r="H42" s="3">
-        <v>496800</v>
+        <v>870900</v>
       </c>
       <c r="I42" s="3">
-        <v>359500</v>
+        <v>503500</v>
       </c>
       <c r="J42" s="3">
+        <v>364400</v>
+      </c>
+      <c r="K42" s="3">
         <v>518700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>498300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>380000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>482600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>967000</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1931600</v>
+        <v>1960600</v>
       </c>
       <c r="E43" s="3">
-        <v>2494700</v>
+        <v>1957700</v>
       </c>
       <c r="F43" s="3">
-        <v>2512800</v>
+        <v>2528400</v>
       </c>
       <c r="G43" s="3">
-        <v>2295300</v>
+        <v>2546800</v>
       </c>
       <c r="H43" s="3">
-        <v>2555700</v>
+        <v>2326300</v>
       </c>
       <c r="I43" s="3">
-        <v>2533900</v>
+        <v>2590200</v>
       </c>
       <c r="J43" s="3">
+        <v>2568100</v>
+      </c>
+      <c r="K43" s="3">
         <v>2281600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2652000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2712100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2202400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2549200</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>151400</v>
+        <v>124800</v>
       </c>
       <c r="E44" s="3">
-        <v>126900</v>
+        <v>153500</v>
       </c>
       <c r="F44" s="3">
-        <v>120500</v>
+        <v>128600</v>
       </c>
       <c r="G44" s="3">
-        <v>213200</v>
+        <v>122200</v>
       </c>
       <c r="H44" s="3">
-        <v>201600</v>
+        <v>216000</v>
       </c>
       <c r="I44" s="3">
-        <v>192300</v>
+        <v>204300</v>
       </c>
       <c r="J44" s="3">
+        <v>194900</v>
+      </c>
+      <c r="K44" s="3">
         <v>202400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>224800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>161200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>203400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>197600</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1650900</v>
+        <v>1799000</v>
       </c>
       <c r="E45" s="3">
-        <v>1763800</v>
+        <v>1673200</v>
       </c>
       <c r="F45" s="3">
-        <v>1744100</v>
+        <v>1787600</v>
       </c>
       <c r="G45" s="3">
-        <v>1406800</v>
+        <v>1767600</v>
       </c>
       <c r="H45" s="3">
-        <v>256600</v>
+        <v>1425800</v>
       </c>
       <c r="I45" s="3">
-        <v>238000</v>
+        <v>260000</v>
       </c>
       <c r="J45" s="3">
+        <v>241200</v>
+      </c>
+      <c r="K45" s="3">
         <v>246900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>193700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>136300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>786000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>306200</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4701000</v>
+        <v>5414400</v>
       </c>
       <c r="E46" s="3">
-        <v>6493600</v>
+        <v>4764500</v>
       </c>
       <c r="F46" s="3">
-        <v>5985500</v>
+        <v>6581300</v>
       </c>
       <c r="G46" s="3">
-        <v>5889500</v>
+        <v>6066400</v>
       </c>
       <c r="H46" s="3">
-        <v>4589300</v>
+        <v>5969100</v>
       </c>
       <c r="I46" s="3">
-        <v>4437500</v>
+        <v>4651300</v>
       </c>
       <c r="J46" s="3">
+        <v>4497500</v>
+      </c>
+      <c r="K46" s="3">
         <v>3818600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4269800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4662300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4447300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5505700</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3151900</v>
+        <v>2823200</v>
       </c>
       <c r="E47" s="3">
-        <v>12172400</v>
+        <v>3194500</v>
       </c>
       <c r="F47" s="3">
-        <v>10884800</v>
+        <v>12336800</v>
       </c>
       <c r="G47" s="3">
-        <v>10237700</v>
+        <v>11031900</v>
       </c>
       <c r="H47" s="3">
-        <v>7974300</v>
+        <v>10376000</v>
       </c>
       <c r="I47" s="3">
-        <v>6251500</v>
+        <v>8082100</v>
       </c>
       <c r="J47" s="3">
+        <v>6336000</v>
+      </c>
+      <c r="K47" s="3">
         <v>6044600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>6144000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>5787100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>4750700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2728000</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>9541800</v>
+        <v>10010700</v>
       </c>
       <c r="E48" s="3">
-        <v>9899000</v>
+        <v>9670700</v>
       </c>
       <c r="F48" s="3">
-        <v>9570800</v>
+        <v>10032800</v>
       </c>
       <c r="G48" s="3">
-        <v>7931600</v>
+        <v>9700100</v>
       </c>
       <c r="H48" s="3">
-        <v>7507200</v>
+        <v>8038800</v>
       </c>
       <c r="I48" s="3">
-        <v>7676900</v>
+        <v>7608700</v>
       </c>
       <c r="J48" s="3">
+        <v>7780700</v>
+      </c>
+      <c r="K48" s="3">
         <v>7685900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>8889500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>9293300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>8285600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>8373600</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4397300</v>
+        <v>4049900</v>
       </c>
       <c r="E49" s="3">
-        <v>5767400</v>
+        <v>4456700</v>
       </c>
       <c r="F49" s="3">
-        <v>5783600</v>
+        <v>5845300</v>
       </c>
       <c r="G49" s="3">
-        <v>6254500</v>
+        <v>5861700</v>
       </c>
       <c r="H49" s="3">
-        <v>4071500</v>
+        <v>6339100</v>
       </c>
       <c r="I49" s="3">
-        <v>4224500</v>
+        <v>4126500</v>
       </c>
       <c r="J49" s="3">
+        <v>4281600</v>
+      </c>
+      <c r="K49" s="3">
         <v>3117900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3697300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4080500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3724700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4271200</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2207,9 +2320,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2246,48 +2362,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1082400</v>
+        <v>1182900</v>
       </c>
       <c r="E52" s="3">
-        <v>1118800</v>
+        <v>1097000</v>
       </c>
       <c r="F52" s="3">
-        <v>1225100</v>
+        <v>1134000</v>
       </c>
       <c r="G52" s="3">
-        <v>1039800</v>
+        <v>1241700</v>
       </c>
       <c r="H52" s="3">
-        <v>594900</v>
+        <v>1053900</v>
       </c>
       <c r="I52" s="3">
-        <v>569800</v>
+        <v>602900</v>
       </c>
       <c r="J52" s="3">
+        <v>577500</v>
+      </c>
+      <c r="K52" s="3">
         <v>483200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>470000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>361500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>291900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1050900</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2324,48 +2446,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>22874300</v>
+        <v>23481200</v>
       </c>
       <c r="E54" s="3">
-        <v>35451100</v>
+        <v>23183500</v>
       </c>
       <c r="F54" s="3">
-        <v>33449800</v>
+        <v>35930200</v>
       </c>
       <c r="G54" s="3">
-        <v>31353100</v>
+        <v>33901800</v>
       </c>
       <c r="H54" s="3">
-        <v>24737200</v>
+        <v>31776800</v>
       </c>
       <c r="I54" s="3">
-        <v>23160300</v>
+        <v>25071500</v>
       </c>
       <c r="J54" s="3">
+        <v>23473200</v>
+      </c>
+      <c r="K54" s="3">
         <v>21150200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>23470600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>24184600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>21500300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>21929400</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2381,8 +2509,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2398,242 +2527,261 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>141000</v>
+        <v>66900</v>
       </c>
       <c r="E57" s="3">
-        <v>276000</v>
+        <v>142900</v>
       </c>
       <c r="F57" s="3">
-        <v>324300</v>
+        <v>279700</v>
       </c>
       <c r="G57" s="3">
-        <v>282200</v>
+        <v>328700</v>
       </c>
       <c r="H57" s="3">
-        <v>260300</v>
+        <v>286000</v>
       </c>
       <c r="I57" s="3">
-        <v>297800</v>
+        <v>263800</v>
       </c>
       <c r="J57" s="3">
+        <v>301800</v>
+      </c>
+      <c r="K57" s="3">
         <v>207000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>231400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>195400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1734500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1532900</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1326700</v>
+        <v>1872800</v>
       </c>
       <c r="E58" s="3">
-        <v>1042800</v>
+        <v>1344700</v>
       </c>
       <c r="F58" s="3">
-        <v>1043200</v>
+        <v>1056900</v>
       </c>
       <c r="G58" s="3">
-        <v>787600</v>
+        <v>1057300</v>
       </c>
       <c r="H58" s="3">
-        <v>1229100</v>
+        <v>798200</v>
       </c>
       <c r="I58" s="3">
-        <v>659400</v>
+        <v>1245700</v>
       </c>
       <c r="J58" s="3">
+        <v>668300</v>
+      </c>
+      <c r="K58" s="3">
         <v>712700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>807300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1390900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1254200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2127200</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3683000</v>
+        <v>4095200</v>
       </c>
       <c r="E59" s="3">
-        <v>4733000</v>
+        <v>3732700</v>
       </c>
       <c r="F59" s="3">
-        <v>4442700</v>
+        <v>4796900</v>
       </c>
       <c r="G59" s="3">
-        <v>3997500</v>
+        <v>4502800</v>
       </c>
       <c r="H59" s="3">
-        <v>3771400</v>
+        <v>4051500</v>
       </c>
       <c r="I59" s="3">
-        <v>3811400</v>
+        <v>3822300</v>
       </c>
       <c r="J59" s="3">
+        <v>3862900</v>
+      </c>
+      <c r="K59" s="3">
         <v>2970100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3514300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3936700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2198200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2346100</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5150700</v>
+        <v>6034900</v>
       </c>
       <c r="E60" s="3">
-        <v>6051700</v>
+        <v>5220300</v>
       </c>
       <c r="F60" s="3">
-        <v>5810200</v>
+        <v>6133500</v>
       </c>
       <c r="G60" s="3">
-        <v>5067200</v>
+        <v>5888800</v>
       </c>
       <c r="H60" s="3">
-        <v>5260800</v>
+        <v>5135700</v>
       </c>
       <c r="I60" s="3">
-        <v>4768600</v>
+        <v>5331800</v>
       </c>
       <c r="J60" s="3">
+        <v>4833100</v>
+      </c>
+      <c r="K60" s="3">
         <v>3889800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4553100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5523000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5186900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>6006200</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6345700</v>
+        <v>6440900</v>
       </c>
       <c r="E61" s="3">
-        <v>7952200</v>
+        <v>6431400</v>
       </c>
       <c r="F61" s="3">
-        <v>7507500</v>
+        <v>8059700</v>
       </c>
       <c r="G61" s="3">
-        <v>6354800</v>
+        <v>7609000</v>
       </c>
       <c r="H61" s="3">
-        <v>4298000</v>
+        <v>6440700</v>
       </c>
       <c r="I61" s="3">
-        <v>4794200</v>
+        <v>4356000</v>
       </c>
       <c r="J61" s="3">
+        <v>4859000</v>
+      </c>
+      <c r="K61" s="3">
         <v>4854900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4871100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4563000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4511200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3235300</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2249900</v>
+        <v>1889000</v>
       </c>
       <c r="E62" s="3">
-        <v>3394000</v>
+        <v>2280300</v>
       </c>
       <c r="F62" s="3">
-        <v>3247500</v>
+        <v>3439900</v>
       </c>
       <c r="G62" s="3">
-        <v>3392700</v>
+        <v>3291300</v>
       </c>
       <c r="H62" s="3">
-        <v>1836900</v>
+        <v>3438500</v>
       </c>
       <c r="I62" s="3">
-        <v>1671300</v>
+        <v>1861700</v>
       </c>
       <c r="J62" s="3">
+        <v>1693900</v>
+      </c>
+      <c r="K62" s="3">
         <v>1028700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1237900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1207100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1004100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1228400</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2670,9 +2818,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2709,9 +2860,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2748,48 +2902,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>14305600</v>
+        <v>14992500</v>
       </c>
       <c r="E66" s="3">
-        <v>17880700</v>
+        <v>14498900</v>
       </c>
       <c r="F66" s="3">
-        <v>16466600</v>
+        <v>18122300</v>
       </c>
       <c r="G66" s="3">
-        <v>14724700</v>
+        <v>16689100</v>
       </c>
       <c r="H66" s="3">
-        <v>11534000</v>
+        <v>14923700</v>
       </c>
       <c r="I66" s="3">
-        <v>11341400</v>
+        <v>11689900</v>
       </c>
       <c r="J66" s="3">
+        <v>11494700</v>
+      </c>
+      <c r="K66" s="3">
         <v>9864400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>11285000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>11943000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>11542300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>11433700</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2805,8 +2965,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2843,9 +3004,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2882,9 +3046,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2921,9 +3088,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2960,48 +3130,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>16603600</v>
+        <v>16847800</v>
       </c>
       <c r="E72" s="3">
-        <v>17006600</v>
+        <v>16828000</v>
       </c>
       <c r="F72" s="3">
-        <v>16449200</v>
+        <v>17236400</v>
       </c>
       <c r="G72" s="3">
-        <v>16387000</v>
+        <v>16671500</v>
       </c>
       <c r="H72" s="3">
-        <v>13198600</v>
+        <v>16608400</v>
       </c>
       <c r="I72" s="3">
-        <v>11805300</v>
+        <v>13377000</v>
       </c>
       <c r="J72" s="3">
+        <v>11964900</v>
+      </c>
+      <c r="K72" s="3">
         <v>11105600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>11918400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>11923300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>10163200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>10712300</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3038,9 +3214,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3077,9 +3256,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3116,48 +3298,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8568700</v>
+        <v>8488700</v>
       </c>
       <c r="E76" s="3">
-        <v>17570500</v>
+        <v>8684500</v>
       </c>
       <c r="F76" s="3">
-        <v>16983200</v>
+        <v>17807900</v>
       </c>
       <c r="G76" s="3">
-        <v>16628400</v>
+        <v>17212700</v>
       </c>
       <c r="H76" s="3">
-        <v>13203200</v>
+        <v>16853100</v>
       </c>
       <c r="I76" s="3">
-        <v>11818800</v>
+        <v>13381600</v>
       </c>
       <c r="J76" s="3">
+        <v>11978500</v>
+      </c>
+      <c r="K76" s="3">
         <v>11285800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>12185700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>12241700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>9958000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>10495700</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3194,92 +3382,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42004</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41639</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41274</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40908</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1770600</v>
+        <v>673200</v>
       </c>
       <c r="E81" s="3">
-        <v>1102300</v>
+        <v>1794600</v>
       </c>
       <c r="F81" s="3">
-        <v>646700</v>
+        <v>1117200</v>
       </c>
       <c r="G81" s="3">
-        <v>2302900</v>
+        <v>655400</v>
       </c>
       <c r="H81" s="3">
-        <v>1911400</v>
+        <v>2334100</v>
       </c>
       <c r="I81" s="3">
-        <v>1227800</v>
+        <v>1937200</v>
       </c>
       <c r="J81" s="3">
+        <v>1244300</v>
+      </c>
+      <c r="K81" s="3">
         <v>1111300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1498800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1483800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>967400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1451100</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3295,47 +3492,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3044700</v>
+        <v>2816500</v>
       </c>
       <c r="E83" s="3">
         <v>3085800</v>
       </c>
       <c r="F83" s="3">
-        <v>2912500</v>
+        <v>3127500</v>
       </c>
       <c r="G83" s="3">
-        <v>2430400</v>
+        <v>2951900</v>
       </c>
       <c r="H83" s="3">
-        <v>2403200</v>
+        <v>2463300</v>
       </c>
       <c r="I83" s="3">
-        <v>2270700</v>
+        <v>2435600</v>
       </c>
       <c r="J83" s="3">
+        <v>2301400</v>
+      </c>
+      <c r="K83" s="3">
         <v>2215200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2429200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2575100</v>
       </c>
-      <c r="M83" s="3" t="s">
+      <c r="N83" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>2234400</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3372,9 +3573,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3411,9 +3615,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3450,9 +3657,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3489,9 +3699,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3528,48 +3741,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3723100</v>
+        <v>3869500</v>
       </c>
       <c r="E89" s="3">
-        <v>4308200</v>
+        <v>3773500</v>
       </c>
       <c r="F89" s="3">
-        <v>2949700</v>
+        <v>4366400</v>
       </c>
       <c r="G89" s="3">
-        <v>3206100</v>
+        <v>2989600</v>
       </c>
       <c r="H89" s="3">
-        <v>2853300</v>
+        <v>3249400</v>
       </c>
       <c r="I89" s="3">
-        <v>3139900</v>
+        <v>2891900</v>
       </c>
       <c r="J89" s="3">
+        <v>3182400</v>
+      </c>
+      <c r="K89" s="3">
         <v>2795800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3089000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3238300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>5297400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>5675800</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3585,47 +3804,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2157700</v>
+        <v>-2181200</v>
       </c>
       <c r="E91" s="3">
-        <v>-2632800</v>
+        <v>-2186900</v>
       </c>
       <c r="F91" s="3">
-        <v>-2498200</v>
+        <v>-2668400</v>
       </c>
       <c r="G91" s="3">
-        <v>-2066400</v>
+        <v>-2531900</v>
       </c>
       <c r="H91" s="3">
-        <v>-2009700</v>
+        <v>-2094300</v>
       </c>
       <c r="I91" s="3">
-        <v>-1842900</v>
+        <v>-2036900</v>
       </c>
       <c r="J91" s="3">
+        <v>-1867800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1834300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2526700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2620000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2559300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-3280800</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3662,9 +3885,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3701,48 +3927,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2579800</v>
+        <v>-2105800</v>
       </c>
       <c r="E94" s="3">
-        <v>-3145300</v>
+        <v>-2614600</v>
       </c>
       <c r="F94" s="3">
-        <v>-2651100</v>
+        <v>-3187800</v>
       </c>
       <c r="G94" s="3">
-        <v>-2995300</v>
+        <v>-2686900</v>
       </c>
       <c r="H94" s="3">
-        <v>-2272200</v>
+        <v>-3035800</v>
       </c>
       <c r="I94" s="3">
-        <v>-1822000</v>
+        <v>-2303000</v>
       </c>
       <c r="J94" s="3">
+        <v>-1846700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-2131600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3093900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2280900</v>
       </c>
-      <c r="M94" s="3" t="s">
+      <c r="N94" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3815200</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3758,47 +3990,51 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-761100</v>
+        <v>-678000</v>
       </c>
       <c r="E96" s="3">
-        <v>-549200</v>
+        <v>-771400</v>
       </c>
       <c r="F96" s="3">
-        <v>-531800</v>
+        <v>-556600</v>
       </c>
       <c r="G96" s="3">
-        <v>-522500</v>
+        <v>-539000</v>
       </c>
       <c r="H96" s="3">
-        <v>-522500</v>
+        <v>-529600</v>
       </c>
       <c r="I96" s="3">
-        <v>-522500</v>
+        <v>-529600</v>
       </c>
       <c r="J96" s="3">
+        <v>-529600</v>
+      </c>
+      <c r="K96" s="3">
         <v>-494700</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-560100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-596900</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-561400</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-601500</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3835,9 +4071,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3874,9 +4113,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3913,124 +4155,136 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1519700</v>
+        <v>-1012400</v>
       </c>
       <c r="E100" s="3">
-        <v>-1078600</v>
+        <v>-1540200</v>
       </c>
       <c r="F100" s="3">
-        <v>-471300</v>
+        <v>-1093200</v>
       </c>
       <c r="G100" s="3">
-        <v>-176400</v>
+        <v>-477600</v>
       </c>
       <c r="H100" s="3">
-        <v>-611700</v>
+        <v>-178700</v>
       </c>
       <c r="I100" s="3">
-        <v>-773200</v>
+        <v>-620000</v>
       </c>
       <c r="J100" s="3">
+        <v>-783600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-713800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-469900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-521600</v>
       </c>
-      <c r="M100" s="3" t="s">
+      <c r="N100" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-971400</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>8600</v>
+        <v>5900</v>
       </c>
       <c r="E101" s="3">
-        <v>-11100</v>
+        <v>8700</v>
       </c>
       <c r="F101" s="3">
-        <v>-1900</v>
+        <v>-11300</v>
       </c>
       <c r="G101" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="H101" s="3">
         <v>1800</v>
       </c>
-      <c r="H101" s="3">
-        <v>-4500</v>
-      </c>
       <c r="I101" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>1100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-400</v>
       </c>
-      <c r="M101" s="3" t="s">
+      <c r="N101" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>3000</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-367700</v>
+        <v>757200</v>
       </c>
       <c r="E102" s="3">
-        <v>73100</v>
+        <v>-372700</v>
       </c>
       <c r="F102" s="3">
-        <v>-174500</v>
+        <v>74100</v>
       </c>
       <c r="G102" s="3">
-        <v>36200</v>
+        <v>-176900</v>
       </c>
       <c r="H102" s="3">
-        <v>-35200</v>
+        <v>36700</v>
       </c>
       <c r="I102" s="3">
-        <v>544900</v>
+        <v>-35600</v>
       </c>
       <c r="J102" s="3">
+        <v>552200</v>
+      </c>
+      <c r="K102" s="3">
         <v>-48500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-473900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>435400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>832800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>892300</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/SKM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SKM_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
   <si>
     <t>SKM</t>
   </si>
@@ -1197,25 +1197,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>4342500</v>
+        <v>3989800</v>
       </c>
       <c r="E21" s="3">
-        <v>4489700</v>
+        <v>4584200</v>
       </c>
       <c r="F21" s="3">
-        <v>3391700</v>
+        <v>4023100</v>
       </c>
       <c r="G21" s="3">
-        <v>3643400</v>
+        <v>4127200</v>
       </c>
       <c r="H21" s="3">
-        <v>5544600</v>
+        <v>5675700</v>
       </c>
       <c r="I21" s="3">
-        <v>5051800</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>24</v>
+        <v>5212400</v>
+      </c>
+      <c r="J21" s="3">
+        <v>4091400</v>
       </c>
       <c r="K21" s="3">
         <v>3911700</v>

--- a/AAII_Financials/Yearly/SKM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SKM_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>12978700</v>
+        <v>13324800</v>
       </c>
       <c r="E8" s="3">
-        <v>12561400</v>
+        <v>12896400</v>
       </c>
       <c r="F8" s="3">
-        <v>12065800</v>
+        <v>12387600</v>
       </c>
       <c r="G8" s="3">
-        <v>13305500</v>
+        <v>13660400</v>
       </c>
       <c r="H8" s="3">
-        <v>12655500</v>
+        <v>12992900</v>
       </c>
       <c r="I8" s="3">
-        <v>13140000</v>
+        <v>13490400</v>
       </c>
       <c r="J8" s="3">
-        <v>12818900</v>
+        <v>13160700</v>
       </c>
       <c r="K8" s="3">
         <v>12681200</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>536500</v>
+        <v>550800</v>
       </c>
       <c r="E9" s="3">
-        <v>562200</v>
+        <v>577200</v>
       </c>
       <c r="F9" s="3">
-        <v>578000</v>
+        <v>593400</v>
       </c>
       <c r="G9" s="3">
-        <v>564300</v>
+        <v>579300</v>
       </c>
       <c r="H9" s="3">
-        <v>606300</v>
+        <v>622500</v>
       </c>
       <c r="I9" s="3">
-        <v>656300</v>
+        <v>673800</v>
       </c>
       <c r="J9" s="3">
-        <v>715700</v>
+        <v>734800</v>
       </c>
       <c r="K9" s="3">
         <v>708600</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>12442300</v>
+        <v>12774100</v>
       </c>
       <c r="E10" s="3">
-        <v>11999200</v>
+        <v>12319200</v>
       </c>
       <c r="F10" s="3">
-        <v>11487800</v>
+        <v>11794100</v>
       </c>
       <c r="G10" s="3">
-        <v>12741300</v>
+        <v>13081100</v>
       </c>
       <c r="H10" s="3">
-        <v>12049200</v>
+        <v>12370500</v>
       </c>
       <c r="I10" s="3">
-        <v>12483700</v>
+        <v>12816600</v>
       </c>
       <c r="J10" s="3">
-        <v>12103200</v>
+        <v>12425900</v>
       </c>
       <c r="K10" s="3">
         <v>11972600</v>
@@ -870,25 +870,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>255600</v>
+        <v>262500</v>
       </c>
       <c r="E12" s="3">
-        <v>260800</v>
+        <v>267700</v>
       </c>
       <c r="F12" s="3">
-        <v>264900</v>
+        <v>272000</v>
       </c>
       <c r="G12" s="3">
-        <v>293500</v>
+        <v>301300</v>
       </c>
       <c r="H12" s="3">
-        <v>290800</v>
+        <v>298500</v>
       </c>
       <c r="I12" s="3">
-        <v>296500</v>
+        <v>304400</v>
       </c>
       <c r="J12" s="3">
-        <v>258600</v>
+        <v>265500</v>
       </c>
       <c r="K12" s="3">
         <v>233700</v>
@@ -954,25 +954,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>12800</v>
+        <v>13100</v>
       </c>
       <c r="E14" s="3">
         <v>2400</v>
       </c>
       <c r="F14" s="3">
-        <v>150500</v>
+        <v>154500</v>
       </c>
       <c r="G14" s="3">
-        <v>50700</v>
+        <v>52100</v>
       </c>
       <c r="H14" s="3">
-        <v>194200</v>
+        <v>199400</v>
       </c>
       <c r="I14" s="3">
-        <v>51400</v>
+        <v>52800</v>
       </c>
       <c r="J14" s="3">
-        <v>18400</v>
+        <v>18900</v>
       </c>
       <c r="K14" s="3">
         <v>26500</v>
@@ -996,25 +996,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>2716000</v>
+        <v>2788400</v>
       </c>
       <c r="E15" s="3">
-        <v>2754400</v>
+        <v>2827900</v>
       </c>
       <c r="F15" s="3">
-        <v>2748500</v>
+        <v>2821800</v>
       </c>
       <c r="G15" s="3">
-        <v>2892500</v>
+        <v>2969600</v>
       </c>
       <c r="H15" s="3">
-        <v>2344600</v>
+        <v>2407100</v>
       </c>
       <c r="I15" s="3">
-        <v>2323100</v>
+        <v>2385000</v>
       </c>
       <c r="J15" s="3">
-        <v>2206400</v>
+        <v>2265300</v>
       </c>
       <c r="K15" s="3">
         <v>2105500</v>
@@ -1053,25 +1053,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>11782400</v>
+        <v>12096600</v>
       </c>
       <c r="E17" s="3">
-        <v>11523400</v>
+        <v>11830700</v>
       </c>
       <c r="F17" s="3">
-        <v>11279900</v>
+        <v>11580700</v>
       </c>
       <c r="G17" s="3">
-        <v>12525100</v>
+        <v>12859100</v>
       </c>
       <c r="H17" s="3">
-        <v>11948400</v>
+        <v>12267000</v>
       </c>
       <c r="I17" s="3">
-        <v>12039000</v>
+        <v>12360000</v>
       </c>
       <c r="J17" s="3">
-        <v>11685400</v>
+        <v>11997000</v>
       </c>
       <c r="K17" s="3">
         <v>11443800</v>
@@ -1095,25 +1095,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>1196300</v>
+        <v>1228200</v>
       </c>
       <c r="E18" s="3">
-        <v>1038000</v>
+        <v>1065700</v>
       </c>
       <c r="F18" s="3">
-        <v>785900</v>
+        <v>806900</v>
       </c>
       <c r="G18" s="3">
-        <v>780400</v>
+        <v>801200</v>
       </c>
       <c r="H18" s="3">
-        <v>707100</v>
+        <v>725900</v>
       </c>
       <c r="I18" s="3">
-        <v>1101000</v>
+        <v>1130400</v>
       </c>
       <c r="J18" s="3">
-        <v>1133400</v>
+        <v>1163700</v>
       </c>
       <c r="K18" s="3">
         <v>1237400</v>
@@ -1155,25 +1155,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-22900</v>
+        <v>-23500</v>
       </c>
       <c r="E20" s="3">
-        <v>460400</v>
+        <v>472700</v>
       </c>
       <c r="F20" s="3">
-        <v>109700</v>
+        <v>112700</v>
       </c>
       <c r="G20" s="3">
-        <v>394900</v>
+        <v>405400</v>
       </c>
       <c r="H20" s="3">
-        <v>2505400</v>
+        <v>2572200</v>
       </c>
       <c r="I20" s="3">
-        <v>1675700</v>
+        <v>1720400</v>
       </c>
       <c r="J20" s="3">
-        <v>656500</v>
+        <v>674000</v>
       </c>
       <c r="K20" s="3">
         <v>489000</v>
@@ -1197,25 +1197,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>3989800</v>
+        <v>4096200</v>
       </c>
       <c r="E21" s="3">
-        <v>4584200</v>
+        <v>4706500</v>
       </c>
       <c r="F21" s="3">
-        <v>4023100</v>
+        <v>4130400</v>
       </c>
       <c r="G21" s="3">
-        <v>4127200</v>
+        <v>4237300</v>
       </c>
       <c r="H21" s="3">
-        <v>5675700</v>
+        <v>5827100</v>
       </c>
       <c r="I21" s="3">
-        <v>5212400</v>
+        <v>5351400</v>
       </c>
       <c r="J21" s="3">
-        <v>4091400</v>
+        <v>4200500</v>
       </c>
       <c r="K21" s="3">
         <v>3911700</v>
@@ -1239,25 +1239,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>246200</v>
+        <v>252800</v>
       </c>
       <c r="E22" s="3">
-        <v>209800</v>
+        <v>215400</v>
       </c>
       <c r="F22" s="3">
-        <v>216700</v>
+        <v>222500</v>
       </c>
       <c r="G22" s="3">
-        <v>304600</v>
+        <v>312700</v>
       </c>
       <c r="H22" s="3">
-        <v>230500</v>
+        <v>236600</v>
       </c>
       <c r="I22" s="3">
-        <v>224300</v>
+        <v>230300</v>
       </c>
       <c r="J22" s="3">
-        <v>217800</v>
+        <v>223600</v>
       </c>
       <c r="K22" s="3">
         <v>220300</v>
@@ -1281,25 +1281,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>927100</v>
+        <v>951800</v>
       </c>
       <c r="E23" s="3">
-        <v>1288600</v>
+        <v>1323000</v>
       </c>
       <c r="F23" s="3">
-        <v>678900</v>
+        <v>697000</v>
       </c>
       <c r="G23" s="3">
-        <v>870800</v>
+        <v>894000</v>
       </c>
       <c r="H23" s="3">
-        <v>2982000</v>
+        <v>3061500</v>
       </c>
       <c r="I23" s="3">
-        <v>2552400</v>
+        <v>2620500</v>
       </c>
       <c r="J23" s="3">
-        <v>1572100</v>
+        <v>1614000</v>
       </c>
       <c r="K23" s="3">
         <v>1506200</v>
@@ -1323,25 +1323,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>216200</v>
+        <v>222000</v>
       </c>
       <c r="E24" s="3">
-        <v>335100</v>
+        <v>344000</v>
       </c>
       <c r="F24" s="3">
-        <v>165900</v>
+        <v>170400</v>
       </c>
       <c r="G24" s="3">
-        <v>225200</v>
+        <v>231200</v>
       </c>
       <c r="H24" s="3">
-        <v>633000</v>
+        <v>649900</v>
       </c>
       <c r="I24" s="3">
-        <v>559200</v>
+        <v>574200</v>
       </c>
       <c r="J24" s="3">
-        <v>327000</v>
+        <v>335700</v>
       </c>
       <c r="K24" s="3">
         <v>384400</v>
@@ -1407,25 +1407,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>710900</v>
+        <v>729800</v>
       </c>
       <c r="E26" s="3">
-        <v>953500</v>
+        <v>979000</v>
       </c>
       <c r="F26" s="3">
-        <v>513000</v>
+        <v>526600</v>
       </c>
       <c r="G26" s="3">
-        <v>645500</v>
+        <v>662800</v>
       </c>
       <c r="H26" s="3">
-        <v>2349000</v>
+        <v>2411600</v>
       </c>
       <c r="I26" s="3">
-        <v>1993200</v>
+        <v>2046300</v>
       </c>
       <c r="J26" s="3">
-        <v>1245100</v>
+        <v>1278300</v>
       </c>
       <c r="K26" s="3">
         <v>1121800</v>
@@ -1449,25 +1449,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>673200</v>
+        <v>691200</v>
       </c>
       <c r="E27" s="3">
-        <v>902100</v>
+        <v>926100</v>
       </c>
       <c r="F27" s="3">
-        <v>475400</v>
+        <v>488000</v>
       </c>
       <c r="G27" s="3">
-        <v>655400</v>
+        <v>672900</v>
       </c>
       <c r="H27" s="3">
-        <v>2334100</v>
+        <v>2396300</v>
       </c>
       <c r="I27" s="3">
-        <v>1937200</v>
+        <v>1988900</v>
       </c>
       <c r="J27" s="3">
-        <v>1244300</v>
+        <v>1277500</v>
       </c>
       <c r="K27" s="3">
         <v>1111300</v>
@@ -1536,10 +1536,10 @@
         <v>24</v>
       </c>
       <c r="E29" s="3">
-        <v>892500</v>
+        <v>916300</v>
       </c>
       <c r="F29" s="3">
-        <v>641800</v>
+        <v>658900</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>24</v>
@@ -1659,25 +1659,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>22900</v>
+        <v>23500</v>
       </c>
       <c r="E32" s="3">
-        <v>-460400</v>
+        <v>-472700</v>
       </c>
       <c r="F32" s="3">
-        <v>-109700</v>
+        <v>-112700</v>
       </c>
       <c r="G32" s="3">
-        <v>-394900</v>
+        <v>-405400</v>
       </c>
       <c r="H32" s="3">
-        <v>-2505400</v>
+        <v>-2572200</v>
       </c>
       <c r="I32" s="3">
-        <v>-1675700</v>
+        <v>-1720400</v>
       </c>
       <c r="J32" s="3">
-        <v>-656500</v>
+        <v>-674000</v>
       </c>
       <c r="K32" s="3">
         <v>-489000</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>673200</v>
+        <v>691200</v>
       </c>
       <c r="E33" s="3">
-        <v>1794600</v>
+        <v>1842400</v>
       </c>
       <c r="F33" s="3">
-        <v>1117200</v>
+        <v>1147000</v>
       </c>
       <c r="G33" s="3">
-        <v>655400</v>
+        <v>672900</v>
       </c>
       <c r="H33" s="3">
-        <v>2334100</v>
+        <v>2396300</v>
       </c>
       <c r="I33" s="3">
-        <v>1937200</v>
+        <v>1988900</v>
       </c>
       <c r="J33" s="3">
-        <v>1244300</v>
+        <v>1277500</v>
       </c>
       <c r="K33" s="3">
         <v>1111300</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>673200</v>
+        <v>691200</v>
       </c>
       <c r="E35" s="3">
-        <v>1794600</v>
+        <v>1842400</v>
       </c>
       <c r="F35" s="3">
-        <v>1117200</v>
+        <v>1147000</v>
       </c>
       <c r="G35" s="3">
-        <v>655400</v>
+        <v>672900</v>
       </c>
       <c r="H35" s="3">
-        <v>2334100</v>
+        <v>2396300</v>
       </c>
       <c r="I35" s="3">
-        <v>1937200</v>
+        <v>1988900</v>
       </c>
       <c r="J35" s="3">
-        <v>1244300</v>
+        <v>1277500</v>
       </c>
       <c r="K35" s="3">
         <v>1111300</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1411700</v>
+        <v>1449300</v>
       </c>
       <c r="E41" s="3">
-        <v>654500</v>
+        <v>672000</v>
       </c>
       <c r="F41" s="3">
-        <v>1027200</v>
+        <v>1054600</v>
       </c>
       <c r="G41" s="3">
-        <v>953100</v>
+        <v>978500</v>
       </c>
       <c r="H41" s="3">
-        <v>1130000</v>
+        <v>1160200</v>
       </c>
       <c r="I41" s="3">
-        <v>1093300</v>
+        <v>1122500</v>
       </c>
       <c r="J41" s="3">
-        <v>1128900</v>
+        <v>1159000</v>
       </c>
       <c r="K41" s="3">
         <v>569000</v>
@@ -1952,25 +1952,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>118300</v>
+        <v>121400</v>
       </c>
       <c r="E42" s="3">
-        <v>325600</v>
+        <v>334300</v>
       </c>
       <c r="F42" s="3">
-        <v>1109500</v>
+        <v>1139100</v>
       </c>
       <c r="G42" s="3">
-        <v>676700</v>
+        <v>694800</v>
       </c>
       <c r="H42" s="3">
-        <v>870900</v>
+        <v>894200</v>
       </c>
       <c r="I42" s="3">
-        <v>503500</v>
+        <v>516900</v>
       </c>
       <c r="J42" s="3">
-        <v>364400</v>
+        <v>374100</v>
       </c>
       <c r="K42" s="3">
         <v>518700</v>
@@ -1994,25 +1994,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1960600</v>
+        <v>2012900</v>
       </c>
       <c r="E43" s="3">
-        <v>1957700</v>
+        <v>2009900</v>
       </c>
       <c r="F43" s="3">
-        <v>2528400</v>
+        <v>2595900</v>
       </c>
       <c r="G43" s="3">
-        <v>2546800</v>
+        <v>2614700</v>
       </c>
       <c r="H43" s="3">
-        <v>2326300</v>
+        <v>2388300</v>
       </c>
       <c r="I43" s="3">
-        <v>2590200</v>
+        <v>2659300</v>
       </c>
       <c r="J43" s="3">
-        <v>2568100</v>
+        <v>2636600</v>
       </c>
       <c r="K43" s="3">
         <v>2281600</v>
@@ -2036,25 +2036,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>124800</v>
+        <v>128100</v>
       </c>
       <c r="E44" s="3">
-        <v>153500</v>
+        <v>157600</v>
       </c>
       <c r="F44" s="3">
-        <v>128600</v>
+        <v>132000</v>
       </c>
       <c r="G44" s="3">
-        <v>122200</v>
+        <v>125400</v>
       </c>
       <c r="H44" s="3">
-        <v>216000</v>
+        <v>221800</v>
       </c>
       <c r="I44" s="3">
-        <v>204300</v>
+        <v>209800</v>
       </c>
       <c r="J44" s="3">
-        <v>194900</v>
+        <v>200100</v>
       </c>
       <c r="K44" s="3">
         <v>202400</v>
@@ -2078,25 +2078,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1799000</v>
+        <v>1847000</v>
       </c>
       <c r="E45" s="3">
-        <v>1673200</v>
+        <v>1717800</v>
       </c>
       <c r="F45" s="3">
-        <v>1787600</v>
+        <v>1835300</v>
       </c>
       <c r="G45" s="3">
-        <v>1767600</v>
+        <v>1814800</v>
       </c>
       <c r="H45" s="3">
-        <v>1425800</v>
+        <v>1463900</v>
       </c>
       <c r="I45" s="3">
-        <v>260000</v>
+        <v>267000</v>
       </c>
       <c r="J45" s="3">
-        <v>241200</v>
+        <v>247600</v>
       </c>
       <c r="K45" s="3">
         <v>246900</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5414400</v>
+        <v>5558800</v>
       </c>
       <c r="E46" s="3">
-        <v>4764500</v>
+        <v>4891600</v>
       </c>
       <c r="F46" s="3">
-        <v>6581300</v>
+        <v>6756800</v>
       </c>
       <c r="G46" s="3">
-        <v>6066400</v>
+        <v>6228200</v>
       </c>
       <c r="H46" s="3">
-        <v>5969100</v>
+        <v>6128300</v>
       </c>
       <c r="I46" s="3">
-        <v>4651300</v>
+        <v>4775400</v>
       </c>
       <c r="J46" s="3">
-        <v>4497500</v>
+        <v>4617400</v>
       </c>
       <c r="K46" s="3">
         <v>3818600</v>
@@ -2162,25 +2162,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2823200</v>
+        <v>2898500</v>
       </c>
       <c r="E47" s="3">
-        <v>3194500</v>
+        <v>3279700</v>
       </c>
       <c r="F47" s="3">
-        <v>12336800</v>
+        <v>12665800</v>
       </c>
       <c r="G47" s="3">
-        <v>11031900</v>
+        <v>11326100</v>
       </c>
       <c r="H47" s="3">
-        <v>10376000</v>
+        <v>10652700</v>
       </c>
       <c r="I47" s="3">
-        <v>8082100</v>
+        <v>8297600</v>
       </c>
       <c r="J47" s="3">
-        <v>6336000</v>
+        <v>6505000</v>
       </c>
       <c r="K47" s="3">
         <v>6044600</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>10010700</v>
+        <v>10277700</v>
       </c>
       <c r="E48" s="3">
-        <v>9670700</v>
+        <v>9928600</v>
       </c>
       <c r="F48" s="3">
-        <v>10032800</v>
+        <v>10300300</v>
       </c>
       <c r="G48" s="3">
-        <v>9700100</v>
+        <v>9958800</v>
       </c>
       <c r="H48" s="3">
-        <v>8038800</v>
+        <v>8253100</v>
       </c>
       <c r="I48" s="3">
-        <v>7608700</v>
+        <v>7811600</v>
       </c>
       <c r="J48" s="3">
-        <v>7780700</v>
+        <v>7988100</v>
       </c>
       <c r="K48" s="3">
         <v>7685900</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4049900</v>
+        <v>4157900</v>
       </c>
       <c r="E49" s="3">
-        <v>4456700</v>
+        <v>4575500</v>
       </c>
       <c r="F49" s="3">
-        <v>5845300</v>
+        <v>6001200</v>
       </c>
       <c r="G49" s="3">
-        <v>5861700</v>
+        <v>6018000</v>
       </c>
       <c r="H49" s="3">
-        <v>6339100</v>
+        <v>6508100</v>
       </c>
       <c r="I49" s="3">
-        <v>4126500</v>
+        <v>4236500</v>
       </c>
       <c r="J49" s="3">
-        <v>4281600</v>
+        <v>4395800</v>
       </c>
       <c r="K49" s="3">
         <v>3117900</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1182900</v>
+        <v>1214500</v>
       </c>
       <c r="E52" s="3">
-        <v>1097000</v>
+        <v>1126300</v>
       </c>
       <c r="F52" s="3">
-        <v>1134000</v>
+        <v>1164200</v>
       </c>
       <c r="G52" s="3">
-        <v>1241700</v>
+        <v>1274800</v>
       </c>
       <c r="H52" s="3">
-        <v>1053900</v>
+        <v>1082000</v>
       </c>
       <c r="I52" s="3">
-        <v>602900</v>
+        <v>619000</v>
       </c>
       <c r="J52" s="3">
-        <v>577500</v>
+        <v>592900</v>
       </c>
       <c r="K52" s="3">
         <v>483200</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>23481200</v>
+        <v>24107400</v>
       </c>
       <c r="E54" s="3">
-        <v>23183500</v>
+        <v>23801700</v>
       </c>
       <c r="F54" s="3">
-        <v>35930200</v>
+        <v>36888400</v>
       </c>
       <c r="G54" s="3">
-        <v>33901800</v>
+        <v>34805800</v>
       </c>
       <c r="H54" s="3">
-        <v>31776800</v>
+        <v>32624200</v>
       </c>
       <c r="I54" s="3">
-        <v>25071500</v>
+        <v>25740100</v>
       </c>
       <c r="J54" s="3">
-        <v>23473200</v>
+        <v>24099200</v>
       </c>
       <c r="K54" s="3">
         <v>21150200</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>66900</v>
+        <v>68700</v>
       </c>
       <c r="E57" s="3">
-        <v>142900</v>
+        <v>146700</v>
       </c>
       <c r="F57" s="3">
-        <v>279700</v>
+        <v>287100</v>
       </c>
       <c r="G57" s="3">
-        <v>328700</v>
+        <v>337500</v>
       </c>
       <c r="H57" s="3">
-        <v>286000</v>
+        <v>293600</v>
       </c>
       <c r="I57" s="3">
-        <v>263800</v>
+        <v>270800</v>
       </c>
       <c r="J57" s="3">
-        <v>301800</v>
+        <v>309900</v>
       </c>
       <c r="K57" s="3">
         <v>207000</v>
@@ -2576,25 +2576,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1872800</v>
+        <v>1922700</v>
       </c>
       <c r="E58" s="3">
-        <v>1344700</v>
+        <v>1380500</v>
       </c>
       <c r="F58" s="3">
-        <v>1056900</v>
+        <v>1085100</v>
       </c>
       <c r="G58" s="3">
-        <v>1057300</v>
+        <v>1085400</v>
       </c>
       <c r="H58" s="3">
-        <v>798200</v>
+        <v>819500</v>
       </c>
       <c r="I58" s="3">
-        <v>1245700</v>
+        <v>1278900</v>
       </c>
       <c r="J58" s="3">
-        <v>668300</v>
+        <v>686100</v>
       </c>
       <c r="K58" s="3">
         <v>712700</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4095200</v>
+        <v>4204400</v>
       </c>
       <c r="E59" s="3">
-        <v>3732700</v>
+        <v>3832300</v>
       </c>
       <c r="F59" s="3">
-        <v>4796900</v>
+        <v>4924800</v>
       </c>
       <c r="G59" s="3">
-        <v>4502800</v>
+        <v>4622900</v>
       </c>
       <c r="H59" s="3">
-        <v>4051500</v>
+        <v>4159500</v>
       </c>
       <c r="I59" s="3">
-        <v>3822300</v>
+        <v>3924300</v>
       </c>
       <c r="J59" s="3">
-        <v>3862900</v>
+        <v>3965900</v>
       </c>
       <c r="K59" s="3">
         <v>2970100</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6034900</v>
+        <v>6195800</v>
       </c>
       <c r="E60" s="3">
-        <v>5220300</v>
+        <v>5359500</v>
       </c>
       <c r="F60" s="3">
-        <v>6133500</v>
+        <v>6297000</v>
       </c>
       <c r="G60" s="3">
-        <v>5888800</v>
+        <v>6045800</v>
       </c>
       <c r="H60" s="3">
-        <v>5135700</v>
+        <v>5272600</v>
       </c>
       <c r="I60" s="3">
-        <v>5331800</v>
+        <v>5474000</v>
       </c>
       <c r="J60" s="3">
-        <v>4833100</v>
+        <v>4962000</v>
       </c>
       <c r="K60" s="3">
         <v>3889800</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6440900</v>
+        <v>6612600</v>
       </c>
       <c r="E61" s="3">
-        <v>6431400</v>
+        <v>6603000</v>
       </c>
       <c r="F61" s="3">
-        <v>8059700</v>
+        <v>8274600</v>
       </c>
       <c r="G61" s="3">
-        <v>7609000</v>
+        <v>7811900</v>
       </c>
       <c r="H61" s="3">
-        <v>6440700</v>
+        <v>6612400</v>
       </c>
       <c r="I61" s="3">
-        <v>4356000</v>
+        <v>4472200</v>
       </c>
       <c r="J61" s="3">
-        <v>4859000</v>
+        <v>4988600</v>
       </c>
       <c r="K61" s="3">
         <v>4854900</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1889000</v>
+        <v>1939400</v>
       </c>
       <c r="E62" s="3">
-        <v>2280300</v>
+        <v>2341100</v>
       </c>
       <c r="F62" s="3">
-        <v>3439900</v>
+        <v>3531600</v>
       </c>
       <c r="G62" s="3">
-        <v>3291300</v>
+        <v>3379100</v>
       </c>
       <c r="H62" s="3">
-        <v>3438500</v>
+        <v>3530200</v>
       </c>
       <c r="I62" s="3">
-        <v>1861700</v>
+        <v>1911400</v>
       </c>
       <c r="J62" s="3">
-        <v>1693900</v>
+        <v>1739000</v>
       </c>
       <c r="K62" s="3">
         <v>1028700</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>14992500</v>
+        <v>15392300</v>
       </c>
       <c r="E66" s="3">
-        <v>14498900</v>
+        <v>14885600</v>
       </c>
       <c r="F66" s="3">
-        <v>18122300</v>
+        <v>18605600</v>
       </c>
       <c r="G66" s="3">
-        <v>16689100</v>
+        <v>17134100</v>
       </c>
       <c r="H66" s="3">
-        <v>14923700</v>
+        <v>15321700</v>
       </c>
       <c r="I66" s="3">
-        <v>11689900</v>
+        <v>12001600</v>
       </c>
       <c r="J66" s="3">
-        <v>11494700</v>
+        <v>11801200</v>
       </c>
       <c r="K66" s="3">
         <v>9864400</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>16847800</v>
+        <v>17297100</v>
       </c>
       <c r="E72" s="3">
-        <v>16828000</v>
+        <v>17276800</v>
       </c>
       <c r="F72" s="3">
-        <v>17236400</v>
+        <v>17696100</v>
       </c>
       <c r="G72" s="3">
-        <v>16671500</v>
+        <v>17116100</v>
       </c>
       <c r="H72" s="3">
-        <v>16608400</v>
+        <v>17051300</v>
       </c>
       <c r="I72" s="3">
-        <v>13377000</v>
+        <v>13733700</v>
       </c>
       <c r="J72" s="3">
-        <v>11964900</v>
+        <v>12283900</v>
       </c>
       <c r="K72" s="3">
         <v>11105600</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8488700</v>
+        <v>8715100</v>
       </c>
       <c r="E76" s="3">
-        <v>8684500</v>
+        <v>8916100</v>
       </c>
       <c r="F76" s="3">
-        <v>17807900</v>
+        <v>18282800</v>
       </c>
       <c r="G76" s="3">
-        <v>17212700</v>
+        <v>17671700</v>
       </c>
       <c r="H76" s="3">
-        <v>16853100</v>
+        <v>17302500</v>
       </c>
       <c r="I76" s="3">
-        <v>13381600</v>
+        <v>13738400</v>
       </c>
       <c r="J76" s="3">
-        <v>11978500</v>
+        <v>12298000</v>
       </c>
       <c r="K76" s="3">
         <v>11285800</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>673200</v>
+        <v>691200</v>
       </c>
       <c r="E81" s="3">
-        <v>1794600</v>
+        <v>1842400</v>
       </c>
       <c r="F81" s="3">
-        <v>1117200</v>
+        <v>1147000</v>
       </c>
       <c r="G81" s="3">
-        <v>655400</v>
+        <v>672900</v>
       </c>
       <c r="H81" s="3">
-        <v>2334100</v>
+        <v>2396300</v>
       </c>
       <c r="I81" s="3">
-        <v>1937200</v>
+        <v>1988900</v>
       </c>
       <c r="J81" s="3">
-        <v>1244300</v>
+        <v>1277500</v>
       </c>
       <c r="K81" s="3">
         <v>1111300</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2816500</v>
+        <v>2891600</v>
       </c>
       <c r="E83" s="3">
-        <v>3085800</v>
+        <v>3168100</v>
       </c>
       <c r="F83" s="3">
-        <v>3127500</v>
+        <v>3210900</v>
       </c>
       <c r="G83" s="3">
-        <v>2951900</v>
+        <v>3030600</v>
       </c>
       <c r="H83" s="3">
-        <v>2463300</v>
+        <v>2528900</v>
       </c>
       <c r="I83" s="3">
-        <v>2435600</v>
+        <v>2500600</v>
       </c>
       <c r="J83" s="3">
-        <v>2301400</v>
+        <v>2362800</v>
       </c>
       <c r="K83" s="3">
         <v>2215200</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3869500</v>
+        <v>3972700</v>
       </c>
       <c r="E89" s="3">
-        <v>3773500</v>
+        <v>3874100</v>
       </c>
       <c r="F89" s="3">
-        <v>4366400</v>
+        <v>4482800</v>
       </c>
       <c r="G89" s="3">
-        <v>2989600</v>
+        <v>3069300</v>
       </c>
       <c r="H89" s="3">
-        <v>3249400</v>
+        <v>3336100</v>
       </c>
       <c r="I89" s="3">
-        <v>2891900</v>
+        <v>2969000</v>
       </c>
       <c r="J89" s="3">
-        <v>3182400</v>
+        <v>3267200</v>
       </c>
       <c r="K89" s="3">
         <v>2795800</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2181200</v>
+        <v>-2239400</v>
       </c>
       <c r="E91" s="3">
-        <v>-2186900</v>
+        <v>-2245200</v>
       </c>
       <c r="F91" s="3">
-        <v>-2668400</v>
+        <v>-2739500</v>
       </c>
       <c r="G91" s="3">
-        <v>-2531900</v>
+        <v>-2599400</v>
       </c>
       <c r="H91" s="3">
-        <v>-2094300</v>
+        <v>-2150100</v>
       </c>
       <c r="I91" s="3">
-        <v>-2036900</v>
+        <v>-2091200</v>
       </c>
       <c r="J91" s="3">
-        <v>-1867800</v>
+        <v>-1917700</v>
       </c>
       <c r="K91" s="3">
         <v>-1834300</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2105800</v>
+        <v>-2162000</v>
       </c>
       <c r="E94" s="3">
-        <v>-2614600</v>
+        <v>-2684400</v>
       </c>
       <c r="F94" s="3">
-        <v>-3187800</v>
+        <v>-3272800</v>
       </c>
       <c r="G94" s="3">
-        <v>-2686900</v>
+        <v>-2758500</v>
       </c>
       <c r="H94" s="3">
-        <v>-3035800</v>
+        <v>-3116700</v>
       </c>
       <c r="I94" s="3">
-        <v>-2303000</v>
+        <v>-2364400</v>
       </c>
       <c r="J94" s="3">
-        <v>-1846700</v>
+        <v>-1895900</v>
       </c>
       <c r="K94" s="3">
         <v>-2131600</v>
@@ -3997,25 +3997,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-678000</v>
+        <v>-696100</v>
       </c>
       <c r="E96" s="3">
-        <v>-771400</v>
+        <v>-792000</v>
       </c>
       <c r="F96" s="3">
-        <v>-556600</v>
+        <v>-571400</v>
       </c>
       <c r="G96" s="3">
-        <v>-539000</v>
+        <v>-553400</v>
       </c>
       <c r="H96" s="3">
-        <v>-529600</v>
+        <v>-543700</v>
       </c>
       <c r="I96" s="3">
-        <v>-529600</v>
+        <v>-543700</v>
       </c>
       <c r="J96" s="3">
-        <v>-529600</v>
+        <v>-543700</v>
       </c>
       <c r="K96" s="3">
         <v>-494700</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1012400</v>
+        <v>-1039400</v>
       </c>
       <c r="E100" s="3">
-        <v>-1540200</v>
+        <v>-1581300</v>
       </c>
       <c r="F100" s="3">
-        <v>-1093200</v>
+        <v>-1122300</v>
       </c>
       <c r="G100" s="3">
-        <v>-477600</v>
+        <v>-490400</v>
       </c>
       <c r="H100" s="3">
-        <v>-178700</v>
+        <v>-183500</v>
       </c>
       <c r="I100" s="3">
-        <v>-620000</v>
+        <v>-636500</v>
       </c>
       <c r="J100" s="3">
-        <v>-783600</v>
+        <v>-804500</v>
       </c>
       <c r="K100" s="3">
         <v>-713800</v>
@@ -4207,22 +4207,22 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>5900</v>
+        <v>6100</v>
       </c>
       <c r="E101" s="3">
-        <v>8700</v>
+        <v>8900</v>
       </c>
       <c r="F101" s="3">
-        <v>-11300</v>
+        <v>-11600</v>
       </c>
       <c r="G101" s="3">
         <v>-2000</v>
       </c>
       <c r="H101" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="I101" s="3">
-        <v>-4600</v>
+        <v>-4700</v>
       </c>
       <c r="J101" s="3">
         <v>100</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>757200</v>
+        <v>777400</v>
       </c>
       <c r="E102" s="3">
-        <v>-372700</v>
+        <v>-382600</v>
       </c>
       <c r="F102" s="3">
-        <v>74100</v>
+        <v>76100</v>
       </c>
       <c r="G102" s="3">
-        <v>-176900</v>
+        <v>-181600</v>
       </c>
       <c r="H102" s="3">
-        <v>36700</v>
+        <v>37700</v>
       </c>
       <c r="I102" s="3">
-        <v>-35600</v>
+        <v>-36600</v>
       </c>
       <c r="J102" s="3">
-        <v>552200</v>
+        <v>567000</v>
       </c>
       <c r="K102" s="3">
         <v>-48500</v>
